--- a/Civilworks cost/Expenditure_2017_18/Chcek/Cost Calculation 19-20 RADP Target(5).xlsx
+++ b/Civilworks cost/Expenditure_2017_18/Chcek/Cost Calculation 19-20 RADP Target(5).xlsx
@@ -3601,17 +3601,17 @@
   <dimension ref="A1:CK115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="AP5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="BY27" sqref="BY27"/>
+      <selection pane="bottomRight" activeCell="AJ30" sqref="AJ30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="214" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" style="214" customWidth="1"/>
+    <col min="2" max="2" width="59.109375" style="214" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="214" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="214" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="7.44140625" style="214" hidden="1" customWidth="1"/>
@@ -3639,20 +3639,20 @@
     <col min="28" max="28" width="7.6640625" style="216" hidden="1" customWidth="1"/>
     <col min="29" max="30" width="7.44140625" style="216" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="8.5546875" style="216" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="8.88671875" style="283" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="8" style="283" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="7.6640625" style="283" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="8" style="283" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="8.5546875" style="283" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="8.88671875" style="283" customWidth="1"/>
+    <col min="33" max="33" width="8" style="283" customWidth="1"/>
+    <col min="34" max="34" width="7.6640625" style="283" customWidth="1"/>
+    <col min="35" max="35" width="8" style="283" customWidth="1"/>
+    <col min="36" max="36" width="8.5546875" style="283" customWidth="1"/>
     <col min="37" max="37" width="8.33203125" style="214" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="7.6640625" style="216" hidden="1" customWidth="1"/>
     <col min="39" max="40" width="7.44140625" style="216" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="8.5546875" style="216" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="8.88671875" style="283" customWidth="1"/>
-    <col min="43" max="43" width="8" style="283" customWidth="1"/>
-    <col min="44" max="44" width="8.5546875" style="283" customWidth="1"/>
-    <col min="45" max="45" width="7.109375" style="283" customWidth="1"/>
-    <col min="46" max="46" width="8.5546875" style="448" customWidth="1"/>
+    <col min="42" max="42" width="8.88671875" style="283" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="8" style="283" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="8.5546875" style="283" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="7.109375" style="283" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="8.5546875" style="448" hidden="1" customWidth="1"/>
     <col min="47" max="47" width="9.109375" style="216" hidden="1" customWidth="1"/>
     <col min="48" max="48" width="9.33203125" style="216" hidden="1" customWidth="1"/>
     <col min="49" max="50" width="8.33203125" style="214" hidden="1" customWidth="1"/>
@@ -7970,7 +7970,7 @@
         <v>7.8567302137492773E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:78" s="232" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:78" s="232" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="489"/>
       <c r="B29" s="46" t="s">
         <v>25</v>
@@ -8183,7 +8183,7 @@
         <v>4.6943169044942751E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:78" s="232" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:78" s="232" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="489"/>
       <c r="B30" s="46" t="s">
         <v>26</v>
@@ -12680,7 +12680,7 @@
         <v>50.22</v>
       </c>
     </row>
-    <row r="57" spans="1:71" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A57" s="258">
         <v>6809</v>
       </c>
@@ -13469,7 +13469,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="62" spans="1:71" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A62" s="486"/>
       <c r="B62" s="46" t="s">
         <v>53</v>
@@ -13792,7 +13792,7 @@
         <v>19.47</v>
       </c>
     </row>
-    <row r="64" spans="1:71" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:71" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A64" s="486"/>
       <c r="B64" s="46" t="s">
         <v>55</v>
@@ -14613,7 +14613,7 @@
         <v>12.72</v>
       </c>
     </row>
-    <row r="69" spans="1:71" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A69" s="260">
         <v>6900</v>
       </c>
@@ -15429,7 +15429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:71" s="463" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:71" s="463" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A76" s="464">
         <v>7041</v>
       </c>
@@ -15926,7 +15926,7 @@
       <c r="BR78" s="238"/>
       <c r="BS78" s="239"/>
     </row>
-    <row r="79" spans="1:71" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:71" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A79" s="258">
         <v>7081</v>
       </c>
@@ -16240,7 +16240,7 @@
         <v>706.11</v>
       </c>
     </row>
-    <row r="81" spans="1:71" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:71" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A81" s="258">
         <v>7081</v>
       </c>

--- a/Civilworks cost/Expenditure_2017_18/Chcek/Cost Calculation 19-20 RADP Target(5).xlsx
+++ b/Civilworks cost/Expenditure_2017_18/Chcek/Cost Calculation 19-20 RADP Target(5).xlsx
@@ -3019,6 +3019,27 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3026,9 +3047,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3043,13 +3061,19 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3067,15 +3091,16 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3085,88 +3110,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3187,37 +3130,70 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3235,15 +3211,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3252,6 +3219,39 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3601,11 +3601,11 @@
   <dimension ref="A1:CK115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="AA23" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="AJ30" sqref="AJ30"/>
+      <selection pane="bottomRight" activeCell="BY4" sqref="BY4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3635,10 +3635,10 @@
     <col min="24" max="24" width="7.6640625" style="283" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="7.44140625" style="283" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="8.5546875" style="283" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="8.33203125" style="214" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="7.6640625" style="216" hidden="1" customWidth="1"/>
-    <col min="29" max="30" width="7.44140625" style="216" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="8.5546875" style="216" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="8.33203125" style="214" customWidth="1"/>
+    <col min="28" max="28" width="7.6640625" style="216" customWidth="1"/>
+    <col min="29" max="30" width="7.44140625" style="216" customWidth="1"/>
+    <col min="31" max="31" width="8.5546875" style="216" customWidth="1"/>
     <col min="32" max="32" width="8.88671875" style="283" customWidth="1"/>
     <col min="33" max="33" width="8" style="283" customWidth="1"/>
     <col min="34" max="34" width="7.6640625" style="283" customWidth="1"/>
@@ -3744,266 +3744,266 @@
       <c r="CK1" s="406"/>
     </row>
     <row r="2" spans="1:89" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="490" t="s">
+      <c r="A2" s="477" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="490" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="475" t="s">
+      <c r="B2" s="477" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="476" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="475"/>
-      <c r="E2" s="475"/>
-      <c r="F2" s="475"/>
-      <c r="G2" s="501" t="s">
+      <c r="D2" s="476"/>
+      <c r="E2" s="476"/>
+      <c r="F2" s="476"/>
+      <c r="G2" s="472" t="s">
         <v>227</v>
       </c>
-      <c r="H2" s="502"/>
-      <c r="I2" s="502"/>
-      <c r="J2" s="502"/>
-      <c r="K2" s="503"/>
-      <c r="L2" s="483" t="s">
+      <c r="H2" s="473"/>
+      <c r="I2" s="473"/>
+      <c r="J2" s="473"/>
+      <c r="K2" s="474"/>
+      <c r="L2" s="491" t="s">
         <v>169</v>
       </c>
-      <c r="M2" s="484"/>
-      <c r="N2" s="484"/>
-      <c r="O2" s="484"/>
-      <c r="P2" s="485"/>
-      <c r="Q2" s="475" t="s">
+      <c r="M2" s="492"/>
+      <c r="N2" s="492"/>
+      <c r="O2" s="492"/>
+      <c r="P2" s="493"/>
+      <c r="Q2" s="476" t="s">
         <v>170</v>
       </c>
-      <c r="R2" s="475"/>
-      <c r="S2" s="475"/>
-      <c r="T2" s="475"/>
-      <c r="U2" s="475"/>
-      <c r="V2" s="483" t="s">
+      <c r="R2" s="476"/>
+      <c r="S2" s="476"/>
+      <c r="T2" s="476"/>
+      <c r="U2" s="476"/>
+      <c r="V2" s="491" t="s">
         <v>172</v>
       </c>
-      <c r="W2" s="484"/>
-      <c r="X2" s="484"/>
-      <c r="Y2" s="484"/>
-      <c r="Z2" s="485"/>
-      <c r="AA2" s="475" t="s">
+      <c r="W2" s="492"/>
+      <c r="X2" s="492"/>
+      <c r="Y2" s="492"/>
+      <c r="Z2" s="493"/>
+      <c r="AA2" s="476" t="s">
         <v>173</v>
       </c>
-      <c r="AB2" s="475"/>
-      <c r="AC2" s="475"/>
-      <c r="AD2" s="475"/>
-      <c r="AE2" s="475"/>
-      <c r="AF2" s="483" t="s">
+      <c r="AB2" s="476"/>
+      <c r="AC2" s="476"/>
+      <c r="AD2" s="476"/>
+      <c r="AE2" s="476"/>
+      <c r="AF2" s="491" t="s">
         <v>171</v>
       </c>
-      <c r="AG2" s="484"/>
-      <c r="AH2" s="484"/>
-      <c r="AI2" s="484"/>
-      <c r="AJ2" s="485"/>
-      <c r="AK2" s="475" t="s">
+      <c r="AG2" s="492"/>
+      <c r="AH2" s="492"/>
+      <c r="AI2" s="492"/>
+      <c r="AJ2" s="493"/>
+      <c r="AK2" s="476" t="s">
         <v>112</v>
       </c>
-      <c r="AL2" s="475"/>
-      <c r="AM2" s="475"/>
-      <c r="AN2" s="475"/>
-      <c r="AO2" s="475"/>
-      <c r="AP2" s="483" t="s">
+      <c r="AL2" s="476"/>
+      <c r="AM2" s="476"/>
+      <c r="AN2" s="476"/>
+      <c r="AO2" s="476"/>
+      <c r="AP2" s="491" t="s">
         <v>116</v>
       </c>
-      <c r="AQ2" s="484"/>
-      <c r="AR2" s="484"/>
-      <c r="AS2" s="484"/>
-      <c r="AT2" s="485"/>
-      <c r="AU2" s="475" t="s">
+      <c r="AQ2" s="492"/>
+      <c r="AR2" s="492"/>
+      <c r="AS2" s="492"/>
+      <c r="AT2" s="493"/>
+      <c r="AU2" s="476" t="s">
         <v>174</v>
       </c>
-      <c r="AV2" s="475"/>
-      <c r="AW2" s="475"/>
-      <c r="AX2" s="475"/>
-      <c r="AY2" s="475"/>
-      <c r="AZ2" s="472" t="s">
+      <c r="AV2" s="476"/>
+      <c r="AW2" s="476"/>
+      <c r="AX2" s="476"/>
+      <c r="AY2" s="476"/>
+      <c r="AZ2" s="479" t="s">
         <v>143</v>
       </c>
-      <c r="BA2" s="473"/>
-      <c r="BB2" s="473"/>
-      <c r="BC2" s="473"/>
-      <c r="BD2" s="474"/>
-      <c r="BE2" s="475" t="s">
+      <c r="BA2" s="480"/>
+      <c r="BB2" s="480"/>
+      <c r="BC2" s="480"/>
+      <c r="BD2" s="481"/>
+      <c r="BE2" s="476" t="s">
         <v>175</v>
       </c>
-      <c r="BF2" s="475"/>
-      <c r="BG2" s="475"/>
-      <c r="BH2" s="475"/>
-      <c r="BI2" s="475"/>
-      <c r="BJ2" s="472" t="s">
+      <c r="BF2" s="476"/>
+      <c r="BG2" s="476"/>
+      <c r="BH2" s="476"/>
+      <c r="BI2" s="476"/>
+      <c r="BJ2" s="479" t="s">
         <v>223</v>
       </c>
-      <c r="BK2" s="473"/>
-      <c r="BL2" s="473"/>
-      <c r="BM2" s="473"/>
-      <c r="BN2" s="474"/>
-      <c r="BO2" s="475" t="s">
+      <c r="BK2" s="480"/>
+      <c r="BL2" s="480"/>
+      <c r="BM2" s="480"/>
+      <c r="BN2" s="481"/>
+      <c r="BO2" s="476" t="s">
         <v>224</v>
       </c>
-      <c r="BP2" s="475"/>
-      <c r="BQ2" s="475"/>
-      <c r="BR2" s="475"/>
-      <c r="BS2" s="475"/>
+      <c r="BP2" s="476"/>
+      <c r="BQ2" s="476"/>
+      <c r="BR2" s="476"/>
+      <c r="BS2" s="476"/>
     </row>
     <row r="3" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A3" s="490"/>
-      <c r="B3" s="490"/>
-      <c r="C3" s="490" t="s">
+      <c r="A3" s="477"/>
+      <c r="B3" s="477"/>
+      <c r="C3" s="477" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="490" t="s">
+      <c r="D3" s="477" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="490"/>
-      <c r="F3" s="490" t="s">
+      <c r="E3" s="477"/>
+      <c r="F3" s="477" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="480" t="s">
+      <c r="G3" s="475" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="491" t="s">
+      <c r="H3" s="496" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="491" t="s">
+      <c r="I3" s="496" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="491"/>
-      <c r="K3" s="491" t="s">
+      <c r="J3" s="496"/>
+      <c r="K3" s="496" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="480" t="s">
+      <c r="L3" s="475" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="481" t="s">
+      <c r="M3" s="486" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="481"/>
-      <c r="O3" s="481"/>
-      <c r="P3" s="481"/>
-      <c r="Q3" s="497" t="s">
+      <c r="N3" s="486"/>
+      <c r="O3" s="486"/>
+      <c r="P3" s="486"/>
+      <c r="Q3" s="488" t="s">
         <v>87</v>
       </c>
-      <c r="R3" s="498" t="s">
+      <c r="R3" s="489" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="498"/>
-      <c r="T3" s="498"/>
-      <c r="U3" s="498"/>
-      <c r="V3" s="480" t="s">
+      <c r="S3" s="489"/>
+      <c r="T3" s="489"/>
+      <c r="U3" s="489"/>
+      <c r="V3" s="475" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="481" t="s">
+      <c r="W3" s="486" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="481"/>
-      <c r="Y3" s="481"/>
-      <c r="Z3" s="481"/>
-      <c r="AA3" s="478" t="s">
+      <c r="X3" s="486"/>
+      <c r="Y3" s="486"/>
+      <c r="Z3" s="486"/>
+      <c r="AA3" s="484" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" s="479" t="s">
+      <c r="AB3" s="485" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" s="479"/>
-      <c r="AD3" s="479"/>
-      <c r="AE3" s="479"/>
-      <c r="AF3" s="480" t="s">
+      <c r="AC3" s="485"/>
+      <c r="AD3" s="485"/>
+      <c r="AE3" s="485"/>
+      <c r="AF3" s="475" t="s">
         <v>87</v>
       </c>
-      <c r="AG3" s="481" t="s">
+      <c r="AG3" s="486" t="s">
         <v>86</v>
       </c>
-      <c r="AH3" s="481"/>
-      <c r="AI3" s="481"/>
-      <c r="AJ3" s="481"/>
-      <c r="AK3" s="478" t="s">
+      <c r="AH3" s="486"/>
+      <c r="AI3" s="486"/>
+      <c r="AJ3" s="486"/>
+      <c r="AK3" s="484" t="s">
         <v>87</v>
       </c>
-      <c r="AL3" s="479" t="s">
+      <c r="AL3" s="485" t="s">
         <v>86</v>
       </c>
-      <c r="AM3" s="479"/>
-      <c r="AN3" s="479"/>
-      <c r="AO3" s="479"/>
-      <c r="AP3" s="480" t="s">
+      <c r="AM3" s="485"/>
+      <c r="AN3" s="485"/>
+      <c r="AO3" s="485"/>
+      <c r="AP3" s="475" t="s">
         <v>87</v>
       </c>
-      <c r="AQ3" s="481" t="s">
+      <c r="AQ3" s="486" t="s">
         <v>86</v>
       </c>
-      <c r="AR3" s="481"/>
-      <c r="AS3" s="481"/>
-      <c r="AT3" s="481"/>
-      <c r="AU3" s="478" t="s">
+      <c r="AR3" s="486"/>
+      <c r="AS3" s="486"/>
+      <c r="AT3" s="486"/>
+      <c r="AU3" s="484" t="s">
         <v>87</v>
       </c>
-      <c r="AV3" s="479" t="s">
+      <c r="AV3" s="485" t="s">
         <v>86</v>
       </c>
-      <c r="AW3" s="479"/>
-      <c r="AX3" s="479"/>
-      <c r="AY3" s="479"/>
-      <c r="AZ3" s="476" t="s">
+      <c r="AW3" s="485"/>
+      <c r="AX3" s="485"/>
+      <c r="AY3" s="485"/>
+      <c r="AZ3" s="482" t="s">
         <v>87</v>
       </c>
-      <c r="BA3" s="477" t="s">
+      <c r="BA3" s="483" t="s">
         <v>86</v>
       </c>
-      <c r="BB3" s="477"/>
-      <c r="BC3" s="477"/>
-      <c r="BD3" s="477"/>
-      <c r="BE3" s="478" t="s">
+      <c r="BB3" s="483"/>
+      <c r="BC3" s="483"/>
+      <c r="BD3" s="483"/>
+      <c r="BE3" s="484" t="s">
         <v>87</v>
       </c>
-      <c r="BF3" s="479" t="s">
+      <c r="BF3" s="485" t="s">
         <v>86</v>
       </c>
-      <c r="BG3" s="479"/>
-      <c r="BH3" s="479"/>
-      <c r="BI3" s="479"/>
-      <c r="BJ3" s="476" t="s">
+      <c r="BG3" s="485"/>
+      <c r="BH3" s="485"/>
+      <c r="BI3" s="485"/>
+      <c r="BJ3" s="482" t="s">
         <v>87</v>
       </c>
-      <c r="BK3" s="477" t="s">
+      <c r="BK3" s="483" t="s">
         <v>86</v>
       </c>
-      <c r="BL3" s="477"/>
-      <c r="BM3" s="477"/>
-      <c r="BN3" s="477"/>
-      <c r="BO3" s="478" t="s">
+      <c r="BL3" s="483"/>
+      <c r="BM3" s="483"/>
+      <c r="BN3" s="483"/>
+      <c r="BO3" s="484" t="s">
         <v>87</v>
       </c>
-      <c r="BP3" s="479" t="s">
+      <c r="BP3" s="485" t="s">
         <v>86</v>
       </c>
-      <c r="BQ3" s="479"/>
-      <c r="BR3" s="479"/>
-      <c r="BS3" s="479"/>
+      <c r="BQ3" s="485"/>
+      <c r="BR3" s="485"/>
+      <c r="BS3" s="485"/>
     </row>
     <row r="4" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A4" s="490"/>
-      <c r="B4" s="490"/>
-      <c r="C4" s="490"/>
+      <c r="A4" s="477"/>
+      <c r="B4" s="477"/>
+      <c r="C4" s="477"/>
       <c r="D4" s="386" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="386" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="490"/>
-      <c r="G4" s="480"/>
-      <c r="H4" s="491"/>
+      <c r="F4" s="477"/>
+      <c r="G4" s="475"/>
+      <c r="H4" s="496"/>
       <c r="I4" s="108" t="s">
         <v>76</v>
       </c>
       <c r="J4" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="491"/>
-      <c r="L4" s="480"/>
+      <c r="K4" s="496"/>
+      <c r="L4" s="475"/>
       <c r="M4" s="219" t="s">
         <v>111</v>
       </c>
@@ -4016,7 +4016,7 @@
       <c r="P4" s="219" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="497"/>
+      <c r="Q4" s="488"/>
       <c r="R4" s="220" t="s">
         <v>111</v>
       </c>
@@ -4029,7 +4029,7 @@
       <c r="U4" s="220" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="480"/>
+      <c r="V4" s="475"/>
       <c r="W4" s="219" t="s">
         <v>111</v>
       </c>
@@ -4042,7 +4042,7 @@
       <c r="Z4" s="219" t="s">
         <v>75</v>
       </c>
-      <c r="AA4" s="478"/>
+      <c r="AA4" s="484"/>
       <c r="AB4" s="221" t="s">
         <v>111</v>
       </c>
@@ -4055,7 +4055,7 @@
       <c r="AE4" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="AF4" s="480"/>
+      <c r="AF4" s="475"/>
       <c r="AG4" s="219" t="s">
         <v>111</v>
       </c>
@@ -4068,7 +4068,7 @@
       <c r="AJ4" s="219" t="s">
         <v>75</v>
       </c>
-      <c r="AK4" s="478"/>
+      <c r="AK4" s="484"/>
       <c r="AL4" s="221" t="s">
         <v>111</v>
       </c>
@@ -4081,7 +4081,7 @@
       <c r="AO4" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="AP4" s="480"/>
+      <c r="AP4" s="475"/>
       <c r="AQ4" s="219" t="s">
         <v>111</v>
       </c>
@@ -4094,7 +4094,7 @@
       <c r="AT4" s="449" t="s">
         <v>75</v>
       </c>
-      <c r="AU4" s="478"/>
+      <c r="AU4" s="484"/>
       <c r="AV4" s="221" t="s">
         <v>111</v>
       </c>
@@ -4107,7 +4107,7 @@
       <c r="AY4" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="AZ4" s="476"/>
+      <c r="AZ4" s="482"/>
       <c r="BA4" s="195" t="s">
         <v>111</v>
       </c>
@@ -4120,7 +4120,7 @@
       <c r="BD4" s="195" t="s">
         <v>75</v>
       </c>
-      <c r="BE4" s="478"/>
+      <c r="BE4" s="484"/>
       <c r="BF4" s="221" t="s">
         <v>111</v>
       </c>
@@ -4133,7 +4133,7 @@
       <c r="BI4" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="BJ4" s="476"/>
+      <c r="BJ4" s="482"/>
       <c r="BK4" s="360" t="s">
         <v>111</v>
       </c>
@@ -4146,7 +4146,7 @@
       <c r="BN4" s="360" t="s">
         <v>75</v>
       </c>
-      <c r="BO4" s="478"/>
+      <c r="BO4" s="484"/>
       <c r="BP4" s="356" t="s">
         <v>111</v>
       </c>
@@ -4161,10 +4161,10 @@
       </c>
     </row>
     <row r="5" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A5" s="488" t="s">
+      <c r="A5" s="499" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="488"/>
+      <c r="B5" s="499"/>
       <c r="C5" s="217"/>
       <c r="D5" s="217"/>
       <c r="E5" s="222"/>
@@ -7572,7 +7572,7 @@
       </c>
     </row>
     <row r="26" spans="1:78" s="232" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="489">
+      <c r="A26" s="500">
         <v>4840</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -7652,7 +7652,7 @@
       <c r="BS26" s="239"/>
     </row>
     <row r="27" spans="1:78" s="232" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="489"/>
+      <c r="A27" s="500"/>
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -7758,7 +7758,7 @@
       <c r="BS27" s="239"/>
     </row>
     <row r="28" spans="1:78" s="232" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="489"/>
+      <c r="A28" s="500"/>
       <c r="B28" s="46" t="s">
         <v>24</v>
       </c>
@@ -7971,7 +7971,7 @@
       </c>
     </row>
     <row r="29" spans="1:78" s="232" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="489"/>
+      <c r="A29" s="500"/>
       <c r="B29" s="46" t="s">
         <v>25</v>
       </c>
@@ -8184,7 +8184,7 @@
       </c>
     </row>
     <row r="30" spans="1:78" s="232" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="489"/>
+      <c r="A30" s="500"/>
       <c r="B30" s="46" t="s">
         <v>26</v>
       </c>
@@ -8954,7 +8954,7 @@
       </c>
     </row>
     <row r="34" spans="1:71" s="232" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="492">
+      <c r="A34" s="501">
         <v>4883</v>
       </c>
       <c r="B34" s="46" t="s">
@@ -9131,7 +9131,7 @@
       </c>
     </row>
     <row r="35" spans="1:71" s="232" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="493"/>
+      <c r="A35" s="502"/>
       <c r="B35" s="46" t="s">
         <v>30</v>
       </c>
@@ -9306,7 +9306,7 @@
       </c>
     </row>
     <row r="36" spans="1:71" s="232" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="494"/>
+      <c r="A36" s="503"/>
       <c r="B36" s="46" t="s">
         <v>31</v>
       </c>
@@ -12134,30 +12134,30 @@
       </c>
     </row>
     <row r="52" spans="1:71" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="495" t="s">
+      <c r="A52" s="497" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="495"/>
-      <c r="C52" s="496"/>
-      <c r="D52" s="496"/>
-      <c r="E52" s="490"/>
-      <c r="F52" s="496"/>
+      <c r="B52" s="497"/>
+      <c r="C52" s="498"/>
+      <c r="D52" s="498"/>
+      <c r="E52" s="477"/>
+      <c r="F52" s="498"/>
       <c r="G52" s="407"/>
-      <c r="H52" s="487"/>
-      <c r="I52" s="487"/>
-      <c r="J52" s="491"/>
-      <c r="K52" s="487"/>
-      <c r="L52" s="482"/>
+      <c r="H52" s="495"/>
+      <c r="I52" s="495"/>
+      <c r="J52" s="496"/>
+      <c r="K52" s="495"/>
+      <c r="L52" s="487"/>
       <c r="M52" s="252"/>
       <c r="N52" s="252"/>
       <c r="O52" s="252"/>
       <c r="P52" s="252"/>
-      <c r="Q52" s="499"/>
+      <c r="Q52" s="490"/>
       <c r="R52" s="253"/>
       <c r="S52" s="253"/>
       <c r="T52" s="253"/>
       <c r="U52" s="253"/>
-      <c r="V52" s="482"/>
+      <c r="V52" s="487"/>
       <c r="W52" s="252"/>
       <c r="X52" s="252"/>
       <c r="Y52" s="252"/>
@@ -12167,7 +12167,7 @@
       <c r="AC52" s="238"/>
       <c r="AD52" s="238"/>
       <c r="AE52" s="238"/>
-      <c r="AF52" s="482"/>
+      <c r="AF52" s="487"/>
       <c r="AG52" s="252"/>
       <c r="AH52" s="252"/>
       <c r="AI52" s="252"/>
@@ -12177,60 +12177,60 @@
       <c r="AM52" s="238"/>
       <c r="AN52" s="238"/>
       <c r="AO52" s="238"/>
-      <c r="AP52" s="482"/>
+      <c r="AP52" s="487"/>
       <c r="AQ52" s="252"/>
       <c r="AR52" s="252"/>
       <c r="AS52" s="252"/>
       <c r="AT52" s="442"/>
-      <c r="AU52" s="490"/>
+      <c r="AU52" s="477"/>
       <c r="AV52" s="238"/>
       <c r="AW52" s="238"/>
       <c r="AX52" s="238"/>
       <c r="AY52" s="239"/>
-      <c r="AZ52" s="500"/>
-      <c r="BA52" s="500"/>
-      <c r="BB52" s="500"/>
-      <c r="BC52" s="500"/>
-      <c r="BD52" s="500"/>
-      <c r="BE52" s="490"/>
+      <c r="AZ52" s="478"/>
+      <c r="BA52" s="478"/>
+      <c r="BB52" s="478"/>
+      <c r="BC52" s="478"/>
+      <c r="BD52" s="478"/>
+      <c r="BE52" s="477"/>
       <c r="BF52" s="238"/>
       <c r="BG52" s="238"/>
       <c r="BH52" s="238"/>
       <c r="BI52" s="239"/>
-      <c r="BJ52" s="500"/>
-      <c r="BK52" s="500"/>
-      <c r="BL52" s="500"/>
-      <c r="BM52" s="500"/>
-      <c r="BN52" s="500"/>
-      <c r="BO52" s="490"/>
+      <c r="BJ52" s="478"/>
+      <c r="BK52" s="478"/>
+      <c r="BL52" s="478"/>
+      <c r="BM52" s="478"/>
+      <c r="BN52" s="478"/>
+      <c r="BO52" s="477"/>
       <c r="BP52" s="238"/>
       <c r="BQ52" s="238"/>
       <c r="BR52" s="238"/>
       <c r="BS52" s="239"/>
     </row>
     <row r="53" spans="1:71" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="495"/>
-      <c r="B53" s="495"/>
-      <c r="C53" s="496"/>
-      <c r="D53" s="496"/>
-      <c r="E53" s="490"/>
-      <c r="F53" s="496"/>
+      <c r="A53" s="497"/>
+      <c r="B53" s="497"/>
+      <c r="C53" s="498"/>
+      <c r="D53" s="498"/>
+      <c r="E53" s="477"/>
+      <c r="F53" s="498"/>
       <c r="G53" s="407"/>
-      <c r="H53" s="487"/>
-      <c r="I53" s="487"/>
-      <c r="J53" s="491"/>
-      <c r="K53" s="487"/>
-      <c r="L53" s="482"/>
+      <c r="H53" s="495"/>
+      <c r="I53" s="495"/>
+      <c r="J53" s="496"/>
+      <c r="K53" s="495"/>
+      <c r="L53" s="487"/>
       <c r="M53" s="252"/>
       <c r="N53" s="252"/>
       <c r="O53" s="252"/>
       <c r="P53" s="252"/>
-      <c r="Q53" s="499"/>
+      <c r="Q53" s="490"/>
       <c r="R53" s="253"/>
       <c r="S53" s="253"/>
       <c r="T53" s="253"/>
       <c r="U53" s="253"/>
-      <c r="V53" s="482"/>
+      <c r="V53" s="487"/>
       <c r="W53" s="252"/>
       <c r="X53" s="252"/>
       <c r="Y53" s="252"/>
@@ -12240,7 +12240,7 @@
       <c r="AC53" s="247"/>
       <c r="AD53" s="247"/>
       <c r="AE53" s="247"/>
-      <c r="AF53" s="482"/>
+      <c r="AF53" s="487"/>
       <c r="AG53" s="252"/>
       <c r="AH53" s="252"/>
       <c r="AI53" s="252"/>
@@ -12250,32 +12250,32 @@
       <c r="AM53" s="247"/>
       <c r="AN53" s="247"/>
       <c r="AO53" s="247"/>
-      <c r="AP53" s="482"/>
+      <c r="AP53" s="487"/>
       <c r="AQ53" s="252"/>
       <c r="AR53" s="252"/>
       <c r="AS53" s="252"/>
       <c r="AT53" s="442"/>
-      <c r="AU53" s="490"/>
+      <c r="AU53" s="477"/>
       <c r="AV53" s="247"/>
       <c r="AW53" s="247"/>
       <c r="AX53" s="247"/>
       <c r="AY53" s="239"/>
-      <c r="AZ53" s="500"/>
-      <c r="BA53" s="500"/>
-      <c r="BB53" s="500"/>
-      <c r="BC53" s="500"/>
-      <c r="BD53" s="500"/>
-      <c r="BE53" s="490"/>
+      <c r="AZ53" s="478"/>
+      <c r="BA53" s="478"/>
+      <c r="BB53" s="478"/>
+      <c r="BC53" s="478"/>
+      <c r="BD53" s="478"/>
+      <c r="BE53" s="477"/>
       <c r="BF53" s="247"/>
       <c r="BG53" s="247"/>
       <c r="BH53" s="247"/>
       <c r="BI53" s="239"/>
-      <c r="BJ53" s="500"/>
-      <c r="BK53" s="500"/>
-      <c r="BL53" s="500"/>
-      <c r="BM53" s="500"/>
-      <c r="BN53" s="500"/>
-      <c r="BO53" s="490"/>
+      <c r="BJ53" s="478"/>
+      <c r="BK53" s="478"/>
+      <c r="BL53" s="478"/>
+      <c r="BM53" s="478"/>
+      <c r="BN53" s="478"/>
+      <c r="BO53" s="477"/>
       <c r="BP53" s="247"/>
       <c r="BQ53" s="247"/>
       <c r="BR53" s="247"/>
@@ -12359,7 +12359,7 @@
       <c r="BS54" s="239"/>
     </row>
     <row r="55" spans="1:71" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="486">
+      <c r="A55" s="494">
         <v>6807</v>
       </c>
       <c r="B55" s="46" t="s">
@@ -12522,7 +12522,7 @@
       </c>
     </row>
     <row r="56" spans="1:71" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="486"/>
+      <c r="A56" s="494"/>
       <c r="B56" s="46" t="s">
         <v>47</v>
       </c>
@@ -12842,7 +12842,7 @@
       </c>
     </row>
     <row r="58" spans="1:71" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="486">
+      <c r="A58" s="494">
         <v>6813</v>
       </c>
       <c r="B58" s="46" t="s">
@@ -13001,7 +13001,7 @@
       </c>
     </row>
     <row r="59" spans="1:71" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="486"/>
+      <c r="A59" s="494"/>
       <c r="B59" s="46" t="s">
         <v>50</v>
       </c>
@@ -13158,7 +13158,7 @@
       </c>
     </row>
     <row r="60" spans="1:71" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="486">
+      <c r="A60" s="494">
         <v>6814</v>
       </c>
       <c r="B60" s="46" t="s">
@@ -13316,7 +13316,7 @@
       </c>
     </row>
     <row r="61" spans="1:71" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="486"/>
+      <c r="A61" s="494"/>
       <c r="B61" s="46" t="s">
         <v>52</v>
       </c>
@@ -13470,7 +13470,7 @@
       </c>
     </row>
     <row r="62" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A62" s="486"/>
+      <c r="A62" s="494"/>
       <c r="B62" s="46" t="s">
         <v>53</v>
       </c>
@@ -13632,7 +13632,7 @@
       </c>
     </row>
     <row r="63" spans="1:71" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="486">
+      <c r="A63" s="494">
         <v>6815</v>
       </c>
       <c r="B63" s="46" t="s">
@@ -13793,7 +13793,7 @@
       </c>
     </row>
     <row r="64" spans="1:71" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A64" s="486"/>
+      <c r="A64" s="494"/>
       <c r="B64" s="46" t="s">
         <v>55</v>
       </c>
@@ -13952,7 +13952,7 @@
       </c>
     </row>
     <row r="65" spans="1:71" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="486"/>
+      <c r="A65" s="494"/>
       <c r="B65" s="46" t="s">
         <v>56</v>
       </c>
@@ -14103,7 +14103,7 @@
       </c>
     </row>
     <row r="66" spans="1:71" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="486"/>
+      <c r="A66" s="494"/>
       <c r="B66" s="46" t="s">
         <v>57</v>
       </c>
@@ -19362,56 +19362,21 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="AU52:AU53"/>
-    <mergeCell ref="AZ52:AZ53"/>
-    <mergeCell ref="BE52:BE53"/>
-    <mergeCell ref="BA52:BA53"/>
-    <mergeCell ref="BB52:BB53"/>
-    <mergeCell ref="BC52:BC53"/>
-    <mergeCell ref="BD52:BD53"/>
-    <mergeCell ref="BO52:BO53"/>
-    <mergeCell ref="BJ52:BJ53"/>
-    <mergeCell ref="BK52:BK53"/>
-    <mergeCell ref="BL52:BL53"/>
-    <mergeCell ref="BM52:BM53"/>
-    <mergeCell ref="BN52:BN53"/>
-    <mergeCell ref="BJ2:BN2"/>
-    <mergeCell ref="BO2:BS2"/>
-    <mergeCell ref="BJ3:BJ4"/>
-    <mergeCell ref="BK3:BN3"/>
-    <mergeCell ref="BO3:BO4"/>
-    <mergeCell ref="BP3:BS3"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="AV3:AY3"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AQ3:AT3"/>
-    <mergeCell ref="AP2:AT2"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="AP52:AP53"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BI2"/>
+    <mergeCell ref="AZ3:AZ4"/>
+    <mergeCell ref="BA3:BD3"/>
+    <mergeCell ref="BE3:BE4"/>
+    <mergeCell ref="BF3:BI3"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="AF52:AF53"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AE3"/>
     <mergeCell ref="AK2:AO2"/>
     <mergeCell ref="AK3:AK4"/>
     <mergeCell ref="AL3:AO3"/>
@@ -19428,21 +19393,56 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AJ3"/>
-    <mergeCell ref="AF52:AF53"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BI2"/>
-    <mergeCell ref="AZ3:AZ4"/>
-    <mergeCell ref="BA3:BD3"/>
-    <mergeCell ref="BE3:BE4"/>
-    <mergeCell ref="BF3:BI3"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="AP52:AP53"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AU2:AY2"/>
+    <mergeCell ref="AV3:AY3"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AQ3:AT3"/>
+    <mergeCell ref="AP2:AT2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="BJ2:BN2"/>
+    <mergeCell ref="BO2:BS2"/>
+    <mergeCell ref="BJ3:BJ4"/>
+    <mergeCell ref="BK3:BN3"/>
+    <mergeCell ref="BO3:BO4"/>
+    <mergeCell ref="BP3:BS3"/>
+    <mergeCell ref="BO52:BO53"/>
+    <mergeCell ref="BJ52:BJ53"/>
+    <mergeCell ref="BK52:BK53"/>
+    <mergeCell ref="BL52:BL53"/>
+    <mergeCell ref="BM52:BM53"/>
+    <mergeCell ref="BN52:BN53"/>
+    <mergeCell ref="AU52:AU53"/>
+    <mergeCell ref="AZ52:AZ53"/>
+    <mergeCell ref="BE52:BE53"/>
+    <mergeCell ref="BA52:BA53"/>
+    <mergeCell ref="BB52:BB53"/>
+    <mergeCell ref="BC52:BC53"/>
+    <mergeCell ref="BD52:BD53"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
@@ -20145,118 +20145,118 @@
       <c r="Z1" s="51"/>
     </row>
     <row r="2" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="526" t="s">
+      <c r="A2" s="507" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="526" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="520" t="s">
+      <c r="B2" s="507" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="513" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="520"/>
-      <c r="E2" s="520"/>
-      <c r="F2" s="520"/>
-      <c r="G2" s="520" t="s">
+      <c r="D2" s="513"/>
+      <c r="E2" s="513"/>
+      <c r="F2" s="513"/>
+      <c r="G2" s="513" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="520"/>
-      <c r="I2" s="520"/>
-      <c r="J2" s="520"/>
-      <c r="K2" s="520"/>
-      <c r="L2" s="520" t="s">
+      <c r="H2" s="513"/>
+      <c r="I2" s="513"/>
+      <c r="J2" s="513"/>
+      <c r="K2" s="513"/>
+      <c r="L2" s="513" t="s">
         <v>144</v>
       </c>
-      <c r="M2" s="520"/>
-      <c r="N2" s="520"/>
-      <c r="O2" s="520"/>
-      <c r="P2" s="520"/>
-      <c r="Q2" s="520" t="s">
+      <c r="M2" s="513"/>
+      <c r="N2" s="513"/>
+      <c r="O2" s="513"/>
+      <c r="P2" s="513"/>
+      <c r="Q2" s="513" t="s">
         <v>134</v>
       </c>
-      <c r="R2" s="520"/>
-      <c r="S2" s="520"/>
-      <c r="T2" s="520"/>
-      <c r="U2" s="520"/>
-      <c r="V2" s="472" t="s">
+      <c r="R2" s="513"/>
+      <c r="S2" s="513"/>
+      <c r="T2" s="513"/>
+      <c r="U2" s="513"/>
+      <c r="V2" s="479" t="s">
         <v>143</v>
       </c>
-      <c r="W2" s="473"/>
-      <c r="X2" s="473"/>
-      <c r="Y2" s="473"/>
-      <c r="Z2" s="474"/>
-      <c r="AA2" s="520" t="s">
+      <c r="W2" s="480"/>
+      <c r="X2" s="480"/>
+      <c r="Y2" s="480"/>
+      <c r="Z2" s="481"/>
+      <c r="AA2" s="513" t="s">
         <v>133</v>
       </c>
-      <c r="AB2" s="520"/>
-      <c r="AC2" s="520"/>
-      <c r="AD2" s="520"/>
-      <c r="AE2" s="520"/>
-      <c r="AG2" s="527" t="s">
+      <c r="AB2" s="513"/>
+      <c r="AC2" s="513"/>
+      <c r="AD2" s="513"/>
+      <c r="AE2" s="513"/>
+      <c r="AG2" s="508" t="s">
         <v>113</v>
       </c>
-      <c r="AH2" s="528"/>
+      <c r="AH2" s="509"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A3" s="526"/>
-      <c r="B3" s="526"/>
-      <c r="C3" s="526" t="s">
+      <c r="A3" s="507"/>
+      <c r="B3" s="507"/>
+      <c r="C3" s="507" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="529" t="s">
+      <c r="D3" s="510" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="529"/>
-      <c r="F3" s="526" t="s">
+      <c r="E3" s="510"/>
+      <c r="F3" s="507" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="521" t="s">
+      <c r="G3" s="511" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="522" t="s">
+      <c r="H3" s="512" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="522"/>
-      <c r="J3" s="522"/>
-      <c r="K3" s="522"/>
-      <c r="L3" s="521" t="s">
+      <c r="I3" s="512"/>
+      <c r="J3" s="512"/>
+      <c r="K3" s="512"/>
+      <c r="L3" s="511" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="522" t="s">
+      <c r="M3" s="512" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="522"/>
-      <c r="O3" s="522"/>
-      <c r="P3" s="522"/>
-      <c r="Q3" s="521" t="s">
+      <c r="N3" s="512"/>
+      <c r="O3" s="512"/>
+      <c r="P3" s="512"/>
+      <c r="Q3" s="511" t="s">
         <v>87</v>
       </c>
-      <c r="R3" s="522" t="s">
+      <c r="R3" s="512" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="522"/>
-      <c r="T3" s="522"/>
-      <c r="U3" s="522"/>
-      <c r="V3" s="476" t="s">
+      <c r="S3" s="512"/>
+      <c r="T3" s="512"/>
+      <c r="U3" s="512"/>
+      <c r="V3" s="482" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="477" t="s">
+      <c r="W3" s="483" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="477"/>
-      <c r="Y3" s="477"/>
-      <c r="Z3" s="477"/>
-      <c r="AA3" s="521" t="s">
+      <c r="X3" s="483"/>
+      <c r="Y3" s="483"/>
+      <c r="Z3" s="483"/>
+      <c r="AA3" s="511" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" s="522" t="s">
+      <c r="AB3" s="512" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" s="522"/>
-      <c r="AD3" s="522"/>
-      <c r="AE3" s="522"/>
+      <c r="AC3" s="512"/>
+      <c r="AD3" s="512"/>
+      <c r="AE3" s="512"/>
       <c r="AG3" s="97" t="s">
         <v>114</v>
       </c>
@@ -20274,17 +20274,17 @@
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A4" s="526"/>
-      <c r="B4" s="526"/>
-      <c r="C4" s="526"/>
+      <c r="A4" s="507"/>
+      <c r="B4" s="507"/>
+      <c r="C4" s="507"/>
       <c r="D4" s="91" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="526"/>
-      <c r="G4" s="521"/>
+      <c r="F4" s="507"/>
+      <c r="G4" s="511"/>
       <c r="H4" s="85" t="s">
         <v>111</v>
       </c>
@@ -20297,7 +20297,7 @@
       <c r="K4" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="521"/>
+      <c r="L4" s="511"/>
       <c r="M4" s="114" t="s">
         <v>111</v>
       </c>
@@ -20310,7 +20310,7 @@
       <c r="P4" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="521"/>
+      <c r="Q4" s="511"/>
       <c r="R4" s="85" t="s">
         <v>111</v>
       </c>
@@ -20323,7 +20323,7 @@
       <c r="U4" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="476"/>
+      <c r="V4" s="482"/>
       <c r="W4" s="96" t="s">
         <v>111</v>
       </c>
@@ -20336,7 +20336,7 @@
       <c r="Z4" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="AA4" s="521"/>
+      <c r="AA4" s="511"/>
       <c r="AB4" s="85" t="s">
         <v>111</v>
       </c>
@@ -20355,10 +20355,10 @@
       <c r="AJ4" s="1"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A5" s="525" t="s">
+      <c r="A5" s="506" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="525"/>
+      <c r="B5" s="506"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="12"/>
@@ -20423,11 +20423,11 @@
       <c r="AC6" s="99"/>
       <c r="AD6" s="99"/>
       <c r="AE6" s="99"/>
-      <c r="AG6" s="517">
+      <c r="AG6" s="514">
         <f>SUM(U7:U9)</f>
         <v>12.3</v>
       </c>
-      <c r="AH6" s="517">
+      <c r="AH6" s="514">
         <f>SUM(Z7:Z9)</f>
         <v>11.91</v>
       </c>
@@ -20520,8 +20520,8 @@
         <v>1.01</v>
       </c>
       <c r="AF7" s="37"/>
-      <c r="AG7" s="518"/>
-      <c r="AH7" s="518"/>
+      <c r="AG7" s="515"/>
+      <c r="AH7" s="515"/>
       <c r="AI7" s="37"/>
       <c r="AK7" s="72">
         <f>R7-W7</f>
@@ -20610,8 +20610,8 @@
         <v>0</v>
       </c>
       <c r="AF8" s="37"/>
-      <c r="AG8" s="518"/>
-      <c r="AH8" s="518"/>
+      <c r="AG8" s="515"/>
+      <c r="AH8" s="515"/>
       <c r="AI8" s="37"/>
     </row>
     <row r="9" spans="1:37" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -20702,8 +20702,8 @@
         <v>36.61</v>
       </c>
       <c r="AF9" s="37"/>
-      <c r="AG9" s="518"/>
-      <c r="AH9" s="518"/>
+      <c r="AG9" s="515"/>
+      <c r="AH9" s="515"/>
       <c r="AI9" s="37"/>
       <c r="AK9" s="72">
         <f>R9-W9</f>
@@ -21141,11 +21141,11 @@
         <v>0.77</v>
       </c>
       <c r="AF14" s="37"/>
-      <c r="AG14" s="517">
+      <c r="AG14" s="514">
         <f>SUM(U14:U16)</f>
         <v>0.65</v>
       </c>
-      <c r="AH14" s="517">
+      <c r="AH14" s="514">
         <f>SUM(Z14:Z16)</f>
         <v>0.5</v>
       </c>
@@ -21243,8 +21243,8 @@
         <v>0.97</v>
       </c>
       <c r="AF15" s="37"/>
-      <c r="AG15" s="518"/>
-      <c r="AH15" s="518"/>
+      <c r="AG15" s="515"/>
+      <c r="AH15" s="515"/>
       <c r="AI15" s="37"/>
       <c r="AK15" s="72">
         <f t="shared" si="10"/>
@@ -21339,8 +21339,8 @@
         <v>0.44</v>
       </c>
       <c r="AF16" s="37"/>
-      <c r="AG16" s="518"/>
-      <c r="AH16" s="518"/>
+      <c r="AG16" s="515"/>
+      <c r="AH16" s="515"/>
       <c r="AI16" s="37"/>
       <c r="AK16" s="72">
         <f t="shared" si="10"/>
@@ -21537,11 +21537,11 @@
         <v>1.1099999999999999</v>
       </c>
       <c r="AF18" s="37"/>
-      <c r="AG18" s="517">
+      <c r="AG18" s="514">
         <f>SUM(U18:U19)</f>
         <v>3.6</v>
       </c>
-      <c r="AH18" s="517">
+      <c r="AH18" s="514">
         <f>SUM(Z18:Z19)</f>
         <v>3.1799999999999997</v>
       </c>
@@ -21639,8 +21639,8 @@
         <v>8.74</v>
       </c>
       <c r="AF19" s="37"/>
-      <c r="AG19" s="517"/>
-      <c r="AH19" s="518"/>
+      <c r="AG19" s="514"/>
+      <c r="AH19" s="515"/>
       <c r="AI19" s="37"/>
       <c r="AK19" s="72">
         <f t="shared" si="10"/>
@@ -21735,11 +21735,11 @@
         <v>17.52</v>
       </c>
       <c r="AF20" s="37"/>
-      <c r="AG20" s="517">
+      <c r="AG20" s="514">
         <f>SUM(U20:U21)</f>
         <v>26</v>
       </c>
-      <c r="AH20" s="517">
+      <c r="AH20" s="514">
         <f>SUM(Z20:Z21)</f>
         <v>25.89</v>
       </c>
@@ -21837,8 +21837,8 @@
         <v>64.59</v>
       </c>
       <c r="AF21" s="37"/>
-      <c r="AG21" s="518"/>
-      <c r="AH21" s="518"/>
+      <c r="AG21" s="515"/>
+      <c r="AH21" s="515"/>
       <c r="AI21" s="37"/>
       <c r="AK21" s="72">
         <f t="shared" si="10"/>
@@ -22254,7 +22254,7 @@
       </c>
     </row>
     <row r="26" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="519">
+      <c r="A26" s="516">
         <v>3231201</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -22295,7 +22295,7 @@
       <c r="AI26" s="37"/>
     </row>
     <row r="27" spans="1:39" s="9" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A27" s="519"/>
+      <c r="A27" s="516"/>
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -22350,7 +22350,7 @@
       <c r="AI27" s="37"/>
     </row>
     <row r="28" spans="1:39" s="9" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="519"/>
+      <c r="A28" s="516"/>
       <c r="B28" s="46" t="s">
         <v>24</v>
       </c>
@@ -22443,15 +22443,15 @@
         <v>301.5</v>
       </c>
       <c r="AF28" s="37"/>
-      <c r="AG28" s="508">
+      <c r="AG28" s="517">
         <f>SUM(U28:U30)</f>
         <v>1068.18</v>
       </c>
-      <c r="AH28" s="508">
+      <c r="AH28" s="517">
         <f>SUM(Z28:Z30)</f>
         <v>1032.33</v>
       </c>
-      <c r="AI28" s="504">
+      <c r="AI28" s="523">
         <f>SUM(X28:X30)</f>
         <v>939.92</v>
       </c>
@@ -22469,7 +22469,7 @@
       </c>
     </row>
     <row r="29" spans="1:39" s="9" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="519"/>
+      <c r="A29" s="516"/>
       <c r="B29" s="46" t="s">
         <v>25</v>
       </c>
@@ -22562,9 +22562,9 @@
         <v>1346.63</v>
       </c>
       <c r="AF29" s="37"/>
-      <c r="AG29" s="509"/>
-      <c r="AH29" s="509"/>
-      <c r="AI29" s="505"/>
+      <c r="AG29" s="518"/>
+      <c r="AH29" s="518"/>
+      <c r="AI29" s="524"/>
       <c r="AK29" s="72">
         <f>R29-W29</f>
         <v>21.560000000000002</v>
@@ -22579,7 +22579,7 @@
       </c>
     </row>
     <row r="30" spans="1:39" s="9" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="519"/>
+      <c r="A30" s="516"/>
       <c r="B30" s="46" t="s">
         <v>26</v>
       </c>
@@ -22672,9 +22672,9 @@
         <v>578.20000000000005</v>
       </c>
       <c r="AF30" s="37"/>
-      <c r="AG30" s="509"/>
-      <c r="AH30" s="509"/>
-      <c r="AI30" s="505"/>
+      <c r="AG30" s="518"/>
+      <c r="AH30" s="518"/>
+      <c r="AI30" s="524"/>
       <c r="AK30" s="72">
         <f>R30-W30</f>
         <v>8.11</v>
@@ -22995,7 +22995,7 @@
       </c>
     </row>
     <row r="34" spans="1:37" s="9" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A34" s="514">
+      <c r="A34" s="519">
         <v>3111332</v>
       </c>
       <c r="B34" s="46" t="s">
@@ -23082,11 +23082,11 @@
         <v>12.73</v>
       </c>
       <c r="AF34" s="37"/>
-      <c r="AG34" s="508">
+      <c r="AG34" s="517">
         <f>SUM(U34:U36)</f>
         <v>7</v>
       </c>
-      <c r="AH34" s="508">
+      <c r="AH34" s="517">
         <f>SUM(Z34:Z36)</f>
         <v>6.52</v>
       </c>
@@ -23097,7 +23097,7 @@
       </c>
     </row>
     <row r="35" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="515"/>
+      <c r="A35" s="520"/>
       <c r="B35" s="46" t="s">
         <v>30</v>
       </c>
@@ -23182,8 +23182,8 @@
         <v>1.29</v>
       </c>
       <c r="AF35" s="37"/>
-      <c r="AG35" s="509"/>
-      <c r="AH35" s="509"/>
+      <c r="AG35" s="518"/>
+      <c r="AH35" s="518"/>
       <c r="AI35" s="37"/>
       <c r="AK35" s="72">
         <f t="shared" si="19"/>
@@ -23191,7 +23191,7 @@
       </c>
     </row>
     <row r="36" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="516"/>
+      <c r="A36" s="521"/>
       <c r="B36" s="46" t="s">
         <v>31</v>
       </c>
@@ -23276,8 +23276,8 @@
         <v>1.3</v>
       </c>
       <c r="AF36" s="37"/>
-      <c r="AG36" s="509"/>
-      <c r="AH36" s="509"/>
+      <c r="AG36" s="518"/>
+      <c r="AH36" s="518"/>
       <c r="AI36" s="37"/>
       <c r="AK36" s="72">
         <f t="shared" si="19"/>
@@ -23717,11 +23717,11 @@
         <v>61.4</v>
       </c>
       <c r="AF41" s="37"/>
-      <c r="AG41" s="508">
+      <c r="AG41" s="517">
         <f>SUM(U41:U50)</f>
         <v>58.45</v>
       </c>
-      <c r="AH41" s="508">
+      <c r="AH41" s="517">
         <f>SUM(Z41:Z50)</f>
         <v>56.730000000000004</v>
       </c>
@@ -23819,8 +23819,8 @@
         <v>3.2</v>
       </c>
       <c r="AF42" s="37"/>
-      <c r="AG42" s="509"/>
-      <c r="AH42" s="509"/>
+      <c r="AG42" s="518"/>
+      <c r="AH42" s="518"/>
       <c r="AI42" s="37"/>
       <c r="AK42" s="72">
         <f t="shared" si="27"/>
@@ -23915,8 +23915,8 @@
         <v>5.34</v>
       </c>
       <c r="AF43" s="37"/>
-      <c r="AG43" s="509"/>
-      <c r="AH43" s="509"/>
+      <c r="AG43" s="518"/>
+      <c r="AH43" s="518"/>
       <c r="AI43" s="37"/>
       <c r="AK43" s="72">
         <f t="shared" si="27"/>
@@ -24011,8 +24011,8 @@
         <v>1.22</v>
       </c>
       <c r="AF44" s="37"/>
-      <c r="AG44" s="509"/>
-      <c r="AH44" s="509"/>
+      <c r="AG44" s="518"/>
+      <c r="AH44" s="518"/>
       <c r="AI44" s="37"/>
       <c r="AK44" s="72">
         <f t="shared" si="27"/>
@@ -24107,8 +24107,8 @@
         <v>19.98</v>
       </c>
       <c r="AF45" s="37"/>
-      <c r="AG45" s="509"/>
-      <c r="AH45" s="509"/>
+      <c r="AG45" s="518"/>
+      <c r="AH45" s="518"/>
       <c r="AI45" s="37"/>
       <c r="AK45" s="72">
         <f t="shared" si="27"/>
@@ -24203,8 +24203,8 @@
         <v>14.53</v>
       </c>
       <c r="AF46" s="37"/>
-      <c r="AG46" s="509"/>
-      <c r="AH46" s="509"/>
+      <c r="AG46" s="518"/>
+      <c r="AH46" s="518"/>
       <c r="AI46" s="37"/>
       <c r="AK46" s="72">
         <f t="shared" si="27"/>
@@ -24299,8 +24299,8 @@
         <v>1.3900000000000001</v>
       </c>
       <c r="AF47" s="37"/>
-      <c r="AG47" s="509"/>
-      <c r="AH47" s="509"/>
+      <c r="AG47" s="518"/>
+      <c r="AH47" s="518"/>
       <c r="AI47" s="37"/>
       <c r="AK47" s="72">
         <f t="shared" si="27"/>
@@ -24403,8 +24403,8 @@
         <v>95.03</v>
       </c>
       <c r="AF48" s="37"/>
-      <c r="AG48" s="509"/>
-      <c r="AH48" s="509"/>
+      <c r="AG48" s="518"/>
+      <c r="AH48" s="518"/>
       <c r="AI48" s="71">
         <f>X48</f>
         <v>10</v>
@@ -24502,8 +24502,8 @@
         <v>2.3899999999999997</v>
       </c>
       <c r="AF49" s="37"/>
-      <c r="AG49" s="509"/>
-      <c r="AH49" s="509"/>
+      <c r="AG49" s="518"/>
+      <c r="AH49" s="518"/>
       <c r="AI49" s="37"/>
       <c r="AK49" s="72">
         <f t="shared" si="27"/>
@@ -24598,8 +24598,8 @@
         <v>7.48</v>
       </c>
       <c r="AF50" s="37"/>
-      <c r="AG50" s="509"/>
-      <c r="AH50" s="509"/>
+      <c r="AG50" s="518"/>
+      <c r="AH50" s="518"/>
       <c r="AI50" s="37"/>
       <c r="AK50" s="72">
         <f t="shared" si="27"/>
@@ -24737,35 +24737,35 @@
     <row r="52" spans="1:37" s="106" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="104"/>
       <c r="B52" s="104"/>
-      <c r="C52" s="506"/>
-      <c r="D52" s="506"/>
-      <c r="E52" s="507"/>
-      <c r="F52" s="506"/>
-      <c r="G52" s="506"/>
-      <c r="H52" s="506"/>
-      <c r="I52" s="507"/>
-      <c r="J52" s="506"/>
-      <c r="K52" s="506"/>
-      <c r="L52" s="506"/>
-      <c r="M52" s="507"/>
-      <c r="N52" s="506"/>
-      <c r="O52" s="507"/>
-      <c r="P52" s="506"/>
-      <c r="Q52" s="506"/>
-      <c r="R52" s="507"/>
-      <c r="S52" s="506"/>
-      <c r="T52" s="507"/>
-      <c r="U52" s="506"/>
-      <c r="V52" s="500"/>
-      <c r="W52" s="500"/>
-      <c r="X52" s="500"/>
-      <c r="Y52" s="500"/>
-      <c r="Z52" s="500"/>
-      <c r="AA52" s="507"/>
-      <c r="AB52" s="507"/>
-      <c r="AC52" s="507"/>
-      <c r="AD52" s="507"/>
-      <c r="AE52" s="507"/>
+      <c r="C52" s="525"/>
+      <c r="D52" s="525"/>
+      <c r="E52" s="522"/>
+      <c r="F52" s="525"/>
+      <c r="G52" s="525"/>
+      <c r="H52" s="525"/>
+      <c r="I52" s="522"/>
+      <c r="J52" s="525"/>
+      <c r="K52" s="525"/>
+      <c r="L52" s="525"/>
+      <c r="M52" s="522"/>
+      <c r="N52" s="525"/>
+      <c r="O52" s="522"/>
+      <c r="P52" s="525"/>
+      <c r="Q52" s="525"/>
+      <c r="R52" s="522"/>
+      <c r="S52" s="525"/>
+      <c r="T52" s="522"/>
+      <c r="U52" s="525"/>
+      <c r="V52" s="478"/>
+      <c r="W52" s="478"/>
+      <c r="X52" s="478"/>
+      <c r="Y52" s="478"/>
+      <c r="Z52" s="478"/>
+      <c r="AA52" s="522"/>
+      <c r="AB52" s="522"/>
+      <c r="AC52" s="522"/>
+      <c r="AD52" s="522"/>
+      <c r="AE52" s="522"/>
       <c r="AF52" s="105"/>
       <c r="AG52" s="105"/>
       <c r="AH52" s="105"/>
@@ -24776,35 +24776,35 @@
         <v>79</v>
       </c>
       <c r="B53" s="107"/>
-      <c r="C53" s="506"/>
-      <c r="D53" s="506"/>
-      <c r="E53" s="507"/>
-      <c r="F53" s="506"/>
-      <c r="G53" s="506"/>
-      <c r="H53" s="506"/>
-      <c r="I53" s="507"/>
-      <c r="J53" s="506"/>
-      <c r="K53" s="506"/>
-      <c r="L53" s="506"/>
-      <c r="M53" s="507"/>
-      <c r="N53" s="506"/>
-      <c r="O53" s="507"/>
-      <c r="P53" s="506"/>
-      <c r="Q53" s="506"/>
-      <c r="R53" s="507"/>
-      <c r="S53" s="506"/>
-      <c r="T53" s="507"/>
-      <c r="U53" s="506"/>
-      <c r="V53" s="500"/>
-      <c r="W53" s="500"/>
-      <c r="X53" s="500"/>
-      <c r="Y53" s="500"/>
-      <c r="Z53" s="500"/>
-      <c r="AA53" s="507"/>
-      <c r="AB53" s="507"/>
-      <c r="AC53" s="507"/>
-      <c r="AD53" s="507"/>
-      <c r="AE53" s="507"/>
+      <c r="C53" s="525"/>
+      <c r="D53" s="525"/>
+      <c r="E53" s="522"/>
+      <c r="F53" s="525"/>
+      <c r="G53" s="525"/>
+      <c r="H53" s="525"/>
+      <c r="I53" s="522"/>
+      <c r="J53" s="525"/>
+      <c r="K53" s="525"/>
+      <c r="L53" s="525"/>
+      <c r="M53" s="522"/>
+      <c r="N53" s="525"/>
+      <c r="O53" s="522"/>
+      <c r="P53" s="525"/>
+      <c r="Q53" s="525"/>
+      <c r="R53" s="522"/>
+      <c r="S53" s="525"/>
+      <c r="T53" s="522"/>
+      <c r="U53" s="525"/>
+      <c r="V53" s="478"/>
+      <c r="W53" s="478"/>
+      <c r="X53" s="478"/>
+      <c r="Y53" s="478"/>
+      <c r="Z53" s="478"/>
+      <c r="AA53" s="522"/>
+      <c r="AB53" s="522"/>
+      <c r="AC53" s="522"/>
+      <c r="AD53" s="522"/>
+      <c r="AE53" s="522"/>
       <c r="AF53" s="37"/>
       <c r="AG53" s="37"/>
       <c r="AH53" s="37"/>
@@ -24850,7 +24850,7 @@
       <c r="AI54" s="37"/>
     </row>
     <row r="55" spans="1:37" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="513">
+      <c r="A55" s="526">
         <v>4112101</v>
       </c>
       <c r="B55" s="103" t="s">
@@ -24935,18 +24935,18 @@
         <v>606.9</v>
       </c>
       <c r="AF55" s="37"/>
-      <c r="AG55" s="508">
+      <c r="AG55" s="517">
         <f>SUM(U55:U56)</f>
         <v>95.6</v>
       </c>
-      <c r="AH55" s="508">
+      <c r="AH55" s="517">
         <f>SUM(Z55:Z56)</f>
         <v>0</v>
       </c>
       <c r="AI55" s="37"/>
     </row>
     <row r="56" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="513"/>
+      <c r="A56" s="526"/>
       <c r="B56" s="46" t="s">
         <v>47</v>
       </c>
@@ -25019,8 +25019,8 @@
         <v>50.22</v>
       </c>
       <c r="AF56" s="37"/>
-      <c r="AG56" s="509"/>
-      <c r="AH56" s="509"/>
+      <c r="AG56" s="518"/>
+      <c r="AH56" s="518"/>
       <c r="AI56" s="37"/>
     </row>
     <row r="57" spans="1:37" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -25110,7 +25110,7 @@
       <c r="AI57" s="37"/>
     </row>
     <row r="58" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="512">
+      <c r="A58" s="529">
         <v>4112316</v>
       </c>
       <c r="B58" s="46" t="s">
@@ -25185,18 +25185,18 @@
         <v>8.9499999999999993</v>
       </c>
       <c r="AF58" s="37"/>
-      <c r="AG58" s="508">
+      <c r="AG58" s="517">
         <f>SUM(U58:U59)</f>
         <v>0</v>
       </c>
-      <c r="AH58" s="508">
+      <c r="AH58" s="517">
         <f>SUM(Z58:Z59)</f>
         <v>0</v>
       </c>
       <c r="AI58" s="37"/>
     </row>
     <row r="59" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="512"/>
+      <c r="A59" s="529"/>
       <c r="B59" s="46" t="s">
         <v>50</v>
       </c>
@@ -25269,12 +25269,12 @@
         <v>0.79</v>
       </c>
       <c r="AF59" s="37"/>
-      <c r="AG59" s="509"/>
-      <c r="AH59" s="509"/>
+      <c r="AG59" s="518"/>
+      <c r="AH59" s="518"/>
       <c r="AI59" s="37"/>
     </row>
     <row r="60" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="512">
+      <c r="A60" s="529">
         <v>4112304</v>
       </c>
       <c r="B60" s="46" t="s">
@@ -25349,18 +25349,18 @@
         <v>20.18</v>
       </c>
       <c r="AF60" s="37"/>
-      <c r="AG60" s="508">
+      <c r="AG60" s="517">
         <f>SUM(U60:U62)</f>
         <v>2</v>
       </c>
-      <c r="AH60" s="508">
+      <c r="AH60" s="517">
         <f>SUM(Z60:Z62)</f>
         <v>1.6</v>
       </c>
       <c r="AI60" s="37"/>
     </row>
     <row r="61" spans="1:37" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A61" s="512"/>
+      <c r="A61" s="529"/>
       <c r="B61" s="46" t="s">
         <v>52</v>
       </c>
@@ -25433,12 +25433,12 @@
         <v>2.13</v>
       </c>
       <c r="AF61" s="37"/>
-      <c r="AG61" s="509"/>
-      <c r="AH61" s="509"/>
+      <c r="AG61" s="518"/>
+      <c r="AH61" s="518"/>
       <c r="AI61" s="37"/>
     </row>
     <row r="62" spans="1:37" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A62" s="512"/>
+      <c r="A62" s="529"/>
       <c r="B62" s="46" t="s">
         <v>53</v>
       </c>
@@ -25523,12 +25523,12 @@
         <v>9.49</v>
       </c>
       <c r="AF62" s="37"/>
-      <c r="AG62" s="509"/>
-      <c r="AH62" s="509"/>
+      <c r="AG62" s="518"/>
+      <c r="AH62" s="518"/>
       <c r="AI62" s="37"/>
     </row>
     <row r="63" spans="1:37" ht="67.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="512">
+      <c r="A63" s="529">
         <v>4112202</v>
       </c>
       <c r="B63" s="103" t="s">
@@ -25603,18 +25603,18 @@
         <v>19.47</v>
       </c>
       <c r="AF63" s="37"/>
-      <c r="AG63" s="508">
+      <c r="AG63" s="517">
         <f>SUM(U63:U66)</f>
         <v>0</v>
       </c>
-      <c r="AH63" s="508">
+      <c r="AH63" s="517">
         <f>SUM(Z63:Z66)</f>
         <v>0</v>
       </c>
       <c r="AI63" s="37"/>
     </row>
     <row r="64" spans="1:37" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A64" s="512"/>
+      <c r="A64" s="529"/>
       <c r="B64" s="46" t="s">
         <v>55</v>
       </c>
@@ -25687,12 +25687,12 @@
         <v>9.8800000000000008</v>
       </c>
       <c r="AF64" s="37"/>
-      <c r="AG64" s="509"/>
-      <c r="AH64" s="509"/>
+      <c r="AG64" s="518"/>
+      <c r="AH64" s="518"/>
       <c r="AI64" s="37"/>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A65" s="512"/>
+      <c r="A65" s="529"/>
       <c r="B65" s="46" t="s">
         <v>56</v>
       </c>
@@ -25765,12 +25765,12 @@
         <v>0.2</v>
       </c>
       <c r="AF65" s="37"/>
-      <c r="AG65" s="509"/>
-      <c r="AH65" s="509"/>
+      <c r="AG65" s="518"/>
+      <c r="AH65" s="518"/>
       <c r="AI65" s="37"/>
     </row>
     <row r="66" spans="1:38" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A66" s="512"/>
+      <c r="A66" s="529"/>
       <c r="B66" s="46" t="s">
         <v>57</v>
       </c>
@@ -25843,8 +25843,8 @@
         <v>4.08</v>
       </c>
       <c r="AF66" s="37"/>
-      <c r="AG66" s="509"/>
-      <c r="AH66" s="509"/>
+      <c r="AG66" s="518"/>
+      <c r="AH66" s="518"/>
       <c r="AI66" s="37"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.3">
@@ -25935,11 +25935,11 @@
         <v>45.32</v>
       </c>
       <c r="AF67" s="37"/>
-      <c r="AG67" s="510">
+      <c r="AG67" s="527">
         <f>SUM(U67:U68)</f>
         <v>14</v>
       </c>
-      <c r="AH67" s="510">
+      <c r="AH67" s="527">
         <f>SUM(Z67:Z68)</f>
         <v>13.93</v>
       </c>
@@ -26033,8 +26033,8 @@
         <v>9.73</v>
       </c>
       <c r="AF68" s="37"/>
-      <c r="AG68" s="511"/>
-      <c r="AH68" s="511"/>
+      <c r="AG68" s="528"/>
+      <c r="AH68" s="528"/>
       <c r="AI68" s="37"/>
     </row>
     <row r="69" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -26250,15 +26250,15 @@
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
       <c r="AF72" s="37"/>
-      <c r="AG72" s="508">
+      <c r="AG72" s="517">
         <f>SUM(U72:U85)</f>
         <v>12051.5</v>
       </c>
-      <c r="AH72" s="508">
+      <c r="AH72" s="517">
         <f>SUM(Z72:Z85)</f>
         <v>11260.500000000002</v>
       </c>
-      <c r="AI72" s="508">
+      <c r="AI72" s="517">
         <f>SUM(X72:X85)</f>
         <v>9693.5300000000007</v>
       </c>
@@ -26337,9 +26337,9 @@
       <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
       <c r="AF73" s="37"/>
-      <c r="AG73" s="509"/>
-      <c r="AH73" s="509"/>
-      <c r="AI73" s="509"/>
+      <c r="AG73" s="518"/>
+      <c r="AH73" s="518"/>
+      <c r="AI73" s="518"/>
       <c r="AL73" s="4">
         <v>11260.51</v>
       </c>
@@ -26384,9 +26384,9 @@
       <c r="AD74" s="2"/>
       <c r="AE74" s="2"/>
       <c r="AF74" s="37"/>
-      <c r="AG74" s="509"/>
-      <c r="AH74" s="509"/>
-      <c r="AI74" s="509"/>
+      <c r="AG74" s="518"/>
+      <c r="AH74" s="518"/>
+      <c r="AI74" s="518"/>
     </row>
     <row r="75" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="50">
@@ -26462,9 +26462,9 @@
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
       <c r="AF75" s="37"/>
-      <c r="AG75" s="509"/>
-      <c r="AH75" s="509"/>
-      <c r="AI75" s="509"/>
+      <c r="AG75" s="518"/>
+      <c r="AH75" s="518"/>
+      <c r="AI75" s="518"/>
     </row>
     <row r="76" spans="1:38" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A76" s="50">
@@ -26562,9 +26562,9 @@
         <v>6143.66</v>
       </c>
       <c r="AF76" s="37"/>
-      <c r="AG76" s="509"/>
-      <c r="AH76" s="509"/>
-      <c r="AI76" s="509"/>
+      <c r="AG76" s="518"/>
+      <c r="AH76" s="518"/>
+      <c r="AI76" s="518"/>
       <c r="AL76" s="117"/>
     </row>
     <row r="77" spans="1:38" ht="19.2" x14ac:dyDescent="0.3">
@@ -26663,9 +26663,9 @@
         <v>6011.48</v>
       </c>
       <c r="AF77" s="37"/>
-      <c r="AG77" s="509"/>
-      <c r="AH77" s="509"/>
-      <c r="AI77" s="509"/>
+      <c r="AG77" s="518"/>
+      <c r="AH77" s="518"/>
+      <c r="AI77" s="518"/>
       <c r="AK77" s="116"/>
       <c r="AL77" s="117"/>
     </row>
@@ -26704,9 +26704,9 @@
       <c r="AD78" s="2"/>
       <c r="AE78" s="2"/>
       <c r="AF78" s="37"/>
-      <c r="AG78" s="509"/>
-      <c r="AH78" s="509"/>
-      <c r="AI78" s="509"/>
+      <c r="AG78" s="518"/>
+      <c r="AH78" s="518"/>
+      <c r="AI78" s="518"/>
       <c r="AK78" s="116"/>
       <c r="AL78" s="117"/>
     </row>
@@ -26784,9 +26784,9 @@
       <c r="AD79" s="2"/>
       <c r="AE79" s="2"/>
       <c r="AF79" s="37"/>
-      <c r="AG79" s="509"/>
-      <c r="AH79" s="509"/>
-      <c r="AI79" s="509"/>
+      <c r="AG79" s="518"/>
+      <c r="AH79" s="518"/>
+      <c r="AI79" s="518"/>
       <c r="AK79" s="116"/>
       <c r="AL79" s="117"/>
     </row>
@@ -26864,9 +26864,9 @@
       <c r="AD80" s="2"/>
       <c r="AE80" s="2"/>
       <c r="AF80" s="37"/>
-      <c r="AG80" s="509"/>
-      <c r="AH80" s="509"/>
-      <c r="AI80" s="509"/>
+      <c r="AG80" s="518"/>
+      <c r="AH80" s="518"/>
+      <c r="AI80" s="518"/>
       <c r="AK80" s="116"/>
       <c r="AL80" s="117"/>
     </row>
@@ -26944,9 +26944,9 @@
       <c r="AD81" s="2"/>
       <c r="AE81" s="2"/>
       <c r="AF81" s="37"/>
-      <c r="AG81" s="509"/>
-      <c r="AH81" s="509"/>
-      <c r="AI81" s="509"/>
+      <c r="AG81" s="518"/>
+      <c r="AH81" s="518"/>
+      <c r="AI81" s="518"/>
       <c r="AJ81" s="116"/>
       <c r="AK81" s="116"/>
       <c r="AL81" s="117"/>
@@ -27047,9 +27047,9 @@
         <v>6127.0599999999995</v>
       </c>
       <c r="AF82" s="37"/>
-      <c r="AG82" s="509"/>
-      <c r="AH82" s="509"/>
-      <c r="AI82" s="509"/>
+      <c r="AG82" s="518"/>
+      <c r="AH82" s="518"/>
+      <c r="AI82" s="518"/>
       <c r="AK82" s="118"/>
       <c r="AL82" s="117"/>
     </row>
@@ -27127,9 +27127,9 @@
       <c r="AD83" s="2"/>
       <c r="AE83" s="2"/>
       <c r="AF83" s="37"/>
-      <c r="AG83" s="509"/>
-      <c r="AH83" s="509"/>
-      <c r="AI83" s="509"/>
+      <c r="AG83" s="518"/>
+      <c r="AH83" s="518"/>
+      <c r="AI83" s="518"/>
     </row>
     <row r="84" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="87">
@@ -27205,9 +27205,9 @@
       <c r="AD84" s="2"/>
       <c r="AE84" s="2"/>
       <c r="AF84" s="37"/>
-      <c r="AG84" s="509"/>
-      <c r="AH84" s="509"/>
-      <c r="AI84" s="509"/>
+      <c r="AG84" s="518"/>
+      <c r="AH84" s="518"/>
+      <c r="AI84" s="518"/>
     </row>
     <row r="85" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="87">
@@ -27254,9 +27254,9 @@
       <c r="AD85" s="2"/>
       <c r="AE85" s="2"/>
       <c r="AF85" s="37"/>
-      <c r="AG85" s="509"/>
-      <c r="AH85" s="509"/>
-      <c r="AI85" s="509"/>
+      <c r="AG85" s="518"/>
+      <c r="AH85" s="518"/>
+      <c r="AI85" s="518"/>
       <c r="AJ85" s="75"/>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.3">
@@ -27597,11 +27597,11 @@
       <c r="AF89" s="37"/>
       <c r="AG89" s="37"/>
       <c r="AH89" s="37"/>
-      <c r="AI89" s="504">
+      <c r="AI89" s="523">
         <f>AI87+AJ87</f>
         <v>11329.880000000001</v>
       </c>
-      <c r="AJ89" s="505"/>
+      <c r="AJ89" s="524"/>
     </row>
     <row r="90" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A90" s="89"/>
@@ -27736,11 +27736,11 @@
       </c>
     </row>
     <row r="93" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="Y93" s="523">
+      <c r="Y93" s="504">
         <f>Z90+K90</f>
         <v>45560.700000000004</v>
       </c>
-      <c r="Z93" s="524"/>
+      <c r="Z93" s="505"/>
     </row>
     <row r="96" spans="1:38" x14ac:dyDescent="0.3">
       <c r="H96" s="4"/>
@@ -28158,6 +28158,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="AI89:AJ89"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="U52:U53"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="X52:X53"/>
+    <mergeCell ref="Y52:Y53"/>
+    <mergeCell ref="Z52:Z53"/>
+    <mergeCell ref="AC52:AC53"/>
+    <mergeCell ref="AI72:AI85"/>
+    <mergeCell ref="AG67:AG68"/>
+    <mergeCell ref="AH67:AH68"/>
+    <mergeCell ref="AG72:AG85"/>
+    <mergeCell ref="AH72:AH85"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="AG58:AG59"/>
+    <mergeCell ref="AH58:AH59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="AG60:AG62"/>
+    <mergeCell ref="AH60:AH62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="AG63:AG66"/>
+    <mergeCell ref="AH63:AH66"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="AA52:AA53"/>
+    <mergeCell ref="AB52:AB53"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="AD52:AD53"/>
+    <mergeCell ref="AG55:AG56"/>
+    <mergeCell ref="AH55:AH56"/>
+    <mergeCell ref="AE52:AE53"/>
+    <mergeCell ref="AI28:AI30"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="AG34:AG36"/>
+    <mergeCell ref="AH34:AH36"/>
+    <mergeCell ref="AG41:AG50"/>
+    <mergeCell ref="AH41:AH50"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="AG28:AG30"/>
+    <mergeCell ref="AH28:AH30"/>
+    <mergeCell ref="AH6:AH9"/>
+    <mergeCell ref="AG14:AG16"/>
+    <mergeCell ref="AH14:AH16"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AG6:AG9"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:P3"/>
     <mergeCell ref="Y93:Z93"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A2:A4"/>
@@ -28174,78 +28246,6 @@
     <mergeCell ref="W3:Z3"/>
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AG6:AG9"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="AH6:AH9"/>
-    <mergeCell ref="AG14:AG16"/>
-    <mergeCell ref="AH14:AH16"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="AG28:AG30"/>
-    <mergeCell ref="AH28:AH30"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="AG34:AG36"/>
-    <mergeCell ref="AH34:AH36"/>
-    <mergeCell ref="AG41:AG50"/>
-    <mergeCell ref="AH41:AH50"/>
-    <mergeCell ref="AD52:AD53"/>
-    <mergeCell ref="AG55:AG56"/>
-    <mergeCell ref="AH55:AH56"/>
-    <mergeCell ref="AE52:AE53"/>
-    <mergeCell ref="AI28:AI30"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="AA52:AA53"/>
-    <mergeCell ref="AB52:AB53"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="AG67:AG68"/>
-    <mergeCell ref="AH67:AH68"/>
-    <mergeCell ref="AG72:AG85"/>
-    <mergeCell ref="AH72:AH85"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="AG58:AG59"/>
-    <mergeCell ref="AH58:AH59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="AG60:AG62"/>
-    <mergeCell ref="AH60:AH62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="AG63:AG66"/>
-    <mergeCell ref="AH63:AH66"/>
-    <mergeCell ref="AI89:AJ89"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="S52:S53"/>
-    <mergeCell ref="T52:T53"/>
-    <mergeCell ref="U52:U53"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="X52:X53"/>
-    <mergeCell ref="Y52:Y53"/>
-    <mergeCell ref="Z52:Z53"/>
-    <mergeCell ref="AC52:AC53"/>
-    <mergeCell ref="AI72:AI85"/>
   </mergeCells>
   <pageMargins left="0.15" right="0.1" top="0.2" bottom="0.1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
@@ -28452,126 +28452,126 @@
       <c r="AQ1" s="51"/>
     </row>
     <row r="2" spans="1:43" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="526" t="s">
+      <c r="A2" s="507" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="526" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="520" t="s">
+      <c r="B2" s="507" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="513" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="520"/>
-      <c r="E2" s="520"/>
-      <c r="F2" s="520"/>
-      <c r="G2" s="549" t="s">
+      <c r="D2" s="513"/>
+      <c r="E2" s="513"/>
+      <c r="F2" s="513"/>
+      <c r="G2" s="538" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="550"/>
-      <c r="I2" s="550"/>
-      <c r="J2" s="550"/>
-      <c r="K2" s="551"/>
-      <c r="L2" s="546" t="s">
+      <c r="H2" s="539"/>
+      <c r="I2" s="539"/>
+      <c r="J2" s="539"/>
+      <c r="K2" s="540"/>
+      <c r="L2" s="530" t="s">
         <v>226</v>
       </c>
-      <c r="M2" s="547"/>
-      <c r="N2" s="547"/>
-      <c r="O2" s="547"/>
-      <c r="P2" s="548"/>
-      <c r="Q2" s="520" t="s">
+      <c r="M2" s="531"/>
+      <c r="N2" s="531"/>
+      <c r="O2" s="531"/>
+      <c r="P2" s="532"/>
+      <c r="Q2" s="513" t="s">
         <v>133</v>
       </c>
-      <c r="R2" s="520"/>
-      <c r="S2" s="520"/>
-      <c r="T2" s="520"/>
-      <c r="U2" s="520"/>
-      <c r="V2" s="549" t="s">
+      <c r="R2" s="513"/>
+      <c r="S2" s="513"/>
+      <c r="T2" s="513"/>
+      <c r="U2" s="513"/>
+      <c r="V2" s="538" t="s">
         <v>225</v>
       </c>
-      <c r="W2" s="550"/>
-      <c r="X2" s="550"/>
-      <c r="Y2" s="550"/>
-      <c r="Z2" s="551"/>
-      <c r="AA2" s="546" t="s">
+      <c r="W2" s="539"/>
+      <c r="X2" s="539"/>
+      <c r="Y2" s="539"/>
+      <c r="Z2" s="540"/>
+      <c r="AA2" s="530" t="s">
         <v>179</v>
       </c>
-      <c r="AB2" s="547"/>
-      <c r="AC2" s="547"/>
-      <c r="AD2" s="547"/>
-      <c r="AE2" s="548"/>
+      <c r="AB2" s="531"/>
+      <c r="AC2" s="531"/>
+      <c r="AD2" s="531"/>
+      <c r="AE2" s="532"/>
       <c r="AF2" s="369"/>
-      <c r="AH2" s="527" t="s">
+      <c r="AH2" s="508" t="s">
         <v>113</v>
       </c>
-      <c r="AI2" s="528"/>
+      <c r="AI2" s="509"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
-      <c r="AM2" s="472" t="s">
+      <c r="AM2" s="479" t="s">
         <v>146</v>
       </c>
-      <c r="AN2" s="473"/>
-      <c r="AO2" s="473"/>
-      <c r="AP2" s="473"/>
-      <c r="AQ2" s="474"/>
+      <c r="AN2" s="480"/>
+      <c r="AO2" s="480"/>
+      <c r="AP2" s="480"/>
+      <c r="AQ2" s="481"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A3" s="526"/>
-      <c r="B3" s="526"/>
-      <c r="C3" s="526" t="s">
+      <c r="A3" s="507"/>
+      <c r="B3" s="507"/>
+      <c r="C3" s="507" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="529" t="s">
+      <c r="D3" s="510" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="529"/>
-      <c r="F3" s="526" t="s">
+      <c r="E3" s="510"/>
+      <c r="F3" s="507" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="541" t="s">
+      <c r="G3" s="533" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="543" t="s">
+      <c r="H3" s="535" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="544"/>
-      <c r="J3" s="544"/>
-      <c r="K3" s="545"/>
-      <c r="L3" s="530" t="s">
+      <c r="I3" s="536"/>
+      <c r="J3" s="536"/>
+      <c r="K3" s="537"/>
+      <c r="L3" s="547" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="532" t="s">
+      <c r="M3" s="549" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="533"/>
-      <c r="O3" s="533"/>
-      <c r="P3" s="534"/>
-      <c r="Q3" s="521" t="s">
+      <c r="N3" s="550"/>
+      <c r="O3" s="550"/>
+      <c r="P3" s="551"/>
+      <c r="Q3" s="511" t="s">
         <v>87</v>
       </c>
-      <c r="R3" s="522" t="s">
+      <c r="R3" s="512" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="522"/>
-      <c r="T3" s="522"/>
-      <c r="U3" s="522"/>
-      <c r="V3" s="541" t="s">
+      <c r="S3" s="512"/>
+      <c r="T3" s="512"/>
+      <c r="U3" s="512"/>
+      <c r="V3" s="533" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="543" t="s">
+      <c r="W3" s="535" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="544"/>
-      <c r="Y3" s="544"/>
-      <c r="Z3" s="545"/>
-      <c r="AA3" s="476" t="s">
+      <c r="X3" s="536"/>
+      <c r="Y3" s="536"/>
+      <c r="Z3" s="537"/>
+      <c r="AA3" s="482" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" s="477" t="s">
+      <c r="AB3" s="483" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" s="477"/>
-      <c r="AD3" s="477"/>
-      <c r="AE3" s="477"/>
+      <c r="AC3" s="483"/>
+      <c r="AD3" s="483"/>
+      <c r="AE3" s="483"/>
       <c r="AF3" s="370"/>
       <c r="AH3" s="137" t="s">
         <v>114</v>
@@ -28588,28 +28588,28 @@
       <c r="AL3" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="AM3" s="476" t="s">
+      <c r="AM3" s="482" t="s">
         <v>87</v>
       </c>
-      <c r="AN3" s="477" t="s">
+      <c r="AN3" s="483" t="s">
         <v>86</v>
       </c>
-      <c r="AO3" s="477"/>
-      <c r="AP3" s="477"/>
-      <c r="AQ3" s="477"/>
+      <c r="AO3" s="483"/>
+      <c r="AP3" s="483"/>
+      <c r="AQ3" s="483"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A4" s="526"/>
-      <c r="B4" s="526"/>
-      <c r="C4" s="526"/>
+      <c r="A4" s="507"/>
+      <c r="B4" s="507"/>
+      <c r="C4" s="507"/>
       <c r="D4" s="131" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="526"/>
-      <c r="G4" s="542"/>
+      <c r="F4" s="507"/>
+      <c r="G4" s="534"/>
       <c r="H4" s="125" t="s">
         <v>111</v>
       </c>
@@ -28622,7 +28622,7 @@
       <c r="K4" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="531"/>
+      <c r="L4" s="548"/>
       <c r="M4" s="136" t="s">
         <v>111</v>
       </c>
@@ -28635,7 +28635,7 @@
       <c r="P4" s="136" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="521"/>
+      <c r="Q4" s="511"/>
       <c r="R4" s="125" t="s">
         <v>111</v>
       </c>
@@ -28648,7 +28648,7 @@
       <c r="U4" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="542"/>
+      <c r="V4" s="534"/>
       <c r="W4" s="367" t="s">
         <v>111</v>
       </c>
@@ -28661,7 +28661,7 @@
       <c r="Z4" s="367" t="s">
         <v>75</v>
       </c>
-      <c r="AA4" s="476"/>
+      <c r="AA4" s="482"/>
       <c r="AB4" s="364" t="s">
         <v>111</v>
       </c>
@@ -28679,7 +28679,7 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
-      <c r="AM4" s="476"/>
+      <c r="AM4" s="482"/>
       <c r="AN4" s="143" t="s">
         <v>111</v>
       </c>
@@ -28694,10 +28694,10 @@
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A5" s="525" t="s">
+      <c r="A5" s="506" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="525"/>
+      <c r="B5" s="506"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="12"/>
@@ -28769,11 +28769,11 @@
       <c r="AD6" s="53"/>
       <c r="AE6" s="53"/>
       <c r="AF6" s="372"/>
-      <c r="AH6" s="517">
+      <c r="AH6" s="514">
         <f>SUM(K7:K9)</f>
         <v>14.5</v>
       </c>
-      <c r="AI6" s="517">
+      <c r="AI6" s="514">
         <f>SUM(P7:P9)</f>
         <v>14.5</v>
       </c>
@@ -28868,8 +28868,8 @@
       </c>
       <c r="AF7" s="373"/>
       <c r="AG7" s="37"/>
-      <c r="AH7" s="518"/>
-      <c r="AI7" s="518"/>
+      <c r="AH7" s="515"/>
+      <c r="AI7" s="515"/>
       <c r="AJ7" s="37"/>
       <c r="AL7" s="72">
         <f>H7-M7</f>
@@ -28960,8 +28960,8 @@
       </c>
       <c r="AF8" s="373"/>
       <c r="AG8" s="37"/>
-      <c r="AH8" s="518"/>
-      <c r="AI8" s="518"/>
+      <c r="AH8" s="515"/>
+      <c r="AI8" s="515"/>
       <c r="AJ8" s="37"/>
       <c r="AM8" s="54" t="s">
         <v>78</v>
@@ -29062,8 +29062,8 @@
       </c>
       <c r="AF9" s="373"/>
       <c r="AG9" s="37"/>
-      <c r="AH9" s="518"/>
-      <c r="AI9" s="518"/>
+      <c r="AH9" s="515"/>
+      <c r="AI9" s="515"/>
       <c r="AJ9" s="37"/>
       <c r="AL9" s="72">
         <f>H9-M9</f>
@@ -29546,11 +29546,11 @@
       </c>
       <c r="AF14" s="373"/>
       <c r="AG14" s="37"/>
-      <c r="AH14" s="517">
+      <c r="AH14" s="514">
         <f>SUM(K14:K16)</f>
         <v>0.7</v>
       </c>
-      <c r="AI14" s="517">
+      <c r="AI14" s="514">
         <f>SUM(P14:P16)</f>
         <v>0.65</v>
       </c>
@@ -29658,8 +29658,8 @@
       </c>
       <c r="AF15" s="373"/>
       <c r="AG15" s="37"/>
-      <c r="AH15" s="518"/>
-      <c r="AI15" s="518"/>
+      <c r="AH15" s="515"/>
+      <c r="AI15" s="515"/>
       <c r="AJ15" s="37"/>
       <c r="AL15" s="72">
         <f t="shared" si="5"/>
@@ -29764,8 +29764,8 @@
       </c>
       <c r="AF16" s="373"/>
       <c r="AG16" s="37"/>
-      <c r="AH16" s="518"/>
-      <c r="AI16" s="518"/>
+      <c r="AH16" s="515"/>
+      <c r="AI16" s="515"/>
       <c r="AJ16" s="37"/>
       <c r="AL16" s="72">
         <f t="shared" si="5"/>
@@ -29982,11 +29982,11 @@
       </c>
       <c r="AF18" s="373"/>
       <c r="AG18" s="37"/>
-      <c r="AH18" s="517">
+      <c r="AH18" s="514">
         <f>SUM(K18:K19)</f>
         <v>4.7</v>
       </c>
-      <c r="AI18" s="517">
+      <c r="AI18" s="514">
         <f>SUM(P18:P19)</f>
         <v>3.4400000000000004</v>
       </c>
@@ -30094,8 +30094,8 @@
       </c>
       <c r="AF19" s="373"/>
       <c r="AG19" s="37"/>
-      <c r="AH19" s="517"/>
-      <c r="AI19" s="518"/>
+      <c r="AH19" s="514"/>
+      <c r="AI19" s="515"/>
       <c r="AJ19" s="37"/>
       <c r="AL19" s="72">
         <f t="shared" si="5"/>
@@ -30200,11 +30200,11 @@
       </c>
       <c r="AF20" s="373"/>
       <c r="AG20" s="37"/>
-      <c r="AH20" s="517">
+      <c r="AH20" s="514">
         <f>SUM(K20:K21)</f>
         <v>31</v>
       </c>
-      <c r="AI20" s="517">
+      <c r="AI20" s="514">
         <f>SUM(P20:P21)</f>
         <v>28.2</v>
       </c>
@@ -30312,8 +30312,8 @@
       </c>
       <c r="AF21" s="373"/>
       <c r="AG21" s="37"/>
-      <c r="AH21" s="518"/>
-      <c r="AI21" s="518"/>
+      <c r="AH21" s="515"/>
+      <c r="AI21" s="515"/>
       <c r="AJ21" s="37"/>
       <c r="AL21" s="72">
         <f t="shared" si="5"/>
@@ -30782,7 +30782,7 @@
       </c>
     </row>
     <row r="26" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="519">
+      <c r="A26" s="516">
         <v>3231201</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -30835,7 +30835,7 @@
       <c r="AQ26" s="65"/>
     </row>
     <row r="27" spans="1:43" s="9" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A27" s="519"/>
+      <c r="A27" s="516"/>
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -30895,7 +30895,7 @@
       <c r="AQ27" s="65"/>
     </row>
     <row r="28" spans="1:43" s="9" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="519"/>
+      <c r="A28" s="516"/>
       <c r="B28" s="46" t="s">
         <v>24</v>
       </c>
@@ -30987,15 +30987,15 @@
       </c>
       <c r="AF28" s="373"/>
       <c r="AG28" s="37"/>
-      <c r="AH28" s="508">
+      <c r="AH28" s="517">
         <f>SUM(K28:K30)</f>
         <v>810</v>
       </c>
-      <c r="AI28" s="508">
+      <c r="AI28" s="517">
         <f>SUM(P28:P30)</f>
         <v>443.29999999999995</v>
       </c>
-      <c r="AJ28" s="504">
+      <c r="AJ28" s="523">
         <f>SUM(N28:N30)</f>
         <v>398.15999999999997</v>
       </c>
@@ -31021,7 +31021,7 @@
       </c>
     </row>
     <row r="29" spans="1:43" s="9" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="519"/>
+      <c r="A29" s="516"/>
       <c r="B29" s="46" t="s">
         <v>25</v>
       </c>
@@ -31113,9 +31113,9 @@
       </c>
       <c r="AF29" s="373"/>
       <c r="AG29" s="37"/>
-      <c r="AH29" s="509"/>
-      <c r="AI29" s="509"/>
-      <c r="AJ29" s="505"/>
+      <c r="AH29" s="518"/>
+      <c r="AI29" s="518"/>
+      <c r="AJ29" s="524"/>
       <c r="AL29" s="72">
         <f>H29-M29</f>
         <v>1.8200000000000003</v>
@@ -31138,7 +31138,7 @@
       </c>
     </row>
     <row r="30" spans="1:43" s="9" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="519"/>
+      <c r="A30" s="516"/>
       <c r="B30" s="46" t="s">
         <v>26</v>
       </c>
@@ -31230,9 +31230,9 @@
       </c>
       <c r="AF30" s="373"/>
       <c r="AG30" s="37"/>
-      <c r="AH30" s="509"/>
-      <c r="AI30" s="509"/>
-      <c r="AJ30" s="505"/>
+      <c r="AH30" s="518"/>
+      <c r="AI30" s="518"/>
+      <c r="AJ30" s="524"/>
       <c r="AL30" s="72">
         <f>H30-M30</f>
         <v>5.2299999999999995</v>
@@ -31603,7 +31603,7 @@
       </c>
     </row>
     <row r="34" spans="1:43" s="9" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A34" s="514">
+      <c r="A34" s="519">
         <v>3111332</v>
       </c>
       <c r="B34" s="46" t="s">
@@ -31687,11 +31687,11 @@
       </c>
       <c r="AF34" s="373"/>
       <c r="AG34" s="37"/>
-      <c r="AH34" s="508">
+      <c r="AH34" s="517">
         <f>SUM(K34:K36)</f>
         <v>7</v>
       </c>
-      <c r="AI34" s="508">
+      <c r="AI34" s="517">
         <f>SUM(P34:P36)</f>
         <v>3.8200000000000003</v>
       </c>
@@ -31715,7 +31715,7 @@
       </c>
     </row>
     <row r="35" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="515"/>
+      <c r="A35" s="520"/>
       <c r="B35" s="46" t="s">
         <v>30</v>
       </c>
@@ -31797,8 +31797,8 @@
       </c>
       <c r="AF35" s="373"/>
       <c r="AG35" s="37"/>
-      <c r="AH35" s="509"/>
-      <c r="AI35" s="509"/>
+      <c r="AH35" s="518"/>
+      <c r="AI35" s="518"/>
       <c r="AJ35" s="37"/>
       <c r="AL35" s="72">
         <f t="shared" si="12"/>
@@ -31819,7 +31819,7 @@
       </c>
     </row>
     <row r="36" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="516"/>
+      <c r="A36" s="521"/>
       <c r="B36" s="46" t="s">
         <v>31</v>
       </c>
@@ -31901,8 +31901,8 @@
       </c>
       <c r="AF36" s="373"/>
       <c r="AG36" s="37"/>
-      <c r="AH36" s="509"/>
-      <c r="AI36" s="509"/>
+      <c r="AH36" s="518"/>
+      <c r="AI36" s="518"/>
       <c r="AJ36" s="37"/>
       <c r="AL36" s="72">
         <f t="shared" si="12"/>
@@ -32388,11 +32388,11 @@
       </c>
       <c r="AF41" s="373"/>
       <c r="AG41" s="37"/>
-      <c r="AH41" s="508">
+      <c r="AH41" s="517">
         <f>SUM(K41:K50)</f>
         <v>84.109999999999985</v>
       </c>
-      <c r="AI41" s="508">
+      <c r="AI41" s="517">
         <f>SUM(P41:P50)</f>
         <v>63.06</v>
       </c>
@@ -32500,8 +32500,8 @@
       </c>
       <c r="AF42" s="373"/>
       <c r="AG42" s="37"/>
-      <c r="AH42" s="509"/>
-      <c r="AI42" s="509"/>
+      <c r="AH42" s="518"/>
+      <c r="AI42" s="518"/>
       <c r="AJ42" s="37"/>
       <c r="AL42" s="72">
         <f t="shared" si="16"/>
@@ -32606,8 +32606,8 @@
       </c>
       <c r="AF43" s="373"/>
       <c r="AG43" s="37"/>
-      <c r="AH43" s="509"/>
-      <c r="AI43" s="509"/>
+      <c r="AH43" s="518"/>
+      <c r="AI43" s="518"/>
       <c r="AJ43" s="37"/>
       <c r="AL43" s="72">
         <f t="shared" si="16"/>
@@ -32712,8 +32712,8 @@
       </c>
       <c r="AF44" s="373"/>
       <c r="AG44" s="37"/>
-      <c r="AH44" s="509"/>
-      <c r="AI44" s="509"/>
+      <c r="AH44" s="518"/>
+      <c r="AI44" s="518"/>
       <c r="AJ44" s="37"/>
       <c r="AL44" s="72">
         <f t="shared" si="16"/>
@@ -32814,8 +32814,8 @@
       </c>
       <c r="AF45" s="373"/>
       <c r="AG45" s="37"/>
-      <c r="AH45" s="509"/>
-      <c r="AI45" s="509"/>
+      <c r="AH45" s="518"/>
+      <c r="AI45" s="518"/>
       <c r="AJ45" s="37"/>
       <c r="AL45" s="72">
         <f t="shared" si="16"/>
@@ -32920,8 +32920,8 @@
       </c>
       <c r="AF46" s="373"/>
       <c r="AG46" s="37"/>
-      <c r="AH46" s="509"/>
-      <c r="AI46" s="509"/>
+      <c r="AH46" s="518"/>
+      <c r="AI46" s="518"/>
       <c r="AJ46" s="37"/>
       <c r="AL46" s="72">
         <f t="shared" si="16"/>
@@ -33026,8 +33026,8 @@
       </c>
       <c r="AF47" s="373"/>
       <c r="AG47" s="37"/>
-      <c r="AH47" s="509"/>
-      <c r="AI47" s="509"/>
+      <c r="AH47" s="518"/>
+      <c r="AI47" s="518"/>
       <c r="AJ47" s="37"/>
       <c r="AL47" s="72">
         <f t="shared" si="16"/>
@@ -33142,8 +33142,8 @@
       </c>
       <c r="AF48" s="373"/>
       <c r="AG48" s="37"/>
-      <c r="AH48" s="509"/>
-      <c r="AI48" s="509"/>
+      <c r="AH48" s="518"/>
+      <c r="AI48" s="518"/>
       <c r="AJ48" s="71">
         <f>N48</f>
         <v>29.46</v>
@@ -33257,8 +33257,8 @@
       </c>
       <c r="AF49" s="373"/>
       <c r="AG49" s="37"/>
-      <c r="AH49" s="509"/>
-      <c r="AI49" s="509"/>
+      <c r="AH49" s="518"/>
+      <c r="AI49" s="518"/>
       <c r="AJ49" s="37"/>
       <c r="AL49" s="72">
         <f t="shared" si="16"/>
@@ -33363,8 +33363,8 @@
       </c>
       <c r="AF50" s="373"/>
       <c r="AG50" s="37"/>
-      <c r="AH50" s="509"/>
-      <c r="AI50" s="509"/>
+      <c r="AH50" s="518"/>
+      <c r="AI50" s="518"/>
       <c r="AJ50" s="37"/>
       <c r="AL50" s="72">
         <f t="shared" si="16"/>
@@ -33533,90 +33533,90 @@
     <row r="52" spans="1:43" s="106" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="104"/>
       <c r="B52" s="104"/>
-      <c r="C52" s="506"/>
-      <c r="D52" s="506"/>
-      <c r="E52" s="507"/>
-      <c r="F52" s="506"/>
-      <c r="G52" s="537"/>
-      <c r="H52" s="539"/>
-      <c r="I52" s="537"/>
-      <c r="J52" s="539"/>
-      <c r="K52" s="537"/>
-      <c r="L52" s="535"/>
-      <c r="M52" s="535"/>
-      <c r="N52" s="535"/>
-      <c r="O52" s="535"/>
-      <c r="P52" s="535"/>
-      <c r="Q52" s="507"/>
-      <c r="R52" s="507"/>
-      <c r="S52" s="507"/>
-      <c r="T52" s="507"/>
-      <c r="U52" s="507"/>
-      <c r="V52" s="537"/>
-      <c r="W52" s="539"/>
-      <c r="X52" s="537"/>
-      <c r="Y52" s="539"/>
-      <c r="Z52" s="537"/>
-      <c r="AA52" s="500"/>
-      <c r="AB52" s="500"/>
-      <c r="AC52" s="500"/>
-      <c r="AD52" s="500"/>
-      <c r="AE52" s="500"/>
+      <c r="C52" s="525"/>
+      <c r="D52" s="525"/>
+      <c r="E52" s="522"/>
+      <c r="F52" s="525"/>
+      <c r="G52" s="543"/>
+      <c r="H52" s="541"/>
+      <c r="I52" s="543"/>
+      <c r="J52" s="541"/>
+      <c r="K52" s="543"/>
+      <c r="L52" s="545"/>
+      <c r="M52" s="545"/>
+      <c r="N52" s="545"/>
+      <c r="O52" s="545"/>
+      <c r="P52" s="545"/>
+      <c r="Q52" s="522"/>
+      <c r="R52" s="522"/>
+      <c r="S52" s="522"/>
+      <c r="T52" s="522"/>
+      <c r="U52" s="522"/>
+      <c r="V52" s="543"/>
+      <c r="W52" s="541"/>
+      <c r="X52" s="543"/>
+      <c r="Y52" s="541"/>
+      <c r="Z52" s="543"/>
+      <c r="AA52" s="478"/>
+      <c r="AB52" s="478"/>
+      <c r="AC52" s="478"/>
+      <c r="AD52" s="478"/>
+      <c r="AE52" s="478"/>
       <c r="AF52" s="375"/>
       <c r="AG52" s="105"/>
       <c r="AH52" s="105"/>
       <c r="AI52" s="105"/>
       <c r="AJ52" s="105"/>
-      <c r="AM52" s="500"/>
-      <c r="AN52" s="500"/>
-      <c r="AO52" s="500"/>
-      <c r="AP52" s="500"/>
-      <c r="AQ52" s="500"/>
+      <c r="AM52" s="478"/>
+      <c r="AN52" s="478"/>
+      <c r="AO52" s="478"/>
+      <c r="AP52" s="478"/>
+      <c r="AQ52" s="478"/>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A53" s="102" t="s">
         <v>79</v>
       </c>
       <c r="B53" s="107"/>
-      <c r="C53" s="506"/>
-      <c r="D53" s="506"/>
-      <c r="E53" s="507"/>
-      <c r="F53" s="506"/>
-      <c r="G53" s="538"/>
-      <c r="H53" s="540"/>
-      <c r="I53" s="538"/>
-      <c r="J53" s="540"/>
-      <c r="K53" s="538"/>
-      <c r="L53" s="536"/>
-      <c r="M53" s="536"/>
-      <c r="N53" s="536"/>
-      <c r="O53" s="536"/>
-      <c r="P53" s="536"/>
-      <c r="Q53" s="507"/>
-      <c r="R53" s="507"/>
-      <c r="S53" s="507"/>
-      <c r="T53" s="507"/>
-      <c r="U53" s="507"/>
-      <c r="V53" s="538"/>
-      <c r="W53" s="540"/>
-      <c r="X53" s="538"/>
-      <c r="Y53" s="540"/>
-      <c r="Z53" s="538"/>
-      <c r="AA53" s="500"/>
-      <c r="AB53" s="500"/>
-      <c r="AC53" s="500"/>
-      <c r="AD53" s="500"/>
-      <c r="AE53" s="500"/>
+      <c r="C53" s="525"/>
+      <c r="D53" s="525"/>
+      <c r="E53" s="522"/>
+      <c r="F53" s="525"/>
+      <c r="G53" s="544"/>
+      <c r="H53" s="542"/>
+      <c r="I53" s="544"/>
+      <c r="J53" s="542"/>
+      <c r="K53" s="544"/>
+      <c r="L53" s="546"/>
+      <c r="M53" s="546"/>
+      <c r="N53" s="546"/>
+      <c r="O53" s="546"/>
+      <c r="P53" s="546"/>
+      <c r="Q53" s="522"/>
+      <c r="R53" s="522"/>
+      <c r="S53" s="522"/>
+      <c r="T53" s="522"/>
+      <c r="U53" s="522"/>
+      <c r="V53" s="544"/>
+      <c r="W53" s="542"/>
+      <c r="X53" s="544"/>
+      <c r="Y53" s="542"/>
+      <c r="Z53" s="544"/>
+      <c r="AA53" s="478"/>
+      <c r="AB53" s="478"/>
+      <c r="AC53" s="478"/>
+      <c r="AD53" s="478"/>
+      <c r="AE53" s="478"/>
       <c r="AF53" s="375"/>
       <c r="AG53" s="37"/>
       <c r="AH53" s="37"/>
       <c r="AI53" s="37"/>
       <c r="AJ53" s="37"/>
-      <c r="AM53" s="500"/>
-      <c r="AN53" s="500"/>
-      <c r="AO53" s="500"/>
-      <c r="AP53" s="500"/>
-      <c r="AQ53" s="500"/>
+      <c r="AM53" s="478"/>
+      <c r="AN53" s="478"/>
+      <c r="AO53" s="478"/>
+      <c r="AP53" s="478"/>
+      <c r="AQ53" s="478"/>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A54" s="48"/>
@@ -33664,7 +33664,7 @@
       <c r="AQ54" s="57"/>
     </row>
     <row r="55" spans="1:43" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="513">
+      <c r="A55" s="526">
         <v>4112101</v>
       </c>
       <c r="B55" s="103" t="s">
@@ -33736,11 +33736,11 @@
       </c>
       <c r="AF55" s="373"/>
       <c r="AG55" s="37"/>
-      <c r="AH55" s="508">
+      <c r="AH55" s="517">
         <f>SUM(K55:K56)</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="508">
+      <c r="AI55" s="517">
         <f>SUM(P55:P56)</f>
         <v>0</v>
       </c>
@@ -33760,7 +33760,7 @@
       </c>
     </row>
     <row r="56" spans="1:43" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="513"/>
+      <c r="A56" s="526"/>
       <c r="B56" s="46" t="s">
         <v>47</v>
       </c>
@@ -33826,8 +33826,8 @@
       </c>
       <c r="AF56" s="373"/>
       <c r="AG56" s="37"/>
-      <c r="AH56" s="509"/>
-      <c r="AI56" s="509"/>
+      <c r="AH56" s="518"/>
+      <c r="AI56" s="518"/>
       <c r="AJ56" s="37"/>
       <c r="AM56" s="144"/>
       <c r="AN56" s="54" t="e">
@@ -33932,7 +33932,7 @@
       </c>
     </row>
     <row r="58" spans="1:43" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="512">
+      <c r="A58" s="529">
         <v>4112316</v>
       </c>
       <c r="B58" s="46" t="s">
@@ -34000,11 +34000,11 @@
       </c>
       <c r="AF58" s="373"/>
       <c r="AG58" s="37"/>
-      <c r="AH58" s="508">
+      <c r="AH58" s="517">
         <f>SUM(K58:K59)</f>
         <v>0</v>
       </c>
-      <c r="AI58" s="508">
+      <c r="AI58" s="517">
         <f>SUM(P58:P59)</f>
         <v>0</v>
       </c>
@@ -34022,7 +34022,7 @@
       </c>
     </row>
     <row r="59" spans="1:43" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="512"/>
+      <c r="A59" s="529"/>
       <c r="B59" s="46" t="s">
         <v>50</v>
       </c>
@@ -34088,8 +34088,8 @@
       </c>
       <c r="AF59" s="373"/>
       <c r="AG59" s="37"/>
-      <c r="AH59" s="509"/>
-      <c r="AI59" s="509"/>
+      <c r="AH59" s="518"/>
+      <c r="AI59" s="518"/>
       <c r="AJ59" s="37"/>
       <c r="AM59" s="144"/>
       <c r="AN59" s="54" t="e">
@@ -34104,7 +34104,7 @@
       </c>
     </row>
     <row r="60" spans="1:43" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="512">
+      <c r="A60" s="529">
         <v>4112304</v>
       </c>
       <c r="B60" s="46" t="s">
@@ -34172,11 +34172,11 @@
       </c>
       <c r="AF60" s="373"/>
       <c r="AG60" s="37"/>
-      <c r="AH60" s="508">
+      <c r="AH60" s="517">
         <f>SUM(K60:K62)</f>
         <v>5</v>
       </c>
-      <c r="AI60" s="508">
+      <c r="AI60" s="517">
         <f>SUM(P60:P62)</f>
         <v>5</v>
       </c>
@@ -34194,7 +34194,7 @@
       </c>
     </row>
     <row r="61" spans="1:43" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A61" s="512"/>
+      <c r="A61" s="529"/>
       <c r="B61" s="46" t="s">
         <v>52</v>
       </c>
@@ -34260,8 +34260,8 @@
       </c>
       <c r="AF61" s="373"/>
       <c r="AG61" s="37"/>
-      <c r="AH61" s="509"/>
-      <c r="AI61" s="509"/>
+      <c r="AH61" s="518"/>
+      <c r="AI61" s="518"/>
       <c r="AJ61" s="37"/>
       <c r="AM61" s="144"/>
       <c r="AN61" s="54" t="e">
@@ -34276,7 +34276,7 @@
       </c>
     </row>
     <row r="62" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A62" s="512"/>
+      <c r="A62" s="529"/>
       <c r="B62" s="46" t="s">
         <v>53</v>
       </c>
@@ -34354,8 +34354,8 @@
       </c>
       <c r="AF62" s="373"/>
       <c r="AG62" s="37"/>
-      <c r="AH62" s="509"/>
-      <c r="AI62" s="509"/>
+      <c r="AH62" s="518"/>
+      <c r="AI62" s="518"/>
       <c r="AJ62" s="37"/>
       <c r="AM62" s="144" t="s">
         <v>78</v>
@@ -34372,7 +34372,7 @@
       </c>
     </row>
     <row r="63" spans="1:43" ht="67.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="512">
+      <c r="A63" s="529">
         <v>4112202</v>
       </c>
       <c r="B63" s="103" t="s">
@@ -34440,11 +34440,11 @@
       </c>
       <c r="AF63" s="373"/>
       <c r="AG63" s="37"/>
-      <c r="AH63" s="508">
+      <c r="AH63" s="517">
         <f>SUM(K63:K66)</f>
         <v>0</v>
       </c>
-      <c r="AI63" s="508">
+      <c r="AI63" s="517">
         <f>SUM(P63:P66)</f>
         <v>0</v>
       </c>
@@ -34462,7 +34462,7 @@
       </c>
     </row>
     <row r="64" spans="1:43" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A64" s="512"/>
+      <c r="A64" s="529"/>
       <c r="B64" s="46" t="s">
         <v>55</v>
       </c>
@@ -34528,8 +34528,8 @@
       </c>
       <c r="AF64" s="373"/>
       <c r="AG64" s="37"/>
-      <c r="AH64" s="509"/>
-      <c r="AI64" s="509"/>
+      <c r="AH64" s="518"/>
+      <c r="AI64" s="518"/>
       <c r="AJ64" s="37"/>
       <c r="AM64" s="144"/>
       <c r="AN64" s="54" t="e">
@@ -34544,7 +34544,7 @@
       </c>
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A65" s="512"/>
+      <c r="A65" s="529"/>
       <c r="B65" s="46" t="s">
         <v>56</v>
       </c>
@@ -34610,8 +34610,8 @@
       </c>
       <c r="AF65" s="373"/>
       <c r="AG65" s="37"/>
-      <c r="AH65" s="509"/>
-      <c r="AI65" s="509"/>
+      <c r="AH65" s="518"/>
+      <c r="AI65" s="518"/>
       <c r="AJ65" s="37"/>
       <c r="AM65" s="144"/>
       <c r="AN65" s="54" t="e">
@@ -34626,7 +34626,7 @@
       </c>
     </row>
     <row r="66" spans="1:43" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A66" s="512"/>
+      <c r="A66" s="529"/>
       <c r="B66" s="46" t="s">
         <v>57</v>
       </c>
@@ -34692,8 +34692,8 @@
       </c>
       <c r="AF66" s="373"/>
       <c r="AG66" s="37"/>
-      <c r="AH66" s="509"/>
-      <c r="AI66" s="509"/>
+      <c r="AH66" s="518"/>
+      <c r="AI66" s="518"/>
       <c r="AJ66" s="37"/>
       <c r="AM66" s="144"/>
       <c r="AN66" s="54" t="e">
@@ -34784,11 +34784,11 @@
       </c>
       <c r="AF67" s="373"/>
       <c r="AG67" s="37"/>
-      <c r="AH67" s="510">
+      <c r="AH67" s="527">
         <f>SUM(K67:K68)</f>
         <v>4</v>
       </c>
-      <c r="AI67" s="510">
+      <c r="AI67" s="527">
         <f>SUM(P67:P68)</f>
         <v>2.99</v>
       </c>
@@ -34888,8 +34888,8 @@
       </c>
       <c r="AF68" s="373"/>
       <c r="AG68" s="37"/>
-      <c r="AH68" s="511"/>
-      <c r="AI68" s="511"/>
+      <c r="AH68" s="528"/>
+      <c r="AI68" s="528"/>
       <c r="AJ68" s="37"/>
       <c r="AM68" s="144" t="s">
         <v>78</v>
@@ -35138,15 +35138,15 @@
       <c r="AE72" s="69"/>
       <c r="AF72" s="105"/>
       <c r="AG72" s="37"/>
-      <c r="AH72" s="508">
+      <c r="AH72" s="517">
         <f>SUM(K72:K85)</f>
         <v>16186.000000000002</v>
       </c>
-      <c r="AI72" s="508">
+      <c r="AI72" s="517">
         <f>SUM(P72:P85)</f>
         <v>11111.429999999998</v>
       </c>
-      <c r="AJ72" s="508">
+      <c r="AJ72" s="517">
         <f>SUM(N72:N85)</f>
         <v>9722.4999999999982</v>
       </c>
@@ -35234,9 +35234,9 @@
       </c>
       <c r="AF73" s="105"/>
       <c r="AG73" s="37"/>
-      <c r="AH73" s="509"/>
-      <c r="AI73" s="509"/>
-      <c r="AJ73" s="509"/>
+      <c r="AH73" s="518"/>
+      <c r="AI73" s="518"/>
+      <c r="AJ73" s="518"/>
       <c r="AM73" s="79" t="s">
         <v>136</v>
       </c>
@@ -35292,9 +35292,9 @@
       <c r="AE74" s="65"/>
       <c r="AF74" s="105"/>
       <c r="AG74" s="37"/>
-      <c r="AH74" s="509"/>
-      <c r="AI74" s="509"/>
-      <c r="AJ74" s="509"/>
+      <c r="AH74" s="518"/>
+      <c r="AI74" s="518"/>
+      <c r="AJ74" s="518"/>
       <c r="AM74" s="81"/>
       <c r="AN74" s="65"/>
       <c r="AO74" s="65"/>
@@ -35374,9 +35374,9 @@
       </c>
       <c r="AF75" s="105"/>
       <c r="AG75" s="37"/>
-      <c r="AH75" s="509"/>
-      <c r="AI75" s="509"/>
-      <c r="AJ75" s="509"/>
+      <c r="AH75" s="518"/>
+      <c r="AI75" s="518"/>
+      <c r="AJ75" s="518"/>
       <c r="AM75" s="79" t="s">
         <v>137</v>
       </c>
@@ -35489,9 +35489,9 @@
       </c>
       <c r="AF76" s="373"/>
       <c r="AG76" s="37"/>
-      <c r="AH76" s="509"/>
-      <c r="AI76" s="509"/>
-      <c r="AJ76" s="509"/>
+      <c r="AH76" s="518"/>
+      <c r="AI76" s="518"/>
+      <c r="AJ76" s="518"/>
       <c r="AM76" s="79" t="s">
         <v>110</v>
       </c>
@@ -35604,9 +35604,9 @@
       </c>
       <c r="AF77" s="373"/>
       <c r="AG77" s="37"/>
-      <c r="AH77" s="509"/>
-      <c r="AI77" s="509"/>
-      <c r="AJ77" s="509"/>
+      <c r="AH77" s="518"/>
+      <c r="AI77" s="518"/>
+      <c r="AJ77" s="518"/>
       <c r="AL77" s="116"/>
       <c r="AM77" s="79" t="s">
         <v>109</v>
@@ -35661,9 +35661,9 @@
       <c r="AE78" s="67"/>
       <c r="AF78" s="105"/>
       <c r="AG78" s="37"/>
-      <c r="AH78" s="509"/>
-      <c r="AI78" s="509"/>
-      <c r="AJ78" s="509"/>
+      <c r="AH78" s="518"/>
+      <c r="AI78" s="518"/>
+      <c r="AJ78" s="518"/>
       <c r="AL78" s="116"/>
       <c r="AM78" s="81"/>
       <c r="AN78" s="67"/>
@@ -35752,9 +35752,9 @@
       </c>
       <c r="AF79" s="105"/>
       <c r="AG79" s="37"/>
-      <c r="AH79" s="509"/>
-      <c r="AI79" s="509"/>
-      <c r="AJ79" s="509"/>
+      <c r="AH79" s="518"/>
+      <c r="AI79" s="518"/>
+      <c r="AJ79" s="518"/>
       <c r="AL79" s="116"/>
       <c r="AM79" s="79" t="s">
         <v>138</v>
@@ -35854,9 +35854,9 @@
       </c>
       <c r="AF80" s="105"/>
       <c r="AG80" s="37"/>
-      <c r="AH80" s="509"/>
-      <c r="AI80" s="509"/>
-      <c r="AJ80" s="509"/>
+      <c r="AH80" s="518"/>
+      <c r="AI80" s="518"/>
+      <c r="AJ80" s="518"/>
       <c r="AL80" s="116"/>
       <c r="AM80" s="79" t="s">
         <v>135</v>
@@ -35956,9 +35956,9 @@
       </c>
       <c r="AF81" s="105"/>
       <c r="AG81" s="37"/>
-      <c r="AH81" s="509"/>
-      <c r="AI81" s="509"/>
-      <c r="AJ81" s="509"/>
+      <c r="AH81" s="518"/>
+      <c r="AI81" s="518"/>
+      <c r="AJ81" s="518"/>
       <c r="AK81" s="116"/>
       <c r="AL81" s="116"/>
       <c r="AM81" s="79" t="s">
@@ -36073,9 +36073,9 @@
       </c>
       <c r="AF82" s="373"/>
       <c r="AG82" s="37"/>
-      <c r="AH82" s="509"/>
-      <c r="AI82" s="509"/>
-      <c r="AJ82" s="509"/>
+      <c r="AH82" s="518"/>
+      <c r="AI82" s="518"/>
+      <c r="AJ82" s="518"/>
       <c r="AL82" s="118"/>
       <c r="AM82" s="79" t="s">
         <v>108</v>
@@ -36175,9 +36175,9 @@
       </c>
       <c r="AF83" s="105"/>
       <c r="AG83" s="37"/>
-      <c r="AH83" s="509"/>
-      <c r="AI83" s="509"/>
-      <c r="AJ83" s="509"/>
+      <c r="AH83" s="518"/>
+      <c r="AI83" s="518"/>
+      <c r="AJ83" s="518"/>
       <c r="AM83" s="79" t="s">
         <v>140</v>
       </c>
@@ -36276,9 +36276,9 @@
       </c>
       <c r="AF84" s="105"/>
       <c r="AG84" s="37"/>
-      <c r="AH84" s="509"/>
-      <c r="AI84" s="509"/>
-      <c r="AJ84" s="509"/>
+      <c r="AH84" s="518"/>
+      <c r="AI84" s="518"/>
+      <c r="AJ84" s="518"/>
       <c r="AM84" s="79" t="s">
         <v>105</v>
       </c>
@@ -36339,9 +36339,9 @@
       <c r="AE85" s="65"/>
       <c r="AF85" s="105"/>
       <c r="AG85" s="37"/>
-      <c r="AH85" s="509"/>
-      <c r="AI85" s="509"/>
-      <c r="AJ85" s="509"/>
+      <c r="AH85" s="518"/>
+      <c r="AI85" s="518"/>
+      <c r="AJ85" s="518"/>
       <c r="AK85" s="75"/>
       <c r="AM85" s="63"/>
       <c r="AN85" s="65"/>
@@ -36731,11 +36731,11 @@
       <c r="AG89" s="37"/>
       <c r="AH89" s="37"/>
       <c r="AI89" s="37"/>
-      <c r="AJ89" s="504">
+      <c r="AJ89" s="523">
         <f>AJ87+AK87</f>
         <v>10600.119999999999</v>
       </c>
-      <c r="AK89" s="505"/>
+      <c r="AK89" s="524"/>
       <c r="AM89" s="61"/>
       <c r="AN89" s="60"/>
       <c r="AO89" s="60"/>
@@ -36993,8 +36993,8 @@
         <f>SUM(AE73:AE85)+AE48</f>
         <v>11144.599999999999</v>
       </c>
-      <c r="AP93" s="523"/>
-      <c r="AQ93" s="524"/>
+      <c r="AP93" s="504"/>
+      <c r="AQ93" s="505"/>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.3">
       <c r="L94" s="4" t="s">
@@ -37548,6 +37548,86 @@
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="AJ89:AK89"/>
+    <mergeCell ref="AH72:AH85"/>
+    <mergeCell ref="AI72:AI85"/>
+    <mergeCell ref="AH55:AH56"/>
+    <mergeCell ref="AI55:AI56"/>
+    <mergeCell ref="AJ72:AJ85"/>
+    <mergeCell ref="AH67:AH68"/>
+    <mergeCell ref="AI67:AI68"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="AH58:AH59"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="AH60:AH62"/>
+    <mergeCell ref="AI60:AI62"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="AH63:AH66"/>
+    <mergeCell ref="AI63:AI66"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="U52:U53"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="AA52:AA53"/>
+    <mergeCell ref="AB52:AB53"/>
+    <mergeCell ref="AC52:AC53"/>
+    <mergeCell ref="AD52:AD53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="AH28:AH30"/>
+    <mergeCell ref="AI28:AI30"/>
+    <mergeCell ref="AJ28:AJ30"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="AH34:AH36"/>
+    <mergeCell ref="AI34:AI36"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="Y52:Y53"/>
+    <mergeCell ref="Z52:Z53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="X52:X53"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="AI6:AI9"/>
+    <mergeCell ref="AH14:AH16"/>
+    <mergeCell ref="AI14:AI16"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="AH6:AH9"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AE52:AE53"/>
     <mergeCell ref="AP93:AQ93"/>
     <mergeCell ref="AM2:AQ2"/>
@@ -37564,86 +37644,6 @@
     <mergeCell ref="AI18:AI19"/>
     <mergeCell ref="AH41:AH50"/>
     <mergeCell ref="AI41:AI50"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="AH6:AH9"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="AI6:AI9"/>
-    <mergeCell ref="AH14:AH16"/>
-    <mergeCell ref="AI14:AI16"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="Y52:Y53"/>
-    <mergeCell ref="Z52:Z53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="X52:X53"/>
-    <mergeCell ref="AH28:AH30"/>
-    <mergeCell ref="AI28:AI30"/>
-    <mergeCell ref="AJ28:AJ30"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="AH34:AH36"/>
-    <mergeCell ref="AI34:AI36"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="AH63:AH66"/>
-    <mergeCell ref="AI63:AI66"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="S52:S53"/>
-    <mergeCell ref="U52:U53"/>
-    <mergeCell ref="T52:T53"/>
-    <mergeCell ref="AA52:AA53"/>
-    <mergeCell ref="AB52:AB53"/>
-    <mergeCell ref="AC52:AC53"/>
-    <mergeCell ref="AD52:AD53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="AH58:AH59"/>
-    <mergeCell ref="AI58:AI59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="AH60:AH62"/>
-    <mergeCell ref="AI60:AI62"/>
-    <mergeCell ref="AJ89:AK89"/>
-    <mergeCell ref="AH72:AH85"/>
-    <mergeCell ref="AI72:AI85"/>
-    <mergeCell ref="AH55:AH56"/>
-    <mergeCell ref="AI55:AI56"/>
-    <mergeCell ref="AJ72:AJ85"/>
-    <mergeCell ref="AH67:AH68"/>
-    <mergeCell ref="AI67:AI68"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
   </mergeCells>
   <pageMargins left="0.15" right="0.1" top="0.2" bottom="0.1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
@@ -39680,125 +39680,125 @@
       <c r="AR1" s="51"/>
     </row>
     <row r="2" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="526" t="s">
+      <c r="A2" s="507" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="526" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="549" t="s">
+      <c r="B2" s="507" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="538" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="550"/>
-      <c r="E2" s="550"/>
-      <c r="F2" s="551"/>
-      <c r="G2" s="549" t="s">
+      <c r="D2" s="539"/>
+      <c r="E2" s="539"/>
+      <c r="F2" s="540"/>
+      <c r="G2" s="538" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="550"/>
-      <c r="I2" s="550"/>
-      <c r="J2" s="550"/>
-      <c r="K2" s="551"/>
-      <c r="L2" s="549" t="s">
+      <c r="H2" s="539"/>
+      <c r="I2" s="539"/>
+      <c r="J2" s="539"/>
+      <c r="K2" s="540"/>
+      <c r="L2" s="538" t="s">
         <v>177</v>
       </c>
-      <c r="M2" s="550"/>
-      <c r="N2" s="550"/>
-      <c r="O2" s="551"/>
-      <c r="P2" s="549" t="s">
+      <c r="M2" s="539"/>
+      <c r="N2" s="539"/>
+      <c r="O2" s="540"/>
+      <c r="P2" s="538" t="s">
         <v>178</v>
       </c>
-      <c r="Q2" s="550"/>
-      <c r="R2" s="550"/>
-      <c r="S2" s="551"/>
-      <c r="T2" s="549" t="s">
+      <c r="Q2" s="539"/>
+      <c r="R2" s="539"/>
+      <c r="S2" s="540"/>
+      <c r="T2" s="538" t="s">
         <v>177</v>
       </c>
-      <c r="U2" s="550"/>
-      <c r="V2" s="550"/>
-      <c r="W2" s="551"/>
-      <c r="X2" s="472" t="s">
+      <c r="U2" s="539"/>
+      <c r="V2" s="539"/>
+      <c r="W2" s="540"/>
+      <c r="X2" s="479" t="s">
         <v>167</v>
       </c>
-      <c r="Y2" s="473"/>
-      <c r="Z2" s="473"/>
-      <c r="AA2" s="473"/>
-      <c r="AB2" s="474"/>
-      <c r="AC2" s="520" t="s">
+      <c r="Y2" s="480"/>
+      <c r="Z2" s="480"/>
+      <c r="AA2" s="480"/>
+      <c r="AB2" s="481"/>
+      <c r="AC2" s="513" t="s">
         <v>133</v>
       </c>
-      <c r="AD2" s="520"/>
-      <c r="AE2" s="520"/>
-      <c r="AF2" s="520"/>
-      <c r="AG2" s="520"/>
-      <c r="AI2" s="527" t="s">
+      <c r="AD2" s="513"/>
+      <c r="AE2" s="513"/>
+      <c r="AF2" s="513"/>
+      <c r="AG2" s="513"/>
+      <c r="AI2" s="508" t="s">
         <v>113</v>
       </c>
-      <c r="AJ2" s="528"/>
+      <c r="AJ2" s="509"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
-      <c r="AN2" s="472" t="s">
+      <c r="AN2" s="479" t="s">
         <v>146</v>
       </c>
-      <c r="AO2" s="473"/>
-      <c r="AP2" s="473"/>
-      <c r="AQ2" s="473"/>
-      <c r="AR2" s="474"/>
+      <c r="AO2" s="480"/>
+      <c r="AP2" s="480"/>
+      <c r="AQ2" s="480"/>
+      <c r="AR2" s="481"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A3" s="526"/>
-      <c r="B3" s="526"/>
-      <c r="C3" s="522" t="s">
+      <c r="A3" s="507"/>
+      <c r="B3" s="507"/>
+      <c r="C3" s="512" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="522"/>
-      <c r="E3" s="522"/>
-      <c r="F3" s="522"/>
-      <c r="G3" s="541" t="s">
+      <c r="D3" s="512"/>
+      <c r="E3" s="512"/>
+      <c r="F3" s="512"/>
+      <c r="G3" s="533" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="543" t="s">
+      <c r="H3" s="535" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="544"/>
-      <c r="J3" s="544"/>
-      <c r="K3" s="545"/>
-      <c r="L3" s="543" t="s">
+      <c r="I3" s="536"/>
+      <c r="J3" s="536"/>
+      <c r="K3" s="537"/>
+      <c r="L3" s="535" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="544"/>
-      <c r="N3" s="544"/>
-      <c r="O3" s="545"/>
-      <c r="P3" s="543" t="s">
+      <c r="M3" s="536"/>
+      <c r="N3" s="536"/>
+      <c r="O3" s="537"/>
+      <c r="P3" s="535" t="s">
         <v>86</v>
       </c>
-      <c r="Q3" s="544"/>
-      <c r="R3" s="544"/>
-      <c r="S3" s="545"/>
-      <c r="T3" s="543" t="s">
+      <c r="Q3" s="536"/>
+      <c r="R3" s="536"/>
+      <c r="S3" s="537"/>
+      <c r="T3" s="535" t="s">
         <v>86</v>
       </c>
-      <c r="U3" s="544"/>
-      <c r="V3" s="544"/>
-      <c r="W3" s="545"/>
-      <c r="X3" s="476" t="s">
+      <c r="U3" s="536"/>
+      <c r="V3" s="536"/>
+      <c r="W3" s="537"/>
+      <c r="X3" s="482" t="s">
         <v>87</v>
       </c>
-      <c r="Y3" s="477" t="s">
+      <c r="Y3" s="483" t="s">
         <v>86</v>
       </c>
-      <c r="Z3" s="477"/>
-      <c r="AA3" s="477"/>
-      <c r="AB3" s="477"/>
-      <c r="AC3" s="521" t="s">
+      <c r="Z3" s="483"/>
+      <c r="AA3" s="483"/>
+      <c r="AB3" s="483"/>
+      <c r="AC3" s="511" t="s">
         <v>87</v>
       </c>
-      <c r="AD3" s="522" t="s">
+      <c r="AD3" s="512" t="s">
         <v>86</v>
       </c>
-      <c r="AE3" s="522"/>
-      <c r="AF3" s="522"/>
-      <c r="AG3" s="522"/>
+      <c r="AE3" s="512"/>
+      <c r="AF3" s="512"/>
+      <c r="AG3" s="512"/>
       <c r="AI3" s="204" t="s">
         <v>114</v>
       </c>
@@ -39814,19 +39814,19 @@
       <c r="AM3" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="AN3" s="476" t="s">
+      <c r="AN3" s="482" t="s">
         <v>87</v>
       </c>
-      <c r="AO3" s="477" t="s">
+      <c r="AO3" s="483" t="s">
         <v>86</v>
       </c>
-      <c r="AP3" s="477"/>
-      <c r="AQ3" s="477"/>
-      <c r="AR3" s="477"/>
+      <c r="AP3" s="483"/>
+      <c r="AQ3" s="483"/>
+      <c r="AR3" s="483"/>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A4" s="526"/>
-      <c r="B4" s="526"/>
+      <c r="A4" s="507"/>
+      <c r="B4" s="507"/>
       <c r="C4" s="205" t="s">
         <v>111</v>
       </c>
@@ -39839,7 +39839,7 @@
       <c r="F4" s="205" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="542"/>
+      <c r="G4" s="534"/>
       <c r="H4" s="205" t="s">
         <v>111</v>
       </c>
@@ -39888,7 +39888,7 @@
       <c r="W4" s="205" t="s">
         <v>75</v>
       </c>
-      <c r="X4" s="476"/>
+      <c r="X4" s="482"/>
       <c r="Y4" s="198" t="s">
         <v>111</v>
       </c>
@@ -39901,7 +39901,7 @@
       <c r="AB4" s="198" t="s">
         <v>75</v>
       </c>
-      <c r="AC4" s="521"/>
+      <c r="AC4" s="511"/>
       <c r="AD4" s="205" t="s">
         <v>111</v>
       </c>
@@ -39918,7 +39918,7 @@
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
-      <c r="AN4" s="476"/>
+      <c r="AN4" s="482"/>
       <c r="AO4" s="198" t="s">
         <v>111</v>
       </c>
@@ -39933,10 +39933,10 @@
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A5" s="525" t="s">
+      <c r="A5" s="506" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="525"/>
+      <c r="B5" s="506"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -40010,11 +40010,11 @@
       <c r="AE6" s="203"/>
       <c r="AF6" s="203"/>
       <c r="AG6" s="203"/>
-      <c r="AI6" s="517">
+      <c r="AI6" s="514">
         <f>SUM(W7:W9)</f>
         <v>14.5</v>
       </c>
-      <c r="AJ6" s="517">
+      <c r="AJ6" s="514">
         <f>SUM(AB7:AB9)</f>
         <v>9.1000000000000014</v>
       </c>
@@ -40115,8 +40115,8 @@
         <v>1.31</v>
       </c>
       <c r="AH7" s="37"/>
-      <c r="AI7" s="518"/>
-      <c r="AJ7" s="518"/>
+      <c r="AI7" s="515"/>
+      <c r="AJ7" s="515"/>
       <c r="AK7" s="37"/>
       <c r="AM7" s="72">
         <f>T7-Y7</f>
@@ -40196,8 +40196,8 @@
         <v>0</v>
       </c>
       <c r="AH8" s="37"/>
-      <c r="AI8" s="518"/>
-      <c r="AJ8" s="518"/>
+      <c r="AI8" s="515"/>
+      <c r="AJ8" s="515"/>
       <c r="AK8" s="37"/>
       <c r="AN8" s="54" t="s">
         <v>78</v>
@@ -40304,8 +40304,8 @@
         <v>45.41</v>
       </c>
       <c r="AH9" s="37"/>
-      <c r="AI9" s="518"/>
-      <c r="AJ9" s="518"/>
+      <c r="AI9" s="515"/>
+      <c r="AJ9" s="515"/>
       <c r="AK9" s="37"/>
       <c r="AM9" s="72">
         <f>T9-Y9</f>
@@ -40814,11 +40814,11 @@
         <v>0.97</v>
       </c>
       <c r="AH14" s="37"/>
-      <c r="AI14" s="517">
+      <c r="AI14" s="514">
         <f>SUM(W14:W16)</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="AJ14" s="517">
+      <c r="AJ14" s="514">
         <f>SUM(AB14:AB16)</f>
         <v>0.25</v>
       </c>
@@ -40932,8 +40932,8 @@
         <v>1</v>
       </c>
       <c r="AH15" s="37"/>
-      <c r="AI15" s="518"/>
-      <c r="AJ15" s="518"/>
+      <c r="AI15" s="515"/>
+      <c r="AJ15" s="515"/>
       <c r="AK15" s="37"/>
       <c r="AM15" s="72">
         <f t="shared" si="11"/>
@@ -41044,8 +41044,8 @@
         <v>0.46</v>
       </c>
       <c r="AH16" s="37"/>
-      <c r="AI16" s="518"/>
-      <c r="AJ16" s="518"/>
+      <c r="AI16" s="515"/>
+      <c r="AJ16" s="515"/>
       <c r="AK16" s="37"/>
       <c r="AM16" s="72">
         <f t="shared" si="11"/>
@@ -41274,11 +41274,11 @@
         <v>1.44</v>
       </c>
       <c r="AH18" s="37"/>
-      <c r="AI18" s="517">
+      <c r="AI18" s="514">
         <f>SUM(W18:W19)</f>
         <v>4.7</v>
       </c>
-      <c r="AJ18" s="517">
+      <c r="AJ18" s="514">
         <f>SUM(AB18:AB19)</f>
         <v>2.31</v>
       </c>
@@ -41392,8 +41392,8 @@
         <v>10.72</v>
       </c>
       <c r="AH19" s="37"/>
-      <c r="AI19" s="517"/>
-      <c r="AJ19" s="518"/>
+      <c r="AI19" s="514"/>
+      <c r="AJ19" s="515"/>
       <c r="AK19" s="37"/>
       <c r="AM19" s="72">
         <f t="shared" si="11"/>
@@ -41504,11 +41504,11 @@
         <v>19.93</v>
       </c>
       <c r="AH20" s="37"/>
-      <c r="AI20" s="517">
+      <c r="AI20" s="514">
         <f>SUM(W20:W21)</f>
         <v>31</v>
       </c>
-      <c r="AJ20" s="517">
+      <c r="AJ20" s="514">
         <f>SUM(AB20:AB21)</f>
         <v>17.2</v>
       </c>
@@ -41622,8 +41622,8 @@
         <v>79.38</v>
       </c>
       <c r="AH21" s="37"/>
-      <c r="AI21" s="518"/>
-      <c r="AJ21" s="518"/>
+      <c r="AI21" s="515"/>
+      <c r="AJ21" s="515"/>
       <c r="AK21" s="37"/>
       <c r="AM21" s="72">
         <f t="shared" si="11"/>
@@ -42116,7 +42116,7 @@
       </c>
     </row>
     <row r="26" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="519">
+      <c r="A26" s="516">
         <v>3231201</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -42170,7 +42170,7 @@
       <c r="AR26" s="65"/>
     </row>
     <row r="27" spans="1:44" s="9" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A27" s="519"/>
+      <c r="A27" s="516"/>
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -42229,7 +42229,7 @@
       <c r="AR27" s="65"/>
     </row>
     <row r="28" spans="1:44" s="9" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="519"/>
+      <c r="A28" s="516"/>
       <c r="B28" s="46" t="s">
         <v>24</v>
       </c>
@@ -42327,15 +42327,15 @@
         <v>327.02999999999997</v>
       </c>
       <c r="AH28" s="37"/>
-      <c r="AI28" s="508">
+      <c r="AI28" s="517">
         <f>SUM(W28:W30)</f>
         <v>848.67000000000007</v>
       </c>
-      <c r="AJ28" s="508">
+      <c r="AJ28" s="517">
         <f>SUM(AB28:AB30)</f>
         <v>253.55</v>
       </c>
-      <c r="AK28" s="504">
+      <c r="AK28" s="523">
         <f>SUM(Z28:Z30)</f>
         <v>219.57</v>
       </c>
@@ -42361,7 +42361,7 @@
       </c>
     </row>
     <row r="29" spans="1:44" s="9" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="519"/>
+      <c r="A29" s="516"/>
       <c r="B29" s="46" t="s">
         <v>25</v>
       </c>
@@ -42459,9 +42459,9 @@
         <v>1560.1799999999998</v>
       </c>
       <c r="AH29" s="37"/>
-      <c r="AI29" s="509"/>
-      <c r="AJ29" s="509"/>
-      <c r="AK29" s="505"/>
+      <c r="AI29" s="518"/>
+      <c r="AJ29" s="518"/>
+      <c r="AK29" s="524"/>
       <c r="AM29" s="72">
         <f>T29-Y29</f>
         <v>38.699999999999996</v>
@@ -42484,7 +42484,7 @@
       </c>
     </row>
     <row r="30" spans="1:44" s="9" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="519"/>
+      <c r="A30" s="516"/>
       <c r="B30" s="46" t="s">
         <v>26</v>
       </c>
@@ -42582,9 +42582,9 @@
         <v>592.67000000000007</v>
       </c>
       <c r="AH30" s="37"/>
-      <c r="AI30" s="509"/>
-      <c r="AJ30" s="509"/>
-      <c r="AK30" s="505"/>
+      <c r="AI30" s="518"/>
+      <c r="AJ30" s="518"/>
+      <c r="AK30" s="524"/>
       <c r="AM30" s="72">
         <f>T30-Y30</f>
         <v>11.719999999999999</v>
@@ -42971,7 +42971,7 @@
       </c>
     </row>
     <row r="34" spans="1:44" s="9" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A34" s="514">
+      <c r="A34" s="519">
         <v>3111332</v>
       </c>
       <c r="B34" s="46" t="s">
@@ -43061,11 +43061,11 @@
         <v>14.93</v>
       </c>
       <c r="AH34" s="37"/>
-      <c r="AI34" s="508">
+      <c r="AI34" s="517">
         <f>SUM(W34:W36)</f>
         <v>7</v>
       </c>
-      <c r="AJ34" s="508">
+      <c r="AJ34" s="517">
         <f>SUM(AB34:AB36)</f>
         <v>2.2000000000000002</v>
       </c>
@@ -43089,7 +43089,7 @@
       </c>
     </row>
     <row r="35" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="515"/>
+      <c r="A35" s="520"/>
       <c r="B35" s="46" t="s">
         <v>30</v>
       </c>
@@ -43175,8 +43175,8 @@
         <v>1.29</v>
       </c>
       <c r="AH35" s="37"/>
-      <c r="AI35" s="509"/>
-      <c r="AJ35" s="509"/>
+      <c r="AI35" s="518"/>
+      <c r="AJ35" s="518"/>
       <c r="AK35" s="37"/>
       <c r="AM35" s="72">
         <f t="shared" si="26"/>
@@ -43197,7 +43197,7 @@
       </c>
     </row>
     <row r="36" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="516"/>
+      <c r="A36" s="521"/>
       <c r="B36" s="46" t="s">
         <v>31</v>
       </c>
@@ -43283,8 +43283,8 @@
         <v>1.3</v>
       </c>
       <c r="AH36" s="37"/>
-      <c r="AI36" s="509"/>
-      <c r="AJ36" s="509"/>
+      <c r="AI36" s="518"/>
+      <c r="AJ36" s="518"/>
       <c r="AK36" s="37"/>
       <c r="AM36" s="72">
         <f t="shared" si="26"/>
@@ -43795,11 +43795,11 @@
         <v>65.02</v>
       </c>
       <c r="AH41" s="37"/>
-      <c r="AI41" s="508">
+      <c r="AI41" s="517">
         <f>SUM(W41:W50)</f>
         <v>91</v>
       </c>
-      <c r="AJ41" s="508">
+      <c r="AJ41" s="517">
         <f>SUM(AB41:AB50)</f>
         <v>40.11</v>
       </c>
@@ -43911,8 +43911,8 @@
         <v>3.2</v>
       </c>
       <c r="AH42" s="37"/>
-      <c r="AI42" s="509"/>
-      <c r="AJ42" s="509"/>
+      <c r="AI42" s="518"/>
+      <c r="AJ42" s="518"/>
       <c r="AK42" s="37"/>
       <c r="AM42" s="72">
         <f t="shared" si="37"/>
@@ -44023,8 +44023,8 @@
         <v>7.63</v>
       </c>
       <c r="AH43" s="37"/>
-      <c r="AI43" s="509"/>
-      <c r="AJ43" s="509"/>
+      <c r="AI43" s="518"/>
+      <c r="AJ43" s="518"/>
       <c r="AK43" s="37"/>
       <c r="AM43" s="72">
         <f t="shared" si="37"/>
@@ -44135,8 +44135,8 @@
         <v>1.69</v>
       </c>
       <c r="AH44" s="37"/>
-      <c r="AI44" s="509"/>
-      <c r="AJ44" s="509"/>
+      <c r="AI44" s="518"/>
+      <c r="AJ44" s="518"/>
       <c r="AK44" s="37"/>
       <c r="AM44" s="72">
         <f t="shared" si="37"/>
@@ -44245,8 +44245,8 @@
         <v>19.98</v>
       </c>
       <c r="AH45" s="37"/>
-      <c r="AI45" s="509"/>
-      <c r="AJ45" s="509"/>
+      <c r="AI45" s="518"/>
+      <c r="AJ45" s="518"/>
       <c r="AK45" s="37"/>
       <c r="AM45" s="72">
         <f t="shared" si="37"/>
@@ -44355,8 +44355,8 @@
         <v>14.53</v>
       </c>
       <c r="AH46" s="37"/>
-      <c r="AI46" s="509"/>
-      <c r="AJ46" s="509"/>
+      <c r="AI46" s="518"/>
+      <c r="AJ46" s="518"/>
       <c r="AK46" s="37"/>
       <c r="AM46" s="72">
         <f t="shared" si="37"/>
@@ -44467,8 +44467,8 @@
         <v>1.9500000000000002</v>
       </c>
       <c r="AH47" s="37"/>
-      <c r="AI47" s="509"/>
-      <c r="AJ47" s="509"/>
+      <c r="AI47" s="518"/>
+      <c r="AJ47" s="518"/>
       <c r="AK47" s="37"/>
       <c r="AM47" s="72">
         <f t="shared" si="37"/>
@@ -44589,8 +44589,8 @@
         <v>128.19999999999999</v>
       </c>
       <c r="AH48" s="37"/>
-      <c r="AI48" s="509"/>
-      <c r="AJ48" s="509"/>
+      <c r="AI48" s="518"/>
+      <c r="AJ48" s="518"/>
       <c r="AK48" s="71">
         <f>Z48</f>
         <v>29.46</v>
@@ -44708,8 +44708,8 @@
         <v>2.3899999999999997</v>
       </c>
       <c r="AH49" s="37"/>
-      <c r="AI49" s="509"/>
-      <c r="AJ49" s="509"/>
+      <c r="AI49" s="518"/>
+      <c r="AJ49" s="518"/>
       <c r="AK49" s="37"/>
       <c r="AM49" s="72">
         <f t="shared" si="37"/>
@@ -44818,8 +44818,8 @@
         <v>7.48</v>
       </c>
       <c r="AH50" s="37"/>
-      <c r="AI50" s="509"/>
-      <c r="AJ50" s="509"/>
+      <c r="AI50" s="518"/>
+      <c r="AJ50" s="518"/>
       <c r="AK50" s="37"/>
       <c r="AM50" s="72">
         <f t="shared" si="37"/>
@@ -45001,92 +45001,92 @@
     <row r="52" spans="1:44" s="106" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="104"/>
       <c r="B52" s="104"/>
-      <c r="C52" s="506"/>
-      <c r="D52" s="507"/>
-      <c r="E52" s="506"/>
-      <c r="F52" s="506"/>
-      <c r="G52" s="537"/>
-      <c r="H52" s="539"/>
-      <c r="I52" s="537"/>
-      <c r="J52" s="539"/>
-      <c r="K52" s="537"/>
-      <c r="L52" s="539"/>
-      <c r="M52" s="537"/>
-      <c r="N52" s="539"/>
-      <c r="O52" s="537"/>
-      <c r="P52" s="539"/>
-      <c r="Q52" s="537"/>
-      <c r="R52" s="539"/>
-      <c r="S52" s="537"/>
-      <c r="T52" s="539"/>
-      <c r="U52" s="537"/>
-      <c r="V52" s="539"/>
-      <c r="W52" s="537"/>
-      <c r="X52" s="500"/>
-      <c r="Y52" s="500"/>
-      <c r="Z52" s="500"/>
-      <c r="AA52" s="500"/>
-      <c r="AB52" s="500"/>
-      <c r="AC52" s="507"/>
-      <c r="AD52" s="507"/>
-      <c r="AE52" s="507"/>
-      <c r="AF52" s="507"/>
-      <c r="AG52" s="507"/>
+      <c r="C52" s="525"/>
+      <c r="D52" s="522"/>
+      <c r="E52" s="525"/>
+      <c r="F52" s="525"/>
+      <c r="G52" s="543"/>
+      <c r="H52" s="541"/>
+      <c r="I52" s="543"/>
+      <c r="J52" s="541"/>
+      <c r="K52" s="543"/>
+      <c r="L52" s="541"/>
+      <c r="M52" s="543"/>
+      <c r="N52" s="541"/>
+      <c r="O52" s="543"/>
+      <c r="P52" s="541"/>
+      <c r="Q52" s="543"/>
+      <c r="R52" s="541"/>
+      <c r="S52" s="543"/>
+      <c r="T52" s="541"/>
+      <c r="U52" s="543"/>
+      <c r="V52" s="541"/>
+      <c r="W52" s="543"/>
+      <c r="X52" s="478"/>
+      <c r="Y52" s="478"/>
+      <c r="Z52" s="478"/>
+      <c r="AA52" s="478"/>
+      <c r="AB52" s="478"/>
+      <c r="AC52" s="522"/>
+      <c r="AD52" s="522"/>
+      <c r="AE52" s="522"/>
+      <c r="AF52" s="522"/>
+      <c r="AG52" s="522"/>
       <c r="AH52" s="105"/>
       <c r="AI52" s="105"/>
       <c r="AJ52" s="105"/>
       <c r="AK52" s="105"/>
-      <c r="AN52" s="500"/>
-      <c r="AO52" s="500"/>
-      <c r="AP52" s="500"/>
-      <c r="AQ52" s="500"/>
-      <c r="AR52" s="500"/>
+      <c r="AN52" s="478"/>
+      <c r="AO52" s="478"/>
+      <c r="AP52" s="478"/>
+      <c r="AQ52" s="478"/>
+      <c r="AR52" s="478"/>
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A53" s="102" t="s">
         <v>79</v>
       </c>
       <c r="B53" s="107"/>
-      <c r="C53" s="506"/>
-      <c r="D53" s="507"/>
-      <c r="E53" s="506"/>
-      <c r="F53" s="506"/>
-      <c r="G53" s="538"/>
-      <c r="H53" s="540"/>
-      <c r="I53" s="538"/>
-      <c r="J53" s="540"/>
-      <c r="K53" s="538"/>
-      <c r="L53" s="540"/>
-      <c r="M53" s="538"/>
-      <c r="N53" s="540"/>
-      <c r="O53" s="538"/>
-      <c r="P53" s="540"/>
-      <c r="Q53" s="538"/>
-      <c r="R53" s="540"/>
-      <c r="S53" s="538"/>
-      <c r="T53" s="540"/>
-      <c r="U53" s="538"/>
-      <c r="V53" s="540"/>
-      <c r="W53" s="538"/>
-      <c r="X53" s="500"/>
-      <c r="Y53" s="500"/>
-      <c r="Z53" s="500"/>
-      <c r="AA53" s="500"/>
-      <c r="AB53" s="500"/>
-      <c r="AC53" s="507"/>
-      <c r="AD53" s="507"/>
-      <c r="AE53" s="507"/>
-      <c r="AF53" s="507"/>
-      <c r="AG53" s="507"/>
+      <c r="C53" s="525"/>
+      <c r="D53" s="522"/>
+      <c r="E53" s="525"/>
+      <c r="F53" s="525"/>
+      <c r="G53" s="544"/>
+      <c r="H53" s="542"/>
+      <c r="I53" s="544"/>
+      <c r="J53" s="542"/>
+      <c r="K53" s="544"/>
+      <c r="L53" s="542"/>
+      <c r="M53" s="544"/>
+      <c r="N53" s="542"/>
+      <c r="O53" s="544"/>
+      <c r="P53" s="542"/>
+      <c r="Q53" s="544"/>
+      <c r="R53" s="542"/>
+      <c r="S53" s="544"/>
+      <c r="T53" s="542"/>
+      <c r="U53" s="544"/>
+      <c r="V53" s="542"/>
+      <c r="W53" s="544"/>
+      <c r="X53" s="478"/>
+      <c r="Y53" s="478"/>
+      <c r="Z53" s="478"/>
+      <c r="AA53" s="478"/>
+      <c r="AB53" s="478"/>
+      <c r="AC53" s="522"/>
+      <c r="AD53" s="522"/>
+      <c r="AE53" s="522"/>
+      <c r="AF53" s="522"/>
+      <c r="AG53" s="522"/>
       <c r="AH53" s="37"/>
       <c r="AI53" s="37"/>
       <c r="AJ53" s="37"/>
       <c r="AK53" s="37"/>
-      <c r="AN53" s="500"/>
-      <c r="AO53" s="500"/>
-      <c r="AP53" s="500"/>
-      <c r="AQ53" s="500"/>
-      <c r="AR53" s="500"/>
+      <c r="AN53" s="478"/>
+      <c r="AO53" s="478"/>
+      <c r="AP53" s="478"/>
+      <c r="AQ53" s="478"/>
+      <c r="AR53" s="478"/>
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A54" s="48"/>
@@ -45135,7 +45135,7 @@
       <c r="AR54" s="57"/>
     </row>
     <row r="55" spans="1:44" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="513">
+      <c r="A55" s="526">
         <v>4112101</v>
       </c>
       <c r="B55" s="103" t="s">
@@ -45222,11 +45222,11 @@
         <v>606.9</v>
       </c>
       <c r="AH55" s="37"/>
-      <c r="AI55" s="508">
+      <c r="AI55" s="517">
         <f>SUM(W55:W56)</f>
         <v>95.6</v>
       </c>
-      <c r="AJ55" s="508">
+      <c r="AJ55" s="517">
         <f>SUM(AB55:AB56)</f>
         <v>0</v>
       </c>
@@ -45246,7 +45246,7 @@
       </c>
     </row>
     <row r="56" spans="1:44" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="513"/>
+      <c r="A56" s="526"/>
       <c r="B56" s="46" t="s">
         <v>47</v>
       </c>
@@ -45319,8 +45319,8 @@
         <v>50.22</v>
       </c>
       <c r="AH56" s="37"/>
-      <c r="AI56" s="509"/>
-      <c r="AJ56" s="509"/>
+      <c r="AI56" s="518"/>
+      <c r="AJ56" s="518"/>
       <c r="AK56" s="37"/>
       <c r="AN56" s="196"/>
       <c r="AO56" s="54">
@@ -45432,7 +45432,7 @@
       </c>
     </row>
     <row r="58" spans="1:44" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="512">
+      <c r="A58" s="529">
         <v>4112316</v>
       </c>
       <c r="B58" s="46" t="s">
@@ -45507,11 +45507,11 @@
         <v>8.9499999999999993</v>
       </c>
       <c r="AH58" s="37"/>
-      <c r="AI58" s="508">
+      <c r="AI58" s="517">
         <f>SUM(W58:W59)</f>
         <v>0</v>
       </c>
-      <c r="AJ58" s="508">
+      <c r="AJ58" s="517">
         <f>SUM(AB58:AB59)</f>
         <v>0</v>
       </c>
@@ -45529,7 +45529,7 @@
       </c>
     </row>
     <row r="59" spans="1:44" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="512"/>
+      <c r="A59" s="529"/>
       <c r="B59" s="46" t="s">
         <v>50</v>
       </c>
@@ -45602,8 +45602,8 @@
         <v>0.79</v>
       </c>
       <c r="AH59" s="37"/>
-      <c r="AI59" s="509"/>
-      <c r="AJ59" s="509"/>
+      <c r="AI59" s="518"/>
+      <c r="AJ59" s="518"/>
       <c r="AK59" s="37"/>
       <c r="AN59" s="196"/>
       <c r="AO59" s="54">
@@ -45618,7 +45618,7 @@
       </c>
     </row>
     <row r="60" spans="1:44" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="512">
+      <c r="A60" s="529">
         <v>4112304</v>
       </c>
       <c r="B60" s="46" t="s">
@@ -45693,11 +45693,11 @@
         <v>20.18</v>
       </c>
       <c r="AH60" s="37"/>
-      <c r="AI60" s="508">
+      <c r="AI60" s="517">
         <f>SUM(W60:W62)</f>
         <v>5</v>
       </c>
-      <c r="AJ60" s="508">
+      <c r="AJ60" s="517">
         <f>SUM(AB60:AB62)</f>
         <v>0</v>
       </c>
@@ -45715,7 +45715,7 @@
       </c>
     </row>
     <row r="61" spans="1:44" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A61" s="512"/>
+      <c r="A61" s="529"/>
       <c r="B61" s="46" t="s">
         <v>52</v>
       </c>
@@ -45788,8 +45788,8 @@
         <v>2.13</v>
       </c>
       <c r="AH61" s="37"/>
-      <c r="AI61" s="509"/>
-      <c r="AJ61" s="509"/>
+      <c r="AI61" s="518"/>
+      <c r="AJ61" s="518"/>
       <c r="AK61" s="37"/>
       <c r="AN61" s="196"/>
       <c r="AO61" s="54">
@@ -45804,7 +45804,7 @@
       </c>
     </row>
     <row r="62" spans="1:44" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A62" s="512"/>
+      <c r="A62" s="529"/>
       <c r="B62" s="46" t="s">
         <v>53</v>
       </c>
@@ -45889,8 +45889,8 @@
         <v>9.49</v>
       </c>
       <c r="AH62" s="37"/>
-      <c r="AI62" s="509"/>
-      <c r="AJ62" s="509"/>
+      <c r="AI62" s="518"/>
+      <c r="AJ62" s="518"/>
       <c r="AK62" s="37"/>
       <c r="AN62" s="196" t="s">
         <v>78</v>
@@ -45907,7 +45907,7 @@
       </c>
     </row>
     <row r="63" spans="1:44" ht="67.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="512">
+      <c r="A63" s="529">
         <v>4112202</v>
       </c>
       <c r="B63" s="103" t="s">
@@ -45982,11 +45982,11 @@
         <v>19.47</v>
       </c>
       <c r="AH63" s="37"/>
-      <c r="AI63" s="508">
+      <c r="AI63" s="517">
         <f>SUM(W63:W66)</f>
         <v>0</v>
       </c>
-      <c r="AJ63" s="508">
+      <c r="AJ63" s="517">
         <f>SUM(AB63:AB66)</f>
         <v>0</v>
       </c>
@@ -46004,7 +46004,7 @@
       </c>
     </row>
     <row r="64" spans="1:44" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A64" s="512"/>
+      <c r="A64" s="529"/>
       <c r="B64" s="46" t="s">
         <v>55</v>
       </c>
@@ -46077,8 +46077,8 @@
         <v>9.8800000000000008</v>
       </c>
       <c r="AH64" s="37"/>
-      <c r="AI64" s="509"/>
-      <c r="AJ64" s="509"/>
+      <c r="AI64" s="518"/>
+      <c r="AJ64" s="518"/>
       <c r="AK64" s="37"/>
       <c r="AN64" s="196"/>
       <c r="AO64" s="54">
@@ -46093,7 +46093,7 @@
       </c>
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A65" s="512"/>
+      <c r="A65" s="529"/>
       <c r="B65" s="46" t="s">
         <v>56</v>
       </c>
@@ -46166,8 +46166,8 @@
         <v>0.2</v>
       </c>
       <c r="AH65" s="37"/>
-      <c r="AI65" s="509"/>
-      <c r="AJ65" s="509"/>
+      <c r="AI65" s="518"/>
+      <c r="AJ65" s="518"/>
       <c r="AK65" s="37"/>
       <c r="AN65" s="196"/>
       <c r="AO65" s="54">
@@ -46182,7 +46182,7 @@
       </c>
     </row>
     <row r="66" spans="1:44" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A66" s="512"/>
+      <c r="A66" s="529"/>
       <c r="B66" s="46" t="s">
         <v>57</v>
       </c>
@@ -46255,8 +46255,8 @@
         <v>4.08</v>
       </c>
       <c r="AH66" s="37"/>
-      <c r="AI66" s="509"/>
-      <c r="AJ66" s="509"/>
+      <c r="AI66" s="518"/>
+      <c r="AJ66" s="518"/>
       <c r="AK66" s="37"/>
       <c r="AN66" s="196"/>
       <c r="AO66" s="54">
@@ -46358,11 +46358,11 @@
         <v>45.32</v>
       </c>
       <c r="AH67" s="37"/>
-      <c r="AI67" s="510">
+      <c r="AI67" s="527">
         <f>SUM(W67:W68)</f>
         <v>4</v>
       </c>
-      <c r="AJ67" s="510">
+      <c r="AJ67" s="527">
         <f>SUM(AB67:AB68)</f>
         <v>0</v>
       </c>
@@ -46469,8 +46469,8 @@
         <v>9.73</v>
       </c>
       <c r="AH68" s="37"/>
-      <c r="AI68" s="511"/>
-      <c r="AJ68" s="511"/>
+      <c r="AI68" s="528"/>
+      <c r="AJ68" s="528"/>
       <c r="AK68" s="37"/>
       <c r="AN68" s="196" t="s">
         <v>78</v>
@@ -46734,15 +46734,15 @@
       <c r="AF72" s="2"/>
       <c r="AG72" s="2"/>
       <c r="AH72" s="37"/>
-      <c r="AI72" s="508">
+      <c r="AI72" s="517">
         <f>SUM(W72:W85)</f>
         <v>17093.009999999998</v>
       </c>
-      <c r="AJ72" s="508">
+      <c r="AJ72" s="517">
         <f>SUM(AB72:AB85)</f>
         <v>1752.0599999999997</v>
       </c>
-      <c r="AK72" s="508">
+      <c r="AK72" s="517">
         <f>SUM(Z72:Z85)</f>
         <v>1382.33</v>
       </c>
@@ -46834,9 +46834,9 @@
       <c r="AF73" s="2"/>
       <c r="AG73" s="2"/>
       <c r="AH73" s="37"/>
-      <c r="AI73" s="509"/>
-      <c r="AJ73" s="509"/>
-      <c r="AK73" s="509"/>
+      <c r="AI73" s="518"/>
+      <c r="AJ73" s="518"/>
+      <c r="AK73" s="518"/>
       <c r="AN73" s="79" t="s">
         <v>136</v>
       </c>
@@ -46893,9 +46893,9 @@
       <c r="AF74" s="2"/>
       <c r="AG74" s="2"/>
       <c r="AH74" s="37"/>
-      <c r="AI74" s="509"/>
-      <c r="AJ74" s="509"/>
-      <c r="AK74" s="509"/>
+      <c r="AI74" s="518"/>
+      <c r="AJ74" s="518"/>
+      <c r="AK74" s="518"/>
       <c r="AN74" s="81"/>
       <c r="AO74" s="65"/>
       <c r="AP74" s="65"/>
@@ -46988,9 +46988,9 @@
       <c r="AF75" s="2"/>
       <c r="AG75" s="2"/>
       <c r="AH75" s="37"/>
-      <c r="AI75" s="509"/>
-      <c r="AJ75" s="509"/>
-      <c r="AK75" s="509"/>
+      <c r="AI75" s="518"/>
+      <c r="AJ75" s="518"/>
+      <c r="AK75" s="518"/>
       <c r="AN75" s="79" t="s">
         <v>137</v>
       </c>
@@ -47108,9 +47108,9 @@
         <v>7641.09</v>
       </c>
       <c r="AH76" s="37"/>
-      <c r="AI76" s="509"/>
-      <c r="AJ76" s="509"/>
-      <c r="AK76" s="509"/>
+      <c r="AI76" s="518"/>
+      <c r="AJ76" s="518"/>
+      <c r="AK76" s="518"/>
       <c r="AN76" s="79" t="s">
         <v>110</v>
       </c>
@@ -47226,9 +47226,9 @@
         <v>6047.23</v>
       </c>
       <c r="AH77" s="37"/>
-      <c r="AI77" s="509"/>
-      <c r="AJ77" s="509"/>
-      <c r="AK77" s="509"/>
+      <c r="AI77" s="518"/>
+      <c r="AJ77" s="518"/>
+      <c r="AK77" s="518"/>
       <c r="AM77" s="116"/>
       <c r="AN77" s="79" t="s">
         <v>109</v>
@@ -47289,9 +47289,9 @@
       <c r="AF78" s="2"/>
       <c r="AG78" s="2"/>
       <c r="AH78" s="37"/>
-      <c r="AI78" s="509"/>
-      <c r="AJ78" s="509"/>
-      <c r="AK78" s="509"/>
+      <c r="AI78" s="518"/>
+      <c r="AJ78" s="518"/>
+      <c r="AK78" s="518"/>
       <c r="AM78" s="116"/>
       <c r="AN78" s="81"/>
       <c r="AO78" s="67"/>
@@ -47383,9 +47383,9 @@
       <c r="AF79" s="2"/>
       <c r="AG79" s="2"/>
       <c r="AH79" s="37"/>
-      <c r="AI79" s="509"/>
-      <c r="AJ79" s="509"/>
-      <c r="AK79" s="509"/>
+      <c r="AI79" s="518"/>
+      <c r="AJ79" s="518"/>
+      <c r="AK79" s="518"/>
       <c r="AM79" s="116"/>
       <c r="AN79" s="79" t="s">
         <v>138</v>
@@ -47486,9 +47486,9 @@
       <c r="AF80" s="2"/>
       <c r="AG80" s="2"/>
       <c r="AH80" s="37"/>
-      <c r="AI80" s="509"/>
-      <c r="AJ80" s="509"/>
-      <c r="AK80" s="509"/>
+      <c r="AI80" s="518"/>
+      <c r="AJ80" s="518"/>
+      <c r="AK80" s="518"/>
       <c r="AM80" s="116"/>
       <c r="AN80" s="79" t="s">
         <v>135</v>
@@ -47589,9 +47589,9 @@
       <c r="AF81" s="2"/>
       <c r="AG81" s="2"/>
       <c r="AH81" s="37"/>
-      <c r="AI81" s="509"/>
-      <c r="AJ81" s="509"/>
-      <c r="AK81" s="509"/>
+      <c r="AI81" s="518"/>
+      <c r="AJ81" s="518"/>
+      <c r="AK81" s="518"/>
       <c r="AL81" s="116"/>
       <c r="AM81" s="116"/>
       <c r="AN81" s="79" t="s">
@@ -47709,9 +47709,9 @@
         <v>6214.3499999999995</v>
       </c>
       <c r="AH82" s="37"/>
-      <c r="AI82" s="509"/>
-      <c r="AJ82" s="509"/>
-      <c r="AK82" s="509"/>
+      <c r="AI82" s="518"/>
+      <c r="AJ82" s="518"/>
+      <c r="AK82" s="518"/>
       <c r="AM82" s="118"/>
       <c r="AN82" s="79" t="s">
         <v>108</v>
@@ -47812,9 +47812,9 @@
       <c r="AF83" s="2"/>
       <c r="AG83" s="2"/>
       <c r="AH83" s="37"/>
-      <c r="AI83" s="509"/>
-      <c r="AJ83" s="509"/>
-      <c r="AK83" s="509"/>
+      <c r="AI83" s="518"/>
+      <c r="AJ83" s="518"/>
+      <c r="AK83" s="518"/>
       <c r="AN83" s="79" t="s">
         <v>140</v>
       </c>
@@ -47914,9 +47914,9 @@
       <c r="AF84" s="2"/>
       <c r="AG84" s="2"/>
       <c r="AH84" s="37"/>
-      <c r="AI84" s="509"/>
-      <c r="AJ84" s="509"/>
-      <c r="AK84" s="509"/>
+      <c r="AI84" s="518"/>
+      <c r="AJ84" s="518"/>
+      <c r="AK84" s="518"/>
       <c r="AN84" s="79" t="s">
         <v>105</v>
       </c>
@@ -47973,9 +47973,9 @@
       <c r="AF85" s="2"/>
       <c r="AG85" s="2"/>
       <c r="AH85" s="37"/>
-      <c r="AI85" s="509"/>
-      <c r="AJ85" s="509"/>
-      <c r="AK85" s="509"/>
+      <c r="AI85" s="518"/>
+      <c r="AJ85" s="518"/>
+      <c r="AK85" s="518"/>
       <c r="AL85" s="75"/>
       <c r="AN85" s="63"/>
       <c r="AO85" s="65"/>
@@ -48378,11 +48378,11 @@
       <c r="AH89" s="37"/>
       <c r="AI89" s="37"/>
       <c r="AJ89" s="37"/>
-      <c r="AK89" s="504">
+      <c r="AK89" s="523">
         <f>AK87+AL87</f>
         <v>1893.7399999999998</v>
       </c>
-      <c r="AL89" s="505"/>
+      <c r="AL89" s="524"/>
       <c r="AN89" s="61"/>
       <c r="AO89" s="60"/>
       <c r="AP89" s="60"/>
@@ -48632,8 +48632,8 @@
         <f>SUM(AB73:AB85)+AB48</f>
         <v>1785.2299999999998</v>
       </c>
-      <c r="AQ93" s="523"/>
-      <c r="AR93" s="524"/>
+      <c r="AQ93" s="504"/>
+      <c r="AR93" s="505"/>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.3">
       <c r="C94" s="158">
@@ -49290,6 +49290,86 @@
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="AO3:AR3"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AN2:AR2"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="AK28:AK30"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="AI6:AI9"/>
+    <mergeCell ref="AJ6:AJ9"/>
+    <mergeCell ref="AI14:AI16"/>
+    <mergeCell ref="AJ14:AJ16"/>
+    <mergeCell ref="AI18:AI19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="AI20:AI21"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="AI28:AI30"/>
+    <mergeCell ref="AJ28:AJ30"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="AI34:AI36"/>
+    <mergeCell ref="AJ34:AJ36"/>
+    <mergeCell ref="AI41:AI50"/>
+    <mergeCell ref="AJ41:AJ50"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="Z52:Z53"/>
+    <mergeCell ref="AA52:AA53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="U52:U53"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="AR52:AR53"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="AI55:AI56"/>
+    <mergeCell ref="AJ55:AJ56"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="AB52:AB53"/>
+    <mergeCell ref="AC52:AC53"/>
+    <mergeCell ref="AD52:AD53"/>
+    <mergeCell ref="AE52:AE53"/>
+    <mergeCell ref="AF52:AF53"/>
+    <mergeCell ref="AG52:AG53"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="X52:X53"/>
+    <mergeCell ref="Y52:Y53"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="AJ58:AJ59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="AI60:AI62"/>
+    <mergeCell ref="AJ60:AJ62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="AI63:AI66"/>
+    <mergeCell ref="AJ63:AJ66"/>
+    <mergeCell ref="AI67:AI68"/>
+    <mergeCell ref="AJ67:AJ68"/>
     <mergeCell ref="AK72:AK85"/>
     <mergeCell ref="AK89:AL89"/>
     <mergeCell ref="AQ93:AR93"/>
@@ -49306,86 +49386,6 @@
     <mergeCell ref="AO52:AO53"/>
     <mergeCell ref="AP52:AP53"/>
     <mergeCell ref="AQ52:AQ53"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="AI63:AI66"/>
-    <mergeCell ref="AJ63:AJ66"/>
-    <mergeCell ref="AI67:AI68"/>
-    <mergeCell ref="AJ67:AJ68"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="AI58:AI59"/>
-    <mergeCell ref="AJ58:AJ59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="AI60:AI62"/>
-    <mergeCell ref="AJ60:AJ62"/>
-    <mergeCell ref="AR52:AR53"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="AI55:AI56"/>
-    <mergeCell ref="AJ55:AJ56"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="AB52:AB53"/>
-    <mergeCell ref="AC52:AC53"/>
-    <mergeCell ref="AD52:AD53"/>
-    <mergeCell ref="AE52:AE53"/>
-    <mergeCell ref="AF52:AF53"/>
-    <mergeCell ref="AG52:AG53"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="X52:X53"/>
-    <mergeCell ref="Y52:Y53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="T52:T53"/>
-    <mergeCell ref="U52:U53"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="S52:S53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="AI34:AI36"/>
-    <mergeCell ref="AJ34:AJ36"/>
-    <mergeCell ref="AI41:AI50"/>
-    <mergeCell ref="AJ41:AJ50"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="Z52:Z53"/>
-    <mergeCell ref="AA52:AA53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="AK28:AK30"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="AI6:AI9"/>
-    <mergeCell ref="AJ6:AJ9"/>
-    <mergeCell ref="AI14:AI16"/>
-    <mergeCell ref="AJ14:AJ16"/>
-    <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="AI20:AI21"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="AI28:AI30"/>
-    <mergeCell ref="AJ28:AJ30"/>
-    <mergeCell ref="AO3:AR3"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AN2:AR2"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:AB3"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="H3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49461,125 +49461,125 @@
       <c r="AP1" s="51"/>
     </row>
     <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="526" t="s">
+      <c r="A2" s="507" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="526" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="520" t="s">
+      <c r="B2" s="507" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="513" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="520"/>
-      <c r="E2" s="520"/>
-      <c r="F2" s="520"/>
-      <c r="G2" s="520" t="s">
+      <c r="D2" s="513"/>
+      <c r="E2" s="513"/>
+      <c r="F2" s="513"/>
+      <c r="G2" s="513" t="s">
         <v>180</v>
       </c>
-      <c r="H2" s="520"/>
-      <c r="I2" s="520"/>
-      <c r="J2" s="520"/>
-      <c r="K2" s="520"/>
-      <c r="L2" s="549" t="s">
+      <c r="H2" s="513"/>
+      <c r="I2" s="513"/>
+      <c r="J2" s="513"/>
+      <c r="K2" s="513"/>
+      <c r="L2" s="538" t="s">
         <v>225</v>
       </c>
-      <c r="M2" s="550"/>
-      <c r="N2" s="550"/>
-      <c r="O2" s="550"/>
-      <c r="P2" s="551"/>
-      <c r="Q2" s="549" t="s">
+      <c r="M2" s="539"/>
+      <c r="N2" s="539"/>
+      <c r="O2" s="539"/>
+      <c r="P2" s="540"/>
+      <c r="Q2" s="538" t="s">
         <v>231</v>
       </c>
-      <c r="R2" s="550"/>
-      <c r="S2" s="550"/>
-      <c r="T2" s="550"/>
-      <c r="U2" s="551"/>
-      <c r="V2" s="546" t="s">
+      <c r="R2" s="539"/>
+      <c r="S2" s="539"/>
+      <c r="T2" s="539"/>
+      <c r="U2" s="540"/>
+      <c r="V2" s="530" t="s">
         <v>232</v>
       </c>
-      <c r="W2" s="547"/>
-      <c r="X2" s="547"/>
-      <c r="Y2" s="547"/>
-      <c r="Z2" s="548"/>
-      <c r="AA2" s="520" t="s">
+      <c r="W2" s="531"/>
+      <c r="X2" s="531"/>
+      <c r="Y2" s="531"/>
+      <c r="Z2" s="532"/>
+      <c r="AA2" s="513" t="s">
         <v>133</v>
       </c>
-      <c r="AB2" s="520"/>
-      <c r="AC2" s="520"/>
-      <c r="AD2" s="520"/>
-      <c r="AE2" s="520"/>
-      <c r="AG2" s="527" t="s">
+      <c r="AB2" s="513"/>
+      <c r="AC2" s="513"/>
+      <c r="AD2" s="513"/>
+      <c r="AE2" s="513"/>
+      <c r="AG2" s="508" t="s">
         <v>113</v>
       </c>
-      <c r="AH2" s="528"/>
+      <c r="AH2" s="509"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
-      <c r="AL2" s="472" t="s">
+      <c r="AL2" s="479" t="s">
         <v>146</v>
       </c>
-      <c r="AM2" s="473"/>
-      <c r="AN2" s="473"/>
-      <c r="AO2" s="473"/>
-      <c r="AP2" s="474"/>
+      <c r="AM2" s="480"/>
+      <c r="AN2" s="480"/>
+      <c r="AO2" s="480"/>
+      <c r="AP2" s="481"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A3" s="526"/>
-      <c r="B3" s="526"/>
-      <c r="C3" s="526" t="s">
+      <c r="A3" s="507"/>
+      <c r="B3" s="507"/>
+      <c r="C3" s="507" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="529" t="s">
+      <c r="D3" s="510" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="529"/>
-      <c r="F3" s="526" t="s">
+      <c r="E3" s="510"/>
+      <c r="F3" s="507" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="521" t="s">
+      <c r="G3" s="511" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="522" t="s">
+      <c r="H3" s="512" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="522"/>
-      <c r="J3" s="522"/>
-      <c r="K3" s="522"/>
-      <c r="L3" s="541" t="s">
+      <c r="I3" s="512"/>
+      <c r="J3" s="512"/>
+      <c r="K3" s="512"/>
+      <c r="L3" s="533" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="543" t="s">
+      <c r="M3" s="535" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="544"/>
-      <c r="O3" s="544"/>
-      <c r="P3" s="545"/>
-      <c r="Q3" s="541" t="s">
+      <c r="N3" s="536"/>
+      <c r="O3" s="536"/>
+      <c r="P3" s="537"/>
+      <c r="Q3" s="533" t="s">
         <v>87</v>
       </c>
-      <c r="R3" s="543" t="s">
+      <c r="R3" s="535" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="544"/>
-      <c r="T3" s="544"/>
-      <c r="U3" s="545"/>
-      <c r="V3" s="476" t="s">
+      <c r="S3" s="536"/>
+      <c r="T3" s="536"/>
+      <c r="U3" s="537"/>
+      <c r="V3" s="482" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="477" t="s">
+      <c r="W3" s="483" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="477"/>
-      <c r="Y3" s="477"/>
-      <c r="Z3" s="477"/>
-      <c r="AA3" s="521" t="s">
+      <c r="X3" s="483"/>
+      <c r="Y3" s="483"/>
+      <c r="Z3" s="483"/>
+      <c r="AA3" s="511" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" s="522" t="s">
+      <c r="AB3" s="512" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" s="522"/>
-      <c r="AD3" s="522"/>
-      <c r="AE3" s="522"/>
+      <c r="AC3" s="512"/>
+      <c r="AD3" s="512"/>
+      <c r="AE3" s="512"/>
       <c r="AG3" s="298" t="s">
         <v>114</v>
       </c>
@@ -49595,28 +49595,28 @@
       <c r="AK3" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="AL3" s="476" t="s">
+      <c r="AL3" s="482" t="s">
         <v>87</v>
       </c>
-      <c r="AM3" s="477" t="s">
+      <c r="AM3" s="483" t="s">
         <v>86</v>
       </c>
-      <c r="AN3" s="477"/>
-      <c r="AO3" s="477"/>
-      <c r="AP3" s="477"/>
+      <c r="AN3" s="483"/>
+      <c r="AO3" s="483"/>
+      <c r="AP3" s="483"/>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A4" s="526"/>
-      <c r="B4" s="526"/>
-      <c r="C4" s="526"/>
+      <c r="A4" s="507"/>
+      <c r="B4" s="507"/>
+      <c r="C4" s="507"/>
       <c r="D4" s="297" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="297" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="526"/>
-      <c r="G4" s="521"/>
+      <c r="F4" s="507"/>
+      <c r="G4" s="511"/>
       <c r="H4" s="294" t="s">
         <v>111</v>
       </c>
@@ -49629,7 +49629,7 @@
       <c r="K4" s="294" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="542"/>
+      <c r="L4" s="534"/>
       <c r="M4" s="410" t="s">
         <v>111</v>
       </c>
@@ -49642,7 +49642,7 @@
       <c r="P4" s="410" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="542"/>
+      <c r="Q4" s="534"/>
       <c r="R4" s="367" t="s">
         <v>111</v>
       </c>
@@ -49655,7 +49655,7 @@
       <c r="U4" s="367" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="476"/>
+      <c r="V4" s="482"/>
       <c r="W4" s="364" t="s">
         <v>111</v>
       </c>
@@ -49668,7 +49668,7 @@
       <c r="Z4" s="364" t="s">
         <v>75</v>
       </c>
-      <c r="AA4" s="521"/>
+      <c r="AA4" s="511"/>
       <c r="AB4" s="294" t="s">
         <v>111</v>
       </c>
@@ -49685,7 +49685,7 @@
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
-      <c r="AL4" s="476"/>
+      <c r="AL4" s="482"/>
       <c r="AM4" s="285" t="s">
         <v>111</v>
       </c>
@@ -49700,10 +49700,10 @@
       </c>
     </row>
     <row r="5" spans="1:42" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="525" t="s">
+      <c r="A5" s="506" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="525"/>
+      <c r="B5" s="506"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="12"/>
@@ -49773,11 +49773,11 @@
       <c r="AC6" s="291"/>
       <c r="AD6" s="291"/>
       <c r="AE6" s="291"/>
-      <c r="AG6" s="517">
+      <c r="AG6" s="514">
         <f>SUM(R7:T9)</f>
         <v>16.25</v>
       </c>
-      <c r="AH6" s="517">
+      <c r="AH6" s="514">
         <f>SUM(Z7:Z9)</f>
         <v>6.9</v>
       </c>
@@ -49875,8 +49875,8 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="AF7" s="37"/>
-      <c r="AG7" s="518"/>
-      <c r="AH7" s="518"/>
+      <c r="AG7" s="515"/>
+      <c r="AH7" s="515"/>
       <c r="AI7" s="37"/>
       <c r="AK7" s="72" t="e">
         <f>#REF!-W7</f>
@@ -49963,8 +49963,8 @@
         <v>0</v>
       </c>
       <c r="AF8" s="37"/>
-      <c r="AG8" s="518"/>
-      <c r="AH8" s="518"/>
+      <c r="AG8" s="515"/>
+      <c r="AH8" s="515"/>
       <c r="AI8" s="37"/>
       <c r="AL8" s="54" t="s">
         <v>78</v>
@@ -50068,8 +50068,8 @@
         <v>43.39</v>
       </c>
       <c r="AF9" s="37"/>
-      <c r="AG9" s="518"/>
-      <c r="AH9" s="518"/>
+      <c r="AG9" s="515"/>
+      <c r="AH9" s="515"/>
       <c r="AI9" s="37"/>
       <c r="AK9" s="72" t="e">
         <f>#REF!-W9</f>
@@ -50564,11 +50564,11 @@
         <v>0.79</v>
       </c>
       <c r="AF14" s="37"/>
-      <c r="AG14" s="517" t="e">
+      <c r="AG14" s="514" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH14" s="517">
+      <c r="AH14" s="514">
         <f>SUM(Z14:Z16)</f>
         <v>0.05</v>
       </c>
@@ -50679,8 +50679,8 @@
         <v>0.97</v>
       </c>
       <c r="AF15" s="37"/>
-      <c r="AG15" s="518"/>
-      <c r="AH15" s="518"/>
+      <c r="AG15" s="515"/>
+      <c r="AH15" s="515"/>
       <c r="AI15" s="37"/>
       <c r="AK15" s="72" t="e">
         <f>#REF!-W15</f>
@@ -50788,8 +50788,8 @@
         <v>0.47</v>
       </c>
       <c r="AF16" s="37"/>
-      <c r="AG16" s="518"/>
-      <c r="AH16" s="518"/>
+      <c r="AG16" s="515"/>
+      <c r="AH16" s="515"/>
       <c r="AI16" s="37"/>
       <c r="AK16" s="72" t="e">
         <f>#REF!-W16</f>
@@ -51012,11 +51012,11 @@
         <v>1.23</v>
       </c>
       <c r="AF18" s="37"/>
-      <c r="AG18" s="517" t="e">
+      <c r="AG18" s="514" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH18" s="517">
+      <c r="AH18" s="514">
         <f>SUM(Z18:Z19)</f>
         <v>1.2200000000000002</v>
       </c>
@@ -51127,8 +51127,8 @@
         <v>9.84</v>
       </c>
       <c r="AF19" s="37"/>
-      <c r="AG19" s="517"/>
-      <c r="AH19" s="518"/>
+      <c r="AG19" s="514"/>
+      <c r="AH19" s="515"/>
       <c r="AI19" s="37"/>
       <c r="AK19" s="72" t="e">
         <f>#REF!-W19</f>
@@ -51236,11 +51236,11 @@
         <v>17.809999999999999</v>
       </c>
       <c r="AF20" s="37"/>
-      <c r="AG20" s="517" t="e">
+      <c r="AG20" s="514" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH20" s="517">
+      <c r="AH20" s="514">
         <f>SUM(Z20:Z21)</f>
         <v>5.03</v>
       </c>
@@ -51351,8 +51351,8 @@
         <v>69.33</v>
       </c>
       <c r="AF21" s="37"/>
-      <c r="AG21" s="518"/>
-      <c r="AH21" s="518"/>
+      <c r="AG21" s="515"/>
+      <c r="AH21" s="515"/>
       <c r="AI21" s="37"/>
       <c r="AK21" s="72" t="e">
         <f>#REF!-W21</f>
@@ -51833,7 +51833,7 @@
       </c>
     </row>
     <row r="26" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="519">
+      <c r="A26" s="516">
         <v>3231201</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -51885,7 +51885,7 @@
       <c r="AP26" s="65"/>
     </row>
     <row r="27" spans="1:42" s="9" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A27" s="519"/>
+      <c r="A27" s="516"/>
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -51947,7 +51947,7 @@
       <c r="AP27" s="65"/>
     </row>
     <row r="28" spans="1:42" s="9" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="519"/>
+      <c r="A28" s="516"/>
       <c r="B28" s="46" t="s">
         <v>24</v>
       </c>
@@ -52032,15 +52032,15 @@
         <v>301.5</v>
       </c>
       <c r="AF28" s="37"/>
-      <c r="AG28" s="508" t="e">
+      <c r="AG28" s="517" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH28" s="508">
+      <c r="AH28" s="517">
         <f>SUM(Z28:Z30)</f>
         <v>0</v>
       </c>
-      <c r="AI28" s="504">
+      <c r="AI28" s="523">
         <f>SUM(X28:X30)</f>
         <v>0</v>
       </c>
@@ -52066,7 +52066,7 @@
       </c>
     </row>
     <row r="29" spans="1:42" s="9" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="519"/>
+      <c r="A29" s="516"/>
       <c r="B29" s="46" t="s">
         <v>25</v>
       </c>
@@ -52151,9 +52151,9 @@
         <v>1346.6299999999999</v>
       </c>
       <c r="AF29" s="37"/>
-      <c r="AG29" s="509"/>
-      <c r="AH29" s="509"/>
-      <c r="AI29" s="505"/>
+      <c r="AG29" s="518"/>
+      <c r="AH29" s="518"/>
+      <c r="AI29" s="524"/>
       <c r="AK29" s="72" t="e">
         <f>#REF!-W29</f>
         <v>#REF!</v>
@@ -52176,7 +52176,7 @@
       </c>
     </row>
     <row r="30" spans="1:42" s="9" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="519"/>
+      <c r="A30" s="516"/>
       <c r="B30" s="46" t="s">
         <v>26</v>
       </c>
@@ -52261,9 +52261,9 @@
         <v>578.20000000000005</v>
       </c>
       <c r="AF30" s="37"/>
-      <c r="AG30" s="509"/>
-      <c r="AH30" s="509"/>
-      <c r="AI30" s="505"/>
+      <c r="AG30" s="518"/>
+      <c r="AH30" s="518"/>
+      <c r="AI30" s="524"/>
       <c r="AK30" s="72" t="e">
         <f>#REF!-W30</f>
         <v>#REF!</v>
@@ -52643,7 +52643,7 @@
       </c>
     </row>
     <row r="34" spans="1:42" s="9" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A34" s="514">
+      <c r="A34" s="519">
         <v>3111332</v>
       </c>
       <c r="B34" s="46" t="s">
@@ -52730,11 +52730,11 @@
         <v>13.49</v>
       </c>
       <c r="AF34" s="37"/>
-      <c r="AG34" s="508" t="e">
+      <c r="AG34" s="517" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH34" s="508">
+      <c r="AH34" s="517">
         <f>SUM(Z34:Z36)</f>
         <v>0.76</v>
       </c>
@@ -52758,7 +52758,7 @@
       </c>
     </row>
     <row r="35" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="515"/>
+      <c r="A35" s="520"/>
       <c r="B35" s="46" t="s">
         <v>30</v>
       </c>
@@ -52843,8 +52843,8 @@
         <v>1.29</v>
       </c>
       <c r="AF35" s="37"/>
-      <c r="AG35" s="509"/>
-      <c r="AH35" s="509"/>
+      <c r="AG35" s="518"/>
+      <c r="AH35" s="518"/>
       <c r="AI35" s="37"/>
       <c r="AK35" s="72" t="e">
         <f>#REF!-W35</f>
@@ -52865,7 +52865,7 @@
       </c>
     </row>
     <row r="36" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="516"/>
+      <c r="A36" s="521"/>
       <c r="B36" s="46" t="s">
         <v>31</v>
       </c>
@@ -52950,8 +52950,8 @@
         <v>1.3</v>
       </c>
       <c r="AF36" s="37"/>
-      <c r="AG36" s="509"/>
-      <c r="AH36" s="509"/>
+      <c r="AG36" s="518"/>
+      <c r="AH36" s="518"/>
       <c r="AI36" s="37"/>
       <c r="AK36" s="72" t="e">
         <f>#REF!-W36</f>
@@ -53448,11 +53448,11 @@
         <v>64.319999999999993</v>
       </c>
       <c r="AF41" s="37"/>
-      <c r="AG41" s="508" t="e">
+      <c r="AG41" s="517" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH41" s="508">
+      <c r="AH41" s="517">
         <f>SUM(Z41:Z50)</f>
         <v>3.07</v>
       </c>
@@ -53563,8 +53563,8 @@
         <v>3.2</v>
       </c>
       <c r="AF42" s="37"/>
-      <c r="AG42" s="509"/>
-      <c r="AH42" s="509"/>
+      <c r="AG42" s="518"/>
+      <c r="AH42" s="518"/>
       <c r="AI42" s="37"/>
       <c r="AK42" s="72" t="e">
         <f>#REF!-W42</f>
@@ -53672,8 +53672,8 @@
         <v>5.3599999999999994</v>
       </c>
       <c r="AF43" s="37"/>
-      <c r="AG43" s="509"/>
-      <c r="AH43" s="509"/>
+      <c r="AG43" s="518"/>
+      <c r="AH43" s="518"/>
       <c r="AI43" s="37"/>
       <c r="AK43" s="72" t="e">
         <f>#REF!-W43</f>
@@ -53781,8 +53781,8 @@
         <v>1.35</v>
       </c>
       <c r="AF44" s="37"/>
-      <c r="AG44" s="509"/>
-      <c r="AH44" s="509"/>
+      <c r="AG44" s="518"/>
+      <c r="AH44" s="518"/>
       <c r="AI44" s="37"/>
       <c r="AK44" s="72" t="e">
         <f>#REF!-W44</f>
@@ -53888,8 +53888,8 @@
         <v>19.98</v>
       </c>
       <c r="AF45" s="37"/>
-      <c r="AG45" s="509"/>
-      <c r="AH45" s="509"/>
+      <c r="AG45" s="518"/>
+      <c r="AH45" s="518"/>
       <c r="AI45" s="37"/>
       <c r="AK45" s="72" t="e">
         <f>#REF!-W45</f>
@@ -53997,8 +53997,8 @@
         <v>14.53</v>
       </c>
       <c r="AF46" s="37"/>
-      <c r="AG46" s="509"/>
-      <c r="AH46" s="509"/>
+      <c r="AG46" s="518"/>
+      <c r="AH46" s="518"/>
       <c r="AI46" s="37"/>
       <c r="AK46" s="72" t="e">
         <f>#REF!-W46</f>
@@ -54106,8 +54106,8 @@
         <v>1.3900000000000001</v>
       </c>
       <c r="AF47" s="37"/>
-      <c r="AG47" s="509"/>
-      <c r="AH47" s="509"/>
+      <c r="AG47" s="518"/>
+      <c r="AH47" s="518"/>
       <c r="AI47" s="37"/>
       <c r="AK47" s="72" t="e">
         <f>#REF!-W47</f>
@@ -54223,8 +54223,8 @@
         <v>95.03</v>
       </c>
       <c r="AF48" s="37"/>
-      <c r="AG48" s="509"/>
-      <c r="AH48" s="509"/>
+      <c r="AG48" s="518"/>
+      <c r="AH48" s="518"/>
       <c r="AI48" s="71">
         <f>X48</f>
         <v>0</v>
@@ -54341,8 +54341,8 @@
         <v>2.3899999999999997</v>
       </c>
       <c r="AF49" s="37"/>
-      <c r="AG49" s="509"/>
-      <c r="AH49" s="509"/>
+      <c r="AG49" s="518"/>
+      <c r="AH49" s="518"/>
       <c r="AI49" s="37"/>
       <c r="AK49" s="72" t="e">
         <f>#REF!-W49</f>
@@ -54450,8 +54450,8 @@
         <v>7.48</v>
       </c>
       <c r="AF50" s="37"/>
-      <c r="AG50" s="509"/>
-      <c r="AH50" s="509"/>
+      <c r="AG50" s="518"/>
+      <c r="AH50" s="518"/>
       <c r="AI50" s="37"/>
       <c r="AK50" s="72" t="e">
         <f>#REF!-W50</f>
@@ -54619,88 +54619,88 @@
     <row r="52" spans="1:42" s="106" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="104"/>
       <c r="B52" s="104"/>
-      <c r="C52" s="506"/>
-      <c r="D52" s="506"/>
-      <c r="E52" s="507"/>
-      <c r="F52" s="506"/>
-      <c r="G52" s="506"/>
-      <c r="H52" s="506"/>
-      <c r="I52" s="507"/>
-      <c r="J52" s="506"/>
-      <c r="K52" s="506"/>
-      <c r="L52" s="537"/>
-      <c r="M52" s="539"/>
-      <c r="N52" s="537"/>
-      <c r="O52" s="539"/>
-      <c r="P52" s="537"/>
-      <c r="Q52" s="537"/>
-      <c r="R52" s="539"/>
-      <c r="S52" s="537"/>
-      <c r="T52" s="539"/>
-      <c r="U52" s="537"/>
-      <c r="V52" s="500"/>
-      <c r="W52" s="500"/>
-      <c r="X52" s="500"/>
-      <c r="Y52" s="500"/>
-      <c r="Z52" s="500"/>
-      <c r="AA52" s="507"/>
-      <c r="AB52" s="507"/>
-      <c r="AC52" s="507"/>
-      <c r="AD52" s="507"/>
-      <c r="AE52" s="507"/>
+      <c r="C52" s="525"/>
+      <c r="D52" s="525"/>
+      <c r="E52" s="522"/>
+      <c r="F52" s="525"/>
+      <c r="G52" s="525"/>
+      <c r="H52" s="525"/>
+      <c r="I52" s="522"/>
+      <c r="J52" s="525"/>
+      <c r="K52" s="525"/>
+      <c r="L52" s="543"/>
+      <c r="M52" s="541"/>
+      <c r="N52" s="543"/>
+      <c r="O52" s="541"/>
+      <c r="P52" s="543"/>
+      <c r="Q52" s="543"/>
+      <c r="R52" s="541"/>
+      <c r="S52" s="543"/>
+      <c r="T52" s="541"/>
+      <c r="U52" s="543"/>
+      <c r="V52" s="478"/>
+      <c r="W52" s="478"/>
+      <c r="X52" s="478"/>
+      <c r="Y52" s="478"/>
+      <c r="Z52" s="478"/>
+      <c r="AA52" s="522"/>
+      <c r="AB52" s="522"/>
+      <c r="AC52" s="522"/>
+      <c r="AD52" s="522"/>
+      <c r="AE52" s="522"/>
       <c r="AF52" s="105"/>
       <c r="AG52" s="105"/>
       <c r="AH52" s="105"/>
       <c r="AI52" s="105"/>
-      <c r="AL52" s="500"/>
-      <c r="AM52" s="500"/>
-      <c r="AN52" s="500"/>
-      <c r="AO52" s="500"/>
-      <c r="AP52" s="500"/>
+      <c r="AL52" s="478"/>
+      <c r="AM52" s="478"/>
+      <c r="AN52" s="478"/>
+      <c r="AO52" s="478"/>
+      <c r="AP52" s="478"/>
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A53" s="102" t="s">
         <v>79</v>
       </c>
       <c r="B53" s="107"/>
-      <c r="C53" s="506"/>
-      <c r="D53" s="506"/>
-      <c r="E53" s="507"/>
-      <c r="F53" s="506"/>
-      <c r="G53" s="506"/>
-      <c r="H53" s="506"/>
-      <c r="I53" s="507"/>
-      <c r="J53" s="506"/>
-      <c r="K53" s="506"/>
-      <c r="L53" s="538"/>
-      <c r="M53" s="540"/>
-      <c r="N53" s="538"/>
-      <c r="O53" s="540"/>
-      <c r="P53" s="538"/>
-      <c r="Q53" s="538"/>
-      <c r="R53" s="540"/>
-      <c r="S53" s="538"/>
-      <c r="T53" s="540"/>
-      <c r="U53" s="538"/>
-      <c r="V53" s="500"/>
-      <c r="W53" s="500"/>
-      <c r="X53" s="500"/>
-      <c r="Y53" s="500"/>
-      <c r="Z53" s="500"/>
-      <c r="AA53" s="507"/>
-      <c r="AB53" s="507"/>
-      <c r="AC53" s="507"/>
-      <c r="AD53" s="507"/>
-      <c r="AE53" s="507"/>
+      <c r="C53" s="525"/>
+      <c r="D53" s="525"/>
+      <c r="E53" s="522"/>
+      <c r="F53" s="525"/>
+      <c r="G53" s="525"/>
+      <c r="H53" s="525"/>
+      <c r="I53" s="522"/>
+      <c r="J53" s="525"/>
+      <c r="K53" s="525"/>
+      <c r="L53" s="544"/>
+      <c r="M53" s="542"/>
+      <c r="N53" s="544"/>
+      <c r="O53" s="542"/>
+      <c r="P53" s="544"/>
+      <c r="Q53" s="544"/>
+      <c r="R53" s="542"/>
+      <c r="S53" s="544"/>
+      <c r="T53" s="542"/>
+      <c r="U53" s="544"/>
+      <c r="V53" s="478"/>
+      <c r="W53" s="478"/>
+      <c r="X53" s="478"/>
+      <c r="Y53" s="478"/>
+      <c r="Z53" s="478"/>
+      <c r="AA53" s="522"/>
+      <c r="AB53" s="522"/>
+      <c r="AC53" s="522"/>
+      <c r="AD53" s="522"/>
+      <c r="AE53" s="522"/>
       <c r="AF53" s="37"/>
       <c r="AG53" s="37"/>
       <c r="AH53" s="37"/>
       <c r="AI53" s="37"/>
-      <c r="AL53" s="500"/>
-      <c r="AM53" s="500"/>
-      <c r="AN53" s="500"/>
-      <c r="AO53" s="500"/>
-      <c r="AP53" s="500"/>
+      <c r="AL53" s="478"/>
+      <c r="AM53" s="478"/>
+      <c r="AN53" s="478"/>
+      <c r="AO53" s="478"/>
+      <c r="AP53" s="478"/>
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A54" s="48"/>
@@ -54747,7 +54747,7 @@
       <c r="AP54" s="57"/>
     </row>
     <row r="55" spans="1:42" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="513">
+      <c r="A55" s="526">
         <v>4112101</v>
       </c>
       <c r="B55" s="103" t="s">
@@ -54821,11 +54821,11 @@
         <v>606.9</v>
       </c>
       <c r="AF55" s="37"/>
-      <c r="AG55" s="508" t="e">
+      <c r="AG55" s="517" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH55" s="508">
+      <c r="AH55" s="517">
         <f>SUM(Z55:Z56)</f>
         <v>0</v>
       </c>
@@ -54845,7 +54845,7 @@
       </c>
     </row>
     <row r="56" spans="1:42" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="513"/>
+      <c r="A56" s="526"/>
       <c r="B56" s="46" t="s">
         <v>47</v>
       </c>
@@ -54921,8 +54921,8 @@
         <v>50.22</v>
       </c>
       <c r="AF56" s="37"/>
-      <c r="AG56" s="509"/>
-      <c r="AH56" s="509"/>
+      <c r="AG56" s="518"/>
+      <c r="AH56" s="518"/>
       <c r="AI56" s="37"/>
       <c r="AL56" s="196"/>
       <c r="AM56" s="54">
@@ -55033,7 +55033,7 @@
       </c>
     </row>
     <row r="58" spans="1:42" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="512">
+      <c r="A58" s="529">
         <v>4112316</v>
       </c>
       <c r="B58" s="46" t="s">
@@ -55107,11 +55107,11 @@
         <v>8.9499999999999993</v>
       </c>
       <c r="AF58" s="37"/>
-      <c r="AG58" s="508" t="e">
+      <c r="AG58" s="517" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH58" s="508">
+      <c r="AH58" s="517">
         <f>SUM(Z58:Z59)</f>
         <v>0</v>
       </c>
@@ -55129,7 +55129,7 @@
       </c>
     </row>
     <row r="59" spans="1:42" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="512"/>
+      <c r="A59" s="529"/>
       <c r="B59" s="46" t="s">
         <v>50</v>
       </c>
@@ -55201,8 +55201,8 @@
         <v>0.79</v>
       </c>
       <c r="AF59" s="37"/>
-      <c r="AG59" s="509"/>
-      <c r="AH59" s="509"/>
+      <c r="AG59" s="518"/>
+      <c r="AH59" s="518"/>
       <c r="AI59" s="37"/>
       <c r="AL59" s="196"/>
       <c r="AM59" s="54">
@@ -55217,7 +55217,7 @@
       </c>
     </row>
     <row r="60" spans="1:42" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="512">
+      <c r="A60" s="529">
         <v>4112304</v>
       </c>
       <c r="B60" s="46" t="s">
@@ -55291,11 +55291,11 @@
         <v>20.18</v>
       </c>
       <c r="AF60" s="37"/>
-      <c r="AG60" s="508" t="e">
+      <c r="AG60" s="517" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH60" s="508">
+      <c r="AH60" s="517">
         <f>SUM(Z60:Z62)</f>
         <v>0</v>
       </c>
@@ -55313,7 +55313,7 @@
       </c>
     </row>
     <row r="61" spans="1:42" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A61" s="512"/>
+      <c r="A61" s="529"/>
       <c r="B61" s="46" t="s">
         <v>52</v>
       </c>
@@ -55385,8 +55385,8 @@
         <v>2.13</v>
       </c>
       <c r="AF61" s="37"/>
-      <c r="AG61" s="509"/>
-      <c r="AH61" s="509"/>
+      <c r="AG61" s="518"/>
+      <c r="AH61" s="518"/>
       <c r="AI61" s="37"/>
       <c r="AL61" s="196"/>
       <c r="AM61" s="54">
@@ -55401,7 +55401,7 @@
       </c>
     </row>
     <row r="62" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A62" s="512"/>
+      <c r="A62" s="529"/>
       <c r="B62" s="46" t="s">
         <v>53</v>
       </c>
@@ -55481,8 +55481,8 @@
         <v>9.49</v>
       </c>
       <c r="AF62" s="37"/>
-      <c r="AG62" s="509"/>
-      <c r="AH62" s="509"/>
+      <c r="AG62" s="518"/>
+      <c r="AH62" s="518"/>
       <c r="AI62" s="37"/>
       <c r="AL62" s="196" t="s">
         <v>78</v>
@@ -55499,7 +55499,7 @@
       </c>
     </row>
     <row r="63" spans="1:42" ht="67.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="512">
+      <c r="A63" s="529">
         <v>4112202</v>
       </c>
       <c r="B63" s="103" t="s">
@@ -55577,11 +55577,11 @@
         <v>19.47</v>
       </c>
       <c r="AF63" s="37"/>
-      <c r="AG63" s="508" t="e">
+      <c r="AG63" s="517" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH63" s="508">
+      <c r="AH63" s="517">
         <f>SUM(Z63:Z66)</f>
         <v>0</v>
       </c>
@@ -55599,7 +55599,7 @@
       </c>
     </row>
     <row r="64" spans="1:42" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A64" s="512"/>
+      <c r="A64" s="529"/>
       <c r="B64" s="46" t="s">
         <v>55</v>
       </c>
@@ -55675,8 +55675,8 @@
         <v>9.8800000000000008</v>
       </c>
       <c r="AF64" s="37"/>
-      <c r="AG64" s="509"/>
-      <c r="AH64" s="509"/>
+      <c r="AG64" s="518"/>
+      <c r="AH64" s="518"/>
       <c r="AI64" s="37"/>
       <c r="AL64" s="196"/>
       <c r="AM64" s="54">
@@ -55691,7 +55691,7 @@
       </c>
     </row>
     <row r="65" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A65" s="512"/>
+      <c r="A65" s="529"/>
       <c r="B65" s="46" t="s">
         <v>56</v>
       </c>
@@ -55767,8 +55767,8 @@
         <v>0.2</v>
       </c>
       <c r="AF65" s="37"/>
-      <c r="AG65" s="509"/>
-      <c r="AH65" s="509"/>
+      <c r="AG65" s="518"/>
+      <c r="AH65" s="518"/>
       <c r="AI65" s="37"/>
       <c r="AL65" s="196"/>
       <c r="AM65" s="54">
@@ -55783,7 +55783,7 @@
       </c>
     </row>
     <row r="66" spans="1:42" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A66" s="512"/>
+      <c r="A66" s="529"/>
       <c r="B66" s="46" t="s">
         <v>57</v>
       </c>
@@ -55859,8 +55859,8 @@
         <v>4.08</v>
       </c>
       <c r="AF66" s="37"/>
-      <c r="AG66" s="509"/>
-      <c r="AH66" s="509"/>
+      <c r="AG66" s="518"/>
+      <c r="AH66" s="518"/>
       <c r="AI66" s="37"/>
       <c r="AL66" s="196"/>
       <c r="AM66" s="54">
@@ -55949,11 +55949,11 @@
         <v>45.32</v>
       </c>
       <c r="AF67" s="37"/>
-      <c r="AG67" s="510" t="e">
+      <c r="AG67" s="527" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH67" s="510">
+      <c r="AH67" s="527">
         <f>SUM(Z67:Z68)</f>
         <v>0</v>
       </c>
@@ -56047,8 +56047,8 @@
         <v>9.73</v>
       </c>
       <c r="AF68" s="37"/>
-      <c r="AG68" s="511"/>
-      <c r="AH68" s="511"/>
+      <c r="AG68" s="528"/>
+      <c r="AH68" s="528"/>
       <c r="AI68" s="37"/>
       <c r="AL68" s="196" t="s">
         <v>78</v>
@@ -56291,15 +56291,15 @@
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
       <c r="AF72" s="37"/>
-      <c r="AG72" s="508" t="e">
+      <c r="AG72" s="517" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH72" s="508">
+      <c r="AH72" s="517">
         <f>SUM(Z72:Z85)</f>
         <v>46.96</v>
       </c>
-      <c r="AI72" s="508">
+      <c r="AI72" s="517">
         <f>SUM(X72:X85)</f>
         <v>41.09</v>
       </c>
@@ -56388,9 +56388,9 @@
       <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
       <c r="AF73" s="37"/>
-      <c r="AG73" s="509"/>
-      <c r="AH73" s="509"/>
-      <c r="AI73" s="509"/>
+      <c r="AG73" s="518"/>
+      <c r="AH73" s="518"/>
+      <c r="AI73" s="518"/>
       <c r="AL73" s="79" t="s">
         <v>136</v>
       </c>
@@ -56449,9 +56449,9 @@
       <c r="AD74" s="2"/>
       <c r="AE74" s="2"/>
       <c r="AF74" s="37"/>
-      <c r="AG74" s="509"/>
-      <c r="AH74" s="509"/>
-      <c r="AI74" s="509"/>
+      <c r="AG74" s="518"/>
+      <c r="AH74" s="518"/>
+      <c r="AI74" s="518"/>
       <c r="AL74" s="81"/>
       <c r="AM74" s="65"/>
       <c r="AN74" s="65"/>
@@ -56537,9 +56537,9 @@
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
       <c r="AF75" s="37"/>
-      <c r="AG75" s="509"/>
-      <c r="AH75" s="509"/>
-      <c r="AI75" s="509"/>
+      <c r="AG75" s="518"/>
+      <c r="AH75" s="518"/>
+      <c r="AI75" s="518"/>
       <c r="AL75" s="79" t="s">
         <v>137</v>
       </c>
@@ -56652,9 +56652,9 @@
         <v>6143.66</v>
       </c>
       <c r="AF76" s="37"/>
-      <c r="AG76" s="509"/>
-      <c r="AH76" s="509"/>
-      <c r="AI76" s="509"/>
+      <c r="AG76" s="518"/>
+      <c r="AH76" s="518"/>
+      <c r="AI76" s="518"/>
       <c r="AL76" s="79" t="s">
         <v>110</v>
       </c>
@@ -56767,9 +56767,9 @@
         <v>6011.48</v>
       </c>
       <c r="AF77" s="37"/>
-      <c r="AG77" s="509"/>
-      <c r="AH77" s="509"/>
-      <c r="AI77" s="509"/>
+      <c r="AG77" s="518"/>
+      <c r="AH77" s="518"/>
+      <c r="AI77" s="518"/>
       <c r="AK77" s="116"/>
       <c r="AL77" s="79" t="s">
         <v>109</v>
@@ -56827,9 +56827,9 @@
       <c r="AD78" s="2"/>
       <c r="AE78" s="2"/>
       <c r="AF78" s="37"/>
-      <c r="AG78" s="509"/>
-      <c r="AH78" s="509"/>
-      <c r="AI78" s="509"/>
+      <c r="AG78" s="518"/>
+      <c r="AH78" s="518"/>
+      <c r="AI78" s="518"/>
       <c r="AK78" s="116"/>
       <c r="AL78" s="81"/>
       <c r="AM78" s="67"/>
@@ -56916,9 +56916,9 @@
       <c r="AD79" s="2"/>
       <c r="AE79" s="2"/>
       <c r="AF79" s="37"/>
-      <c r="AG79" s="509"/>
-      <c r="AH79" s="509"/>
-      <c r="AI79" s="509"/>
+      <c r="AG79" s="518"/>
+      <c r="AH79" s="518"/>
+      <c r="AI79" s="518"/>
       <c r="AK79" s="116"/>
       <c r="AL79" s="79" t="s">
         <v>138</v>
@@ -57016,9 +57016,9 @@
       <c r="AD80" s="2"/>
       <c r="AE80" s="2"/>
       <c r="AF80" s="37"/>
-      <c r="AG80" s="509"/>
-      <c r="AH80" s="509"/>
-      <c r="AI80" s="509"/>
+      <c r="AG80" s="518"/>
+      <c r="AH80" s="518"/>
+      <c r="AI80" s="518"/>
       <c r="AK80" s="116"/>
       <c r="AL80" s="79" t="s">
         <v>135</v>
@@ -57116,9 +57116,9 @@
       <c r="AD81" s="2"/>
       <c r="AE81" s="2"/>
       <c r="AF81" s="37"/>
-      <c r="AG81" s="509"/>
-      <c r="AH81" s="509"/>
-      <c r="AI81" s="509"/>
+      <c r="AG81" s="518"/>
+      <c r="AH81" s="518"/>
+      <c r="AI81" s="518"/>
       <c r="AJ81" s="116"/>
       <c r="AK81" s="116"/>
       <c r="AL81" s="79" t="s">
@@ -57233,9 +57233,9 @@
         <v>6127.0599999999995</v>
       </c>
       <c r="AF82" s="37"/>
-      <c r="AG82" s="509"/>
-      <c r="AH82" s="509"/>
-      <c r="AI82" s="509"/>
+      <c r="AG82" s="518"/>
+      <c r="AH82" s="518"/>
+      <c r="AI82" s="518"/>
       <c r="AK82" s="118"/>
       <c r="AL82" s="79" t="s">
         <v>108</v>
@@ -57333,9 +57333,9 @@
       <c r="AD83" s="2"/>
       <c r="AE83" s="2"/>
       <c r="AF83" s="37"/>
-      <c r="AG83" s="509"/>
-      <c r="AH83" s="509"/>
-      <c r="AI83" s="509"/>
+      <c r="AG83" s="518"/>
+      <c r="AH83" s="518"/>
+      <c r="AI83" s="518"/>
       <c r="AL83" s="79" t="s">
         <v>140</v>
       </c>
@@ -57432,9 +57432,9 @@
       <c r="AD84" s="2"/>
       <c r="AE84" s="2"/>
       <c r="AF84" s="37"/>
-      <c r="AG84" s="509"/>
-      <c r="AH84" s="509"/>
-      <c r="AI84" s="509"/>
+      <c r="AG84" s="518"/>
+      <c r="AH84" s="518"/>
+      <c r="AI84" s="518"/>
       <c r="AL84" s="79" t="s">
         <v>105</v>
       </c>
@@ -57494,9 +57494,9 @@
       <c r="AD85" s="2"/>
       <c r="AE85" s="2"/>
       <c r="AF85" s="37"/>
-      <c r="AG85" s="509"/>
-      <c r="AH85" s="509"/>
-      <c r="AI85" s="509"/>
+      <c r="AG85" s="518"/>
+      <c r="AH85" s="518"/>
+      <c r="AI85" s="518"/>
       <c r="AJ85" s="75"/>
       <c r="AL85" s="63"/>
       <c r="AM85" s="65"/>
@@ -57881,11 +57881,11 @@
       <c r="AF89" s="37"/>
       <c r="AG89" s="37"/>
       <c r="AH89" s="37"/>
-      <c r="AI89" s="504">
+      <c r="AI89" s="523">
         <f>AI87+AJ87</f>
         <v>278.73</v>
       </c>
-      <c r="AJ89" s="505"/>
+      <c r="AJ89" s="524"/>
       <c r="AL89" s="61"/>
       <c r="AM89" s="60"/>
       <c r="AN89" s="60"/>
@@ -58125,8 +58125,8 @@
         <f>SUM(Z73:Z85)+Z48</f>
         <v>46.96</v>
       </c>
-      <c r="AO93" s="523"/>
-      <c r="AP93" s="524"/>
+      <c r="AO93" s="504"/>
+      <c r="AP93" s="505"/>
     </row>
     <row r="94" spans="1:42" x14ac:dyDescent="0.3">
       <c r="G94" s="4" t="s">
@@ -58660,44 +58660,48 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="AM3:AP3"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AI28:AI30"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="AG6:AG9"/>
-    <mergeCell ref="AH6:AH9"/>
-    <mergeCell ref="AG14:AG16"/>
-    <mergeCell ref="AH14:AH16"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="AG28:AG30"/>
-    <mergeCell ref="AH28:AH30"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="AI72:AI85"/>
+    <mergeCell ref="AI89:AJ89"/>
+    <mergeCell ref="AO93:AP93"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="AG63:AG66"/>
+    <mergeCell ref="AH63:AH66"/>
+    <mergeCell ref="AG67:AG68"/>
+    <mergeCell ref="AH67:AH68"/>
+    <mergeCell ref="AG72:AG85"/>
+    <mergeCell ref="AH72:AH85"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="AG58:AG59"/>
+    <mergeCell ref="AH58:AH59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="AG60:AG62"/>
+    <mergeCell ref="AH60:AH62"/>
+    <mergeCell ref="AL52:AL53"/>
+    <mergeCell ref="AM52:AM53"/>
+    <mergeCell ref="AN52:AN53"/>
+    <mergeCell ref="AO52:AO53"/>
+    <mergeCell ref="AP52:AP53"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="AG55:AG56"/>
+    <mergeCell ref="AH55:AH56"/>
+    <mergeCell ref="Z52:Z53"/>
+    <mergeCell ref="AA52:AA53"/>
+    <mergeCell ref="AB52:AB53"/>
+    <mergeCell ref="AC52:AC53"/>
+    <mergeCell ref="AD52:AD53"/>
+    <mergeCell ref="AE52:AE53"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="X52:X53"/>
+    <mergeCell ref="Y52:Y53"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="U52:U53"/>
     <mergeCell ref="R52:R53"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="AG34:AG36"/>
@@ -58714,48 +58718,44 @@
     <mergeCell ref="J52:J53"/>
     <mergeCell ref="K52:K53"/>
     <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="AG55:AG56"/>
-    <mergeCell ref="AH55:AH56"/>
-    <mergeCell ref="Z52:Z53"/>
-    <mergeCell ref="AA52:AA53"/>
-    <mergeCell ref="AB52:AB53"/>
-    <mergeCell ref="AC52:AC53"/>
-    <mergeCell ref="AD52:AD53"/>
-    <mergeCell ref="AE52:AE53"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="X52:X53"/>
-    <mergeCell ref="Y52:Y53"/>
-    <mergeCell ref="S52:S53"/>
-    <mergeCell ref="T52:T53"/>
-    <mergeCell ref="U52:U53"/>
-    <mergeCell ref="AL52:AL53"/>
-    <mergeCell ref="AM52:AM53"/>
-    <mergeCell ref="AN52:AN53"/>
-    <mergeCell ref="AO52:AO53"/>
-    <mergeCell ref="AP52:AP53"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="AG58:AG59"/>
-    <mergeCell ref="AH58:AH59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="AG60:AG62"/>
-    <mergeCell ref="AH60:AH62"/>
-    <mergeCell ref="AI72:AI85"/>
-    <mergeCell ref="AI89:AJ89"/>
-    <mergeCell ref="AO93:AP93"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="AG63:AG66"/>
-    <mergeCell ref="AH63:AH66"/>
-    <mergeCell ref="AG67:AG68"/>
-    <mergeCell ref="AH67:AH68"/>
-    <mergeCell ref="AG72:AG85"/>
-    <mergeCell ref="AH72:AH85"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="AI28:AI30"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="AG6:AG9"/>
+    <mergeCell ref="AH6:AH9"/>
+    <mergeCell ref="AG14:AG16"/>
+    <mergeCell ref="AH14:AH16"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="AG28:AG30"/>
+    <mergeCell ref="AH28:AH30"/>
+    <mergeCell ref="AM3:AP3"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:P3"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.02" top="0.2" bottom="0.2" header="0.3" footer="0.1"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>

--- a/Civilworks cost/Expenditure_2017_18/Chcek/Cost Calculation 19-20 RADP Target(5).xlsx
+++ b/Civilworks cost/Expenditure_2017_18/Chcek/Cost Calculation 19-20 RADP Target(5).xlsx
@@ -3019,27 +3019,6 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3047,6 +3026,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3061,19 +3043,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3091,16 +3067,15 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3110,6 +3085,88 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3130,70 +3187,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3211,6 +3235,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3219,39 +3252,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3601,11 +3601,11 @@
   <dimension ref="A1:CK115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="AA23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="K17" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="BY4" sqref="BY4"/>
+      <selection pane="bottomRight" activeCell="AQ28" sqref="AQ28:AT30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3635,48 +3635,48 @@
     <col min="24" max="24" width="7.6640625" style="283" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="7.44140625" style="283" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="8.5546875" style="283" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="8.33203125" style="214" customWidth="1"/>
-    <col min="28" max="28" width="7.6640625" style="216" customWidth="1"/>
-    <col min="29" max="30" width="7.44140625" style="216" customWidth="1"/>
-    <col min="31" max="31" width="8.5546875" style="216" customWidth="1"/>
-    <col min="32" max="32" width="8.88671875" style="283" customWidth="1"/>
-    <col min="33" max="33" width="8" style="283" customWidth="1"/>
-    <col min="34" max="34" width="7.6640625" style="283" customWidth="1"/>
-    <col min="35" max="35" width="8" style="283" customWidth="1"/>
-    <col min="36" max="36" width="8.5546875" style="283" customWidth="1"/>
-    <col min="37" max="37" width="8.33203125" style="214" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="7.6640625" style="216" hidden="1" customWidth="1"/>
-    <col min="39" max="40" width="7.44140625" style="216" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="8.5546875" style="216" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="8.88671875" style="283" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="8" style="283" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="8.5546875" style="283" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="7.109375" style="283" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="8.5546875" style="448" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="9.109375" style="216" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="9.33203125" style="216" hidden="1" customWidth="1"/>
-    <col min="49" max="50" width="8.33203125" style="214" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="9.33203125" style="214" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="6.6640625" style="197" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="8.44140625" style="197" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="8.6640625" style="197" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="7.109375" style="197" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="8.5546875" style="197" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="6.6640625" style="216" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="9.33203125" style="216" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="9.33203125" style="214" hidden="1" customWidth="1"/>
-    <col min="60" max="60" width="8.33203125" style="214" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="9.33203125" style="214" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="6.6640625" style="359" hidden="1" customWidth="1"/>
-    <col min="63" max="63" width="8.44140625" style="359" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="8.6640625" style="359" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="7.109375" style="359" hidden="1" customWidth="1"/>
-    <col min="66" max="66" width="8.5546875" style="359" hidden="1" customWidth="1"/>
-    <col min="67" max="67" width="6.5546875" style="216" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="11" style="216" hidden="1" customWidth="1"/>
-    <col min="69" max="69" width="11" style="214" hidden="1" customWidth="1"/>
-    <col min="70" max="70" width="8.33203125" style="214" hidden="1" customWidth="1"/>
-    <col min="71" max="71" width="9.33203125" style="214" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="8.33203125" style="214" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="7.6640625" style="216" hidden="1" customWidth="1"/>
+    <col min="29" max="30" width="7.44140625" style="216" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="8.5546875" style="216" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="8.88671875" style="283" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="8" style="283" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="7.6640625" style="283" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="8" style="283" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="8.5546875" style="283" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="8.33203125" style="214" customWidth="1"/>
+    <col min="38" max="38" width="7.6640625" style="216" customWidth="1"/>
+    <col min="39" max="40" width="7.44140625" style="216" customWidth="1"/>
+    <col min="41" max="41" width="8.5546875" style="216" customWidth="1"/>
+    <col min="42" max="42" width="8.88671875" style="283" customWidth="1"/>
+    <col min="43" max="43" width="8" style="283" customWidth="1"/>
+    <col min="44" max="44" width="8.5546875" style="283" customWidth="1"/>
+    <col min="45" max="45" width="7.109375" style="283" customWidth="1"/>
+    <col min="46" max="46" width="8.5546875" style="448" customWidth="1"/>
+    <col min="47" max="47" width="9.109375" style="216" customWidth="1"/>
+    <col min="48" max="48" width="9.33203125" style="216" customWidth="1"/>
+    <col min="49" max="50" width="8.33203125" style="214" customWidth="1"/>
+    <col min="51" max="51" width="9.33203125" style="214" customWidth="1"/>
+    <col min="52" max="52" width="6.6640625" style="197" customWidth="1"/>
+    <col min="53" max="53" width="8.44140625" style="197" customWidth="1"/>
+    <col min="54" max="54" width="8.6640625" style="197" customWidth="1"/>
+    <col min="55" max="55" width="7.109375" style="197" customWidth="1"/>
+    <col min="56" max="56" width="8.5546875" style="197" customWidth="1"/>
+    <col min="57" max="57" width="6.6640625" style="216" customWidth="1"/>
+    <col min="58" max="58" width="9.33203125" style="216" customWidth="1"/>
+    <col min="59" max="59" width="9.33203125" style="214" customWidth="1"/>
+    <col min="60" max="60" width="8.33203125" style="214" customWidth="1"/>
+    <col min="61" max="61" width="9.33203125" style="214" customWidth="1"/>
+    <col min="62" max="62" width="6.6640625" style="359" customWidth="1"/>
+    <col min="63" max="63" width="8.44140625" style="359" customWidth="1"/>
+    <col min="64" max="64" width="8.6640625" style="359" customWidth="1"/>
+    <col min="65" max="65" width="7.109375" style="359" customWidth="1"/>
+    <col min="66" max="66" width="8.5546875" style="359" customWidth="1"/>
+    <col min="67" max="67" width="6.5546875" style="216" customWidth="1"/>
+    <col min="68" max="68" width="11" style="216" customWidth="1"/>
+    <col min="69" max="69" width="11" style="214" customWidth="1"/>
+    <col min="70" max="70" width="8.33203125" style="214" customWidth="1"/>
+    <col min="71" max="71" width="9.33203125" style="214" customWidth="1"/>
     <col min="72" max="16384" width="9.109375" style="214"/>
   </cols>
   <sheetData>
@@ -3744,266 +3744,266 @@
       <c r="CK1" s="406"/>
     </row>
     <row r="2" spans="1:89" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="477" t="s">
+      <c r="A2" s="490" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="477" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="476" t="s">
+      <c r="B2" s="490" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="475" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="476"/>
-      <c r="E2" s="476"/>
-      <c r="F2" s="476"/>
-      <c r="G2" s="472" t="s">
+      <c r="D2" s="475"/>
+      <c r="E2" s="475"/>
+      <c r="F2" s="475"/>
+      <c r="G2" s="501" t="s">
         <v>227</v>
       </c>
-      <c r="H2" s="473"/>
-      <c r="I2" s="473"/>
-      <c r="J2" s="473"/>
-      <c r="K2" s="474"/>
-      <c r="L2" s="491" t="s">
+      <c r="H2" s="502"/>
+      <c r="I2" s="502"/>
+      <c r="J2" s="502"/>
+      <c r="K2" s="503"/>
+      <c r="L2" s="483" t="s">
         <v>169</v>
       </c>
-      <c r="M2" s="492"/>
-      <c r="N2" s="492"/>
-      <c r="O2" s="492"/>
-      <c r="P2" s="493"/>
-      <c r="Q2" s="476" t="s">
+      <c r="M2" s="484"/>
+      <c r="N2" s="484"/>
+      <c r="O2" s="484"/>
+      <c r="P2" s="485"/>
+      <c r="Q2" s="475" t="s">
         <v>170</v>
       </c>
-      <c r="R2" s="476"/>
-      <c r="S2" s="476"/>
-      <c r="T2" s="476"/>
-      <c r="U2" s="476"/>
-      <c r="V2" s="491" t="s">
+      <c r="R2" s="475"/>
+      <c r="S2" s="475"/>
+      <c r="T2" s="475"/>
+      <c r="U2" s="475"/>
+      <c r="V2" s="483" t="s">
         <v>172</v>
       </c>
-      <c r="W2" s="492"/>
-      <c r="X2" s="492"/>
-      <c r="Y2" s="492"/>
-      <c r="Z2" s="493"/>
-      <c r="AA2" s="476" t="s">
+      <c r="W2" s="484"/>
+      <c r="X2" s="484"/>
+      <c r="Y2" s="484"/>
+      <c r="Z2" s="485"/>
+      <c r="AA2" s="475" t="s">
         <v>173</v>
       </c>
-      <c r="AB2" s="476"/>
-      <c r="AC2" s="476"/>
-      <c r="AD2" s="476"/>
-      <c r="AE2" s="476"/>
-      <c r="AF2" s="491" t="s">
+      <c r="AB2" s="475"/>
+      <c r="AC2" s="475"/>
+      <c r="AD2" s="475"/>
+      <c r="AE2" s="475"/>
+      <c r="AF2" s="483" t="s">
         <v>171</v>
       </c>
-      <c r="AG2" s="492"/>
-      <c r="AH2" s="492"/>
-      <c r="AI2" s="492"/>
-      <c r="AJ2" s="493"/>
-      <c r="AK2" s="476" t="s">
+      <c r="AG2" s="484"/>
+      <c r="AH2" s="484"/>
+      <c r="AI2" s="484"/>
+      <c r="AJ2" s="485"/>
+      <c r="AK2" s="475" t="s">
         <v>112</v>
       </c>
-      <c r="AL2" s="476"/>
-      <c r="AM2" s="476"/>
-      <c r="AN2" s="476"/>
-      <c r="AO2" s="476"/>
-      <c r="AP2" s="491" t="s">
+      <c r="AL2" s="475"/>
+      <c r="AM2" s="475"/>
+      <c r="AN2" s="475"/>
+      <c r="AO2" s="475"/>
+      <c r="AP2" s="483" t="s">
         <v>116</v>
       </c>
-      <c r="AQ2" s="492"/>
-      <c r="AR2" s="492"/>
-      <c r="AS2" s="492"/>
-      <c r="AT2" s="493"/>
-      <c r="AU2" s="476" t="s">
+      <c r="AQ2" s="484"/>
+      <c r="AR2" s="484"/>
+      <c r="AS2" s="484"/>
+      <c r="AT2" s="485"/>
+      <c r="AU2" s="475" t="s">
         <v>174</v>
       </c>
-      <c r="AV2" s="476"/>
-      <c r="AW2" s="476"/>
-      <c r="AX2" s="476"/>
-      <c r="AY2" s="476"/>
-      <c r="AZ2" s="479" t="s">
+      <c r="AV2" s="475"/>
+      <c r="AW2" s="475"/>
+      <c r="AX2" s="475"/>
+      <c r="AY2" s="475"/>
+      <c r="AZ2" s="472" t="s">
         <v>143</v>
       </c>
-      <c r="BA2" s="480"/>
-      <c r="BB2" s="480"/>
-      <c r="BC2" s="480"/>
-      <c r="BD2" s="481"/>
-      <c r="BE2" s="476" t="s">
+      <c r="BA2" s="473"/>
+      <c r="BB2" s="473"/>
+      <c r="BC2" s="473"/>
+      <c r="BD2" s="474"/>
+      <c r="BE2" s="475" t="s">
         <v>175</v>
       </c>
-      <c r="BF2" s="476"/>
-      <c r="BG2" s="476"/>
-      <c r="BH2" s="476"/>
-      <c r="BI2" s="476"/>
-      <c r="BJ2" s="479" t="s">
+      <c r="BF2" s="475"/>
+      <c r="BG2" s="475"/>
+      <c r="BH2" s="475"/>
+      <c r="BI2" s="475"/>
+      <c r="BJ2" s="472" t="s">
         <v>223</v>
       </c>
-      <c r="BK2" s="480"/>
-      <c r="BL2" s="480"/>
-      <c r="BM2" s="480"/>
-      <c r="BN2" s="481"/>
-      <c r="BO2" s="476" t="s">
+      <c r="BK2" s="473"/>
+      <c r="BL2" s="473"/>
+      <c r="BM2" s="473"/>
+      <c r="BN2" s="474"/>
+      <c r="BO2" s="475" t="s">
         <v>224</v>
       </c>
-      <c r="BP2" s="476"/>
-      <c r="BQ2" s="476"/>
-      <c r="BR2" s="476"/>
-      <c r="BS2" s="476"/>
+      <c r="BP2" s="475"/>
+      <c r="BQ2" s="475"/>
+      <c r="BR2" s="475"/>
+      <c r="BS2" s="475"/>
     </row>
     <row r="3" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A3" s="477"/>
-      <c r="B3" s="477"/>
-      <c r="C3" s="477" t="s">
+      <c r="A3" s="490"/>
+      <c r="B3" s="490"/>
+      <c r="C3" s="490" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="477" t="s">
+      <c r="D3" s="490" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="477"/>
-      <c r="F3" s="477" t="s">
+      <c r="E3" s="490"/>
+      <c r="F3" s="490" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="475" t="s">
+      <c r="G3" s="480" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="496" t="s">
+      <c r="H3" s="491" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="496" t="s">
+      <c r="I3" s="491" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="496"/>
-      <c r="K3" s="496" t="s">
+      <c r="J3" s="491"/>
+      <c r="K3" s="491" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="475" t="s">
+      <c r="L3" s="480" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="486" t="s">
+      <c r="M3" s="481" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="486"/>
-      <c r="O3" s="486"/>
-      <c r="P3" s="486"/>
-      <c r="Q3" s="488" t="s">
+      <c r="N3" s="481"/>
+      <c r="O3" s="481"/>
+      <c r="P3" s="481"/>
+      <c r="Q3" s="497" t="s">
         <v>87</v>
       </c>
-      <c r="R3" s="489" t="s">
+      <c r="R3" s="498" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="489"/>
-      <c r="T3" s="489"/>
-      <c r="U3" s="489"/>
-      <c r="V3" s="475" t="s">
+      <c r="S3" s="498"/>
+      <c r="T3" s="498"/>
+      <c r="U3" s="498"/>
+      <c r="V3" s="480" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="486" t="s">
+      <c r="W3" s="481" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="486"/>
-      <c r="Y3" s="486"/>
-      <c r="Z3" s="486"/>
-      <c r="AA3" s="484" t="s">
+      <c r="X3" s="481"/>
+      <c r="Y3" s="481"/>
+      <c r="Z3" s="481"/>
+      <c r="AA3" s="478" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" s="485" t="s">
+      <c r="AB3" s="479" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" s="485"/>
-      <c r="AD3" s="485"/>
-      <c r="AE3" s="485"/>
-      <c r="AF3" s="475" t="s">
+      <c r="AC3" s="479"/>
+      <c r="AD3" s="479"/>
+      <c r="AE3" s="479"/>
+      <c r="AF3" s="480" t="s">
         <v>87</v>
       </c>
-      <c r="AG3" s="486" t="s">
+      <c r="AG3" s="481" t="s">
         <v>86</v>
       </c>
-      <c r="AH3" s="486"/>
-      <c r="AI3" s="486"/>
-      <c r="AJ3" s="486"/>
-      <c r="AK3" s="484" t="s">
+      <c r="AH3" s="481"/>
+      <c r="AI3" s="481"/>
+      <c r="AJ3" s="481"/>
+      <c r="AK3" s="478" t="s">
         <v>87</v>
       </c>
-      <c r="AL3" s="485" t="s">
+      <c r="AL3" s="479" t="s">
         <v>86</v>
       </c>
-      <c r="AM3" s="485"/>
-      <c r="AN3" s="485"/>
-      <c r="AO3" s="485"/>
-      <c r="AP3" s="475" t="s">
+      <c r="AM3" s="479"/>
+      <c r="AN3" s="479"/>
+      <c r="AO3" s="479"/>
+      <c r="AP3" s="480" t="s">
         <v>87</v>
       </c>
-      <c r="AQ3" s="486" t="s">
+      <c r="AQ3" s="481" t="s">
         <v>86</v>
       </c>
-      <c r="AR3" s="486"/>
-      <c r="AS3" s="486"/>
-      <c r="AT3" s="486"/>
-      <c r="AU3" s="484" t="s">
+      <c r="AR3" s="481"/>
+      <c r="AS3" s="481"/>
+      <c r="AT3" s="481"/>
+      <c r="AU3" s="478" t="s">
         <v>87</v>
       </c>
-      <c r="AV3" s="485" t="s">
+      <c r="AV3" s="479" t="s">
         <v>86</v>
       </c>
-      <c r="AW3" s="485"/>
-      <c r="AX3" s="485"/>
-      <c r="AY3" s="485"/>
-      <c r="AZ3" s="482" t="s">
+      <c r="AW3" s="479"/>
+      <c r="AX3" s="479"/>
+      <c r="AY3" s="479"/>
+      <c r="AZ3" s="476" t="s">
         <v>87</v>
       </c>
-      <c r="BA3" s="483" t="s">
+      <c r="BA3" s="477" t="s">
         <v>86</v>
       </c>
-      <c r="BB3" s="483"/>
-      <c r="BC3" s="483"/>
-      <c r="BD3" s="483"/>
-      <c r="BE3" s="484" t="s">
+      <c r="BB3" s="477"/>
+      <c r="BC3" s="477"/>
+      <c r="BD3" s="477"/>
+      <c r="BE3" s="478" t="s">
         <v>87</v>
       </c>
-      <c r="BF3" s="485" t="s">
+      <c r="BF3" s="479" t="s">
         <v>86</v>
       </c>
-      <c r="BG3" s="485"/>
-      <c r="BH3" s="485"/>
-      <c r="BI3" s="485"/>
-      <c r="BJ3" s="482" t="s">
+      <c r="BG3" s="479"/>
+      <c r="BH3" s="479"/>
+      <c r="BI3" s="479"/>
+      <c r="BJ3" s="476" t="s">
         <v>87</v>
       </c>
-      <c r="BK3" s="483" t="s">
+      <c r="BK3" s="477" t="s">
         <v>86</v>
       </c>
-      <c r="BL3" s="483"/>
-      <c r="BM3" s="483"/>
-      <c r="BN3" s="483"/>
-      <c r="BO3" s="484" t="s">
+      <c r="BL3" s="477"/>
+      <c r="BM3" s="477"/>
+      <c r="BN3" s="477"/>
+      <c r="BO3" s="478" t="s">
         <v>87</v>
       </c>
-      <c r="BP3" s="485" t="s">
+      <c r="BP3" s="479" t="s">
         <v>86</v>
       </c>
-      <c r="BQ3" s="485"/>
-      <c r="BR3" s="485"/>
-      <c r="BS3" s="485"/>
+      <c r="BQ3" s="479"/>
+      <c r="BR3" s="479"/>
+      <c r="BS3" s="479"/>
     </row>
     <row r="4" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A4" s="477"/>
-      <c r="B4" s="477"/>
-      <c r="C4" s="477"/>
+      <c r="A4" s="490"/>
+      <c r="B4" s="490"/>
+      <c r="C4" s="490"/>
       <c r="D4" s="386" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="386" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="477"/>
-      <c r="G4" s="475"/>
-      <c r="H4" s="496"/>
+      <c r="F4" s="490"/>
+      <c r="G4" s="480"/>
+      <c r="H4" s="491"/>
       <c r="I4" s="108" t="s">
         <v>76</v>
       </c>
       <c r="J4" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="496"/>
-      <c r="L4" s="475"/>
+      <c r="K4" s="491"/>
+      <c r="L4" s="480"/>
       <c r="M4" s="219" t="s">
         <v>111</v>
       </c>
@@ -4016,7 +4016,7 @@
       <c r="P4" s="219" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="488"/>
+      <c r="Q4" s="497"/>
       <c r="R4" s="220" t="s">
         <v>111</v>
       </c>
@@ -4029,7 +4029,7 @@
       <c r="U4" s="220" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="475"/>
+      <c r="V4" s="480"/>
       <c r="W4" s="219" t="s">
         <v>111</v>
       </c>
@@ -4042,7 +4042,7 @@
       <c r="Z4" s="219" t="s">
         <v>75</v>
       </c>
-      <c r="AA4" s="484"/>
+      <c r="AA4" s="478"/>
       <c r="AB4" s="221" t="s">
         <v>111</v>
       </c>
@@ -4055,7 +4055,7 @@
       <c r="AE4" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="AF4" s="475"/>
+      <c r="AF4" s="480"/>
       <c r="AG4" s="219" t="s">
         <v>111</v>
       </c>
@@ -4068,7 +4068,7 @@
       <c r="AJ4" s="219" t="s">
         <v>75</v>
       </c>
-      <c r="AK4" s="484"/>
+      <c r="AK4" s="478"/>
       <c r="AL4" s="221" t="s">
         <v>111</v>
       </c>
@@ -4081,7 +4081,7 @@
       <c r="AO4" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="AP4" s="475"/>
+      <c r="AP4" s="480"/>
       <c r="AQ4" s="219" t="s">
         <v>111</v>
       </c>
@@ -4094,7 +4094,7 @@
       <c r="AT4" s="449" t="s">
         <v>75</v>
       </c>
-      <c r="AU4" s="484"/>
+      <c r="AU4" s="478"/>
       <c r="AV4" s="221" t="s">
         <v>111</v>
       </c>
@@ -4107,7 +4107,7 @@
       <c r="AY4" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="AZ4" s="482"/>
+      <c r="AZ4" s="476"/>
       <c r="BA4" s="195" t="s">
         <v>111</v>
       </c>
@@ -4120,7 +4120,7 @@
       <c r="BD4" s="195" t="s">
         <v>75</v>
       </c>
-      <c r="BE4" s="484"/>
+      <c r="BE4" s="478"/>
       <c r="BF4" s="221" t="s">
         <v>111</v>
       </c>
@@ -4133,7 +4133,7 @@
       <c r="BI4" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="BJ4" s="482"/>
+      <c r="BJ4" s="476"/>
       <c r="BK4" s="360" t="s">
         <v>111</v>
       </c>
@@ -4146,7 +4146,7 @@
       <c r="BN4" s="360" t="s">
         <v>75</v>
       </c>
-      <c r="BO4" s="484"/>
+      <c r="BO4" s="478"/>
       <c r="BP4" s="356" t="s">
         <v>111</v>
       </c>
@@ -4161,10 +4161,10 @@
       </c>
     </row>
     <row r="5" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A5" s="499" t="s">
+      <c r="A5" s="488" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="499"/>
+      <c r="B5" s="488"/>
       <c r="C5" s="217"/>
       <c r="D5" s="217"/>
       <c r="E5" s="222"/>
@@ -7572,7 +7572,7 @@
       </c>
     </row>
     <row r="26" spans="1:78" s="232" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="500">
+      <c r="A26" s="489">
         <v>4840</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -7652,7 +7652,7 @@
       <c r="BS26" s="239"/>
     </row>
     <row r="27" spans="1:78" s="232" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="500"/>
+      <c r="A27" s="489"/>
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -7758,7 +7758,7 @@
       <c r="BS27" s="239"/>
     </row>
     <row r="28" spans="1:78" s="232" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="500"/>
+      <c r="A28" s="489"/>
       <c r="B28" s="46" t="s">
         <v>24</v>
       </c>
@@ -7971,7 +7971,7 @@
       </c>
     </row>
     <row r="29" spans="1:78" s="232" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="500"/>
+      <c r="A29" s="489"/>
       <c r="B29" s="46" t="s">
         <v>25</v>
       </c>
@@ -8184,7 +8184,7 @@
       </c>
     </row>
     <row r="30" spans="1:78" s="232" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="500"/>
+      <c r="A30" s="489"/>
       <c r="B30" s="46" t="s">
         <v>26</v>
       </c>
@@ -8954,7 +8954,7 @@
       </c>
     </row>
     <row r="34" spans="1:71" s="232" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="501">
+      <c r="A34" s="492">
         <v>4883</v>
       </c>
       <c r="B34" s="46" t="s">
@@ -9131,7 +9131,7 @@
       </c>
     </row>
     <row r="35" spans="1:71" s="232" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="502"/>
+      <c r="A35" s="493"/>
       <c r="B35" s="46" t="s">
         <v>30</v>
       </c>
@@ -9306,7 +9306,7 @@
       </c>
     </row>
     <row r="36" spans="1:71" s="232" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="503"/>
+      <c r="A36" s="494"/>
       <c r="B36" s="46" t="s">
         <v>31</v>
       </c>
@@ -12134,30 +12134,30 @@
       </c>
     </row>
     <row r="52" spans="1:71" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="497" t="s">
+      <c r="A52" s="495" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="497"/>
-      <c r="C52" s="498"/>
-      <c r="D52" s="498"/>
-      <c r="E52" s="477"/>
-      <c r="F52" s="498"/>
+      <c r="B52" s="495"/>
+      <c r="C52" s="496"/>
+      <c r="D52" s="496"/>
+      <c r="E52" s="490"/>
+      <c r="F52" s="496"/>
       <c r="G52" s="407"/>
-      <c r="H52" s="495"/>
-      <c r="I52" s="495"/>
-      <c r="J52" s="496"/>
-      <c r="K52" s="495"/>
-      <c r="L52" s="487"/>
+      <c r="H52" s="487"/>
+      <c r="I52" s="487"/>
+      <c r="J52" s="491"/>
+      <c r="K52" s="487"/>
+      <c r="L52" s="482"/>
       <c r="M52" s="252"/>
       <c r="N52" s="252"/>
       <c r="O52" s="252"/>
       <c r="P52" s="252"/>
-      <c r="Q52" s="490"/>
+      <c r="Q52" s="499"/>
       <c r="R52" s="253"/>
       <c r="S52" s="253"/>
       <c r="T52" s="253"/>
       <c r="U52" s="253"/>
-      <c r="V52" s="487"/>
+      <c r="V52" s="482"/>
       <c r="W52" s="252"/>
       <c r="X52" s="252"/>
       <c r="Y52" s="252"/>
@@ -12167,7 +12167,7 @@
       <c r="AC52" s="238"/>
       <c r="AD52" s="238"/>
       <c r="AE52" s="238"/>
-      <c r="AF52" s="487"/>
+      <c r="AF52" s="482"/>
       <c r="AG52" s="252"/>
       <c r="AH52" s="252"/>
       <c r="AI52" s="252"/>
@@ -12177,60 +12177,60 @@
       <c r="AM52" s="238"/>
       <c r="AN52" s="238"/>
       <c r="AO52" s="238"/>
-      <c r="AP52" s="487"/>
+      <c r="AP52" s="482"/>
       <c r="AQ52" s="252"/>
       <c r="AR52" s="252"/>
       <c r="AS52" s="252"/>
       <c r="AT52" s="442"/>
-      <c r="AU52" s="477"/>
+      <c r="AU52" s="490"/>
       <c r="AV52" s="238"/>
       <c r="AW52" s="238"/>
       <c r="AX52" s="238"/>
       <c r="AY52" s="239"/>
-      <c r="AZ52" s="478"/>
-      <c r="BA52" s="478"/>
-      <c r="BB52" s="478"/>
-      <c r="BC52" s="478"/>
-      <c r="BD52" s="478"/>
-      <c r="BE52" s="477"/>
+      <c r="AZ52" s="500"/>
+      <c r="BA52" s="500"/>
+      <c r="BB52" s="500"/>
+      <c r="BC52" s="500"/>
+      <c r="BD52" s="500"/>
+      <c r="BE52" s="490"/>
       <c r="BF52" s="238"/>
       <c r="BG52" s="238"/>
       <c r="BH52" s="238"/>
       <c r="BI52" s="239"/>
-      <c r="BJ52" s="478"/>
-      <c r="BK52" s="478"/>
-      <c r="BL52" s="478"/>
-      <c r="BM52" s="478"/>
-      <c r="BN52" s="478"/>
-      <c r="BO52" s="477"/>
+      <c r="BJ52" s="500"/>
+      <c r="BK52" s="500"/>
+      <c r="BL52" s="500"/>
+      <c r="BM52" s="500"/>
+      <c r="BN52" s="500"/>
+      <c r="BO52" s="490"/>
       <c r="BP52" s="238"/>
       <c r="BQ52" s="238"/>
       <c r="BR52" s="238"/>
       <c r="BS52" s="239"/>
     </row>
     <row r="53" spans="1:71" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="497"/>
-      <c r="B53" s="497"/>
-      <c r="C53" s="498"/>
-      <c r="D53" s="498"/>
-      <c r="E53" s="477"/>
-      <c r="F53" s="498"/>
+      <c r="A53" s="495"/>
+      <c r="B53" s="495"/>
+      <c r="C53" s="496"/>
+      <c r="D53" s="496"/>
+      <c r="E53" s="490"/>
+      <c r="F53" s="496"/>
       <c r="G53" s="407"/>
-      <c r="H53" s="495"/>
-      <c r="I53" s="495"/>
-      <c r="J53" s="496"/>
-      <c r="K53" s="495"/>
-      <c r="L53" s="487"/>
+      <c r="H53" s="487"/>
+      <c r="I53" s="487"/>
+      <c r="J53" s="491"/>
+      <c r="K53" s="487"/>
+      <c r="L53" s="482"/>
       <c r="M53" s="252"/>
       <c r="N53" s="252"/>
       <c r="O53" s="252"/>
       <c r="P53" s="252"/>
-      <c r="Q53" s="490"/>
+      <c r="Q53" s="499"/>
       <c r="R53" s="253"/>
       <c r="S53" s="253"/>
       <c r="T53" s="253"/>
       <c r="U53" s="253"/>
-      <c r="V53" s="487"/>
+      <c r="V53" s="482"/>
       <c r="W53" s="252"/>
       <c r="X53" s="252"/>
       <c r="Y53" s="252"/>
@@ -12240,7 +12240,7 @@
       <c r="AC53" s="247"/>
       <c r="AD53" s="247"/>
       <c r="AE53" s="247"/>
-      <c r="AF53" s="487"/>
+      <c r="AF53" s="482"/>
       <c r="AG53" s="252"/>
       <c r="AH53" s="252"/>
       <c r="AI53" s="252"/>
@@ -12250,32 +12250,32 @@
       <c r="AM53" s="247"/>
       <c r="AN53" s="247"/>
       <c r="AO53" s="247"/>
-      <c r="AP53" s="487"/>
+      <c r="AP53" s="482"/>
       <c r="AQ53" s="252"/>
       <c r="AR53" s="252"/>
       <c r="AS53" s="252"/>
       <c r="AT53" s="442"/>
-      <c r="AU53" s="477"/>
+      <c r="AU53" s="490"/>
       <c r="AV53" s="247"/>
       <c r="AW53" s="247"/>
       <c r="AX53" s="247"/>
       <c r="AY53" s="239"/>
-      <c r="AZ53" s="478"/>
-      <c r="BA53" s="478"/>
-      <c r="BB53" s="478"/>
-      <c r="BC53" s="478"/>
-      <c r="BD53" s="478"/>
-      <c r="BE53" s="477"/>
+      <c r="AZ53" s="500"/>
+      <c r="BA53" s="500"/>
+      <c r="BB53" s="500"/>
+      <c r="BC53" s="500"/>
+      <c r="BD53" s="500"/>
+      <c r="BE53" s="490"/>
       <c r="BF53" s="247"/>
       <c r="BG53" s="247"/>
       <c r="BH53" s="247"/>
       <c r="BI53" s="239"/>
-      <c r="BJ53" s="478"/>
-      <c r="BK53" s="478"/>
-      <c r="BL53" s="478"/>
-      <c r="BM53" s="478"/>
-      <c r="BN53" s="478"/>
-      <c r="BO53" s="477"/>
+      <c r="BJ53" s="500"/>
+      <c r="BK53" s="500"/>
+      <c r="BL53" s="500"/>
+      <c r="BM53" s="500"/>
+      <c r="BN53" s="500"/>
+      <c r="BO53" s="490"/>
       <c r="BP53" s="247"/>
       <c r="BQ53" s="247"/>
       <c r="BR53" s="247"/>
@@ -12359,7 +12359,7 @@
       <c r="BS54" s="239"/>
     </row>
     <row r="55" spans="1:71" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="494">
+      <c r="A55" s="486">
         <v>6807</v>
       </c>
       <c r="B55" s="46" t="s">
@@ -12522,7 +12522,7 @@
       </c>
     </row>
     <row r="56" spans="1:71" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="494"/>
+      <c r="A56" s="486"/>
       <c r="B56" s="46" t="s">
         <v>47</v>
       </c>
@@ -12842,7 +12842,7 @@
       </c>
     </row>
     <row r="58" spans="1:71" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="494">
+      <c r="A58" s="486">
         <v>6813</v>
       </c>
       <c r="B58" s="46" t="s">
@@ -13001,7 +13001,7 @@
       </c>
     </row>
     <row r="59" spans="1:71" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="494"/>
+      <c r="A59" s="486"/>
       <c r="B59" s="46" t="s">
         <v>50</v>
       </c>
@@ -13158,7 +13158,7 @@
       </c>
     </row>
     <row r="60" spans="1:71" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="494">
+      <c r="A60" s="486">
         <v>6814</v>
       </c>
       <c r="B60" s="46" t="s">
@@ -13316,7 +13316,7 @@
       </c>
     </row>
     <row r="61" spans="1:71" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="494"/>
+      <c r="A61" s="486"/>
       <c r="B61" s="46" t="s">
         <v>52</v>
       </c>
@@ -13470,7 +13470,7 @@
       </c>
     </row>
     <row r="62" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A62" s="494"/>
+      <c r="A62" s="486"/>
       <c r="B62" s="46" t="s">
         <v>53</v>
       </c>
@@ -13632,7 +13632,7 @@
       </c>
     </row>
     <row r="63" spans="1:71" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="494">
+      <c r="A63" s="486">
         <v>6815</v>
       </c>
       <c r="B63" s="46" t="s">
@@ -13793,7 +13793,7 @@
       </c>
     </row>
     <row r="64" spans="1:71" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A64" s="494"/>
+      <c r="A64" s="486"/>
       <c r="B64" s="46" t="s">
         <v>55</v>
       </c>
@@ -13952,7 +13952,7 @@
       </c>
     </row>
     <row r="65" spans="1:71" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="494"/>
+      <c r="A65" s="486"/>
       <c r="B65" s="46" t="s">
         <v>56</v>
       </c>
@@ -14103,7 +14103,7 @@
       </c>
     </row>
     <row r="66" spans="1:71" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="494"/>
+      <c r="A66" s="486"/>
       <c r="B66" s="46" t="s">
         <v>57</v>
       </c>
@@ -19362,21 +19362,56 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BI2"/>
-    <mergeCell ref="AZ3:AZ4"/>
-    <mergeCell ref="BA3:BD3"/>
-    <mergeCell ref="BE3:BE4"/>
-    <mergeCell ref="BF3:BI3"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AJ3"/>
-    <mergeCell ref="AF52:AF53"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="AU52:AU53"/>
+    <mergeCell ref="AZ52:AZ53"/>
+    <mergeCell ref="BE52:BE53"/>
+    <mergeCell ref="BA52:BA53"/>
+    <mergeCell ref="BB52:BB53"/>
+    <mergeCell ref="BC52:BC53"/>
+    <mergeCell ref="BD52:BD53"/>
+    <mergeCell ref="BO52:BO53"/>
+    <mergeCell ref="BJ52:BJ53"/>
+    <mergeCell ref="BK52:BK53"/>
+    <mergeCell ref="BL52:BL53"/>
+    <mergeCell ref="BM52:BM53"/>
+    <mergeCell ref="BN52:BN53"/>
+    <mergeCell ref="BJ2:BN2"/>
+    <mergeCell ref="BO2:BS2"/>
+    <mergeCell ref="BJ3:BJ4"/>
+    <mergeCell ref="BK3:BN3"/>
+    <mergeCell ref="BO3:BO4"/>
+    <mergeCell ref="BP3:BS3"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AU2:AY2"/>
+    <mergeCell ref="AV3:AY3"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AQ3:AT3"/>
+    <mergeCell ref="AP2:AT2"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="AP52:AP53"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
     <mergeCell ref="AK2:AO2"/>
     <mergeCell ref="AK3:AK4"/>
     <mergeCell ref="AL3:AO3"/>
@@ -19393,56 +19428,21 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="AP52:AP53"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="AV3:AY3"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AQ3:AT3"/>
-    <mergeCell ref="AP2:AT2"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="BJ2:BN2"/>
-    <mergeCell ref="BO2:BS2"/>
-    <mergeCell ref="BJ3:BJ4"/>
-    <mergeCell ref="BK3:BN3"/>
-    <mergeCell ref="BO3:BO4"/>
-    <mergeCell ref="BP3:BS3"/>
-    <mergeCell ref="BO52:BO53"/>
-    <mergeCell ref="BJ52:BJ53"/>
-    <mergeCell ref="BK52:BK53"/>
-    <mergeCell ref="BL52:BL53"/>
-    <mergeCell ref="BM52:BM53"/>
-    <mergeCell ref="BN52:BN53"/>
-    <mergeCell ref="AU52:AU53"/>
-    <mergeCell ref="AZ52:AZ53"/>
-    <mergeCell ref="BE52:BE53"/>
-    <mergeCell ref="BA52:BA53"/>
-    <mergeCell ref="BB52:BB53"/>
-    <mergeCell ref="BC52:BC53"/>
-    <mergeCell ref="BD52:BD53"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="AF52:AF53"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BI2"/>
+    <mergeCell ref="AZ3:AZ4"/>
+    <mergeCell ref="BA3:BD3"/>
+    <mergeCell ref="BE3:BE4"/>
+    <mergeCell ref="BF3:BI3"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
@@ -20145,118 +20145,118 @@
       <c r="Z1" s="51"/>
     </row>
     <row r="2" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="507" t="s">
+      <c r="A2" s="526" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="507" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="513" t="s">
+      <c r="B2" s="526" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="520" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="513"/>
-      <c r="E2" s="513"/>
-      <c r="F2" s="513"/>
-      <c r="G2" s="513" t="s">
+      <c r="D2" s="520"/>
+      <c r="E2" s="520"/>
+      <c r="F2" s="520"/>
+      <c r="G2" s="520" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="513"/>
-      <c r="I2" s="513"/>
-      <c r="J2" s="513"/>
-      <c r="K2" s="513"/>
-      <c r="L2" s="513" t="s">
+      <c r="H2" s="520"/>
+      <c r="I2" s="520"/>
+      <c r="J2" s="520"/>
+      <c r="K2" s="520"/>
+      <c r="L2" s="520" t="s">
         <v>144</v>
       </c>
-      <c r="M2" s="513"/>
-      <c r="N2" s="513"/>
-      <c r="O2" s="513"/>
-      <c r="P2" s="513"/>
-      <c r="Q2" s="513" t="s">
+      <c r="M2" s="520"/>
+      <c r="N2" s="520"/>
+      <c r="O2" s="520"/>
+      <c r="P2" s="520"/>
+      <c r="Q2" s="520" t="s">
         <v>134</v>
       </c>
-      <c r="R2" s="513"/>
-      <c r="S2" s="513"/>
-      <c r="T2" s="513"/>
-      <c r="U2" s="513"/>
-      <c r="V2" s="479" t="s">
+      <c r="R2" s="520"/>
+      <c r="S2" s="520"/>
+      <c r="T2" s="520"/>
+      <c r="U2" s="520"/>
+      <c r="V2" s="472" t="s">
         <v>143</v>
       </c>
-      <c r="W2" s="480"/>
-      <c r="X2" s="480"/>
-      <c r="Y2" s="480"/>
-      <c r="Z2" s="481"/>
-      <c r="AA2" s="513" t="s">
+      <c r="W2" s="473"/>
+      <c r="X2" s="473"/>
+      <c r="Y2" s="473"/>
+      <c r="Z2" s="474"/>
+      <c r="AA2" s="520" t="s">
         <v>133</v>
       </c>
-      <c r="AB2" s="513"/>
-      <c r="AC2" s="513"/>
-      <c r="AD2" s="513"/>
-      <c r="AE2" s="513"/>
-      <c r="AG2" s="508" t="s">
+      <c r="AB2" s="520"/>
+      <c r="AC2" s="520"/>
+      <c r="AD2" s="520"/>
+      <c r="AE2" s="520"/>
+      <c r="AG2" s="527" t="s">
         <v>113</v>
       </c>
-      <c r="AH2" s="509"/>
+      <c r="AH2" s="528"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A3" s="507"/>
-      <c r="B3" s="507"/>
-      <c r="C3" s="507" t="s">
+      <c r="A3" s="526"/>
+      <c r="B3" s="526"/>
+      <c r="C3" s="526" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="510" t="s">
+      <c r="D3" s="529" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="510"/>
-      <c r="F3" s="507" t="s">
+      <c r="E3" s="529"/>
+      <c r="F3" s="526" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="511" t="s">
+      <c r="G3" s="521" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="512" t="s">
+      <c r="H3" s="522" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="512"/>
-      <c r="J3" s="512"/>
-      <c r="K3" s="512"/>
-      <c r="L3" s="511" t="s">
+      <c r="I3" s="522"/>
+      <c r="J3" s="522"/>
+      <c r="K3" s="522"/>
+      <c r="L3" s="521" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="512" t="s">
+      <c r="M3" s="522" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="512"/>
-      <c r="O3" s="512"/>
-      <c r="P3" s="512"/>
-      <c r="Q3" s="511" t="s">
+      <c r="N3" s="522"/>
+      <c r="O3" s="522"/>
+      <c r="P3" s="522"/>
+      <c r="Q3" s="521" t="s">
         <v>87</v>
       </c>
-      <c r="R3" s="512" t="s">
+      <c r="R3" s="522" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="512"/>
-      <c r="T3" s="512"/>
-      <c r="U3" s="512"/>
-      <c r="V3" s="482" t="s">
+      <c r="S3" s="522"/>
+      <c r="T3" s="522"/>
+      <c r="U3" s="522"/>
+      <c r="V3" s="476" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="483" t="s">
+      <c r="W3" s="477" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="483"/>
-      <c r="Y3" s="483"/>
-      <c r="Z3" s="483"/>
-      <c r="AA3" s="511" t="s">
+      <c r="X3" s="477"/>
+      <c r="Y3" s="477"/>
+      <c r="Z3" s="477"/>
+      <c r="AA3" s="521" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" s="512" t="s">
+      <c r="AB3" s="522" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" s="512"/>
-      <c r="AD3" s="512"/>
-      <c r="AE3" s="512"/>
+      <c r="AC3" s="522"/>
+      <c r="AD3" s="522"/>
+      <c r="AE3" s="522"/>
       <c r="AG3" s="97" t="s">
         <v>114</v>
       </c>
@@ -20274,17 +20274,17 @@
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A4" s="507"/>
-      <c r="B4" s="507"/>
-      <c r="C4" s="507"/>
+      <c r="A4" s="526"/>
+      <c r="B4" s="526"/>
+      <c r="C4" s="526"/>
       <c r="D4" s="91" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="507"/>
-      <c r="G4" s="511"/>
+      <c r="F4" s="526"/>
+      <c r="G4" s="521"/>
       <c r="H4" s="85" t="s">
         <v>111</v>
       </c>
@@ -20297,7 +20297,7 @@
       <c r="K4" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="511"/>
+      <c r="L4" s="521"/>
       <c r="M4" s="114" t="s">
         <v>111</v>
       </c>
@@ -20310,7 +20310,7 @@
       <c r="P4" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="511"/>
+      <c r="Q4" s="521"/>
       <c r="R4" s="85" t="s">
         <v>111</v>
       </c>
@@ -20323,7 +20323,7 @@
       <c r="U4" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="482"/>
+      <c r="V4" s="476"/>
       <c r="W4" s="96" t="s">
         <v>111</v>
       </c>
@@ -20336,7 +20336,7 @@
       <c r="Z4" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="AA4" s="511"/>
+      <c r="AA4" s="521"/>
       <c r="AB4" s="85" t="s">
         <v>111</v>
       </c>
@@ -20355,10 +20355,10 @@
       <c r="AJ4" s="1"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A5" s="506" t="s">
+      <c r="A5" s="525" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="506"/>
+      <c r="B5" s="525"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="12"/>
@@ -20423,11 +20423,11 @@
       <c r="AC6" s="99"/>
       <c r="AD6" s="99"/>
       <c r="AE6" s="99"/>
-      <c r="AG6" s="514">
+      <c r="AG6" s="517">
         <f>SUM(U7:U9)</f>
         <v>12.3</v>
       </c>
-      <c r="AH6" s="514">
+      <c r="AH6" s="517">
         <f>SUM(Z7:Z9)</f>
         <v>11.91</v>
       </c>
@@ -20520,8 +20520,8 @@
         <v>1.01</v>
       </c>
       <c r="AF7" s="37"/>
-      <c r="AG7" s="515"/>
-      <c r="AH7" s="515"/>
+      <c r="AG7" s="518"/>
+      <c r="AH7" s="518"/>
       <c r="AI7" s="37"/>
       <c r="AK7" s="72">
         <f>R7-W7</f>
@@ -20610,8 +20610,8 @@
         <v>0</v>
       </c>
       <c r="AF8" s="37"/>
-      <c r="AG8" s="515"/>
-      <c r="AH8" s="515"/>
+      <c r="AG8" s="518"/>
+      <c r="AH8" s="518"/>
       <c r="AI8" s="37"/>
     </row>
     <row r="9" spans="1:37" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -20702,8 +20702,8 @@
         <v>36.61</v>
       </c>
       <c r="AF9" s="37"/>
-      <c r="AG9" s="515"/>
-      <c r="AH9" s="515"/>
+      <c r="AG9" s="518"/>
+      <c r="AH9" s="518"/>
       <c r="AI9" s="37"/>
       <c r="AK9" s="72">
         <f>R9-W9</f>
@@ -21141,11 +21141,11 @@
         <v>0.77</v>
       </c>
       <c r="AF14" s="37"/>
-      <c r="AG14" s="514">
+      <c r="AG14" s="517">
         <f>SUM(U14:U16)</f>
         <v>0.65</v>
       </c>
-      <c r="AH14" s="514">
+      <c r="AH14" s="517">
         <f>SUM(Z14:Z16)</f>
         <v>0.5</v>
       </c>
@@ -21243,8 +21243,8 @@
         <v>0.97</v>
       </c>
       <c r="AF15" s="37"/>
-      <c r="AG15" s="515"/>
-      <c r="AH15" s="515"/>
+      <c r="AG15" s="518"/>
+      <c r="AH15" s="518"/>
       <c r="AI15" s="37"/>
       <c r="AK15" s="72">
         <f t="shared" si="10"/>
@@ -21339,8 +21339,8 @@
         <v>0.44</v>
       </c>
       <c r="AF16" s="37"/>
-      <c r="AG16" s="515"/>
-      <c r="AH16" s="515"/>
+      <c r="AG16" s="518"/>
+      <c r="AH16" s="518"/>
       <c r="AI16" s="37"/>
       <c r="AK16" s="72">
         <f t="shared" si="10"/>
@@ -21537,11 +21537,11 @@
         <v>1.1099999999999999</v>
       </c>
       <c r="AF18" s="37"/>
-      <c r="AG18" s="514">
+      <c r="AG18" s="517">
         <f>SUM(U18:U19)</f>
         <v>3.6</v>
       </c>
-      <c r="AH18" s="514">
+      <c r="AH18" s="517">
         <f>SUM(Z18:Z19)</f>
         <v>3.1799999999999997</v>
       </c>
@@ -21639,8 +21639,8 @@
         <v>8.74</v>
       </c>
       <c r="AF19" s="37"/>
-      <c r="AG19" s="514"/>
-      <c r="AH19" s="515"/>
+      <c r="AG19" s="517"/>
+      <c r="AH19" s="518"/>
       <c r="AI19" s="37"/>
       <c r="AK19" s="72">
         <f t="shared" si="10"/>
@@ -21735,11 +21735,11 @@
         <v>17.52</v>
       </c>
       <c r="AF20" s="37"/>
-      <c r="AG20" s="514">
+      <c r="AG20" s="517">
         <f>SUM(U20:U21)</f>
         <v>26</v>
       </c>
-      <c r="AH20" s="514">
+      <c r="AH20" s="517">
         <f>SUM(Z20:Z21)</f>
         <v>25.89</v>
       </c>
@@ -21837,8 +21837,8 @@
         <v>64.59</v>
       </c>
       <c r="AF21" s="37"/>
-      <c r="AG21" s="515"/>
-      <c r="AH21" s="515"/>
+      <c r="AG21" s="518"/>
+      <c r="AH21" s="518"/>
       <c r="AI21" s="37"/>
       <c r="AK21" s="72">
         <f t="shared" si="10"/>
@@ -22254,7 +22254,7 @@
       </c>
     </row>
     <row r="26" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="516">
+      <c r="A26" s="519">
         <v>3231201</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -22295,7 +22295,7 @@
       <c r="AI26" s="37"/>
     </row>
     <row r="27" spans="1:39" s="9" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A27" s="516"/>
+      <c r="A27" s="519"/>
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -22350,7 +22350,7 @@
       <c r="AI27" s="37"/>
     </row>
     <row r="28" spans="1:39" s="9" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="516"/>
+      <c r="A28" s="519"/>
       <c r="B28" s="46" t="s">
         <v>24</v>
       </c>
@@ -22443,15 +22443,15 @@
         <v>301.5</v>
       </c>
       <c r="AF28" s="37"/>
-      <c r="AG28" s="517">
+      <c r="AG28" s="508">
         <f>SUM(U28:U30)</f>
         <v>1068.18</v>
       </c>
-      <c r="AH28" s="517">
+      <c r="AH28" s="508">
         <f>SUM(Z28:Z30)</f>
         <v>1032.33</v>
       </c>
-      <c r="AI28" s="523">
+      <c r="AI28" s="504">
         <f>SUM(X28:X30)</f>
         <v>939.92</v>
       </c>
@@ -22469,7 +22469,7 @@
       </c>
     </row>
     <row r="29" spans="1:39" s="9" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="516"/>
+      <c r="A29" s="519"/>
       <c r="B29" s="46" t="s">
         <v>25</v>
       </c>
@@ -22562,9 +22562,9 @@
         <v>1346.63</v>
       </c>
       <c r="AF29" s="37"/>
-      <c r="AG29" s="518"/>
-      <c r="AH29" s="518"/>
-      <c r="AI29" s="524"/>
+      <c r="AG29" s="509"/>
+      <c r="AH29" s="509"/>
+      <c r="AI29" s="505"/>
       <c r="AK29" s="72">
         <f>R29-W29</f>
         <v>21.560000000000002</v>
@@ -22579,7 +22579,7 @@
       </c>
     </row>
     <row r="30" spans="1:39" s="9" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="516"/>
+      <c r="A30" s="519"/>
       <c r="B30" s="46" t="s">
         <v>26</v>
       </c>
@@ -22672,9 +22672,9 @@
         <v>578.20000000000005</v>
       </c>
       <c r="AF30" s="37"/>
-      <c r="AG30" s="518"/>
-      <c r="AH30" s="518"/>
-      <c r="AI30" s="524"/>
+      <c r="AG30" s="509"/>
+      <c r="AH30" s="509"/>
+      <c r="AI30" s="505"/>
       <c r="AK30" s="72">
         <f>R30-W30</f>
         <v>8.11</v>
@@ -22995,7 +22995,7 @@
       </c>
     </row>
     <row r="34" spans="1:37" s="9" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A34" s="519">
+      <c r="A34" s="514">
         <v>3111332</v>
       </c>
       <c r="B34" s="46" t="s">
@@ -23082,11 +23082,11 @@
         <v>12.73</v>
       </c>
       <c r="AF34" s="37"/>
-      <c r="AG34" s="517">
+      <c r="AG34" s="508">
         <f>SUM(U34:U36)</f>
         <v>7</v>
       </c>
-      <c r="AH34" s="517">
+      <c r="AH34" s="508">
         <f>SUM(Z34:Z36)</f>
         <v>6.52</v>
       </c>
@@ -23097,7 +23097,7 @@
       </c>
     </row>
     <row r="35" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="520"/>
+      <c r="A35" s="515"/>
       <c r="B35" s="46" t="s">
         <v>30</v>
       </c>
@@ -23182,8 +23182,8 @@
         <v>1.29</v>
       </c>
       <c r="AF35" s="37"/>
-      <c r="AG35" s="518"/>
-      <c r="AH35" s="518"/>
+      <c r="AG35" s="509"/>
+      <c r="AH35" s="509"/>
       <c r="AI35" s="37"/>
       <c r="AK35" s="72">
         <f t="shared" si="19"/>
@@ -23191,7 +23191,7 @@
       </c>
     </row>
     <row r="36" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="521"/>
+      <c r="A36" s="516"/>
       <c r="B36" s="46" t="s">
         <v>31</v>
       </c>
@@ -23276,8 +23276,8 @@
         <v>1.3</v>
       </c>
       <c r="AF36" s="37"/>
-      <c r="AG36" s="518"/>
-      <c r="AH36" s="518"/>
+      <c r="AG36" s="509"/>
+      <c r="AH36" s="509"/>
       <c r="AI36" s="37"/>
       <c r="AK36" s="72">
         <f t="shared" si="19"/>
@@ -23717,11 +23717,11 @@
         <v>61.4</v>
       </c>
       <c r="AF41" s="37"/>
-      <c r="AG41" s="517">
+      <c r="AG41" s="508">
         <f>SUM(U41:U50)</f>
         <v>58.45</v>
       </c>
-      <c r="AH41" s="517">
+      <c r="AH41" s="508">
         <f>SUM(Z41:Z50)</f>
         <v>56.730000000000004</v>
       </c>
@@ -23819,8 +23819,8 @@
         <v>3.2</v>
       </c>
       <c r="AF42" s="37"/>
-      <c r="AG42" s="518"/>
-      <c r="AH42" s="518"/>
+      <c r="AG42" s="509"/>
+      <c r="AH42" s="509"/>
       <c r="AI42" s="37"/>
       <c r="AK42" s="72">
         <f t="shared" si="27"/>
@@ -23915,8 +23915,8 @@
         <v>5.34</v>
       </c>
       <c r="AF43" s="37"/>
-      <c r="AG43" s="518"/>
-      <c r="AH43" s="518"/>
+      <c r="AG43" s="509"/>
+      <c r="AH43" s="509"/>
       <c r="AI43" s="37"/>
       <c r="AK43" s="72">
         <f t="shared" si="27"/>
@@ -24011,8 +24011,8 @@
         <v>1.22</v>
       </c>
       <c r="AF44" s="37"/>
-      <c r="AG44" s="518"/>
-      <c r="AH44" s="518"/>
+      <c r="AG44" s="509"/>
+      <c r="AH44" s="509"/>
       <c r="AI44" s="37"/>
       <c r="AK44" s="72">
         <f t="shared" si="27"/>
@@ -24107,8 +24107,8 @@
         <v>19.98</v>
       </c>
       <c r="AF45" s="37"/>
-      <c r="AG45" s="518"/>
-      <c r="AH45" s="518"/>
+      <c r="AG45" s="509"/>
+      <c r="AH45" s="509"/>
       <c r="AI45" s="37"/>
       <c r="AK45" s="72">
         <f t="shared" si="27"/>
@@ -24203,8 +24203,8 @@
         <v>14.53</v>
       </c>
       <c r="AF46" s="37"/>
-      <c r="AG46" s="518"/>
-      <c r="AH46" s="518"/>
+      <c r="AG46" s="509"/>
+      <c r="AH46" s="509"/>
       <c r="AI46" s="37"/>
       <c r="AK46" s="72">
         <f t="shared" si="27"/>
@@ -24299,8 +24299,8 @@
         <v>1.3900000000000001</v>
       </c>
       <c r="AF47" s="37"/>
-      <c r="AG47" s="518"/>
-      <c r="AH47" s="518"/>
+      <c r="AG47" s="509"/>
+      <c r="AH47" s="509"/>
       <c r="AI47" s="37"/>
       <c r="AK47" s="72">
         <f t="shared" si="27"/>
@@ -24403,8 +24403,8 @@
         <v>95.03</v>
       </c>
       <c r="AF48" s="37"/>
-      <c r="AG48" s="518"/>
-      <c r="AH48" s="518"/>
+      <c r="AG48" s="509"/>
+      <c r="AH48" s="509"/>
       <c r="AI48" s="71">
         <f>X48</f>
         <v>10</v>
@@ -24502,8 +24502,8 @@
         <v>2.3899999999999997</v>
       </c>
       <c r="AF49" s="37"/>
-      <c r="AG49" s="518"/>
-      <c r="AH49" s="518"/>
+      <c r="AG49" s="509"/>
+      <c r="AH49" s="509"/>
       <c r="AI49" s="37"/>
       <c r="AK49" s="72">
         <f t="shared" si="27"/>
@@ -24598,8 +24598,8 @@
         <v>7.48</v>
       </c>
       <c r="AF50" s="37"/>
-      <c r="AG50" s="518"/>
-      <c r="AH50" s="518"/>
+      <c r="AG50" s="509"/>
+      <c r="AH50" s="509"/>
       <c r="AI50" s="37"/>
       <c r="AK50" s="72">
         <f t="shared" si="27"/>
@@ -24737,35 +24737,35 @@
     <row r="52" spans="1:37" s="106" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="104"/>
       <c r="B52" s="104"/>
-      <c r="C52" s="525"/>
-      <c r="D52" s="525"/>
-      <c r="E52" s="522"/>
-      <c r="F52" s="525"/>
-      <c r="G52" s="525"/>
-      <c r="H52" s="525"/>
-      <c r="I52" s="522"/>
-      <c r="J52" s="525"/>
-      <c r="K52" s="525"/>
-      <c r="L52" s="525"/>
-      <c r="M52" s="522"/>
-      <c r="N52" s="525"/>
-      <c r="O52" s="522"/>
-      <c r="P52" s="525"/>
-      <c r="Q52" s="525"/>
-      <c r="R52" s="522"/>
-      <c r="S52" s="525"/>
-      <c r="T52" s="522"/>
-      <c r="U52" s="525"/>
-      <c r="V52" s="478"/>
-      <c r="W52" s="478"/>
-      <c r="X52" s="478"/>
-      <c r="Y52" s="478"/>
-      <c r="Z52" s="478"/>
-      <c r="AA52" s="522"/>
-      <c r="AB52" s="522"/>
-      <c r="AC52" s="522"/>
-      <c r="AD52" s="522"/>
-      <c r="AE52" s="522"/>
+      <c r="C52" s="506"/>
+      <c r="D52" s="506"/>
+      <c r="E52" s="507"/>
+      <c r="F52" s="506"/>
+      <c r="G52" s="506"/>
+      <c r="H52" s="506"/>
+      <c r="I52" s="507"/>
+      <c r="J52" s="506"/>
+      <c r="K52" s="506"/>
+      <c r="L52" s="506"/>
+      <c r="M52" s="507"/>
+      <c r="N52" s="506"/>
+      <c r="O52" s="507"/>
+      <c r="P52" s="506"/>
+      <c r="Q52" s="506"/>
+      <c r="R52" s="507"/>
+      <c r="S52" s="506"/>
+      <c r="T52" s="507"/>
+      <c r="U52" s="506"/>
+      <c r="V52" s="500"/>
+      <c r="W52" s="500"/>
+      <c r="X52" s="500"/>
+      <c r="Y52" s="500"/>
+      <c r="Z52" s="500"/>
+      <c r="AA52" s="507"/>
+      <c r="AB52" s="507"/>
+      <c r="AC52" s="507"/>
+      <c r="AD52" s="507"/>
+      <c r="AE52" s="507"/>
       <c r="AF52" s="105"/>
       <c r="AG52" s="105"/>
       <c r="AH52" s="105"/>
@@ -24776,35 +24776,35 @@
         <v>79</v>
       </c>
       <c r="B53" s="107"/>
-      <c r="C53" s="525"/>
-      <c r="D53" s="525"/>
-      <c r="E53" s="522"/>
-      <c r="F53" s="525"/>
-      <c r="G53" s="525"/>
-      <c r="H53" s="525"/>
-      <c r="I53" s="522"/>
-      <c r="J53" s="525"/>
-      <c r="K53" s="525"/>
-      <c r="L53" s="525"/>
-      <c r="M53" s="522"/>
-      <c r="N53" s="525"/>
-      <c r="O53" s="522"/>
-      <c r="P53" s="525"/>
-      <c r="Q53" s="525"/>
-      <c r="R53" s="522"/>
-      <c r="S53" s="525"/>
-      <c r="T53" s="522"/>
-      <c r="U53" s="525"/>
-      <c r="V53" s="478"/>
-      <c r="W53" s="478"/>
-      <c r="X53" s="478"/>
-      <c r="Y53" s="478"/>
-      <c r="Z53" s="478"/>
-      <c r="AA53" s="522"/>
-      <c r="AB53" s="522"/>
-      <c r="AC53" s="522"/>
-      <c r="AD53" s="522"/>
-      <c r="AE53" s="522"/>
+      <c r="C53" s="506"/>
+      <c r="D53" s="506"/>
+      <c r="E53" s="507"/>
+      <c r="F53" s="506"/>
+      <c r="G53" s="506"/>
+      <c r="H53" s="506"/>
+      <c r="I53" s="507"/>
+      <c r="J53" s="506"/>
+      <c r="K53" s="506"/>
+      <c r="L53" s="506"/>
+      <c r="M53" s="507"/>
+      <c r="N53" s="506"/>
+      <c r="O53" s="507"/>
+      <c r="P53" s="506"/>
+      <c r="Q53" s="506"/>
+      <c r="R53" s="507"/>
+      <c r="S53" s="506"/>
+      <c r="T53" s="507"/>
+      <c r="U53" s="506"/>
+      <c r="V53" s="500"/>
+      <c r="W53" s="500"/>
+      <c r="X53" s="500"/>
+      <c r="Y53" s="500"/>
+      <c r="Z53" s="500"/>
+      <c r="AA53" s="507"/>
+      <c r="AB53" s="507"/>
+      <c r="AC53" s="507"/>
+      <c r="AD53" s="507"/>
+      <c r="AE53" s="507"/>
       <c r="AF53" s="37"/>
       <c r="AG53" s="37"/>
       <c r="AH53" s="37"/>
@@ -24850,7 +24850,7 @@
       <c r="AI54" s="37"/>
     </row>
     <row r="55" spans="1:37" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="526">
+      <c r="A55" s="513">
         <v>4112101</v>
       </c>
       <c r="B55" s="103" t="s">
@@ -24935,18 +24935,18 @@
         <v>606.9</v>
       </c>
       <c r="AF55" s="37"/>
-      <c r="AG55" s="517">
+      <c r="AG55" s="508">
         <f>SUM(U55:U56)</f>
         <v>95.6</v>
       </c>
-      <c r="AH55" s="517">
+      <c r="AH55" s="508">
         <f>SUM(Z55:Z56)</f>
         <v>0</v>
       </c>
       <c r="AI55" s="37"/>
     </row>
     <row r="56" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="526"/>
+      <c r="A56" s="513"/>
       <c r="B56" s="46" t="s">
         <v>47</v>
       </c>
@@ -25019,8 +25019,8 @@
         <v>50.22</v>
       </c>
       <c r="AF56" s="37"/>
-      <c r="AG56" s="518"/>
-      <c r="AH56" s="518"/>
+      <c r="AG56" s="509"/>
+      <c r="AH56" s="509"/>
       <c r="AI56" s="37"/>
     </row>
     <row r="57" spans="1:37" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -25110,7 +25110,7 @@
       <c r="AI57" s="37"/>
     </row>
     <row r="58" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="529">
+      <c r="A58" s="512">
         <v>4112316</v>
       </c>
       <c r="B58" s="46" t="s">
@@ -25185,18 +25185,18 @@
         <v>8.9499999999999993</v>
       </c>
       <c r="AF58" s="37"/>
-      <c r="AG58" s="517">
+      <c r="AG58" s="508">
         <f>SUM(U58:U59)</f>
         <v>0</v>
       </c>
-      <c r="AH58" s="517">
+      <c r="AH58" s="508">
         <f>SUM(Z58:Z59)</f>
         <v>0</v>
       </c>
       <c r="AI58" s="37"/>
     </row>
     <row r="59" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="529"/>
+      <c r="A59" s="512"/>
       <c r="B59" s="46" t="s">
         <v>50</v>
       </c>
@@ -25269,12 +25269,12 @@
         <v>0.79</v>
       </c>
       <c r="AF59" s="37"/>
-      <c r="AG59" s="518"/>
-      <c r="AH59" s="518"/>
+      <c r="AG59" s="509"/>
+      <c r="AH59" s="509"/>
       <c r="AI59" s="37"/>
     </row>
     <row r="60" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="529">
+      <c r="A60" s="512">
         <v>4112304</v>
       </c>
       <c r="B60" s="46" t="s">
@@ -25349,18 +25349,18 @@
         <v>20.18</v>
       </c>
       <c r="AF60" s="37"/>
-      <c r="AG60" s="517">
+      <c r="AG60" s="508">
         <f>SUM(U60:U62)</f>
         <v>2</v>
       </c>
-      <c r="AH60" s="517">
+      <c r="AH60" s="508">
         <f>SUM(Z60:Z62)</f>
         <v>1.6</v>
       </c>
       <c r="AI60" s="37"/>
     </row>
     <row r="61" spans="1:37" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A61" s="529"/>
+      <c r="A61" s="512"/>
       <c r="B61" s="46" t="s">
         <v>52</v>
       </c>
@@ -25433,12 +25433,12 @@
         <v>2.13</v>
       </c>
       <c r="AF61" s="37"/>
-      <c r="AG61" s="518"/>
-      <c r="AH61" s="518"/>
+      <c r="AG61" s="509"/>
+      <c r="AH61" s="509"/>
       <c r="AI61" s="37"/>
     </row>
     <row r="62" spans="1:37" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A62" s="529"/>
+      <c r="A62" s="512"/>
       <c r="B62" s="46" t="s">
         <v>53</v>
       </c>
@@ -25523,12 +25523,12 @@
         <v>9.49</v>
       </c>
       <c r="AF62" s="37"/>
-      <c r="AG62" s="518"/>
-      <c r="AH62" s="518"/>
+      <c r="AG62" s="509"/>
+      <c r="AH62" s="509"/>
       <c r="AI62" s="37"/>
     </row>
     <row r="63" spans="1:37" ht="67.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="529">
+      <c r="A63" s="512">
         <v>4112202</v>
       </c>
       <c r="B63" s="103" t="s">
@@ -25603,18 +25603,18 @@
         <v>19.47</v>
       </c>
       <c r="AF63" s="37"/>
-      <c r="AG63" s="517">
+      <c r="AG63" s="508">
         <f>SUM(U63:U66)</f>
         <v>0</v>
       </c>
-      <c r="AH63" s="517">
+      <c r="AH63" s="508">
         <f>SUM(Z63:Z66)</f>
         <v>0</v>
       </c>
       <c r="AI63" s="37"/>
     </row>
     <row r="64" spans="1:37" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A64" s="529"/>
+      <c r="A64" s="512"/>
       <c r="B64" s="46" t="s">
         <v>55</v>
       </c>
@@ -25687,12 +25687,12 @@
         <v>9.8800000000000008</v>
       </c>
       <c r="AF64" s="37"/>
-      <c r="AG64" s="518"/>
-      <c r="AH64" s="518"/>
+      <c r="AG64" s="509"/>
+      <c r="AH64" s="509"/>
       <c r="AI64" s="37"/>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A65" s="529"/>
+      <c r="A65" s="512"/>
       <c r="B65" s="46" t="s">
         <v>56</v>
       </c>
@@ -25765,12 +25765,12 @@
         <v>0.2</v>
       </c>
       <c r="AF65" s="37"/>
-      <c r="AG65" s="518"/>
-      <c r="AH65" s="518"/>
+      <c r="AG65" s="509"/>
+      <c r="AH65" s="509"/>
       <c r="AI65" s="37"/>
     </row>
     <row r="66" spans="1:38" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A66" s="529"/>
+      <c r="A66" s="512"/>
       <c r="B66" s="46" t="s">
         <v>57</v>
       </c>
@@ -25843,8 +25843,8 @@
         <v>4.08</v>
       </c>
       <c r="AF66" s="37"/>
-      <c r="AG66" s="518"/>
-      <c r="AH66" s="518"/>
+      <c r="AG66" s="509"/>
+      <c r="AH66" s="509"/>
       <c r="AI66" s="37"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.3">
@@ -25935,11 +25935,11 @@
         <v>45.32</v>
       </c>
       <c r="AF67" s="37"/>
-      <c r="AG67" s="527">
+      <c r="AG67" s="510">
         <f>SUM(U67:U68)</f>
         <v>14</v>
       </c>
-      <c r="AH67" s="527">
+      <c r="AH67" s="510">
         <f>SUM(Z67:Z68)</f>
         <v>13.93</v>
       </c>
@@ -26033,8 +26033,8 @@
         <v>9.73</v>
       </c>
       <c r="AF68" s="37"/>
-      <c r="AG68" s="528"/>
-      <c r="AH68" s="528"/>
+      <c r="AG68" s="511"/>
+      <c r="AH68" s="511"/>
       <c r="AI68" s="37"/>
     </row>
     <row r="69" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -26250,15 +26250,15 @@
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
       <c r="AF72" s="37"/>
-      <c r="AG72" s="517">
+      <c r="AG72" s="508">
         <f>SUM(U72:U85)</f>
         <v>12051.5</v>
       </c>
-      <c r="AH72" s="517">
+      <c r="AH72" s="508">
         <f>SUM(Z72:Z85)</f>
         <v>11260.500000000002</v>
       </c>
-      <c r="AI72" s="517">
+      <c r="AI72" s="508">
         <f>SUM(X72:X85)</f>
         <v>9693.5300000000007</v>
       </c>
@@ -26337,9 +26337,9 @@
       <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
       <c r="AF73" s="37"/>
-      <c r="AG73" s="518"/>
-      <c r="AH73" s="518"/>
-      <c r="AI73" s="518"/>
+      <c r="AG73" s="509"/>
+      <c r="AH73" s="509"/>
+      <c r="AI73" s="509"/>
       <c r="AL73" s="4">
         <v>11260.51</v>
       </c>
@@ -26384,9 +26384,9 @@
       <c r="AD74" s="2"/>
       <c r="AE74" s="2"/>
       <c r="AF74" s="37"/>
-      <c r="AG74" s="518"/>
-      <c r="AH74" s="518"/>
-      <c r="AI74" s="518"/>
+      <c r="AG74" s="509"/>
+      <c r="AH74" s="509"/>
+      <c r="AI74" s="509"/>
     </row>
     <row r="75" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="50">
@@ -26462,9 +26462,9 @@
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
       <c r="AF75" s="37"/>
-      <c r="AG75" s="518"/>
-      <c r="AH75" s="518"/>
-      <c r="AI75" s="518"/>
+      <c r="AG75" s="509"/>
+      <c r="AH75" s="509"/>
+      <c r="AI75" s="509"/>
     </row>
     <row r="76" spans="1:38" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A76" s="50">
@@ -26562,9 +26562,9 @@
         <v>6143.66</v>
       </c>
       <c r="AF76" s="37"/>
-      <c r="AG76" s="518"/>
-      <c r="AH76" s="518"/>
-      <c r="AI76" s="518"/>
+      <c r="AG76" s="509"/>
+      <c r="AH76" s="509"/>
+      <c r="AI76" s="509"/>
       <c r="AL76" s="117"/>
     </row>
     <row r="77" spans="1:38" ht="19.2" x14ac:dyDescent="0.3">
@@ -26663,9 +26663,9 @@
         <v>6011.48</v>
       </c>
       <c r="AF77" s="37"/>
-      <c r="AG77" s="518"/>
-      <c r="AH77" s="518"/>
-      <c r="AI77" s="518"/>
+      <c r="AG77" s="509"/>
+      <c r="AH77" s="509"/>
+      <c r="AI77" s="509"/>
       <c r="AK77" s="116"/>
       <c r="AL77" s="117"/>
     </row>
@@ -26704,9 +26704,9 @@
       <c r="AD78" s="2"/>
       <c r="AE78" s="2"/>
       <c r="AF78" s="37"/>
-      <c r="AG78" s="518"/>
-      <c r="AH78" s="518"/>
-      <c r="AI78" s="518"/>
+      <c r="AG78" s="509"/>
+      <c r="AH78" s="509"/>
+      <c r="AI78" s="509"/>
       <c r="AK78" s="116"/>
       <c r="AL78" s="117"/>
     </row>
@@ -26784,9 +26784,9 @@
       <c r="AD79" s="2"/>
       <c r="AE79" s="2"/>
       <c r="AF79" s="37"/>
-      <c r="AG79" s="518"/>
-      <c r="AH79" s="518"/>
-      <c r="AI79" s="518"/>
+      <c r="AG79" s="509"/>
+      <c r="AH79" s="509"/>
+      <c r="AI79" s="509"/>
       <c r="AK79" s="116"/>
       <c r="AL79" s="117"/>
     </row>
@@ -26864,9 +26864,9 @@
       <c r="AD80" s="2"/>
       <c r="AE80" s="2"/>
       <c r="AF80" s="37"/>
-      <c r="AG80" s="518"/>
-      <c r="AH80" s="518"/>
-      <c r="AI80" s="518"/>
+      <c r="AG80" s="509"/>
+      <c r="AH80" s="509"/>
+      <c r="AI80" s="509"/>
       <c r="AK80" s="116"/>
       <c r="AL80" s="117"/>
     </row>
@@ -26944,9 +26944,9 @@
       <c r="AD81" s="2"/>
       <c r="AE81" s="2"/>
       <c r="AF81" s="37"/>
-      <c r="AG81" s="518"/>
-      <c r="AH81" s="518"/>
-      <c r="AI81" s="518"/>
+      <c r="AG81" s="509"/>
+      <c r="AH81" s="509"/>
+      <c r="AI81" s="509"/>
       <c r="AJ81" s="116"/>
       <c r="AK81" s="116"/>
       <c r="AL81" s="117"/>
@@ -27047,9 +27047,9 @@
         <v>6127.0599999999995</v>
       </c>
       <c r="AF82" s="37"/>
-      <c r="AG82" s="518"/>
-      <c r="AH82" s="518"/>
-      <c r="AI82" s="518"/>
+      <c r="AG82" s="509"/>
+      <c r="AH82" s="509"/>
+      <c r="AI82" s="509"/>
       <c r="AK82" s="118"/>
       <c r="AL82" s="117"/>
     </row>
@@ -27127,9 +27127,9 @@
       <c r="AD83" s="2"/>
       <c r="AE83" s="2"/>
       <c r="AF83" s="37"/>
-      <c r="AG83" s="518"/>
-      <c r="AH83" s="518"/>
-      <c r="AI83" s="518"/>
+      <c r="AG83" s="509"/>
+      <c r="AH83" s="509"/>
+      <c r="AI83" s="509"/>
     </row>
     <row r="84" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="87">
@@ -27205,9 +27205,9 @@
       <c r="AD84" s="2"/>
       <c r="AE84" s="2"/>
       <c r="AF84" s="37"/>
-      <c r="AG84" s="518"/>
-      <c r="AH84" s="518"/>
-      <c r="AI84" s="518"/>
+      <c r="AG84" s="509"/>
+      <c r="AH84" s="509"/>
+      <c r="AI84" s="509"/>
     </row>
     <row r="85" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="87">
@@ -27254,9 +27254,9 @@
       <c r="AD85" s="2"/>
       <c r="AE85" s="2"/>
       <c r="AF85" s="37"/>
-      <c r="AG85" s="518"/>
-      <c r="AH85" s="518"/>
-      <c r="AI85" s="518"/>
+      <c r="AG85" s="509"/>
+      <c r="AH85" s="509"/>
+      <c r="AI85" s="509"/>
       <c r="AJ85" s="75"/>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.3">
@@ -27597,11 +27597,11 @@
       <c r="AF89" s="37"/>
       <c r="AG89" s="37"/>
       <c r="AH89" s="37"/>
-      <c r="AI89" s="523">
+      <c r="AI89" s="504">
         <f>AI87+AJ87</f>
         <v>11329.880000000001</v>
       </c>
-      <c r="AJ89" s="524"/>
+      <c r="AJ89" s="505"/>
     </row>
     <row r="90" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A90" s="89"/>
@@ -27736,11 +27736,11 @@
       </c>
     </row>
     <row r="93" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="Y93" s="504">
+      <c r="Y93" s="523">
         <f>Z90+K90</f>
         <v>45560.700000000004</v>
       </c>
-      <c r="Z93" s="505"/>
+      <c r="Z93" s="524"/>
     </row>
     <row r="96" spans="1:38" x14ac:dyDescent="0.3">
       <c r="H96" s="4"/>
@@ -28158,6 +28158,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="Y93:Z93"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AG6:AG9"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="AH6:AH9"/>
+    <mergeCell ref="AG14:AG16"/>
+    <mergeCell ref="AH14:AH16"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="AG28:AG30"/>
+    <mergeCell ref="AH28:AH30"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="AG34:AG36"/>
+    <mergeCell ref="AH34:AH36"/>
+    <mergeCell ref="AG41:AG50"/>
+    <mergeCell ref="AH41:AH50"/>
+    <mergeCell ref="AD52:AD53"/>
+    <mergeCell ref="AG55:AG56"/>
+    <mergeCell ref="AH55:AH56"/>
+    <mergeCell ref="AE52:AE53"/>
+    <mergeCell ref="AI28:AI30"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="AA52:AA53"/>
+    <mergeCell ref="AB52:AB53"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="AG67:AG68"/>
+    <mergeCell ref="AH67:AH68"/>
+    <mergeCell ref="AG72:AG85"/>
+    <mergeCell ref="AH72:AH85"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="AG58:AG59"/>
+    <mergeCell ref="AH58:AH59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="AG60:AG62"/>
+    <mergeCell ref="AH60:AH62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="AG63:AG66"/>
+    <mergeCell ref="AH63:AH66"/>
     <mergeCell ref="AI89:AJ89"/>
     <mergeCell ref="G52:G53"/>
     <mergeCell ref="H52:H53"/>
@@ -28174,78 +28246,6 @@
     <mergeCell ref="Z52:Z53"/>
     <mergeCell ref="AC52:AC53"/>
     <mergeCell ref="AI72:AI85"/>
-    <mergeCell ref="AG67:AG68"/>
-    <mergeCell ref="AH67:AH68"/>
-    <mergeCell ref="AG72:AG85"/>
-    <mergeCell ref="AH72:AH85"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="AG58:AG59"/>
-    <mergeCell ref="AH58:AH59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="AG60:AG62"/>
-    <mergeCell ref="AH60:AH62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="AG63:AG66"/>
-    <mergeCell ref="AH63:AH66"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="AA52:AA53"/>
-    <mergeCell ref="AB52:AB53"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="AD52:AD53"/>
-    <mergeCell ref="AG55:AG56"/>
-    <mergeCell ref="AH55:AH56"/>
-    <mergeCell ref="AE52:AE53"/>
-    <mergeCell ref="AI28:AI30"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="AG34:AG36"/>
-    <mergeCell ref="AH34:AH36"/>
-    <mergeCell ref="AG41:AG50"/>
-    <mergeCell ref="AH41:AH50"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="AG28:AG30"/>
-    <mergeCell ref="AH28:AH30"/>
-    <mergeCell ref="AH6:AH9"/>
-    <mergeCell ref="AG14:AG16"/>
-    <mergeCell ref="AH14:AH16"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AG6:AG9"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Y93:Z93"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AE3"/>
   </mergeCells>
   <pageMargins left="0.15" right="0.1" top="0.2" bottom="0.1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
@@ -28452,126 +28452,126 @@
       <c r="AQ1" s="51"/>
     </row>
     <row r="2" spans="1:43" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="507" t="s">
+      <c r="A2" s="526" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="507" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="513" t="s">
+      <c r="B2" s="526" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="520" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="513"/>
-      <c r="E2" s="513"/>
-      <c r="F2" s="513"/>
-      <c r="G2" s="538" t="s">
+      <c r="D2" s="520"/>
+      <c r="E2" s="520"/>
+      <c r="F2" s="520"/>
+      <c r="G2" s="549" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="539"/>
-      <c r="I2" s="539"/>
-      <c r="J2" s="539"/>
-      <c r="K2" s="540"/>
-      <c r="L2" s="530" t="s">
+      <c r="H2" s="550"/>
+      <c r="I2" s="550"/>
+      <c r="J2" s="550"/>
+      <c r="K2" s="551"/>
+      <c r="L2" s="546" t="s">
         <v>226</v>
       </c>
-      <c r="M2" s="531"/>
-      <c r="N2" s="531"/>
-      <c r="O2" s="531"/>
-      <c r="P2" s="532"/>
-      <c r="Q2" s="513" t="s">
+      <c r="M2" s="547"/>
+      <c r="N2" s="547"/>
+      <c r="O2" s="547"/>
+      <c r="P2" s="548"/>
+      <c r="Q2" s="520" t="s">
         <v>133</v>
       </c>
-      <c r="R2" s="513"/>
-      <c r="S2" s="513"/>
-      <c r="T2" s="513"/>
-      <c r="U2" s="513"/>
-      <c r="V2" s="538" t="s">
+      <c r="R2" s="520"/>
+      <c r="S2" s="520"/>
+      <c r="T2" s="520"/>
+      <c r="U2" s="520"/>
+      <c r="V2" s="549" t="s">
         <v>225</v>
       </c>
-      <c r="W2" s="539"/>
-      <c r="X2" s="539"/>
-      <c r="Y2" s="539"/>
-      <c r="Z2" s="540"/>
-      <c r="AA2" s="530" t="s">
+      <c r="W2" s="550"/>
+      <c r="X2" s="550"/>
+      <c r="Y2" s="550"/>
+      <c r="Z2" s="551"/>
+      <c r="AA2" s="546" t="s">
         <v>179</v>
       </c>
-      <c r="AB2" s="531"/>
-      <c r="AC2" s="531"/>
-      <c r="AD2" s="531"/>
-      <c r="AE2" s="532"/>
+      <c r="AB2" s="547"/>
+      <c r="AC2" s="547"/>
+      <c r="AD2" s="547"/>
+      <c r="AE2" s="548"/>
       <c r="AF2" s="369"/>
-      <c r="AH2" s="508" t="s">
+      <c r="AH2" s="527" t="s">
         <v>113</v>
       </c>
-      <c r="AI2" s="509"/>
+      <c r="AI2" s="528"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
-      <c r="AM2" s="479" t="s">
+      <c r="AM2" s="472" t="s">
         <v>146</v>
       </c>
-      <c r="AN2" s="480"/>
-      <c r="AO2" s="480"/>
-      <c r="AP2" s="480"/>
-      <c r="AQ2" s="481"/>
+      <c r="AN2" s="473"/>
+      <c r="AO2" s="473"/>
+      <c r="AP2" s="473"/>
+      <c r="AQ2" s="474"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A3" s="507"/>
-      <c r="B3" s="507"/>
-      <c r="C3" s="507" t="s">
+      <c r="A3" s="526"/>
+      <c r="B3" s="526"/>
+      <c r="C3" s="526" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="510" t="s">
+      <c r="D3" s="529" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="510"/>
-      <c r="F3" s="507" t="s">
+      <c r="E3" s="529"/>
+      <c r="F3" s="526" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="533" t="s">
+      <c r="G3" s="541" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="535" t="s">
+      <c r="H3" s="543" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="536"/>
-      <c r="J3" s="536"/>
-      <c r="K3" s="537"/>
-      <c r="L3" s="547" t="s">
+      <c r="I3" s="544"/>
+      <c r="J3" s="544"/>
+      <c r="K3" s="545"/>
+      <c r="L3" s="530" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="549" t="s">
+      <c r="M3" s="532" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="550"/>
-      <c r="O3" s="550"/>
-      <c r="P3" s="551"/>
-      <c r="Q3" s="511" t="s">
+      <c r="N3" s="533"/>
+      <c r="O3" s="533"/>
+      <c r="P3" s="534"/>
+      <c r="Q3" s="521" t="s">
         <v>87</v>
       </c>
-      <c r="R3" s="512" t="s">
+      <c r="R3" s="522" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="512"/>
-      <c r="T3" s="512"/>
-      <c r="U3" s="512"/>
-      <c r="V3" s="533" t="s">
+      <c r="S3" s="522"/>
+      <c r="T3" s="522"/>
+      <c r="U3" s="522"/>
+      <c r="V3" s="541" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="535" t="s">
+      <c r="W3" s="543" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="536"/>
-      <c r="Y3" s="536"/>
-      <c r="Z3" s="537"/>
-      <c r="AA3" s="482" t="s">
+      <c r="X3" s="544"/>
+      <c r="Y3" s="544"/>
+      <c r="Z3" s="545"/>
+      <c r="AA3" s="476" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" s="483" t="s">
+      <c r="AB3" s="477" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" s="483"/>
-      <c r="AD3" s="483"/>
-      <c r="AE3" s="483"/>
+      <c r="AC3" s="477"/>
+      <c r="AD3" s="477"/>
+      <c r="AE3" s="477"/>
       <c r="AF3" s="370"/>
       <c r="AH3" s="137" t="s">
         <v>114</v>
@@ -28588,28 +28588,28 @@
       <c r="AL3" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="AM3" s="482" t="s">
+      <c r="AM3" s="476" t="s">
         <v>87</v>
       </c>
-      <c r="AN3" s="483" t="s">
+      <c r="AN3" s="477" t="s">
         <v>86</v>
       </c>
-      <c r="AO3" s="483"/>
-      <c r="AP3" s="483"/>
-      <c r="AQ3" s="483"/>
+      <c r="AO3" s="477"/>
+      <c r="AP3" s="477"/>
+      <c r="AQ3" s="477"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A4" s="507"/>
-      <c r="B4" s="507"/>
-      <c r="C4" s="507"/>
+      <c r="A4" s="526"/>
+      <c r="B4" s="526"/>
+      <c r="C4" s="526"/>
       <c r="D4" s="131" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="507"/>
-      <c r="G4" s="534"/>
+      <c r="F4" s="526"/>
+      <c r="G4" s="542"/>
       <c r="H4" s="125" t="s">
         <v>111</v>
       </c>
@@ -28622,7 +28622,7 @@
       <c r="K4" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="548"/>
+      <c r="L4" s="531"/>
       <c r="M4" s="136" t="s">
         <v>111</v>
       </c>
@@ -28635,7 +28635,7 @@
       <c r="P4" s="136" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="511"/>
+      <c r="Q4" s="521"/>
       <c r="R4" s="125" t="s">
         <v>111</v>
       </c>
@@ -28648,7 +28648,7 @@
       <c r="U4" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="534"/>
+      <c r="V4" s="542"/>
       <c r="W4" s="367" t="s">
         <v>111</v>
       </c>
@@ -28661,7 +28661,7 @@
       <c r="Z4" s="367" t="s">
         <v>75</v>
       </c>
-      <c r="AA4" s="482"/>
+      <c r="AA4" s="476"/>
       <c r="AB4" s="364" t="s">
         <v>111</v>
       </c>
@@ -28679,7 +28679,7 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
-      <c r="AM4" s="482"/>
+      <c r="AM4" s="476"/>
       <c r="AN4" s="143" t="s">
         <v>111</v>
       </c>
@@ -28694,10 +28694,10 @@
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A5" s="506" t="s">
+      <c r="A5" s="525" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="506"/>
+      <c r="B5" s="525"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="12"/>
@@ -28769,11 +28769,11 @@
       <c r="AD6" s="53"/>
       <c r="AE6" s="53"/>
       <c r="AF6" s="372"/>
-      <c r="AH6" s="514">
+      <c r="AH6" s="517">
         <f>SUM(K7:K9)</f>
         <v>14.5</v>
       </c>
-      <c r="AI6" s="514">
+      <c r="AI6" s="517">
         <f>SUM(P7:P9)</f>
         <v>14.5</v>
       </c>
@@ -28868,8 +28868,8 @@
       </c>
       <c r="AF7" s="373"/>
       <c r="AG7" s="37"/>
-      <c r="AH7" s="515"/>
-      <c r="AI7" s="515"/>
+      <c r="AH7" s="518"/>
+      <c r="AI7" s="518"/>
       <c r="AJ7" s="37"/>
       <c r="AL7" s="72">
         <f>H7-M7</f>
@@ -28960,8 +28960,8 @@
       </c>
       <c r="AF8" s="373"/>
       <c r="AG8" s="37"/>
-      <c r="AH8" s="515"/>
-      <c r="AI8" s="515"/>
+      <c r="AH8" s="518"/>
+      <c r="AI8" s="518"/>
       <c r="AJ8" s="37"/>
       <c r="AM8" s="54" t="s">
         <v>78</v>
@@ -29062,8 +29062,8 @@
       </c>
       <c r="AF9" s="373"/>
       <c r="AG9" s="37"/>
-      <c r="AH9" s="515"/>
-      <c r="AI9" s="515"/>
+      <c r="AH9" s="518"/>
+      <c r="AI9" s="518"/>
       <c r="AJ9" s="37"/>
       <c r="AL9" s="72">
         <f>H9-M9</f>
@@ -29546,11 +29546,11 @@
       </c>
       <c r="AF14" s="373"/>
       <c r="AG14" s="37"/>
-      <c r="AH14" s="514">
+      <c r="AH14" s="517">
         <f>SUM(K14:K16)</f>
         <v>0.7</v>
       </c>
-      <c r="AI14" s="514">
+      <c r="AI14" s="517">
         <f>SUM(P14:P16)</f>
         <v>0.65</v>
       </c>
@@ -29658,8 +29658,8 @@
       </c>
       <c r="AF15" s="373"/>
       <c r="AG15" s="37"/>
-      <c r="AH15" s="515"/>
-      <c r="AI15" s="515"/>
+      <c r="AH15" s="518"/>
+      <c r="AI15" s="518"/>
       <c r="AJ15" s="37"/>
       <c r="AL15" s="72">
         <f t="shared" si="5"/>
@@ -29764,8 +29764,8 @@
       </c>
       <c r="AF16" s="373"/>
       <c r="AG16" s="37"/>
-      <c r="AH16" s="515"/>
-      <c r="AI16" s="515"/>
+      <c r="AH16" s="518"/>
+      <c r="AI16" s="518"/>
       <c r="AJ16" s="37"/>
       <c r="AL16" s="72">
         <f t="shared" si="5"/>
@@ -29982,11 +29982,11 @@
       </c>
       <c r="AF18" s="373"/>
       <c r="AG18" s="37"/>
-      <c r="AH18" s="514">
+      <c r="AH18" s="517">
         <f>SUM(K18:K19)</f>
         <v>4.7</v>
       </c>
-      <c r="AI18" s="514">
+      <c r="AI18" s="517">
         <f>SUM(P18:P19)</f>
         <v>3.4400000000000004</v>
       </c>
@@ -30094,8 +30094,8 @@
       </c>
       <c r="AF19" s="373"/>
       <c r="AG19" s="37"/>
-      <c r="AH19" s="514"/>
-      <c r="AI19" s="515"/>
+      <c r="AH19" s="517"/>
+      <c r="AI19" s="518"/>
       <c r="AJ19" s="37"/>
       <c r="AL19" s="72">
         <f t="shared" si="5"/>
@@ -30200,11 +30200,11 @@
       </c>
       <c r="AF20" s="373"/>
       <c r="AG20" s="37"/>
-      <c r="AH20" s="514">
+      <c r="AH20" s="517">
         <f>SUM(K20:K21)</f>
         <v>31</v>
       </c>
-      <c r="AI20" s="514">
+      <c r="AI20" s="517">
         <f>SUM(P20:P21)</f>
         <v>28.2</v>
       </c>
@@ -30312,8 +30312,8 @@
       </c>
       <c r="AF21" s="373"/>
       <c r="AG21" s="37"/>
-      <c r="AH21" s="515"/>
-      <c r="AI21" s="515"/>
+      <c r="AH21" s="518"/>
+      <c r="AI21" s="518"/>
       <c r="AJ21" s="37"/>
       <c r="AL21" s="72">
         <f t="shared" si="5"/>
@@ -30782,7 +30782,7 @@
       </c>
     </row>
     <row r="26" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="516">
+      <c r="A26" s="519">
         <v>3231201</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -30835,7 +30835,7 @@
       <c r="AQ26" s="65"/>
     </row>
     <row r="27" spans="1:43" s="9" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A27" s="516"/>
+      <c r="A27" s="519"/>
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -30895,7 +30895,7 @@
       <c r="AQ27" s="65"/>
     </row>
     <row r="28" spans="1:43" s="9" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="516"/>
+      <c r="A28" s="519"/>
       <c r="B28" s="46" t="s">
         <v>24</v>
       </c>
@@ -30987,15 +30987,15 @@
       </c>
       <c r="AF28" s="373"/>
       <c r="AG28" s="37"/>
-      <c r="AH28" s="517">
+      <c r="AH28" s="508">
         <f>SUM(K28:K30)</f>
         <v>810</v>
       </c>
-      <c r="AI28" s="517">
+      <c r="AI28" s="508">
         <f>SUM(P28:P30)</f>
         <v>443.29999999999995</v>
       </c>
-      <c r="AJ28" s="523">
+      <c r="AJ28" s="504">
         <f>SUM(N28:N30)</f>
         <v>398.15999999999997</v>
       </c>
@@ -31021,7 +31021,7 @@
       </c>
     </row>
     <row r="29" spans="1:43" s="9" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="516"/>
+      <c r="A29" s="519"/>
       <c r="B29" s="46" t="s">
         <v>25</v>
       </c>
@@ -31113,9 +31113,9 @@
       </c>
       <c r="AF29" s="373"/>
       <c r="AG29" s="37"/>
-      <c r="AH29" s="518"/>
-      <c r="AI29" s="518"/>
-      <c r="AJ29" s="524"/>
+      <c r="AH29" s="509"/>
+      <c r="AI29" s="509"/>
+      <c r="AJ29" s="505"/>
       <c r="AL29" s="72">
         <f>H29-M29</f>
         <v>1.8200000000000003</v>
@@ -31138,7 +31138,7 @@
       </c>
     </row>
     <row r="30" spans="1:43" s="9" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="516"/>
+      <c r="A30" s="519"/>
       <c r="B30" s="46" t="s">
         <v>26</v>
       </c>
@@ -31230,9 +31230,9 @@
       </c>
       <c r="AF30" s="373"/>
       <c r="AG30" s="37"/>
-      <c r="AH30" s="518"/>
-      <c r="AI30" s="518"/>
-      <c r="AJ30" s="524"/>
+      <c r="AH30" s="509"/>
+      <c r="AI30" s="509"/>
+      <c r="AJ30" s="505"/>
       <c r="AL30" s="72">
         <f>H30-M30</f>
         <v>5.2299999999999995</v>
@@ -31603,7 +31603,7 @@
       </c>
     </row>
     <row r="34" spans="1:43" s="9" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A34" s="519">
+      <c r="A34" s="514">
         <v>3111332</v>
       </c>
       <c r="B34" s="46" t="s">
@@ -31687,11 +31687,11 @@
       </c>
       <c r="AF34" s="373"/>
       <c r="AG34" s="37"/>
-      <c r="AH34" s="517">
+      <c r="AH34" s="508">
         <f>SUM(K34:K36)</f>
         <v>7</v>
       </c>
-      <c r="AI34" s="517">
+      <c r="AI34" s="508">
         <f>SUM(P34:P36)</f>
         <v>3.8200000000000003</v>
       </c>
@@ -31715,7 +31715,7 @@
       </c>
     </row>
     <row r="35" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="520"/>
+      <c r="A35" s="515"/>
       <c r="B35" s="46" t="s">
         <v>30</v>
       </c>
@@ -31797,8 +31797,8 @@
       </c>
       <c r="AF35" s="373"/>
       <c r="AG35" s="37"/>
-      <c r="AH35" s="518"/>
-      <c r="AI35" s="518"/>
+      <c r="AH35" s="509"/>
+      <c r="AI35" s="509"/>
       <c r="AJ35" s="37"/>
       <c r="AL35" s="72">
         <f t="shared" si="12"/>
@@ -31819,7 +31819,7 @@
       </c>
     </row>
     <row r="36" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="521"/>
+      <c r="A36" s="516"/>
       <c r="B36" s="46" t="s">
         <v>31</v>
       </c>
@@ -31901,8 +31901,8 @@
       </c>
       <c r="AF36" s="373"/>
       <c r="AG36" s="37"/>
-      <c r="AH36" s="518"/>
-      <c r="AI36" s="518"/>
+      <c r="AH36" s="509"/>
+      <c r="AI36" s="509"/>
       <c r="AJ36" s="37"/>
       <c r="AL36" s="72">
         <f t="shared" si="12"/>
@@ -32388,11 +32388,11 @@
       </c>
       <c r="AF41" s="373"/>
       <c r="AG41" s="37"/>
-      <c r="AH41" s="517">
+      <c r="AH41" s="508">
         <f>SUM(K41:K50)</f>
         <v>84.109999999999985</v>
       </c>
-      <c r="AI41" s="517">
+      <c r="AI41" s="508">
         <f>SUM(P41:P50)</f>
         <v>63.06</v>
       </c>
@@ -32500,8 +32500,8 @@
       </c>
       <c r="AF42" s="373"/>
       <c r="AG42" s="37"/>
-      <c r="AH42" s="518"/>
-      <c r="AI42" s="518"/>
+      <c r="AH42" s="509"/>
+      <c r="AI42" s="509"/>
       <c r="AJ42" s="37"/>
       <c r="AL42" s="72">
         <f t="shared" si="16"/>
@@ -32606,8 +32606,8 @@
       </c>
       <c r="AF43" s="373"/>
       <c r="AG43" s="37"/>
-      <c r="AH43" s="518"/>
-      <c r="AI43" s="518"/>
+      <c r="AH43" s="509"/>
+      <c r="AI43" s="509"/>
       <c r="AJ43" s="37"/>
       <c r="AL43" s="72">
         <f t="shared" si="16"/>
@@ -32712,8 +32712,8 @@
       </c>
       <c r="AF44" s="373"/>
       <c r="AG44" s="37"/>
-      <c r="AH44" s="518"/>
-      <c r="AI44" s="518"/>
+      <c r="AH44" s="509"/>
+      <c r="AI44" s="509"/>
       <c r="AJ44" s="37"/>
       <c r="AL44" s="72">
         <f t="shared" si="16"/>
@@ -32814,8 +32814,8 @@
       </c>
       <c r="AF45" s="373"/>
       <c r="AG45" s="37"/>
-      <c r="AH45" s="518"/>
-      <c r="AI45" s="518"/>
+      <c r="AH45" s="509"/>
+      <c r="AI45" s="509"/>
       <c r="AJ45" s="37"/>
       <c r="AL45" s="72">
         <f t="shared" si="16"/>
@@ -32920,8 +32920,8 @@
       </c>
       <c r="AF46" s="373"/>
       <c r="AG46" s="37"/>
-      <c r="AH46" s="518"/>
-      <c r="AI46" s="518"/>
+      <c r="AH46" s="509"/>
+      <c r="AI46" s="509"/>
       <c r="AJ46" s="37"/>
       <c r="AL46" s="72">
         <f t="shared" si="16"/>
@@ -33026,8 +33026,8 @@
       </c>
       <c r="AF47" s="373"/>
       <c r="AG47" s="37"/>
-      <c r="AH47" s="518"/>
-      <c r="AI47" s="518"/>
+      <c r="AH47" s="509"/>
+      <c r="AI47" s="509"/>
       <c r="AJ47" s="37"/>
       <c r="AL47" s="72">
         <f t="shared" si="16"/>
@@ -33142,8 +33142,8 @@
       </c>
       <c r="AF48" s="373"/>
       <c r="AG48" s="37"/>
-      <c r="AH48" s="518"/>
-      <c r="AI48" s="518"/>
+      <c r="AH48" s="509"/>
+      <c r="AI48" s="509"/>
       <c r="AJ48" s="71">
         <f>N48</f>
         <v>29.46</v>
@@ -33257,8 +33257,8 @@
       </c>
       <c r="AF49" s="373"/>
       <c r="AG49" s="37"/>
-      <c r="AH49" s="518"/>
-      <c r="AI49" s="518"/>
+      <c r="AH49" s="509"/>
+      <c r="AI49" s="509"/>
       <c r="AJ49" s="37"/>
       <c r="AL49" s="72">
         <f t="shared" si="16"/>
@@ -33363,8 +33363,8 @@
       </c>
       <c r="AF50" s="373"/>
       <c r="AG50" s="37"/>
-      <c r="AH50" s="518"/>
-      <c r="AI50" s="518"/>
+      <c r="AH50" s="509"/>
+      <c r="AI50" s="509"/>
       <c r="AJ50" s="37"/>
       <c r="AL50" s="72">
         <f t="shared" si="16"/>
@@ -33533,90 +33533,90 @@
     <row r="52" spans="1:43" s="106" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="104"/>
       <c r="B52" s="104"/>
-      <c r="C52" s="525"/>
-      <c r="D52" s="525"/>
-      <c r="E52" s="522"/>
-      <c r="F52" s="525"/>
-      <c r="G52" s="543"/>
-      <c r="H52" s="541"/>
-      <c r="I52" s="543"/>
-      <c r="J52" s="541"/>
-      <c r="K52" s="543"/>
-      <c r="L52" s="545"/>
-      <c r="M52" s="545"/>
-      <c r="N52" s="545"/>
-      <c r="O52" s="545"/>
-      <c r="P52" s="545"/>
-      <c r="Q52" s="522"/>
-      <c r="R52" s="522"/>
-      <c r="S52" s="522"/>
-      <c r="T52" s="522"/>
-      <c r="U52" s="522"/>
-      <c r="V52" s="543"/>
-      <c r="W52" s="541"/>
-      <c r="X52" s="543"/>
-      <c r="Y52" s="541"/>
-      <c r="Z52" s="543"/>
-      <c r="AA52" s="478"/>
-      <c r="AB52" s="478"/>
-      <c r="AC52" s="478"/>
-      <c r="AD52" s="478"/>
-      <c r="AE52" s="478"/>
+      <c r="C52" s="506"/>
+      <c r="D52" s="506"/>
+      <c r="E52" s="507"/>
+      <c r="F52" s="506"/>
+      <c r="G52" s="537"/>
+      <c r="H52" s="539"/>
+      <c r="I52" s="537"/>
+      <c r="J52" s="539"/>
+      <c r="K52" s="537"/>
+      <c r="L52" s="535"/>
+      <c r="M52" s="535"/>
+      <c r="N52" s="535"/>
+      <c r="O52" s="535"/>
+      <c r="P52" s="535"/>
+      <c r="Q52" s="507"/>
+      <c r="R52" s="507"/>
+      <c r="S52" s="507"/>
+      <c r="T52" s="507"/>
+      <c r="U52" s="507"/>
+      <c r="V52" s="537"/>
+      <c r="W52" s="539"/>
+      <c r="X52" s="537"/>
+      <c r="Y52" s="539"/>
+      <c r="Z52" s="537"/>
+      <c r="AA52" s="500"/>
+      <c r="AB52" s="500"/>
+      <c r="AC52" s="500"/>
+      <c r="AD52" s="500"/>
+      <c r="AE52" s="500"/>
       <c r="AF52" s="375"/>
       <c r="AG52" s="105"/>
       <c r="AH52" s="105"/>
       <c r="AI52" s="105"/>
       <c r="AJ52" s="105"/>
-      <c r="AM52" s="478"/>
-      <c r="AN52" s="478"/>
-      <c r="AO52" s="478"/>
-      <c r="AP52" s="478"/>
-      <c r="AQ52" s="478"/>
+      <c r="AM52" s="500"/>
+      <c r="AN52" s="500"/>
+      <c r="AO52" s="500"/>
+      <c r="AP52" s="500"/>
+      <c r="AQ52" s="500"/>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A53" s="102" t="s">
         <v>79</v>
       </c>
       <c r="B53" s="107"/>
-      <c r="C53" s="525"/>
-      <c r="D53" s="525"/>
-      <c r="E53" s="522"/>
-      <c r="F53" s="525"/>
-      <c r="G53" s="544"/>
-      <c r="H53" s="542"/>
-      <c r="I53" s="544"/>
-      <c r="J53" s="542"/>
-      <c r="K53" s="544"/>
-      <c r="L53" s="546"/>
-      <c r="M53" s="546"/>
-      <c r="N53" s="546"/>
-      <c r="O53" s="546"/>
-      <c r="P53" s="546"/>
-      <c r="Q53" s="522"/>
-      <c r="R53" s="522"/>
-      <c r="S53" s="522"/>
-      <c r="T53" s="522"/>
-      <c r="U53" s="522"/>
-      <c r="V53" s="544"/>
-      <c r="W53" s="542"/>
-      <c r="X53" s="544"/>
-      <c r="Y53" s="542"/>
-      <c r="Z53" s="544"/>
-      <c r="AA53" s="478"/>
-      <c r="AB53" s="478"/>
-      <c r="AC53" s="478"/>
-      <c r="AD53" s="478"/>
-      <c r="AE53" s="478"/>
+      <c r="C53" s="506"/>
+      <c r="D53" s="506"/>
+      <c r="E53" s="507"/>
+      <c r="F53" s="506"/>
+      <c r="G53" s="538"/>
+      <c r="H53" s="540"/>
+      <c r="I53" s="538"/>
+      <c r="J53" s="540"/>
+      <c r="K53" s="538"/>
+      <c r="L53" s="536"/>
+      <c r="M53" s="536"/>
+      <c r="N53" s="536"/>
+      <c r="O53" s="536"/>
+      <c r="P53" s="536"/>
+      <c r="Q53" s="507"/>
+      <c r="R53" s="507"/>
+      <c r="S53" s="507"/>
+      <c r="T53" s="507"/>
+      <c r="U53" s="507"/>
+      <c r="V53" s="538"/>
+      <c r="W53" s="540"/>
+      <c r="X53" s="538"/>
+      <c r="Y53" s="540"/>
+      <c r="Z53" s="538"/>
+      <c r="AA53" s="500"/>
+      <c r="AB53" s="500"/>
+      <c r="AC53" s="500"/>
+      <c r="AD53" s="500"/>
+      <c r="AE53" s="500"/>
       <c r="AF53" s="375"/>
       <c r="AG53" s="37"/>
       <c r="AH53" s="37"/>
       <c r="AI53" s="37"/>
       <c r="AJ53" s="37"/>
-      <c r="AM53" s="478"/>
-      <c r="AN53" s="478"/>
-      <c r="AO53" s="478"/>
-      <c r="AP53" s="478"/>
-      <c r="AQ53" s="478"/>
+      <c r="AM53" s="500"/>
+      <c r="AN53" s="500"/>
+      <c r="AO53" s="500"/>
+      <c r="AP53" s="500"/>
+      <c r="AQ53" s="500"/>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A54" s="48"/>
@@ -33664,7 +33664,7 @@
       <c r="AQ54" s="57"/>
     </row>
     <row r="55" spans="1:43" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="526">
+      <c r="A55" s="513">
         <v>4112101</v>
       </c>
       <c r="B55" s="103" t="s">
@@ -33736,11 +33736,11 @@
       </c>
       <c r="AF55" s="373"/>
       <c r="AG55" s="37"/>
-      <c r="AH55" s="517">
+      <c r="AH55" s="508">
         <f>SUM(K55:K56)</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="517">
+      <c r="AI55" s="508">
         <f>SUM(P55:P56)</f>
         <v>0</v>
       </c>
@@ -33760,7 +33760,7 @@
       </c>
     </row>
     <row r="56" spans="1:43" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="526"/>
+      <c r="A56" s="513"/>
       <c r="B56" s="46" t="s">
         <v>47</v>
       </c>
@@ -33826,8 +33826,8 @@
       </c>
       <c r="AF56" s="373"/>
       <c r="AG56" s="37"/>
-      <c r="AH56" s="518"/>
-      <c r="AI56" s="518"/>
+      <c r="AH56" s="509"/>
+      <c r="AI56" s="509"/>
       <c r="AJ56" s="37"/>
       <c r="AM56" s="144"/>
       <c r="AN56" s="54" t="e">
@@ -33932,7 +33932,7 @@
       </c>
     </row>
     <row r="58" spans="1:43" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="529">
+      <c r="A58" s="512">
         <v>4112316</v>
       </c>
       <c r="B58" s="46" t="s">
@@ -34000,11 +34000,11 @@
       </c>
       <c r="AF58" s="373"/>
       <c r="AG58" s="37"/>
-      <c r="AH58" s="517">
+      <c r="AH58" s="508">
         <f>SUM(K58:K59)</f>
         <v>0</v>
       </c>
-      <c r="AI58" s="517">
+      <c r="AI58" s="508">
         <f>SUM(P58:P59)</f>
         <v>0</v>
       </c>
@@ -34022,7 +34022,7 @@
       </c>
     </row>
     <row r="59" spans="1:43" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="529"/>
+      <c r="A59" s="512"/>
       <c r="B59" s="46" t="s">
         <v>50</v>
       </c>
@@ -34088,8 +34088,8 @@
       </c>
       <c r="AF59" s="373"/>
       <c r="AG59" s="37"/>
-      <c r="AH59" s="518"/>
-      <c r="AI59" s="518"/>
+      <c r="AH59" s="509"/>
+      <c r="AI59" s="509"/>
       <c r="AJ59" s="37"/>
       <c r="AM59" s="144"/>
       <c r="AN59" s="54" t="e">
@@ -34104,7 +34104,7 @@
       </c>
     </row>
     <row r="60" spans="1:43" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="529">
+      <c r="A60" s="512">
         <v>4112304</v>
       </c>
       <c r="B60" s="46" t="s">
@@ -34172,11 +34172,11 @@
       </c>
       <c r="AF60" s="373"/>
       <c r="AG60" s="37"/>
-      <c r="AH60" s="517">
+      <c r="AH60" s="508">
         <f>SUM(K60:K62)</f>
         <v>5</v>
       </c>
-      <c r="AI60" s="517">
+      <c r="AI60" s="508">
         <f>SUM(P60:P62)</f>
         <v>5</v>
       </c>
@@ -34194,7 +34194,7 @@
       </c>
     </row>
     <row r="61" spans="1:43" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A61" s="529"/>
+      <c r="A61" s="512"/>
       <c r="B61" s="46" t="s">
         <v>52</v>
       </c>
@@ -34260,8 +34260,8 @@
       </c>
       <c r="AF61" s="373"/>
       <c r="AG61" s="37"/>
-      <c r="AH61" s="518"/>
-      <c r="AI61" s="518"/>
+      <c r="AH61" s="509"/>
+      <c r="AI61" s="509"/>
       <c r="AJ61" s="37"/>
       <c r="AM61" s="144"/>
       <c r="AN61" s="54" t="e">
@@ -34276,7 +34276,7 @@
       </c>
     </row>
     <row r="62" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A62" s="529"/>
+      <c r="A62" s="512"/>
       <c r="B62" s="46" t="s">
         <v>53</v>
       </c>
@@ -34354,8 +34354,8 @@
       </c>
       <c r="AF62" s="373"/>
       <c r="AG62" s="37"/>
-      <c r="AH62" s="518"/>
-      <c r="AI62" s="518"/>
+      <c r="AH62" s="509"/>
+      <c r="AI62" s="509"/>
       <c r="AJ62" s="37"/>
       <c r="AM62" s="144" t="s">
         <v>78</v>
@@ -34372,7 +34372,7 @@
       </c>
     </row>
     <row r="63" spans="1:43" ht="67.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="529">
+      <c r="A63" s="512">
         <v>4112202</v>
       </c>
       <c r="B63" s="103" t="s">
@@ -34440,11 +34440,11 @@
       </c>
       <c r="AF63" s="373"/>
       <c r="AG63" s="37"/>
-      <c r="AH63" s="517">
+      <c r="AH63" s="508">
         <f>SUM(K63:K66)</f>
         <v>0</v>
       </c>
-      <c r="AI63" s="517">
+      <c r="AI63" s="508">
         <f>SUM(P63:P66)</f>
         <v>0</v>
       </c>
@@ -34462,7 +34462,7 @@
       </c>
     </row>
     <row r="64" spans="1:43" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A64" s="529"/>
+      <c r="A64" s="512"/>
       <c r="B64" s="46" t="s">
         <v>55</v>
       </c>
@@ -34528,8 +34528,8 @@
       </c>
       <c r="AF64" s="373"/>
       <c r="AG64" s="37"/>
-      <c r="AH64" s="518"/>
-      <c r="AI64" s="518"/>
+      <c r="AH64" s="509"/>
+      <c r="AI64" s="509"/>
       <c r="AJ64" s="37"/>
       <c r="AM64" s="144"/>
       <c r="AN64" s="54" t="e">
@@ -34544,7 +34544,7 @@
       </c>
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A65" s="529"/>
+      <c r="A65" s="512"/>
       <c r="B65" s="46" t="s">
         <v>56</v>
       </c>
@@ -34610,8 +34610,8 @@
       </c>
       <c r="AF65" s="373"/>
       <c r="AG65" s="37"/>
-      <c r="AH65" s="518"/>
-      <c r="AI65" s="518"/>
+      <c r="AH65" s="509"/>
+      <c r="AI65" s="509"/>
       <c r="AJ65" s="37"/>
       <c r="AM65" s="144"/>
       <c r="AN65" s="54" t="e">
@@ -34626,7 +34626,7 @@
       </c>
     </row>
     <row r="66" spans="1:43" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A66" s="529"/>
+      <c r="A66" s="512"/>
       <c r="B66" s="46" t="s">
         <v>57</v>
       </c>
@@ -34692,8 +34692,8 @@
       </c>
       <c r="AF66" s="373"/>
       <c r="AG66" s="37"/>
-      <c r="AH66" s="518"/>
-      <c r="AI66" s="518"/>
+      <c r="AH66" s="509"/>
+      <c r="AI66" s="509"/>
       <c r="AJ66" s="37"/>
       <c r="AM66" s="144"/>
       <c r="AN66" s="54" t="e">
@@ -34784,11 +34784,11 @@
       </c>
       <c r="AF67" s="373"/>
       <c r="AG67" s="37"/>
-      <c r="AH67" s="527">
+      <c r="AH67" s="510">
         <f>SUM(K67:K68)</f>
         <v>4</v>
       </c>
-      <c r="AI67" s="527">
+      <c r="AI67" s="510">
         <f>SUM(P67:P68)</f>
         <v>2.99</v>
       </c>
@@ -34888,8 +34888,8 @@
       </c>
       <c r="AF68" s="373"/>
       <c r="AG68" s="37"/>
-      <c r="AH68" s="528"/>
-      <c r="AI68" s="528"/>
+      <c r="AH68" s="511"/>
+      <c r="AI68" s="511"/>
       <c r="AJ68" s="37"/>
       <c r="AM68" s="144" t="s">
         <v>78</v>
@@ -35138,15 +35138,15 @@
       <c r="AE72" s="69"/>
       <c r="AF72" s="105"/>
       <c r="AG72" s="37"/>
-      <c r="AH72" s="517">
+      <c r="AH72" s="508">
         <f>SUM(K72:K85)</f>
         <v>16186.000000000002</v>
       </c>
-      <c r="AI72" s="517">
+      <c r="AI72" s="508">
         <f>SUM(P72:P85)</f>
         <v>11111.429999999998</v>
       </c>
-      <c r="AJ72" s="517">
+      <c r="AJ72" s="508">
         <f>SUM(N72:N85)</f>
         <v>9722.4999999999982</v>
       </c>
@@ -35234,9 +35234,9 @@
       </c>
       <c r="AF73" s="105"/>
       <c r="AG73" s="37"/>
-      <c r="AH73" s="518"/>
-      <c r="AI73" s="518"/>
-      <c r="AJ73" s="518"/>
+      <c r="AH73" s="509"/>
+      <c r="AI73" s="509"/>
+      <c r="AJ73" s="509"/>
       <c r="AM73" s="79" t="s">
         <v>136</v>
       </c>
@@ -35292,9 +35292,9 @@
       <c r="AE74" s="65"/>
       <c r="AF74" s="105"/>
       <c r="AG74" s="37"/>
-      <c r="AH74" s="518"/>
-      <c r="AI74" s="518"/>
-      <c r="AJ74" s="518"/>
+      <c r="AH74" s="509"/>
+      <c r="AI74" s="509"/>
+      <c r="AJ74" s="509"/>
       <c r="AM74" s="81"/>
       <c r="AN74" s="65"/>
       <c r="AO74" s="65"/>
@@ -35374,9 +35374,9 @@
       </c>
       <c r="AF75" s="105"/>
       <c r="AG75" s="37"/>
-      <c r="AH75" s="518"/>
-      <c r="AI75" s="518"/>
-      <c r="AJ75" s="518"/>
+      <c r="AH75" s="509"/>
+      <c r="AI75" s="509"/>
+      <c r="AJ75" s="509"/>
       <c r="AM75" s="79" t="s">
         <v>137</v>
       </c>
@@ -35489,9 +35489,9 @@
       </c>
       <c r="AF76" s="373"/>
       <c r="AG76" s="37"/>
-      <c r="AH76" s="518"/>
-      <c r="AI76" s="518"/>
-      <c r="AJ76" s="518"/>
+      <c r="AH76" s="509"/>
+      <c r="AI76" s="509"/>
+      <c r="AJ76" s="509"/>
       <c r="AM76" s="79" t="s">
         <v>110</v>
       </c>
@@ -35604,9 +35604,9 @@
       </c>
       <c r="AF77" s="373"/>
       <c r="AG77" s="37"/>
-      <c r="AH77" s="518"/>
-      <c r="AI77" s="518"/>
-      <c r="AJ77" s="518"/>
+      <c r="AH77" s="509"/>
+      <c r="AI77" s="509"/>
+      <c r="AJ77" s="509"/>
       <c r="AL77" s="116"/>
       <c r="AM77" s="79" t="s">
         <v>109</v>
@@ -35661,9 +35661,9 @@
       <c r="AE78" s="67"/>
       <c r="AF78" s="105"/>
       <c r="AG78" s="37"/>
-      <c r="AH78" s="518"/>
-      <c r="AI78" s="518"/>
-      <c r="AJ78" s="518"/>
+      <c r="AH78" s="509"/>
+      <c r="AI78" s="509"/>
+      <c r="AJ78" s="509"/>
       <c r="AL78" s="116"/>
       <c r="AM78" s="81"/>
       <c r="AN78" s="67"/>
@@ -35752,9 +35752,9 @@
       </c>
       <c r="AF79" s="105"/>
       <c r="AG79" s="37"/>
-      <c r="AH79" s="518"/>
-      <c r="AI79" s="518"/>
-      <c r="AJ79" s="518"/>
+      <c r="AH79" s="509"/>
+      <c r="AI79" s="509"/>
+      <c r="AJ79" s="509"/>
       <c r="AL79" s="116"/>
       <c r="AM79" s="79" t="s">
         <v>138</v>
@@ -35854,9 +35854,9 @@
       </c>
       <c r="AF80" s="105"/>
       <c r="AG80" s="37"/>
-      <c r="AH80" s="518"/>
-      <c r="AI80" s="518"/>
-      <c r="AJ80" s="518"/>
+      <c r="AH80" s="509"/>
+      <c r="AI80" s="509"/>
+      <c r="AJ80" s="509"/>
       <c r="AL80" s="116"/>
       <c r="AM80" s="79" t="s">
         <v>135</v>
@@ -35956,9 +35956,9 @@
       </c>
       <c r="AF81" s="105"/>
       <c r="AG81" s="37"/>
-      <c r="AH81" s="518"/>
-      <c r="AI81" s="518"/>
-      <c r="AJ81" s="518"/>
+      <c r="AH81" s="509"/>
+      <c r="AI81" s="509"/>
+      <c r="AJ81" s="509"/>
       <c r="AK81" s="116"/>
       <c r="AL81" s="116"/>
       <c r="AM81" s="79" t="s">
@@ -36073,9 +36073,9 @@
       </c>
       <c r="AF82" s="373"/>
       <c r="AG82" s="37"/>
-      <c r="AH82" s="518"/>
-      <c r="AI82" s="518"/>
-      <c r="AJ82" s="518"/>
+      <c r="AH82" s="509"/>
+      <c r="AI82" s="509"/>
+      <c r="AJ82" s="509"/>
       <c r="AL82" s="118"/>
       <c r="AM82" s="79" t="s">
         <v>108</v>
@@ -36175,9 +36175,9 @@
       </c>
       <c r="AF83" s="105"/>
       <c r="AG83" s="37"/>
-      <c r="AH83" s="518"/>
-      <c r="AI83" s="518"/>
-      <c r="AJ83" s="518"/>
+      <c r="AH83" s="509"/>
+      <c r="AI83" s="509"/>
+      <c r="AJ83" s="509"/>
       <c r="AM83" s="79" t="s">
         <v>140</v>
       </c>
@@ -36276,9 +36276,9 @@
       </c>
       <c r="AF84" s="105"/>
       <c r="AG84" s="37"/>
-      <c r="AH84" s="518"/>
-      <c r="AI84" s="518"/>
-      <c r="AJ84" s="518"/>
+      <c r="AH84" s="509"/>
+      <c r="AI84" s="509"/>
+      <c r="AJ84" s="509"/>
       <c r="AM84" s="79" t="s">
         <v>105</v>
       </c>
@@ -36339,9 +36339,9 @@
       <c r="AE85" s="65"/>
       <c r="AF85" s="105"/>
       <c r="AG85" s="37"/>
-      <c r="AH85" s="518"/>
-      <c r="AI85" s="518"/>
-      <c r="AJ85" s="518"/>
+      <c r="AH85" s="509"/>
+      <c r="AI85" s="509"/>
+      <c r="AJ85" s="509"/>
       <c r="AK85" s="75"/>
       <c r="AM85" s="63"/>
       <c r="AN85" s="65"/>
@@ -36731,11 +36731,11 @@
       <c r="AG89" s="37"/>
       <c r="AH89" s="37"/>
       <c r="AI89" s="37"/>
-      <c r="AJ89" s="523">
+      <c r="AJ89" s="504">
         <f>AJ87+AK87</f>
         <v>10600.119999999999</v>
       </c>
-      <c r="AK89" s="524"/>
+      <c r="AK89" s="505"/>
       <c r="AM89" s="61"/>
       <c r="AN89" s="60"/>
       <c r="AO89" s="60"/>
@@ -36993,8 +36993,8 @@
         <f>SUM(AE73:AE85)+AE48</f>
         <v>11144.599999999999</v>
       </c>
-      <c r="AP93" s="504"/>
-      <c r="AQ93" s="505"/>
+      <c r="AP93" s="523"/>
+      <c r="AQ93" s="524"/>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.3">
       <c r="L94" s="4" t="s">
@@ -37548,26 +37548,66 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="AJ89:AK89"/>
-    <mergeCell ref="AH72:AH85"/>
-    <mergeCell ref="AI72:AI85"/>
-    <mergeCell ref="AH55:AH56"/>
-    <mergeCell ref="AI55:AI56"/>
-    <mergeCell ref="AJ72:AJ85"/>
-    <mergeCell ref="AH67:AH68"/>
-    <mergeCell ref="AI67:AI68"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="AH58:AH59"/>
-    <mergeCell ref="AI58:AI59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="AH60:AH62"/>
-    <mergeCell ref="AI60:AI62"/>
+    <mergeCell ref="AE52:AE53"/>
+    <mergeCell ref="AP93:AQ93"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AM52:AM53"/>
+    <mergeCell ref="AN52:AN53"/>
+    <mergeCell ref="AO52:AO53"/>
+    <mergeCell ref="AP52:AP53"/>
+    <mergeCell ref="AQ52:AQ53"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="AI20:AI21"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="AI18:AI19"/>
+    <mergeCell ref="AH41:AH50"/>
+    <mergeCell ref="AI41:AI50"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="AH6:AH9"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="AI6:AI9"/>
+    <mergeCell ref="AH14:AH16"/>
+    <mergeCell ref="AI14:AI16"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="Y52:Y53"/>
+    <mergeCell ref="Z52:Z53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="X52:X53"/>
+    <mergeCell ref="AH28:AH30"/>
+    <mergeCell ref="AI28:AI30"/>
+    <mergeCell ref="AJ28:AJ30"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="AH34:AH36"/>
+    <mergeCell ref="AI34:AI36"/>
+    <mergeCell ref="A26:A30"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="K52:K53"/>
     <mergeCell ref="A63:A66"/>
@@ -37584,66 +37624,26 @@
     <mergeCell ref="AD52:AD53"/>
     <mergeCell ref="H52:H53"/>
     <mergeCell ref="I52:I53"/>
-    <mergeCell ref="AH28:AH30"/>
-    <mergeCell ref="AI28:AI30"/>
-    <mergeCell ref="AJ28:AJ30"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="AH34:AH36"/>
-    <mergeCell ref="AI34:AI36"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="Y52:Y53"/>
-    <mergeCell ref="Z52:Z53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="X52:X53"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="AI6:AI9"/>
-    <mergeCell ref="AH14:AH16"/>
-    <mergeCell ref="AI14:AI16"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="AH6:AH9"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AE52:AE53"/>
-    <mergeCell ref="AP93:AQ93"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AM52:AM53"/>
-    <mergeCell ref="AN52:AN53"/>
-    <mergeCell ref="AO52:AO53"/>
-    <mergeCell ref="AP52:AP53"/>
-    <mergeCell ref="AQ52:AQ53"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="AI20:AI21"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="AH41:AH50"/>
-    <mergeCell ref="AI41:AI50"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="AH58:AH59"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="AH60:AH62"/>
+    <mergeCell ref="AI60:AI62"/>
+    <mergeCell ref="AJ89:AK89"/>
+    <mergeCell ref="AH72:AH85"/>
+    <mergeCell ref="AI72:AI85"/>
+    <mergeCell ref="AH55:AH56"/>
+    <mergeCell ref="AI55:AI56"/>
+    <mergeCell ref="AJ72:AJ85"/>
+    <mergeCell ref="AH67:AH68"/>
+    <mergeCell ref="AI67:AI68"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
   </mergeCells>
   <pageMargins left="0.15" right="0.1" top="0.2" bottom="0.1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
@@ -39680,125 +39680,125 @@
       <c r="AR1" s="51"/>
     </row>
     <row r="2" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="507" t="s">
+      <c r="A2" s="526" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="507" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="538" t="s">
+      <c r="B2" s="526" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="549" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="539"/>
-      <c r="E2" s="539"/>
-      <c r="F2" s="540"/>
-      <c r="G2" s="538" t="s">
+      <c r="D2" s="550"/>
+      <c r="E2" s="550"/>
+      <c r="F2" s="551"/>
+      <c r="G2" s="549" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="539"/>
-      <c r="I2" s="539"/>
-      <c r="J2" s="539"/>
-      <c r="K2" s="540"/>
-      <c r="L2" s="538" t="s">
+      <c r="H2" s="550"/>
+      <c r="I2" s="550"/>
+      <c r="J2" s="550"/>
+      <c r="K2" s="551"/>
+      <c r="L2" s="549" t="s">
         <v>177</v>
       </c>
-      <c r="M2" s="539"/>
-      <c r="N2" s="539"/>
-      <c r="O2" s="540"/>
-      <c r="P2" s="538" t="s">
+      <c r="M2" s="550"/>
+      <c r="N2" s="550"/>
+      <c r="O2" s="551"/>
+      <c r="P2" s="549" t="s">
         <v>178</v>
       </c>
-      <c r="Q2" s="539"/>
-      <c r="R2" s="539"/>
-      <c r="S2" s="540"/>
-      <c r="T2" s="538" t="s">
+      <c r="Q2" s="550"/>
+      <c r="R2" s="550"/>
+      <c r="S2" s="551"/>
+      <c r="T2" s="549" t="s">
         <v>177</v>
       </c>
-      <c r="U2" s="539"/>
-      <c r="V2" s="539"/>
-      <c r="W2" s="540"/>
-      <c r="X2" s="479" t="s">
+      <c r="U2" s="550"/>
+      <c r="V2" s="550"/>
+      <c r="W2" s="551"/>
+      <c r="X2" s="472" t="s">
         <v>167</v>
       </c>
-      <c r="Y2" s="480"/>
-      <c r="Z2" s="480"/>
-      <c r="AA2" s="480"/>
-      <c r="AB2" s="481"/>
-      <c r="AC2" s="513" t="s">
+      <c r="Y2" s="473"/>
+      <c r="Z2" s="473"/>
+      <c r="AA2" s="473"/>
+      <c r="AB2" s="474"/>
+      <c r="AC2" s="520" t="s">
         <v>133</v>
       </c>
-      <c r="AD2" s="513"/>
-      <c r="AE2" s="513"/>
-      <c r="AF2" s="513"/>
-      <c r="AG2" s="513"/>
-      <c r="AI2" s="508" t="s">
+      <c r="AD2" s="520"/>
+      <c r="AE2" s="520"/>
+      <c r="AF2" s="520"/>
+      <c r="AG2" s="520"/>
+      <c r="AI2" s="527" t="s">
         <v>113</v>
       </c>
-      <c r="AJ2" s="509"/>
+      <c r="AJ2" s="528"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
-      <c r="AN2" s="479" t="s">
+      <c r="AN2" s="472" t="s">
         <v>146</v>
       </c>
-      <c r="AO2" s="480"/>
-      <c r="AP2" s="480"/>
-      <c r="AQ2" s="480"/>
-      <c r="AR2" s="481"/>
+      <c r="AO2" s="473"/>
+      <c r="AP2" s="473"/>
+      <c r="AQ2" s="473"/>
+      <c r="AR2" s="474"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A3" s="507"/>
-      <c r="B3" s="507"/>
-      <c r="C3" s="512" t="s">
+      <c r="A3" s="526"/>
+      <c r="B3" s="526"/>
+      <c r="C3" s="522" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="512"/>
-      <c r="E3" s="512"/>
-      <c r="F3" s="512"/>
-      <c r="G3" s="533" t="s">
+      <c r="D3" s="522"/>
+      <c r="E3" s="522"/>
+      <c r="F3" s="522"/>
+      <c r="G3" s="541" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="535" t="s">
+      <c r="H3" s="543" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="536"/>
-      <c r="J3" s="536"/>
-      <c r="K3" s="537"/>
-      <c r="L3" s="535" t="s">
+      <c r="I3" s="544"/>
+      <c r="J3" s="544"/>
+      <c r="K3" s="545"/>
+      <c r="L3" s="543" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="536"/>
-      <c r="N3" s="536"/>
-      <c r="O3" s="537"/>
-      <c r="P3" s="535" t="s">
+      <c r="M3" s="544"/>
+      <c r="N3" s="544"/>
+      <c r="O3" s="545"/>
+      <c r="P3" s="543" t="s">
         <v>86</v>
       </c>
-      <c r="Q3" s="536"/>
-      <c r="R3" s="536"/>
-      <c r="S3" s="537"/>
-      <c r="T3" s="535" t="s">
+      <c r="Q3" s="544"/>
+      <c r="R3" s="544"/>
+      <c r="S3" s="545"/>
+      <c r="T3" s="543" t="s">
         <v>86</v>
       </c>
-      <c r="U3" s="536"/>
-      <c r="V3" s="536"/>
-      <c r="W3" s="537"/>
-      <c r="X3" s="482" t="s">
+      <c r="U3" s="544"/>
+      <c r="V3" s="544"/>
+      <c r="W3" s="545"/>
+      <c r="X3" s="476" t="s">
         <v>87</v>
       </c>
-      <c r="Y3" s="483" t="s">
+      <c r="Y3" s="477" t="s">
         <v>86</v>
       </c>
-      <c r="Z3" s="483"/>
-      <c r="AA3" s="483"/>
-      <c r="AB3" s="483"/>
-      <c r="AC3" s="511" t="s">
+      <c r="Z3" s="477"/>
+      <c r="AA3" s="477"/>
+      <c r="AB3" s="477"/>
+      <c r="AC3" s="521" t="s">
         <v>87</v>
       </c>
-      <c r="AD3" s="512" t="s">
+      <c r="AD3" s="522" t="s">
         <v>86</v>
       </c>
-      <c r="AE3" s="512"/>
-      <c r="AF3" s="512"/>
-      <c r="AG3" s="512"/>
+      <c r="AE3" s="522"/>
+      <c r="AF3" s="522"/>
+      <c r="AG3" s="522"/>
       <c r="AI3" s="204" t="s">
         <v>114</v>
       </c>
@@ -39814,19 +39814,19 @@
       <c r="AM3" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="AN3" s="482" t="s">
+      <c r="AN3" s="476" t="s">
         <v>87</v>
       </c>
-      <c r="AO3" s="483" t="s">
+      <c r="AO3" s="477" t="s">
         <v>86</v>
       </c>
-      <c r="AP3" s="483"/>
-      <c r="AQ3" s="483"/>
-      <c r="AR3" s="483"/>
+      <c r="AP3" s="477"/>
+      <c r="AQ3" s="477"/>
+      <c r="AR3" s="477"/>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A4" s="507"/>
-      <c r="B4" s="507"/>
+      <c r="A4" s="526"/>
+      <c r="B4" s="526"/>
       <c r="C4" s="205" t="s">
         <v>111</v>
       </c>
@@ -39839,7 +39839,7 @@
       <c r="F4" s="205" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="534"/>
+      <c r="G4" s="542"/>
       <c r="H4" s="205" t="s">
         <v>111</v>
       </c>
@@ -39888,7 +39888,7 @@
       <c r="W4" s="205" t="s">
         <v>75</v>
       </c>
-      <c r="X4" s="482"/>
+      <c r="X4" s="476"/>
       <c r="Y4" s="198" t="s">
         <v>111</v>
       </c>
@@ -39901,7 +39901,7 @@
       <c r="AB4" s="198" t="s">
         <v>75</v>
       </c>
-      <c r="AC4" s="511"/>
+      <c r="AC4" s="521"/>
       <c r="AD4" s="205" t="s">
         <v>111</v>
       </c>
@@ -39918,7 +39918,7 @@
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
-      <c r="AN4" s="482"/>
+      <c r="AN4" s="476"/>
       <c r="AO4" s="198" t="s">
         <v>111</v>
       </c>
@@ -39933,10 +39933,10 @@
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A5" s="506" t="s">
+      <c r="A5" s="525" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="506"/>
+      <c r="B5" s="525"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -40010,11 +40010,11 @@
       <c r="AE6" s="203"/>
       <c r="AF6" s="203"/>
       <c r="AG6" s="203"/>
-      <c r="AI6" s="514">
+      <c r="AI6" s="517">
         <f>SUM(W7:W9)</f>
         <v>14.5</v>
       </c>
-      <c r="AJ6" s="514">
+      <c r="AJ6" s="517">
         <f>SUM(AB7:AB9)</f>
         <v>9.1000000000000014</v>
       </c>
@@ -40115,8 +40115,8 @@
         <v>1.31</v>
       </c>
       <c r="AH7" s="37"/>
-      <c r="AI7" s="515"/>
-      <c r="AJ7" s="515"/>
+      <c r="AI7" s="518"/>
+      <c r="AJ7" s="518"/>
       <c r="AK7" s="37"/>
       <c r="AM7" s="72">
         <f>T7-Y7</f>
@@ -40196,8 +40196,8 @@
         <v>0</v>
       </c>
       <c r="AH8" s="37"/>
-      <c r="AI8" s="515"/>
-      <c r="AJ8" s="515"/>
+      <c r="AI8" s="518"/>
+      <c r="AJ8" s="518"/>
       <c r="AK8" s="37"/>
       <c r="AN8" s="54" t="s">
         <v>78</v>
@@ -40304,8 +40304,8 @@
         <v>45.41</v>
       </c>
       <c r="AH9" s="37"/>
-      <c r="AI9" s="515"/>
-      <c r="AJ9" s="515"/>
+      <c r="AI9" s="518"/>
+      <c r="AJ9" s="518"/>
       <c r="AK9" s="37"/>
       <c r="AM9" s="72">
         <f>T9-Y9</f>
@@ -40814,11 +40814,11 @@
         <v>0.97</v>
       </c>
       <c r="AH14" s="37"/>
-      <c r="AI14" s="514">
+      <c r="AI14" s="517">
         <f>SUM(W14:W16)</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="AJ14" s="514">
+      <c r="AJ14" s="517">
         <f>SUM(AB14:AB16)</f>
         <v>0.25</v>
       </c>
@@ -40932,8 +40932,8 @@
         <v>1</v>
       </c>
       <c r="AH15" s="37"/>
-      <c r="AI15" s="515"/>
-      <c r="AJ15" s="515"/>
+      <c r="AI15" s="518"/>
+      <c r="AJ15" s="518"/>
       <c r="AK15" s="37"/>
       <c r="AM15" s="72">
         <f t="shared" si="11"/>
@@ -41044,8 +41044,8 @@
         <v>0.46</v>
       </c>
       <c r="AH16" s="37"/>
-      <c r="AI16" s="515"/>
-      <c r="AJ16" s="515"/>
+      <c r="AI16" s="518"/>
+      <c r="AJ16" s="518"/>
       <c r="AK16" s="37"/>
       <c r="AM16" s="72">
         <f t="shared" si="11"/>
@@ -41274,11 +41274,11 @@
         <v>1.44</v>
       </c>
       <c r="AH18" s="37"/>
-      <c r="AI18" s="514">
+      <c r="AI18" s="517">
         <f>SUM(W18:W19)</f>
         <v>4.7</v>
       </c>
-      <c r="AJ18" s="514">
+      <c r="AJ18" s="517">
         <f>SUM(AB18:AB19)</f>
         <v>2.31</v>
       </c>
@@ -41392,8 +41392,8 @@
         <v>10.72</v>
       </c>
       <c r="AH19" s="37"/>
-      <c r="AI19" s="514"/>
-      <c r="AJ19" s="515"/>
+      <c r="AI19" s="517"/>
+      <c r="AJ19" s="518"/>
       <c r="AK19" s="37"/>
       <c r="AM19" s="72">
         <f t="shared" si="11"/>
@@ -41504,11 +41504,11 @@
         <v>19.93</v>
       </c>
       <c r="AH20" s="37"/>
-      <c r="AI20" s="514">
+      <c r="AI20" s="517">
         <f>SUM(W20:W21)</f>
         <v>31</v>
       </c>
-      <c r="AJ20" s="514">
+      <c r="AJ20" s="517">
         <f>SUM(AB20:AB21)</f>
         <v>17.2</v>
       </c>
@@ -41622,8 +41622,8 @@
         <v>79.38</v>
       </c>
       <c r="AH21" s="37"/>
-      <c r="AI21" s="515"/>
-      <c r="AJ21" s="515"/>
+      <c r="AI21" s="518"/>
+      <c r="AJ21" s="518"/>
       <c r="AK21" s="37"/>
       <c r="AM21" s="72">
         <f t="shared" si="11"/>
@@ -42116,7 +42116,7 @@
       </c>
     </row>
     <row r="26" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="516">
+      <c r="A26" s="519">
         <v>3231201</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -42170,7 +42170,7 @@
       <c r="AR26" s="65"/>
     </row>
     <row r="27" spans="1:44" s="9" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A27" s="516"/>
+      <c r="A27" s="519"/>
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -42229,7 +42229,7 @@
       <c r="AR27" s="65"/>
     </row>
     <row r="28" spans="1:44" s="9" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="516"/>
+      <c r="A28" s="519"/>
       <c r="B28" s="46" t="s">
         <v>24</v>
       </c>
@@ -42327,15 +42327,15 @@
         <v>327.02999999999997</v>
       </c>
       <c r="AH28" s="37"/>
-      <c r="AI28" s="517">
+      <c r="AI28" s="508">
         <f>SUM(W28:W30)</f>
         <v>848.67000000000007</v>
       </c>
-      <c r="AJ28" s="517">
+      <c r="AJ28" s="508">
         <f>SUM(AB28:AB30)</f>
         <v>253.55</v>
       </c>
-      <c r="AK28" s="523">
+      <c r="AK28" s="504">
         <f>SUM(Z28:Z30)</f>
         <v>219.57</v>
       </c>
@@ -42361,7 +42361,7 @@
       </c>
     </row>
     <row r="29" spans="1:44" s="9" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="516"/>
+      <c r="A29" s="519"/>
       <c r="B29" s="46" t="s">
         <v>25</v>
       </c>
@@ -42459,9 +42459,9 @@
         <v>1560.1799999999998</v>
       </c>
       <c r="AH29" s="37"/>
-      <c r="AI29" s="518"/>
-      <c r="AJ29" s="518"/>
-      <c r="AK29" s="524"/>
+      <c r="AI29" s="509"/>
+      <c r="AJ29" s="509"/>
+      <c r="AK29" s="505"/>
       <c r="AM29" s="72">
         <f>T29-Y29</f>
         <v>38.699999999999996</v>
@@ -42484,7 +42484,7 @@
       </c>
     </row>
     <row r="30" spans="1:44" s="9" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="516"/>
+      <c r="A30" s="519"/>
       <c r="B30" s="46" t="s">
         <v>26</v>
       </c>
@@ -42582,9 +42582,9 @@
         <v>592.67000000000007</v>
       </c>
       <c r="AH30" s="37"/>
-      <c r="AI30" s="518"/>
-      <c r="AJ30" s="518"/>
-      <c r="AK30" s="524"/>
+      <c r="AI30" s="509"/>
+      <c r="AJ30" s="509"/>
+      <c r="AK30" s="505"/>
       <c r="AM30" s="72">
         <f>T30-Y30</f>
         <v>11.719999999999999</v>
@@ -42971,7 +42971,7 @@
       </c>
     </row>
     <row r="34" spans="1:44" s="9" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A34" s="519">
+      <c r="A34" s="514">
         <v>3111332</v>
       </c>
       <c r="B34" s="46" t="s">
@@ -43061,11 +43061,11 @@
         <v>14.93</v>
       </c>
       <c r="AH34" s="37"/>
-      <c r="AI34" s="517">
+      <c r="AI34" s="508">
         <f>SUM(W34:W36)</f>
         <v>7</v>
       </c>
-      <c r="AJ34" s="517">
+      <c r="AJ34" s="508">
         <f>SUM(AB34:AB36)</f>
         <v>2.2000000000000002</v>
       </c>
@@ -43089,7 +43089,7 @@
       </c>
     </row>
     <row r="35" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="520"/>
+      <c r="A35" s="515"/>
       <c r="B35" s="46" t="s">
         <v>30</v>
       </c>
@@ -43175,8 +43175,8 @@
         <v>1.29</v>
       </c>
       <c r="AH35" s="37"/>
-      <c r="AI35" s="518"/>
-      <c r="AJ35" s="518"/>
+      <c r="AI35" s="509"/>
+      <c r="AJ35" s="509"/>
       <c r="AK35" s="37"/>
       <c r="AM35" s="72">
         <f t="shared" si="26"/>
@@ -43197,7 +43197,7 @@
       </c>
     </row>
     <row r="36" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="521"/>
+      <c r="A36" s="516"/>
       <c r="B36" s="46" t="s">
         <v>31</v>
       </c>
@@ -43283,8 +43283,8 @@
         <v>1.3</v>
       </c>
       <c r="AH36" s="37"/>
-      <c r="AI36" s="518"/>
-      <c r="AJ36" s="518"/>
+      <c r="AI36" s="509"/>
+      <c r="AJ36" s="509"/>
       <c r="AK36" s="37"/>
       <c r="AM36" s="72">
         <f t="shared" si="26"/>
@@ -43795,11 +43795,11 @@
         <v>65.02</v>
       </c>
       <c r="AH41" s="37"/>
-      <c r="AI41" s="517">
+      <c r="AI41" s="508">
         <f>SUM(W41:W50)</f>
         <v>91</v>
       </c>
-      <c r="AJ41" s="517">
+      <c r="AJ41" s="508">
         <f>SUM(AB41:AB50)</f>
         <v>40.11</v>
       </c>
@@ -43911,8 +43911,8 @@
         <v>3.2</v>
       </c>
       <c r="AH42" s="37"/>
-      <c r="AI42" s="518"/>
-      <c r="AJ42" s="518"/>
+      <c r="AI42" s="509"/>
+      <c r="AJ42" s="509"/>
       <c r="AK42" s="37"/>
       <c r="AM42" s="72">
         <f t="shared" si="37"/>
@@ -44023,8 +44023,8 @@
         <v>7.63</v>
       </c>
       <c r="AH43" s="37"/>
-      <c r="AI43" s="518"/>
-      <c r="AJ43" s="518"/>
+      <c r="AI43" s="509"/>
+      <c r="AJ43" s="509"/>
       <c r="AK43" s="37"/>
       <c r="AM43" s="72">
         <f t="shared" si="37"/>
@@ -44135,8 +44135,8 @@
         <v>1.69</v>
       </c>
       <c r="AH44" s="37"/>
-      <c r="AI44" s="518"/>
-      <c r="AJ44" s="518"/>
+      <c r="AI44" s="509"/>
+      <c r="AJ44" s="509"/>
       <c r="AK44" s="37"/>
       <c r="AM44" s="72">
         <f t="shared" si="37"/>
@@ -44245,8 +44245,8 @@
         <v>19.98</v>
       </c>
       <c r="AH45" s="37"/>
-      <c r="AI45" s="518"/>
-      <c r="AJ45" s="518"/>
+      <c r="AI45" s="509"/>
+      <c r="AJ45" s="509"/>
       <c r="AK45" s="37"/>
       <c r="AM45" s="72">
         <f t="shared" si="37"/>
@@ -44355,8 +44355,8 @@
         <v>14.53</v>
       </c>
       <c r="AH46" s="37"/>
-      <c r="AI46" s="518"/>
-      <c r="AJ46" s="518"/>
+      <c r="AI46" s="509"/>
+      <c r="AJ46" s="509"/>
       <c r="AK46" s="37"/>
       <c r="AM46" s="72">
         <f t="shared" si="37"/>
@@ -44467,8 +44467,8 @@
         <v>1.9500000000000002</v>
       </c>
       <c r="AH47" s="37"/>
-      <c r="AI47" s="518"/>
-      <c r="AJ47" s="518"/>
+      <c r="AI47" s="509"/>
+      <c r="AJ47" s="509"/>
       <c r="AK47" s="37"/>
       <c r="AM47" s="72">
         <f t="shared" si="37"/>
@@ -44589,8 +44589,8 @@
         <v>128.19999999999999</v>
       </c>
       <c r="AH48" s="37"/>
-      <c r="AI48" s="518"/>
-      <c r="AJ48" s="518"/>
+      <c r="AI48" s="509"/>
+      <c r="AJ48" s="509"/>
       <c r="AK48" s="71">
         <f>Z48</f>
         <v>29.46</v>
@@ -44708,8 +44708,8 @@
         <v>2.3899999999999997</v>
       </c>
       <c r="AH49" s="37"/>
-      <c r="AI49" s="518"/>
-      <c r="AJ49" s="518"/>
+      <c r="AI49" s="509"/>
+      <c r="AJ49" s="509"/>
       <c r="AK49" s="37"/>
       <c r="AM49" s="72">
         <f t="shared" si="37"/>
@@ -44818,8 +44818,8 @@
         <v>7.48</v>
       </c>
       <c r="AH50" s="37"/>
-      <c r="AI50" s="518"/>
-      <c r="AJ50" s="518"/>
+      <c r="AI50" s="509"/>
+      <c r="AJ50" s="509"/>
       <c r="AK50" s="37"/>
       <c r="AM50" s="72">
         <f t="shared" si="37"/>
@@ -45001,92 +45001,92 @@
     <row r="52" spans="1:44" s="106" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="104"/>
       <c r="B52" s="104"/>
-      <c r="C52" s="525"/>
-      <c r="D52" s="522"/>
-      <c r="E52" s="525"/>
-      <c r="F52" s="525"/>
-      <c r="G52" s="543"/>
-      <c r="H52" s="541"/>
-      <c r="I52" s="543"/>
-      <c r="J52" s="541"/>
-      <c r="K52" s="543"/>
-      <c r="L52" s="541"/>
-      <c r="M52" s="543"/>
-      <c r="N52" s="541"/>
-      <c r="O52" s="543"/>
-      <c r="P52" s="541"/>
-      <c r="Q52" s="543"/>
-      <c r="R52" s="541"/>
-      <c r="S52" s="543"/>
-      <c r="T52" s="541"/>
-      <c r="U52" s="543"/>
-      <c r="V52" s="541"/>
-      <c r="W52" s="543"/>
-      <c r="X52" s="478"/>
-      <c r="Y52" s="478"/>
-      <c r="Z52" s="478"/>
-      <c r="AA52" s="478"/>
-      <c r="AB52" s="478"/>
-      <c r="AC52" s="522"/>
-      <c r="AD52" s="522"/>
-      <c r="AE52" s="522"/>
-      <c r="AF52" s="522"/>
-      <c r="AG52" s="522"/>
+      <c r="C52" s="506"/>
+      <c r="D52" s="507"/>
+      <c r="E52" s="506"/>
+      <c r="F52" s="506"/>
+      <c r="G52" s="537"/>
+      <c r="H52" s="539"/>
+      <c r="I52" s="537"/>
+      <c r="J52" s="539"/>
+      <c r="K52" s="537"/>
+      <c r="L52" s="539"/>
+      <c r="M52" s="537"/>
+      <c r="N52" s="539"/>
+      <c r="O52" s="537"/>
+      <c r="P52" s="539"/>
+      <c r="Q52" s="537"/>
+      <c r="R52" s="539"/>
+      <c r="S52" s="537"/>
+      <c r="T52" s="539"/>
+      <c r="U52" s="537"/>
+      <c r="V52" s="539"/>
+      <c r="W52" s="537"/>
+      <c r="X52" s="500"/>
+      <c r="Y52" s="500"/>
+      <c r="Z52" s="500"/>
+      <c r="AA52" s="500"/>
+      <c r="AB52" s="500"/>
+      <c r="AC52" s="507"/>
+      <c r="AD52" s="507"/>
+      <c r="AE52" s="507"/>
+      <c r="AF52" s="507"/>
+      <c r="AG52" s="507"/>
       <c r="AH52" s="105"/>
       <c r="AI52" s="105"/>
       <c r="AJ52" s="105"/>
       <c r="AK52" s="105"/>
-      <c r="AN52" s="478"/>
-      <c r="AO52" s="478"/>
-      <c r="AP52" s="478"/>
-      <c r="AQ52" s="478"/>
-      <c r="AR52" s="478"/>
+      <c r="AN52" s="500"/>
+      <c r="AO52" s="500"/>
+      <c r="AP52" s="500"/>
+      <c r="AQ52" s="500"/>
+      <c r="AR52" s="500"/>
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A53" s="102" t="s">
         <v>79</v>
       </c>
       <c r="B53" s="107"/>
-      <c r="C53" s="525"/>
-      <c r="D53" s="522"/>
-      <c r="E53" s="525"/>
-      <c r="F53" s="525"/>
-      <c r="G53" s="544"/>
-      <c r="H53" s="542"/>
-      <c r="I53" s="544"/>
-      <c r="J53" s="542"/>
-      <c r="K53" s="544"/>
-      <c r="L53" s="542"/>
-      <c r="M53" s="544"/>
-      <c r="N53" s="542"/>
-      <c r="O53" s="544"/>
-      <c r="P53" s="542"/>
-      <c r="Q53" s="544"/>
-      <c r="R53" s="542"/>
-      <c r="S53" s="544"/>
-      <c r="T53" s="542"/>
-      <c r="U53" s="544"/>
-      <c r="V53" s="542"/>
-      <c r="W53" s="544"/>
-      <c r="X53" s="478"/>
-      <c r="Y53" s="478"/>
-      <c r="Z53" s="478"/>
-      <c r="AA53" s="478"/>
-      <c r="AB53" s="478"/>
-      <c r="AC53" s="522"/>
-      <c r="AD53" s="522"/>
-      <c r="AE53" s="522"/>
-      <c r="AF53" s="522"/>
-      <c r="AG53" s="522"/>
+      <c r="C53" s="506"/>
+      <c r="D53" s="507"/>
+      <c r="E53" s="506"/>
+      <c r="F53" s="506"/>
+      <c r="G53" s="538"/>
+      <c r="H53" s="540"/>
+      <c r="I53" s="538"/>
+      <c r="J53" s="540"/>
+      <c r="K53" s="538"/>
+      <c r="L53" s="540"/>
+      <c r="M53" s="538"/>
+      <c r="N53" s="540"/>
+      <c r="O53" s="538"/>
+      <c r="P53" s="540"/>
+      <c r="Q53" s="538"/>
+      <c r="R53" s="540"/>
+      <c r="S53" s="538"/>
+      <c r="T53" s="540"/>
+      <c r="U53" s="538"/>
+      <c r="V53" s="540"/>
+      <c r="W53" s="538"/>
+      <c r="X53" s="500"/>
+      <c r="Y53" s="500"/>
+      <c r="Z53" s="500"/>
+      <c r="AA53" s="500"/>
+      <c r="AB53" s="500"/>
+      <c r="AC53" s="507"/>
+      <c r="AD53" s="507"/>
+      <c r="AE53" s="507"/>
+      <c r="AF53" s="507"/>
+      <c r="AG53" s="507"/>
       <c r="AH53" s="37"/>
       <c r="AI53" s="37"/>
       <c r="AJ53" s="37"/>
       <c r="AK53" s="37"/>
-      <c r="AN53" s="478"/>
-      <c r="AO53" s="478"/>
-      <c r="AP53" s="478"/>
-      <c r="AQ53" s="478"/>
-      <c r="AR53" s="478"/>
+      <c r="AN53" s="500"/>
+      <c r="AO53" s="500"/>
+      <c r="AP53" s="500"/>
+      <c r="AQ53" s="500"/>
+      <c r="AR53" s="500"/>
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A54" s="48"/>
@@ -45135,7 +45135,7 @@
       <c r="AR54" s="57"/>
     </row>
     <row r="55" spans="1:44" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="526">
+      <c r="A55" s="513">
         <v>4112101</v>
       </c>
       <c r="B55" s="103" t="s">
@@ -45222,11 +45222,11 @@
         <v>606.9</v>
       </c>
       <c r="AH55" s="37"/>
-      <c r="AI55" s="517">
+      <c r="AI55" s="508">
         <f>SUM(W55:W56)</f>
         <v>95.6</v>
       </c>
-      <c r="AJ55" s="517">
+      <c r="AJ55" s="508">
         <f>SUM(AB55:AB56)</f>
         <v>0</v>
       </c>
@@ -45246,7 +45246,7 @@
       </c>
     </row>
     <row r="56" spans="1:44" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="526"/>
+      <c r="A56" s="513"/>
       <c r="B56" s="46" t="s">
         <v>47</v>
       </c>
@@ -45319,8 +45319,8 @@
         <v>50.22</v>
       </c>
       <c r="AH56" s="37"/>
-      <c r="AI56" s="518"/>
-      <c r="AJ56" s="518"/>
+      <c r="AI56" s="509"/>
+      <c r="AJ56" s="509"/>
       <c r="AK56" s="37"/>
       <c r="AN56" s="196"/>
       <c r="AO56" s="54">
@@ -45432,7 +45432,7 @@
       </c>
     </row>
     <row r="58" spans="1:44" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="529">
+      <c r="A58" s="512">
         <v>4112316</v>
       </c>
       <c r="B58" s="46" t="s">
@@ -45507,11 +45507,11 @@
         <v>8.9499999999999993</v>
       </c>
       <c r="AH58" s="37"/>
-      <c r="AI58" s="517">
+      <c r="AI58" s="508">
         <f>SUM(W58:W59)</f>
         <v>0</v>
       </c>
-      <c r="AJ58" s="517">
+      <c r="AJ58" s="508">
         <f>SUM(AB58:AB59)</f>
         <v>0</v>
       </c>
@@ -45529,7 +45529,7 @@
       </c>
     </row>
     <row r="59" spans="1:44" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="529"/>
+      <c r="A59" s="512"/>
       <c r="B59" s="46" t="s">
         <v>50</v>
       </c>
@@ -45602,8 +45602,8 @@
         <v>0.79</v>
       </c>
       <c r="AH59" s="37"/>
-      <c r="AI59" s="518"/>
-      <c r="AJ59" s="518"/>
+      <c r="AI59" s="509"/>
+      <c r="AJ59" s="509"/>
       <c r="AK59" s="37"/>
       <c r="AN59" s="196"/>
       <c r="AO59" s="54">
@@ -45618,7 +45618,7 @@
       </c>
     </row>
     <row r="60" spans="1:44" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="529">
+      <c r="A60" s="512">
         <v>4112304</v>
       </c>
       <c r="B60" s="46" t="s">
@@ -45693,11 +45693,11 @@
         <v>20.18</v>
       </c>
       <c r="AH60" s="37"/>
-      <c r="AI60" s="517">
+      <c r="AI60" s="508">
         <f>SUM(W60:W62)</f>
         <v>5</v>
       </c>
-      <c r="AJ60" s="517">
+      <c r="AJ60" s="508">
         <f>SUM(AB60:AB62)</f>
         <v>0</v>
       </c>
@@ -45715,7 +45715,7 @@
       </c>
     </row>
     <row r="61" spans="1:44" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A61" s="529"/>
+      <c r="A61" s="512"/>
       <c r="B61" s="46" t="s">
         <v>52</v>
       </c>
@@ -45788,8 +45788,8 @@
         <v>2.13</v>
       </c>
       <c r="AH61" s="37"/>
-      <c r="AI61" s="518"/>
-      <c r="AJ61" s="518"/>
+      <c r="AI61" s="509"/>
+      <c r="AJ61" s="509"/>
       <c r="AK61" s="37"/>
       <c r="AN61" s="196"/>
       <c r="AO61" s="54">
@@ -45804,7 +45804,7 @@
       </c>
     </row>
     <row r="62" spans="1:44" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A62" s="529"/>
+      <c r="A62" s="512"/>
       <c r="B62" s="46" t="s">
         <v>53</v>
       </c>
@@ -45889,8 +45889,8 @@
         <v>9.49</v>
       </c>
       <c r="AH62" s="37"/>
-      <c r="AI62" s="518"/>
-      <c r="AJ62" s="518"/>
+      <c r="AI62" s="509"/>
+      <c r="AJ62" s="509"/>
       <c r="AK62" s="37"/>
       <c r="AN62" s="196" t="s">
         <v>78</v>
@@ -45907,7 +45907,7 @@
       </c>
     </row>
     <row r="63" spans="1:44" ht="67.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="529">
+      <c r="A63" s="512">
         <v>4112202</v>
       </c>
       <c r="B63" s="103" t="s">
@@ -45982,11 +45982,11 @@
         <v>19.47</v>
       </c>
       <c r="AH63" s="37"/>
-      <c r="AI63" s="517">
+      <c r="AI63" s="508">
         <f>SUM(W63:W66)</f>
         <v>0</v>
       </c>
-      <c r="AJ63" s="517">
+      <c r="AJ63" s="508">
         <f>SUM(AB63:AB66)</f>
         <v>0</v>
       </c>
@@ -46004,7 +46004,7 @@
       </c>
     </row>
     <row r="64" spans="1:44" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A64" s="529"/>
+      <c r="A64" s="512"/>
       <c r="B64" s="46" t="s">
         <v>55</v>
       </c>
@@ -46077,8 +46077,8 @@
         <v>9.8800000000000008</v>
       </c>
       <c r="AH64" s="37"/>
-      <c r="AI64" s="518"/>
-      <c r="AJ64" s="518"/>
+      <c r="AI64" s="509"/>
+      <c r="AJ64" s="509"/>
       <c r="AK64" s="37"/>
       <c r="AN64" s="196"/>
       <c r="AO64" s="54">
@@ -46093,7 +46093,7 @@
       </c>
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A65" s="529"/>
+      <c r="A65" s="512"/>
       <c r="B65" s="46" t="s">
         <v>56</v>
       </c>
@@ -46166,8 +46166,8 @@
         <v>0.2</v>
       </c>
       <c r="AH65" s="37"/>
-      <c r="AI65" s="518"/>
-      <c r="AJ65" s="518"/>
+      <c r="AI65" s="509"/>
+      <c r="AJ65" s="509"/>
       <c r="AK65" s="37"/>
       <c r="AN65" s="196"/>
       <c r="AO65" s="54">
@@ -46182,7 +46182,7 @@
       </c>
     </row>
     <row r="66" spans="1:44" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A66" s="529"/>
+      <c r="A66" s="512"/>
       <c r="B66" s="46" t="s">
         <v>57</v>
       </c>
@@ -46255,8 +46255,8 @@
         <v>4.08</v>
       </c>
       <c r="AH66" s="37"/>
-      <c r="AI66" s="518"/>
-      <c r="AJ66" s="518"/>
+      <c r="AI66" s="509"/>
+      <c r="AJ66" s="509"/>
       <c r="AK66" s="37"/>
       <c r="AN66" s="196"/>
       <c r="AO66" s="54">
@@ -46358,11 +46358,11 @@
         <v>45.32</v>
       </c>
       <c r="AH67" s="37"/>
-      <c r="AI67" s="527">
+      <c r="AI67" s="510">
         <f>SUM(W67:W68)</f>
         <v>4</v>
       </c>
-      <c r="AJ67" s="527">
+      <c r="AJ67" s="510">
         <f>SUM(AB67:AB68)</f>
         <v>0</v>
       </c>
@@ -46469,8 +46469,8 @@
         <v>9.73</v>
       </c>
       <c r="AH68" s="37"/>
-      <c r="AI68" s="528"/>
-      <c r="AJ68" s="528"/>
+      <c r="AI68" s="511"/>
+      <c r="AJ68" s="511"/>
       <c r="AK68" s="37"/>
       <c r="AN68" s="196" t="s">
         <v>78</v>
@@ -46734,15 +46734,15 @@
       <c r="AF72" s="2"/>
       <c r="AG72" s="2"/>
       <c r="AH72" s="37"/>
-      <c r="AI72" s="517">
+      <c r="AI72" s="508">
         <f>SUM(W72:W85)</f>
         <v>17093.009999999998</v>
       </c>
-      <c r="AJ72" s="517">
+      <c r="AJ72" s="508">
         <f>SUM(AB72:AB85)</f>
         <v>1752.0599999999997</v>
       </c>
-      <c r="AK72" s="517">
+      <c r="AK72" s="508">
         <f>SUM(Z72:Z85)</f>
         <v>1382.33</v>
       </c>
@@ -46834,9 +46834,9 @@
       <c r="AF73" s="2"/>
       <c r="AG73" s="2"/>
       <c r="AH73" s="37"/>
-      <c r="AI73" s="518"/>
-      <c r="AJ73" s="518"/>
-      <c r="AK73" s="518"/>
+      <c r="AI73" s="509"/>
+      <c r="AJ73" s="509"/>
+      <c r="AK73" s="509"/>
       <c r="AN73" s="79" t="s">
         <v>136</v>
       </c>
@@ -46893,9 +46893,9 @@
       <c r="AF74" s="2"/>
       <c r="AG74" s="2"/>
       <c r="AH74" s="37"/>
-      <c r="AI74" s="518"/>
-      <c r="AJ74" s="518"/>
-      <c r="AK74" s="518"/>
+      <c r="AI74" s="509"/>
+      <c r="AJ74" s="509"/>
+      <c r="AK74" s="509"/>
       <c r="AN74" s="81"/>
       <c r="AO74" s="65"/>
       <c r="AP74" s="65"/>
@@ -46988,9 +46988,9 @@
       <c r="AF75" s="2"/>
       <c r="AG75" s="2"/>
       <c r="AH75" s="37"/>
-      <c r="AI75" s="518"/>
-      <c r="AJ75" s="518"/>
-      <c r="AK75" s="518"/>
+      <c r="AI75" s="509"/>
+      <c r="AJ75" s="509"/>
+      <c r="AK75" s="509"/>
       <c r="AN75" s="79" t="s">
         <v>137</v>
       </c>
@@ -47108,9 +47108,9 @@
         <v>7641.09</v>
       </c>
       <c r="AH76" s="37"/>
-      <c r="AI76" s="518"/>
-      <c r="AJ76" s="518"/>
-      <c r="AK76" s="518"/>
+      <c r="AI76" s="509"/>
+      <c r="AJ76" s="509"/>
+      <c r="AK76" s="509"/>
       <c r="AN76" s="79" t="s">
         <v>110</v>
       </c>
@@ -47226,9 +47226,9 @@
         <v>6047.23</v>
       </c>
       <c r="AH77" s="37"/>
-      <c r="AI77" s="518"/>
-      <c r="AJ77" s="518"/>
-      <c r="AK77" s="518"/>
+      <c r="AI77" s="509"/>
+      <c r="AJ77" s="509"/>
+      <c r="AK77" s="509"/>
       <c r="AM77" s="116"/>
       <c r="AN77" s="79" t="s">
         <v>109</v>
@@ -47289,9 +47289,9 @@
       <c r="AF78" s="2"/>
       <c r="AG78" s="2"/>
       <c r="AH78" s="37"/>
-      <c r="AI78" s="518"/>
-      <c r="AJ78" s="518"/>
-      <c r="AK78" s="518"/>
+      <c r="AI78" s="509"/>
+      <c r="AJ78" s="509"/>
+      <c r="AK78" s="509"/>
       <c r="AM78" s="116"/>
       <c r="AN78" s="81"/>
       <c r="AO78" s="67"/>
@@ -47383,9 +47383,9 @@
       <c r="AF79" s="2"/>
       <c r="AG79" s="2"/>
       <c r="AH79" s="37"/>
-      <c r="AI79" s="518"/>
-      <c r="AJ79" s="518"/>
-      <c r="AK79" s="518"/>
+      <c r="AI79" s="509"/>
+      <c r="AJ79" s="509"/>
+      <c r="AK79" s="509"/>
       <c r="AM79" s="116"/>
       <c r="AN79" s="79" t="s">
         <v>138</v>
@@ -47486,9 +47486,9 @@
       <c r="AF80" s="2"/>
       <c r="AG80" s="2"/>
       <c r="AH80" s="37"/>
-      <c r="AI80" s="518"/>
-      <c r="AJ80" s="518"/>
-      <c r="AK80" s="518"/>
+      <c r="AI80" s="509"/>
+      <c r="AJ80" s="509"/>
+      <c r="AK80" s="509"/>
       <c r="AM80" s="116"/>
       <c r="AN80" s="79" t="s">
         <v>135</v>
@@ -47589,9 +47589,9 @@
       <c r="AF81" s="2"/>
       <c r="AG81" s="2"/>
       <c r="AH81" s="37"/>
-      <c r="AI81" s="518"/>
-      <c r="AJ81" s="518"/>
-      <c r="AK81" s="518"/>
+      <c r="AI81" s="509"/>
+      <c r="AJ81" s="509"/>
+      <c r="AK81" s="509"/>
       <c r="AL81" s="116"/>
       <c r="AM81" s="116"/>
       <c r="AN81" s="79" t="s">
@@ -47709,9 +47709,9 @@
         <v>6214.3499999999995</v>
       </c>
       <c r="AH82" s="37"/>
-      <c r="AI82" s="518"/>
-      <c r="AJ82" s="518"/>
-      <c r="AK82" s="518"/>
+      <c r="AI82" s="509"/>
+      <c r="AJ82" s="509"/>
+      <c r="AK82" s="509"/>
       <c r="AM82" s="118"/>
       <c r="AN82" s="79" t="s">
         <v>108</v>
@@ -47812,9 +47812,9 @@
       <c r="AF83" s="2"/>
       <c r="AG83" s="2"/>
       <c r="AH83" s="37"/>
-      <c r="AI83" s="518"/>
-      <c r="AJ83" s="518"/>
-      <c r="AK83" s="518"/>
+      <c r="AI83" s="509"/>
+      <c r="AJ83" s="509"/>
+      <c r="AK83" s="509"/>
       <c r="AN83" s="79" t="s">
         <v>140</v>
       </c>
@@ -47914,9 +47914,9 @@
       <c r="AF84" s="2"/>
       <c r="AG84" s="2"/>
       <c r="AH84" s="37"/>
-      <c r="AI84" s="518"/>
-      <c r="AJ84" s="518"/>
-      <c r="AK84" s="518"/>
+      <c r="AI84" s="509"/>
+      <c r="AJ84" s="509"/>
+      <c r="AK84" s="509"/>
       <c r="AN84" s="79" t="s">
         <v>105</v>
       </c>
@@ -47973,9 +47973,9 @@
       <c r="AF85" s="2"/>
       <c r="AG85" s="2"/>
       <c r="AH85" s="37"/>
-      <c r="AI85" s="518"/>
-      <c r="AJ85" s="518"/>
-      <c r="AK85" s="518"/>
+      <c r="AI85" s="509"/>
+      <c r="AJ85" s="509"/>
+      <c r="AK85" s="509"/>
       <c r="AL85" s="75"/>
       <c r="AN85" s="63"/>
       <c r="AO85" s="65"/>
@@ -48378,11 +48378,11 @@
       <c r="AH89" s="37"/>
       <c r="AI89" s="37"/>
       <c r="AJ89" s="37"/>
-      <c r="AK89" s="523">
+      <c r="AK89" s="504">
         <f>AK87+AL87</f>
         <v>1893.7399999999998</v>
       </c>
-      <c r="AL89" s="524"/>
+      <c r="AL89" s="505"/>
       <c r="AN89" s="61"/>
       <c r="AO89" s="60"/>
       <c r="AP89" s="60"/>
@@ -48632,8 +48632,8 @@
         <f>SUM(AB73:AB85)+AB48</f>
         <v>1785.2299999999998</v>
       </c>
-      <c r="AQ93" s="504"/>
-      <c r="AR93" s="505"/>
+      <c r="AQ93" s="523"/>
+      <c r="AR93" s="524"/>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.3">
       <c r="C94" s="158">
@@ -49290,38 +49290,54 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="AO3:AR3"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AN2:AR2"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:AB3"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="AK28:AK30"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="AI6:AI9"/>
-    <mergeCell ref="AJ6:AJ9"/>
-    <mergeCell ref="AI14:AI16"/>
-    <mergeCell ref="AJ14:AJ16"/>
-    <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="AI20:AI21"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="AI28:AI30"/>
-    <mergeCell ref="AJ28:AJ30"/>
+    <mergeCell ref="AK72:AK85"/>
+    <mergeCell ref="AK89:AL89"/>
+    <mergeCell ref="AQ93:AR93"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="AI72:AI85"/>
+    <mergeCell ref="AJ72:AJ85"/>
+    <mergeCell ref="AN52:AN53"/>
+    <mergeCell ref="AO52:AO53"/>
+    <mergeCell ref="AP52:AP53"/>
+    <mergeCell ref="AQ52:AQ53"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="AI63:AI66"/>
+    <mergeCell ref="AJ63:AJ66"/>
+    <mergeCell ref="AI67:AI68"/>
+    <mergeCell ref="AJ67:AJ68"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="AJ58:AJ59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="AI60:AI62"/>
+    <mergeCell ref="AJ60:AJ62"/>
+    <mergeCell ref="AR52:AR53"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="AI55:AI56"/>
+    <mergeCell ref="AJ55:AJ56"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="AB52:AB53"/>
+    <mergeCell ref="AC52:AC53"/>
+    <mergeCell ref="AD52:AD53"/>
+    <mergeCell ref="AE52:AE53"/>
+    <mergeCell ref="AF52:AF53"/>
+    <mergeCell ref="AG52:AG53"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="X52:X53"/>
+    <mergeCell ref="Y52:Y53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="U52:U53"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="S52:S53"/>
     <mergeCell ref="H52:H53"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="AI34:AI36"/>
@@ -49338,54 +49354,38 @@
     <mergeCell ref="I52:I53"/>
     <mergeCell ref="J52:J53"/>
     <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="T52:T53"/>
-    <mergeCell ref="U52:U53"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="S52:S53"/>
-    <mergeCell ref="AR52:AR53"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="AI55:AI56"/>
-    <mergeCell ref="AJ55:AJ56"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="AB52:AB53"/>
-    <mergeCell ref="AC52:AC53"/>
-    <mergeCell ref="AD52:AD53"/>
-    <mergeCell ref="AE52:AE53"/>
-    <mergeCell ref="AF52:AF53"/>
-    <mergeCell ref="AG52:AG53"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="X52:X53"/>
-    <mergeCell ref="Y52:Y53"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="AI58:AI59"/>
-    <mergeCell ref="AJ58:AJ59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="AI60:AI62"/>
-    <mergeCell ref="AJ60:AJ62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="AI63:AI66"/>
-    <mergeCell ref="AJ63:AJ66"/>
-    <mergeCell ref="AI67:AI68"/>
-    <mergeCell ref="AJ67:AJ68"/>
-    <mergeCell ref="AK72:AK85"/>
-    <mergeCell ref="AK89:AL89"/>
-    <mergeCell ref="AQ93:AR93"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="AI72:AI85"/>
-    <mergeCell ref="AJ72:AJ85"/>
-    <mergeCell ref="AN52:AN53"/>
-    <mergeCell ref="AO52:AO53"/>
-    <mergeCell ref="AP52:AP53"/>
-    <mergeCell ref="AQ52:AQ53"/>
+    <mergeCell ref="AK28:AK30"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="AI6:AI9"/>
+    <mergeCell ref="AJ6:AJ9"/>
+    <mergeCell ref="AI14:AI16"/>
+    <mergeCell ref="AJ14:AJ16"/>
+    <mergeCell ref="AI18:AI19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="AI20:AI21"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="AI28:AI30"/>
+    <mergeCell ref="AJ28:AJ30"/>
+    <mergeCell ref="AO3:AR3"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AN2:AR2"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="H3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49461,125 +49461,125 @@
       <c r="AP1" s="51"/>
     </row>
     <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="507" t="s">
+      <c r="A2" s="526" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="507" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="513" t="s">
+      <c r="B2" s="526" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="520" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="513"/>
-      <c r="E2" s="513"/>
-      <c r="F2" s="513"/>
-      <c r="G2" s="513" t="s">
+      <c r="D2" s="520"/>
+      <c r="E2" s="520"/>
+      <c r="F2" s="520"/>
+      <c r="G2" s="520" t="s">
         <v>180</v>
       </c>
-      <c r="H2" s="513"/>
-      <c r="I2" s="513"/>
-      <c r="J2" s="513"/>
-      <c r="K2" s="513"/>
-      <c r="L2" s="538" t="s">
+      <c r="H2" s="520"/>
+      <c r="I2" s="520"/>
+      <c r="J2" s="520"/>
+      <c r="K2" s="520"/>
+      <c r="L2" s="549" t="s">
         <v>225</v>
       </c>
-      <c r="M2" s="539"/>
-      <c r="N2" s="539"/>
-      <c r="O2" s="539"/>
-      <c r="P2" s="540"/>
-      <c r="Q2" s="538" t="s">
+      <c r="M2" s="550"/>
+      <c r="N2" s="550"/>
+      <c r="O2" s="550"/>
+      <c r="P2" s="551"/>
+      <c r="Q2" s="549" t="s">
         <v>231</v>
       </c>
-      <c r="R2" s="539"/>
-      <c r="S2" s="539"/>
-      <c r="T2" s="539"/>
-      <c r="U2" s="540"/>
-      <c r="V2" s="530" t="s">
+      <c r="R2" s="550"/>
+      <c r="S2" s="550"/>
+      <c r="T2" s="550"/>
+      <c r="U2" s="551"/>
+      <c r="V2" s="546" t="s">
         <v>232</v>
       </c>
-      <c r="W2" s="531"/>
-      <c r="X2" s="531"/>
-      <c r="Y2" s="531"/>
-      <c r="Z2" s="532"/>
-      <c r="AA2" s="513" t="s">
+      <c r="W2" s="547"/>
+      <c r="X2" s="547"/>
+      <c r="Y2" s="547"/>
+      <c r="Z2" s="548"/>
+      <c r="AA2" s="520" t="s">
         <v>133</v>
       </c>
-      <c r="AB2" s="513"/>
-      <c r="AC2" s="513"/>
-      <c r="AD2" s="513"/>
-      <c r="AE2" s="513"/>
-      <c r="AG2" s="508" t="s">
+      <c r="AB2" s="520"/>
+      <c r="AC2" s="520"/>
+      <c r="AD2" s="520"/>
+      <c r="AE2" s="520"/>
+      <c r="AG2" s="527" t="s">
         <v>113</v>
       </c>
-      <c r="AH2" s="509"/>
+      <c r="AH2" s="528"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
-      <c r="AL2" s="479" t="s">
+      <c r="AL2" s="472" t="s">
         <v>146</v>
       </c>
-      <c r="AM2" s="480"/>
-      <c r="AN2" s="480"/>
-      <c r="AO2" s="480"/>
-      <c r="AP2" s="481"/>
+      <c r="AM2" s="473"/>
+      <c r="AN2" s="473"/>
+      <c r="AO2" s="473"/>
+      <c r="AP2" s="474"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A3" s="507"/>
-      <c r="B3" s="507"/>
-      <c r="C3" s="507" t="s">
+      <c r="A3" s="526"/>
+      <c r="B3" s="526"/>
+      <c r="C3" s="526" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="510" t="s">
+      <c r="D3" s="529" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="510"/>
-      <c r="F3" s="507" t="s">
+      <c r="E3" s="529"/>
+      <c r="F3" s="526" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="511" t="s">
+      <c r="G3" s="521" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="512" t="s">
+      <c r="H3" s="522" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="512"/>
-      <c r="J3" s="512"/>
-      <c r="K3" s="512"/>
-      <c r="L3" s="533" t="s">
+      <c r="I3" s="522"/>
+      <c r="J3" s="522"/>
+      <c r="K3" s="522"/>
+      <c r="L3" s="541" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="535" t="s">
+      <c r="M3" s="543" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="536"/>
-      <c r="O3" s="536"/>
-      <c r="P3" s="537"/>
-      <c r="Q3" s="533" t="s">
+      <c r="N3" s="544"/>
+      <c r="O3" s="544"/>
+      <c r="P3" s="545"/>
+      <c r="Q3" s="541" t="s">
         <v>87</v>
       </c>
-      <c r="R3" s="535" t="s">
+      <c r="R3" s="543" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="536"/>
-      <c r="T3" s="536"/>
-      <c r="U3" s="537"/>
-      <c r="V3" s="482" t="s">
+      <c r="S3" s="544"/>
+      <c r="T3" s="544"/>
+      <c r="U3" s="545"/>
+      <c r="V3" s="476" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="483" t="s">
+      <c r="W3" s="477" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="483"/>
-      <c r="Y3" s="483"/>
-      <c r="Z3" s="483"/>
-      <c r="AA3" s="511" t="s">
+      <c r="X3" s="477"/>
+      <c r="Y3" s="477"/>
+      <c r="Z3" s="477"/>
+      <c r="AA3" s="521" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" s="512" t="s">
+      <c r="AB3" s="522" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" s="512"/>
-      <c r="AD3" s="512"/>
-      <c r="AE3" s="512"/>
+      <c r="AC3" s="522"/>
+      <c r="AD3" s="522"/>
+      <c r="AE3" s="522"/>
       <c r="AG3" s="298" t="s">
         <v>114</v>
       </c>
@@ -49595,28 +49595,28 @@
       <c r="AK3" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="AL3" s="482" t="s">
+      <c r="AL3" s="476" t="s">
         <v>87</v>
       </c>
-      <c r="AM3" s="483" t="s">
+      <c r="AM3" s="477" t="s">
         <v>86</v>
       </c>
-      <c r="AN3" s="483"/>
-      <c r="AO3" s="483"/>
-      <c r="AP3" s="483"/>
+      <c r="AN3" s="477"/>
+      <c r="AO3" s="477"/>
+      <c r="AP3" s="477"/>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A4" s="507"/>
-      <c r="B4" s="507"/>
-      <c r="C4" s="507"/>
+      <c r="A4" s="526"/>
+      <c r="B4" s="526"/>
+      <c r="C4" s="526"/>
       <c r="D4" s="297" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="297" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="507"/>
-      <c r="G4" s="511"/>
+      <c r="F4" s="526"/>
+      <c r="G4" s="521"/>
       <c r="H4" s="294" t="s">
         <v>111</v>
       </c>
@@ -49629,7 +49629,7 @@
       <c r="K4" s="294" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="534"/>
+      <c r="L4" s="542"/>
       <c r="M4" s="410" t="s">
         <v>111</v>
       </c>
@@ -49642,7 +49642,7 @@
       <c r="P4" s="410" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="534"/>
+      <c r="Q4" s="542"/>
       <c r="R4" s="367" t="s">
         <v>111</v>
       </c>
@@ -49655,7 +49655,7 @@
       <c r="U4" s="367" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="482"/>
+      <c r="V4" s="476"/>
       <c r="W4" s="364" t="s">
         <v>111</v>
       </c>
@@ -49668,7 +49668,7 @@
       <c r="Z4" s="364" t="s">
         <v>75</v>
       </c>
-      <c r="AA4" s="511"/>
+      <c r="AA4" s="521"/>
       <c r="AB4" s="294" t="s">
         <v>111</v>
       </c>
@@ -49685,7 +49685,7 @@
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
-      <c r="AL4" s="482"/>
+      <c r="AL4" s="476"/>
       <c r="AM4" s="285" t="s">
         <v>111</v>
       </c>
@@ -49700,10 +49700,10 @@
       </c>
     </row>
     <row r="5" spans="1:42" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="506" t="s">
+      <c r="A5" s="525" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="506"/>
+      <c r="B5" s="525"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="12"/>
@@ -49773,11 +49773,11 @@
       <c r="AC6" s="291"/>
       <c r="AD6" s="291"/>
       <c r="AE6" s="291"/>
-      <c r="AG6" s="514">
+      <c r="AG6" s="517">
         <f>SUM(R7:T9)</f>
         <v>16.25</v>
       </c>
-      <c r="AH6" s="514">
+      <c r="AH6" s="517">
         <f>SUM(Z7:Z9)</f>
         <v>6.9</v>
       </c>
@@ -49875,8 +49875,8 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="AF7" s="37"/>
-      <c r="AG7" s="515"/>
-      <c r="AH7" s="515"/>
+      <c r="AG7" s="518"/>
+      <c r="AH7" s="518"/>
       <c r="AI7" s="37"/>
       <c r="AK7" s="72" t="e">
         <f>#REF!-W7</f>
@@ -49963,8 +49963,8 @@
         <v>0</v>
       </c>
       <c r="AF8" s="37"/>
-      <c r="AG8" s="515"/>
-      <c r="AH8" s="515"/>
+      <c r="AG8" s="518"/>
+      <c r="AH8" s="518"/>
       <c r="AI8" s="37"/>
       <c r="AL8" s="54" t="s">
         <v>78</v>
@@ -50068,8 +50068,8 @@
         <v>43.39</v>
       </c>
       <c r="AF9" s="37"/>
-      <c r="AG9" s="515"/>
-      <c r="AH9" s="515"/>
+      <c r="AG9" s="518"/>
+      <c r="AH9" s="518"/>
       <c r="AI9" s="37"/>
       <c r="AK9" s="72" t="e">
         <f>#REF!-W9</f>
@@ -50564,11 +50564,11 @@
         <v>0.79</v>
       </c>
       <c r="AF14" s="37"/>
-      <c r="AG14" s="514" t="e">
+      <c r="AG14" s="517" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH14" s="514">
+      <c r="AH14" s="517">
         <f>SUM(Z14:Z16)</f>
         <v>0.05</v>
       </c>
@@ -50679,8 +50679,8 @@
         <v>0.97</v>
       </c>
       <c r="AF15" s="37"/>
-      <c r="AG15" s="515"/>
-      <c r="AH15" s="515"/>
+      <c r="AG15" s="518"/>
+      <c r="AH15" s="518"/>
       <c r="AI15" s="37"/>
       <c r="AK15" s="72" t="e">
         <f>#REF!-W15</f>
@@ -50788,8 +50788,8 @@
         <v>0.47</v>
       </c>
       <c r="AF16" s="37"/>
-      <c r="AG16" s="515"/>
-      <c r="AH16" s="515"/>
+      <c r="AG16" s="518"/>
+      <c r="AH16" s="518"/>
       <c r="AI16" s="37"/>
       <c r="AK16" s="72" t="e">
         <f>#REF!-W16</f>
@@ -51012,11 +51012,11 @@
         <v>1.23</v>
       </c>
       <c r="AF18" s="37"/>
-      <c r="AG18" s="514" t="e">
+      <c r="AG18" s="517" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH18" s="514">
+      <c r="AH18" s="517">
         <f>SUM(Z18:Z19)</f>
         <v>1.2200000000000002</v>
       </c>
@@ -51127,8 +51127,8 @@
         <v>9.84</v>
       </c>
       <c r="AF19" s="37"/>
-      <c r="AG19" s="514"/>
-      <c r="AH19" s="515"/>
+      <c r="AG19" s="517"/>
+      <c r="AH19" s="518"/>
       <c r="AI19" s="37"/>
       <c r="AK19" s="72" t="e">
         <f>#REF!-W19</f>
@@ -51236,11 +51236,11 @@
         <v>17.809999999999999</v>
       </c>
       <c r="AF20" s="37"/>
-      <c r="AG20" s="514" t="e">
+      <c r="AG20" s="517" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH20" s="514">
+      <c r="AH20" s="517">
         <f>SUM(Z20:Z21)</f>
         <v>5.03</v>
       </c>
@@ -51351,8 +51351,8 @@
         <v>69.33</v>
       </c>
       <c r="AF21" s="37"/>
-      <c r="AG21" s="515"/>
-      <c r="AH21" s="515"/>
+      <c r="AG21" s="518"/>
+      <c r="AH21" s="518"/>
       <c r="AI21" s="37"/>
       <c r="AK21" s="72" t="e">
         <f>#REF!-W21</f>
@@ -51833,7 +51833,7 @@
       </c>
     </row>
     <row r="26" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="516">
+      <c r="A26" s="519">
         <v>3231201</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -51885,7 +51885,7 @@
       <c r="AP26" s="65"/>
     </row>
     <row r="27" spans="1:42" s="9" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A27" s="516"/>
+      <c r="A27" s="519"/>
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -51947,7 +51947,7 @@
       <c r="AP27" s="65"/>
     </row>
     <row r="28" spans="1:42" s="9" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="516"/>
+      <c r="A28" s="519"/>
       <c r="B28" s="46" t="s">
         <v>24</v>
       </c>
@@ -52032,15 +52032,15 @@
         <v>301.5</v>
       </c>
       <c r="AF28" s="37"/>
-      <c r="AG28" s="517" t="e">
+      <c r="AG28" s="508" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH28" s="517">
+      <c r="AH28" s="508">
         <f>SUM(Z28:Z30)</f>
         <v>0</v>
       </c>
-      <c r="AI28" s="523">
+      <c r="AI28" s="504">
         <f>SUM(X28:X30)</f>
         <v>0</v>
       </c>
@@ -52066,7 +52066,7 @@
       </c>
     </row>
     <row r="29" spans="1:42" s="9" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="516"/>
+      <c r="A29" s="519"/>
       <c r="B29" s="46" t="s">
         <v>25</v>
       </c>
@@ -52151,9 +52151,9 @@
         <v>1346.6299999999999</v>
       </c>
       <c r="AF29" s="37"/>
-      <c r="AG29" s="518"/>
-      <c r="AH29" s="518"/>
-      <c r="AI29" s="524"/>
+      <c r="AG29" s="509"/>
+      <c r="AH29" s="509"/>
+      <c r="AI29" s="505"/>
       <c r="AK29" s="72" t="e">
         <f>#REF!-W29</f>
         <v>#REF!</v>
@@ -52176,7 +52176,7 @@
       </c>
     </row>
     <row r="30" spans="1:42" s="9" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="516"/>
+      <c r="A30" s="519"/>
       <c r="B30" s="46" t="s">
         <v>26</v>
       </c>
@@ -52261,9 +52261,9 @@
         <v>578.20000000000005</v>
       </c>
       <c r="AF30" s="37"/>
-      <c r="AG30" s="518"/>
-      <c r="AH30" s="518"/>
-      <c r="AI30" s="524"/>
+      <c r="AG30" s="509"/>
+      <c r="AH30" s="509"/>
+      <c r="AI30" s="505"/>
       <c r="AK30" s="72" t="e">
         <f>#REF!-W30</f>
         <v>#REF!</v>
@@ -52643,7 +52643,7 @@
       </c>
     </row>
     <row r="34" spans="1:42" s="9" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A34" s="519">
+      <c r="A34" s="514">
         <v>3111332</v>
       </c>
       <c r="B34" s="46" t="s">
@@ -52730,11 +52730,11 @@
         <v>13.49</v>
       </c>
       <c r="AF34" s="37"/>
-      <c r="AG34" s="517" t="e">
+      <c r="AG34" s="508" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH34" s="517">
+      <c r="AH34" s="508">
         <f>SUM(Z34:Z36)</f>
         <v>0.76</v>
       </c>
@@ -52758,7 +52758,7 @@
       </c>
     </row>
     <row r="35" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="520"/>
+      <c r="A35" s="515"/>
       <c r="B35" s="46" t="s">
         <v>30</v>
       </c>
@@ -52843,8 +52843,8 @@
         <v>1.29</v>
       </c>
       <c r="AF35" s="37"/>
-      <c r="AG35" s="518"/>
-      <c r="AH35" s="518"/>
+      <c r="AG35" s="509"/>
+      <c r="AH35" s="509"/>
       <c r="AI35" s="37"/>
       <c r="AK35" s="72" t="e">
         <f>#REF!-W35</f>
@@ -52865,7 +52865,7 @@
       </c>
     </row>
     <row r="36" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="521"/>
+      <c r="A36" s="516"/>
       <c r="B36" s="46" t="s">
         <v>31</v>
       </c>
@@ -52950,8 +52950,8 @@
         <v>1.3</v>
       </c>
       <c r="AF36" s="37"/>
-      <c r="AG36" s="518"/>
-      <c r="AH36" s="518"/>
+      <c r="AG36" s="509"/>
+      <c r="AH36" s="509"/>
       <c r="AI36" s="37"/>
       <c r="AK36" s="72" t="e">
         <f>#REF!-W36</f>
@@ -53448,11 +53448,11 @@
         <v>64.319999999999993</v>
       </c>
       <c r="AF41" s="37"/>
-      <c r="AG41" s="517" t="e">
+      <c r="AG41" s="508" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH41" s="517">
+      <c r="AH41" s="508">
         <f>SUM(Z41:Z50)</f>
         <v>3.07</v>
       </c>
@@ -53563,8 +53563,8 @@
         <v>3.2</v>
       </c>
       <c r="AF42" s="37"/>
-      <c r="AG42" s="518"/>
-      <c r="AH42" s="518"/>
+      <c r="AG42" s="509"/>
+      <c r="AH42" s="509"/>
       <c r="AI42" s="37"/>
       <c r="AK42" s="72" t="e">
         <f>#REF!-W42</f>
@@ -53672,8 +53672,8 @@
         <v>5.3599999999999994</v>
       </c>
       <c r="AF43" s="37"/>
-      <c r="AG43" s="518"/>
-      <c r="AH43" s="518"/>
+      <c r="AG43" s="509"/>
+      <c r="AH43" s="509"/>
       <c r="AI43" s="37"/>
       <c r="AK43" s="72" t="e">
         <f>#REF!-W43</f>
@@ -53781,8 +53781,8 @@
         <v>1.35</v>
       </c>
       <c r="AF44" s="37"/>
-      <c r="AG44" s="518"/>
-      <c r="AH44" s="518"/>
+      <c r="AG44" s="509"/>
+      <c r="AH44" s="509"/>
       <c r="AI44" s="37"/>
       <c r="AK44" s="72" t="e">
         <f>#REF!-W44</f>
@@ -53888,8 +53888,8 @@
         <v>19.98</v>
       </c>
       <c r="AF45" s="37"/>
-      <c r="AG45" s="518"/>
-      <c r="AH45" s="518"/>
+      <c r="AG45" s="509"/>
+      <c r="AH45" s="509"/>
       <c r="AI45" s="37"/>
       <c r="AK45" s="72" t="e">
         <f>#REF!-W45</f>
@@ -53997,8 +53997,8 @@
         <v>14.53</v>
       </c>
       <c r="AF46" s="37"/>
-      <c r="AG46" s="518"/>
-      <c r="AH46" s="518"/>
+      <c r="AG46" s="509"/>
+      <c r="AH46" s="509"/>
       <c r="AI46" s="37"/>
       <c r="AK46" s="72" t="e">
         <f>#REF!-W46</f>
@@ -54106,8 +54106,8 @@
         <v>1.3900000000000001</v>
       </c>
       <c r="AF47" s="37"/>
-      <c r="AG47" s="518"/>
-      <c r="AH47" s="518"/>
+      <c r="AG47" s="509"/>
+      <c r="AH47" s="509"/>
       <c r="AI47" s="37"/>
       <c r="AK47" s="72" t="e">
         <f>#REF!-W47</f>
@@ -54223,8 +54223,8 @@
         <v>95.03</v>
       </c>
       <c r="AF48" s="37"/>
-      <c r="AG48" s="518"/>
-      <c r="AH48" s="518"/>
+      <c r="AG48" s="509"/>
+      <c r="AH48" s="509"/>
       <c r="AI48" s="71">
         <f>X48</f>
         <v>0</v>
@@ -54341,8 +54341,8 @@
         <v>2.3899999999999997</v>
       </c>
       <c r="AF49" s="37"/>
-      <c r="AG49" s="518"/>
-      <c r="AH49" s="518"/>
+      <c r="AG49" s="509"/>
+      <c r="AH49" s="509"/>
       <c r="AI49" s="37"/>
       <c r="AK49" s="72" t="e">
         <f>#REF!-W49</f>
@@ -54450,8 +54450,8 @@
         <v>7.48</v>
       </c>
       <c r="AF50" s="37"/>
-      <c r="AG50" s="518"/>
-      <c r="AH50" s="518"/>
+      <c r="AG50" s="509"/>
+      <c r="AH50" s="509"/>
       <c r="AI50" s="37"/>
       <c r="AK50" s="72" t="e">
         <f>#REF!-W50</f>
@@ -54619,88 +54619,88 @@
     <row r="52" spans="1:42" s="106" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="104"/>
       <c r="B52" s="104"/>
-      <c r="C52" s="525"/>
-      <c r="D52" s="525"/>
-      <c r="E52" s="522"/>
-      <c r="F52" s="525"/>
-      <c r="G52" s="525"/>
-      <c r="H52" s="525"/>
-      <c r="I52" s="522"/>
-      <c r="J52" s="525"/>
-      <c r="K52" s="525"/>
-      <c r="L52" s="543"/>
-      <c r="M52" s="541"/>
-      <c r="N52" s="543"/>
-      <c r="O52" s="541"/>
-      <c r="P52" s="543"/>
-      <c r="Q52" s="543"/>
-      <c r="R52" s="541"/>
-      <c r="S52" s="543"/>
-      <c r="T52" s="541"/>
-      <c r="U52" s="543"/>
-      <c r="V52" s="478"/>
-      <c r="W52" s="478"/>
-      <c r="X52" s="478"/>
-      <c r="Y52" s="478"/>
-      <c r="Z52" s="478"/>
-      <c r="AA52" s="522"/>
-      <c r="AB52" s="522"/>
-      <c r="AC52" s="522"/>
-      <c r="AD52" s="522"/>
-      <c r="AE52" s="522"/>
+      <c r="C52" s="506"/>
+      <c r="D52" s="506"/>
+      <c r="E52" s="507"/>
+      <c r="F52" s="506"/>
+      <c r="G52" s="506"/>
+      <c r="H52" s="506"/>
+      <c r="I52" s="507"/>
+      <c r="J52" s="506"/>
+      <c r="K52" s="506"/>
+      <c r="L52" s="537"/>
+      <c r="M52" s="539"/>
+      <c r="N52" s="537"/>
+      <c r="O52" s="539"/>
+      <c r="P52" s="537"/>
+      <c r="Q52" s="537"/>
+      <c r="R52" s="539"/>
+      <c r="S52" s="537"/>
+      <c r="T52" s="539"/>
+      <c r="U52" s="537"/>
+      <c r="V52" s="500"/>
+      <c r="W52" s="500"/>
+      <c r="X52" s="500"/>
+      <c r="Y52" s="500"/>
+      <c r="Z52" s="500"/>
+      <c r="AA52" s="507"/>
+      <c r="AB52" s="507"/>
+      <c r="AC52" s="507"/>
+      <c r="AD52" s="507"/>
+      <c r="AE52" s="507"/>
       <c r="AF52" s="105"/>
       <c r="AG52" s="105"/>
       <c r="AH52" s="105"/>
       <c r="AI52" s="105"/>
-      <c r="AL52" s="478"/>
-      <c r="AM52" s="478"/>
-      <c r="AN52" s="478"/>
-      <c r="AO52" s="478"/>
-      <c r="AP52" s="478"/>
+      <c r="AL52" s="500"/>
+      <c r="AM52" s="500"/>
+      <c r="AN52" s="500"/>
+      <c r="AO52" s="500"/>
+      <c r="AP52" s="500"/>
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A53" s="102" t="s">
         <v>79</v>
       </c>
       <c r="B53" s="107"/>
-      <c r="C53" s="525"/>
-      <c r="D53" s="525"/>
-      <c r="E53" s="522"/>
-      <c r="F53" s="525"/>
-      <c r="G53" s="525"/>
-      <c r="H53" s="525"/>
-      <c r="I53" s="522"/>
-      <c r="J53" s="525"/>
-      <c r="K53" s="525"/>
-      <c r="L53" s="544"/>
-      <c r="M53" s="542"/>
-      <c r="N53" s="544"/>
-      <c r="O53" s="542"/>
-      <c r="P53" s="544"/>
-      <c r="Q53" s="544"/>
-      <c r="R53" s="542"/>
-      <c r="S53" s="544"/>
-      <c r="T53" s="542"/>
-      <c r="U53" s="544"/>
-      <c r="V53" s="478"/>
-      <c r="W53" s="478"/>
-      <c r="X53" s="478"/>
-      <c r="Y53" s="478"/>
-      <c r="Z53" s="478"/>
-      <c r="AA53" s="522"/>
-      <c r="AB53" s="522"/>
-      <c r="AC53" s="522"/>
-      <c r="AD53" s="522"/>
-      <c r="AE53" s="522"/>
+      <c r="C53" s="506"/>
+      <c r="D53" s="506"/>
+      <c r="E53" s="507"/>
+      <c r="F53" s="506"/>
+      <c r="G53" s="506"/>
+      <c r="H53" s="506"/>
+      <c r="I53" s="507"/>
+      <c r="J53" s="506"/>
+      <c r="K53" s="506"/>
+      <c r="L53" s="538"/>
+      <c r="M53" s="540"/>
+      <c r="N53" s="538"/>
+      <c r="O53" s="540"/>
+      <c r="P53" s="538"/>
+      <c r="Q53" s="538"/>
+      <c r="R53" s="540"/>
+      <c r="S53" s="538"/>
+      <c r="T53" s="540"/>
+      <c r="U53" s="538"/>
+      <c r="V53" s="500"/>
+      <c r="W53" s="500"/>
+      <c r="X53" s="500"/>
+      <c r="Y53" s="500"/>
+      <c r="Z53" s="500"/>
+      <c r="AA53" s="507"/>
+      <c r="AB53" s="507"/>
+      <c r="AC53" s="507"/>
+      <c r="AD53" s="507"/>
+      <c r="AE53" s="507"/>
       <c r="AF53" s="37"/>
       <c r="AG53" s="37"/>
       <c r="AH53" s="37"/>
       <c r="AI53" s="37"/>
-      <c r="AL53" s="478"/>
-      <c r="AM53" s="478"/>
-      <c r="AN53" s="478"/>
-      <c r="AO53" s="478"/>
-      <c r="AP53" s="478"/>
+      <c r="AL53" s="500"/>
+      <c r="AM53" s="500"/>
+      <c r="AN53" s="500"/>
+      <c r="AO53" s="500"/>
+      <c r="AP53" s="500"/>
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A54" s="48"/>
@@ -54747,7 +54747,7 @@
       <c r="AP54" s="57"/>
     </row>
     <row r="55" spans="1:42" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="526">
+      <c r="A55" s="513">
         <v>4112101</v>
       </c>
       <c r="B55" s="103" t="s">
@@ -54821,11 +54821,11 @@
         <v>606.9</v>
       </c>
       <c r="AF55" s="37"/>
-      <c r="AG55" s="517" t="e">
+      <c r="AG55" s="508" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH55" s="517">
+      <c r="AH55" s="508">
         <f>SUM(Z55:Z56)</f>
         <v>0</v>
       </c>
@@ -54845,7 +54845,7 @@
       </c>
     </row>
     <row r="56" spans="1:42" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="526"/>
+      <c r="A56" s="513"/>
       <c r="B56" s="46" t="s">
         <v>47</v>
       </c>
@@ -54921,8 +54921,8 @@
         <v>50.22</v>
       </c>
       <c r="AF56" s="37"/>
-      <c r="AG56" s="518"/>
-      <c r="AH56" s="518"/>
+      <c r="AG56" s="509"/>
+      <c r="AH56" s="509"/>
       <c r="AI56" s="37"/>
       <c r="AL56" s="196"/>
       <c r="AM56" s="54">
@@ -55033,7 +55033,7 @@
       </c>
     </row>
     <row r="58" spans="1:42" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="529">
+      <c r="A58" s="512">
         <v>4112316</v>
       </c>
       <c r="B58" s="46" t="s">
@@ -55107,11 +55107,11 @@
         <v>8.9499999999999993</v>
       </c>
       <c r="AF58" s="37"/>
-      <c r="AG58" s="517" t="e">
+      <c r="AG58" s="508" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH58" s="517">
+      <c r="AH58" s="508">
         <f>SUM(Z58:Z59)</f>
         <v>0</v>
       </c>
@@ -55129,7 +55129,7 @@
       </c>
     </row>
     <row r="59" spans="1:42" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="529"/>
+      <c r="A59" s="512"/>
       <c r="B59" s="46" t="s">
         <v>50</v>
       </c>
@@ -55201,8 +55201,8 @@
         <v>0.79</v>
       </c>
       <c r="AF59" s="37"/>
-      <c r="AG59" s="518"/>
-      <c r="AH59" s="518"/>
+      <c r="AG59" s="509"/>
+      <c r="AH59" s="509"/>
       <c r="AI59" s="37"/>
       <c r="AL59" s="196"/>
       <c r="AM59" s="54">
@@ -55217,7 +55217,7 @@
       </c>
     </row>
     <row r="60" spans="1:42" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="529">
+      <c r="A60" s="512">
         <v>4112304</v>
       </c>
       <c r="B60" s="46" t="s">
@@ -55291,11 +55291,11 @@
         <v>20.18</v>
       </c>
       <c r="AF60" s="37"/>
-      <c r="AG60" s="517" t="e">
+      <c r="AG60" s="508" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH60" s="517">
+      <c r="AH60" s="508">
         <f>SUM(Z60:Z62)</f>
         <v>0</v>
       </c>
@@ -55313,7 +55313,7 @@
       </c>
     </row>
     <row r="61" spans="1:42" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A61" s="529"/>
+      <c r="A61" s="512"/>
       <c r="B61" s="46" t="s">
         <v>52</v>
       </c>
@@ -55385,8 +55385,8 @@
         <v>2.13</v>
       </c>
       <c r="AF61" s="37"/>
-      <c r="AG61" s="518"/>
-      <c r="AH61" s="518"/>
+      <c r="AG61" s="509"/>
+      <c r="AH61" s="509"/>
       <c r="AI61" s="37"/>
       <c r="AL61" s="196"/>
       <c r="AM61" s="54">
@@ -55401,7 +55401,7 @@
       </c>
     </row>
     <row r="62" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A62" s="529"/>
+      <c r="A62" s="512"/>
       <c r="B62" s="46" t="s">
         <v>53</v>
       </c>
@@ -55481,8 +55481,8 @@
         <v>9.49</v>
       </c>
       <c r="AF62" s="37"/>
-      <c r="AG62" s="518"/>
-      <c r="AH62" s="518"/>
+      <c r="AG62" s="509"/>
+      <c r="AH62" s="509"/>
       <c r="AI62" s="37"/>
       <c r="AL62" s="196" t="s">
         <v>78</v>
@@ -55499,7 +55499,7 @@
       </c>
     </row>
     <row r="63" spans="1:42" ht="67.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="529">
+      <c r="A63" s="512">
         <v>4112202</v>
       </c>
       <c r="B63" s="103" t="s">
@@ -55577,11 +55577,11 @@
         <v>19.47</v>
       </c>
       <c r="AF63" s="37"/>
-      <c r="AG63" s="517" t="e">
+      <c r="AG63" s="508" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH63" s="517">
+      <c r="AH63" s="508">
         <f>SUM(Z63:Z66)</f>
         <v>0</v>
       </c>
@@ -55599,7 +55599,7 @@
       </c>
     </row>
     <row r="64" spans="1:42" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A64" s="529"/>
+      <c r="A64" s="512"/>
       <c r="B64" s="46" t="s">
         <v>55</v>
       </c>
@@ -55675,8 +55675,8 @@
         <v>9.8800000000000008</v>
       </c>
       <c r="AF64" s="37"/>
-      <c r="AG64" s="518"/>
-      <c r="AH64" s="518"/>
+      <c r="AG64" s="509"/>
+      <c r="AH64" s="509"/>
       <c r="AI64" s="37"/>
       <c r="AL64" s="196"/>
       <c r="AM64" s="54">
@@ -55691,7 +55691,7 @@
       </c>
     </row>
     <row r="65" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A65" s="529"/>
+      <c r="A65" s="512"/>
       <c r="B65" s="46" t="s">
         <v>56</v>
       </c>
@@ -55767,8 +55767,8 @@
         <v>0.2</v>
       </c>
       <c r="AF65" s="37"/>
-      <c r="AG65" s="518"/>
-      <c r="AH65" s="518"/>
+      <c r="AG65" s="509"/>
+      <c r="AH65" s="509"/>
       <c r="AI65" s="37"/>
       <c r="AL65" s="196"/>
       <c r="AM65" s="54">
@@ -55783,7 +55783,7 @@
       </c>
     </row>
     <row r="66" spans="1:42" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A66" s="529"/>
+      <c r="A66" s="512"/>
       <c r="B66" s="46" t="s">
         <v>57</v>
       </c>
@@ -55859,8 +55859,8 @@
         <v>4.08</v>
       </c>
       <c r="AF66" s="37"/>
-      <c r="AG66" s="518"/>
-      <c r="AH66" s="518"/>
+      <c r="AG66" s="509"/>
+      <c r="AH66" s="509"/>
       <c r="AI66" s="37"/>
       <c r="AL66" s="196"/>
       <c r="AM66" s="54">
@@ -55949,11 +55949,11 @@
         <v>45.32</v>
       </c>
       <c r="AF67" s="37"/>
-      <c r="AG67" s="527" t="e">
+      <c r="AG67" s="510" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH67" s="527">
+      <c r="AH67" s="510">
         <f>SUM(Z67:Z68)</f>
         <v>0</v>
       </c>
@@ -56047,8 +56047,8 @@
         <v>9.73</v>
       </c>
       <c r="AF68" s="37"/>
-      <c r="AG68" s="528"/>
-      <c r="AH68" s="528"/>
+      <c r="AG68" s="511"/>
+      <c r="AH68" s="511"/>
       <c r="AI68" s="37"/>
       <c r="AL68" s="196" t="s">
         <v>78</v>
@@ -56291,15 +56291,15 @@
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
       <c r="AF72" s="37"/>
-      <c r="AG72" s="517" t="e">
+      <c r="AG72" s="508" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH72" s="517">
+      <c r="AH72" s="508">
         <f>SUM(Z72:Z85)</f>
         <v>46.96</v>
       </c>
-      <c r="AI72" s="517">
+      <c r="AI72" s="508">
         <f>SUM(X72:X85)</f>
         <v>41.09</v>
       </c>
@@ -56388,9 +56388,9 @@
       <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
       <c r="AF73" s="37"/>
-      <c r="AG73" s="518"/>
-      <c r="AH73" s="518"/>
-      <c r="AI73" s="518"/>
+      <c r="AG73" s="509"/>
+      <c r="AH73" s="509"/>
+      <c r="AI73" s="509"/>
       <c r="AL73" s="79" t="s">
         <v>136</v>
       </c>
@@ -56449,9 +56449,9 @@
       <c r="AD74" s="2"/>
       <c r="AE74" s="2"/>
       <c r="AF74" s="37"/>
-      <c r="AG74" s="518"/>
-      <c r="AH74" s="518"/>
-      <c r="AI74" s="518"/>
+      <c r="AG74" s="509"/>
+      <c r="AH74" s="509"/>
+      <c r="AI74" s="509"/>
       <c r="AL74" s="81"/>
       <c r="AM74" s="65"/>
       <c r="AN74" s="65"/>
@@ -56537,9 +56537,9 @@
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
       <c r="AF75" s="37"/>
-      <c r="AG75" s="518"/>
-      <c r="AH75" s="518"/>
-      <c r="AI75" s="518"/>
+      <c r="AG75" s="509"/>
+      <c r="AH75" s="509"/>
+      <c r="AI75" s="509"/>
       <c r="AL75" s="79" t="s">
         <v>137</v>
       </c>
@@ -56652,9 +56652,9 @@
         <v>6143.66</v>
       </c>
       <c r="AF76" s="37"/>
-      <c r="AG76" s="518"/>
-      <c r="AH76" s="518"/>
-      <c r="AI76" s="518"/>
+      <c r="AG76" s="509"/>
+      <c r="AH76" s="509"/>
+      <c r="AI76" s="509"/>
       <c r="AL76" s="79" t="s">
         <v>110</v>
       </c>
@@ -56767,9 +56767,9 @@
         <v>6011.48</v>
       </c>
       <c r="AF77" s="37"/>
-      <c r="AG77" s="518"/>
-      <c r="AH77" s="518"/>
-      <c r="AI77" s="518"/>
+      <c r="AG77" s="509"/>
+      <c r="AH77" s="509"/>
+      <c r="AI77" s="509"/>
       <c r="AK77" s="116"/>
       <c r="AL77" s="79" t="s">
         <v>109</v>
@@ -56827,9 +56827,9 @@
       <c r="AD78" s="2"/>
       <c r="AE78" s="2"/>
       <c r="AF78" s="37"/>
-      <c r="AG78" s="518"/>
-      <c r="AH78" s="518"/>
-      <c r="AI78" s="518"/>
+      <c r="AG78" s="509"/>
+      <c r="AH78" s="509"/>
+      <c r="AI78" s="509"/>
       <c r="AK78" s="116"/>
       <c r="AL78" s="81"/>
       <c r="AM78" s="67"/>
@@ -56916,9 +56916,9 @@
       <c r="AD79" s="2"/>
       <c r="AE79" s="2"/>
       <c r="AF79" s="37"/>
-      <c r="AG79" s="518"/>
-      <c r="AH79" s="518"/>
-      <c r="AI79" s="518"/>
+      <c r="AG79" s="509"/>
+      <c r="AH79" s="509"/>
+      <c r="AI79" s="509"/>
       <c r="AK79" s="116"/>
       <c r="AL79" s="79" t="s">
         <v>138</v>
@@ -57016,9 +57016,9 @@
       <c r="AD80" s="2"/>
       <c r="AE80" s="2"/>
       <c r="AF80" s="37"/>
-      <c r="AG80" s="518"/>
-      <c r="AH80" s="518"/>
-      <c r="AI80" s="518"/>
+      <c r="AG80" s="509"/>
+      <c r="AH80" s="509"/>
+      <c r="AI80" s="509"/>
       <c r="AK80" s="116"/>
       <c r="AL80" s="79" t="s">
         <v>135</v>
@@ -57116,9 +57116,9 @@
       <c r="AD81" s="2"/>
       <c r="AE81" s="2"/>
       <c r="AF81" s="37"/>
-      <c r="AG81" s="518"/>
-      <c r="AH81" s="518"/>
-      <c r="AI81" s="518"/>
+      <c r="AG81" s="509"/>
+      <c r="AH81" s="509"/>
+      <c r="AI81" s="509"/>
       <c r="AJ81" s="116"/>
       <c r="AK81" s="116"/>
       <c r="AL81" s="79" t="s">
@@ -57233,9 +57233,9 @@
         <v>6127.0599999999995</v>
       </c>
       <c r="AF82" s="37"/>
-      <c r="AG82" s="518"/>
-      <c r="AH82" s="518"/>
-      <c r="AI82" s="518"/>
+      <c r="AG82" s="509"/>
+      <c r="AH82" s="509"/>
+      <c r="AI82" s="509"/>
       <c r="AK82" s="118"/>
       <c r="AL82" s="79" t="s">
         <v>108</v>
@@ -57333,9 +57333,9 @@
       <c r="AD83" s="2"/>
       <c r="AE83" s="2"/>
       <c r="AF83" s="37"/>
-      <c r="AG83" s="518"/>
-      <c r="AH83" s="518"/>
-      <c r="AI83" s="518"/>
+      <c r="AG83" s="509"/>
+      <c r="AH83" s="509"/>
+      <c r="AI83" s="509"/>
       <c r="AL83" s="79" t="s">
         <v>140</v>
       </c>
@@ -57432,9 +57432,9 @@
       <c r="AD84" s="2"/>
       <c r="AE84" s="2"/>
       <c r="AF84" s="37"/>
-      <c r="AG84" s="518"/>
-      <c r="AH84" s="518"/>
-      <c r="AI84" s="518"/>
+      <c r="AG84" s="509"/>
+      <c r="AH84" s="509"/>
+      <c r="AI84" s="509"/>
       <c r="AL84" s="79" t="s">
         <v>105</v>
       </c>
@@ -57494,9 +57494,9 @@
       <c r="AD85" s="2"/>
       <c r="AE85" s="2"/>
       <c r="AF85" s="37"/>
-      <c r="AG85" s="518"/>
-      <c r="AH85" s="518"/>
-      <c r="AI85" s="518"/>
+      <c r="AG85" s="509"/>
+      <c r="AH85" s="509"/>
+      <c r="AI85" s="509"/>
       <c r="AJ85" s="75"/>
       <c r="AL85" s="63"/>
       <c r="AM85" s="65"/>
@@ -57881,11 +57881,11 @@
       <c r="AF89" s="37"/>
       <c r="AG89" s="37"/>
       <c r="AH89" s="37"/>
-      <c r="AI89" s="523">
+      <c r="AI89" s="504">
         <f>AI87+AJ87</f>
         <v>278.73</v>
       </c>
-      <c r="AJ89" s="524"/>
+      <c r="AJ89" s="505"/>
       <c r="AL89" s="61"/>
       <c r="AM89" s="60"/>
       <c r="AN89" s="60"/>
@@ -58125,8 +58125,8 @@
         <f>SUM(Z73:Z85)+Z48</f>
         <v>46.96</v>
       </c>
-      <c r="AO93" s="504"/>
-      <c r="AP93" s="505"/>
+      <c r="AO93" s="523"/>
+      <c r="AP93" s="524"/>
     </row>
     <row r="94" spans="1:42" x14ac:dyDescent="0.3">
       <c r="G94" s="4" t="s">
@@ -58660,32 +58660,60 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="AI72:AI85"/>
-    <mergeCell ref="AI89:AJ89"/>
-    <mergeCell ref="AO93:AP93"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="AG63:AG66"/>
-    <mergeCell ref="AH63:AH66"/>
-    <mergeCell ref="AG67:AG68"/>
-    <mergeCell ref="AH67:AH68"/>
-    <mergeCell ref="AG72:AG85"/>
-    <mergeCell ref="AH72:AH85"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="AG58:AG59"/>
-    <mergeCell ref="AH58:AH59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="AG60:AG62"/>
-    <mergeCell ref="AH60:AH62"/>
-    <mergeCell ref="AL52:AL53"/>
-    <mergeCell ref="AM52:AM53"/>
-    <mergeCell ref="AN52:AN53"/>
-    <mergeCell ref="AO52:AO53"/>
-    <mergeCell ref="AP52:AP53"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="AM3:AP3"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AI28:AI30"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="AG6:AG9"/>
+    <mergeCell ref="AH6:AH9"/>
+    <mergeCell ref="AG14:AG16"/>
+    <mergeCell ref="AH14:AH16"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="AG28:AG30"/>
+    <mergeCell ref="AH28:AH30"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="AG34:AG36"/>
+    <mergeCell ref="AH34:AH36"/>
+    <mergeCell ref="AG41:AG50"/>
+    <mergeCell ref="AH41:AH50"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="Q52:Q53"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="AG55:AG56"/>
     <mergeCell ref="AH55:AH56"/>
@@ -58702,60 +58730,32 @@
     <mergeCell ref="S52:S53"/>
     <mergeCell ref="T52:T53"/>
     <mergeCell ref="U52:U53"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="AG34:AG36"/>
-    <mergeCell ref="AH34:AH36"/>
-    <mergeCell ref="AG41:AG50"/>
-    <mergeCell ref="AH41:AH50"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="AI28:AI30"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="AG6:AG9"/>
-    <mergeCell ref="AH6:AH9"/>
-    <mergeCell ref="AG14:AG16"/>
-    <mergeCell ref="AH14:AH16"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="AG28:AG30"/>
-    <mergeCell ref="AH28:AH30"/>
-    <mergeCell ref="AM3:AP3"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="AL52:AL53"/>
+    <mergeCell ref="AM52:AM53"/>
+    <mergeCell ref="AN52:AN53"/>
+    <mergeCell ref="AO52:AO53"/>
+    <mergeCell ref="AP52:AP53"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="AG58:AG59"/>
+    <mergeCell ref="AH58:AH59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="AG60:AG62"/>
+    <mergeCell ref="AH60:AH62"/>
+    <mergeCell ref="AI72:AI85"/>
+    <mergeCell ref="AI89:AJ89"/>
+    <mergeCell ref="AO93:AP93"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="AG63:AG66"/>
+    <mergeCell ref="AH63:AH66"/>
+    <mergeCell ref="AG67:AG68"/>
+    <mergeCell ref="AH67:AH68"/>
+    <mergeCell ref="AG72:AG85"/>
+    <mergeCell ref="AH72:AH85"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.02" top="0.2" bottom="0.2" header="0.3" footer="0.1"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
